--- a/resources/excels/KE.xlsx
+++ b/resources/excels/KE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13221514/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1C671C-286F-9340-B2CF-6C72AC2437F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB9FFD6-FAE3-574C-9EF9-C70079205986}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="20500" windowHeight="7160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20500" windowHeight="11580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -3835,9 +3835,6 @@
     <t>Any Last Dialled Numbers</t>
   </si>
   <si>
-    <t>RGVhdGhub3RlQDEyMw</t>
-  </si>
-  <si>
     <t>Voucher Id</t>
   </si>
   <si>
@@ -3854,9 +3851,6 @@
   </si>
   <si>
     <t>HLR Code Detail</t>
-  </si>
-  <si>
-    <t>TWFyY2hAMTIzJA</t>
   </si>
   <si>
     <t>Charges (ZMW)</t>
@@ -3902,13 +3896,19 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>UmFvQDA4OTE</t>
-  </si>
-  <si>
     <t>Beta</t>
   </si>
   <si>
+    <t>QXByQDIwMjE</t>
+  </si>
+  <si>
+    <t>UmFvQDA4OTI</t>
+  </si>
+  <si>
     <t>U29hQDIwMjE</t>
+  </si>
+  <si>
+    <t>QWFpcnRlbEAwOTE5</t>
   </si>
 </sst>
 </file>
@@ -4196,7 +4196,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -4355,7 +4355,6 @@
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
@@ -4900,10 +4899,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4971,13 +4970,13 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>2390495</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1261</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="A2" s="4">
+        <v>2394650</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>124</v>
       </c>
       <c r="D2" s="1">
@@ -5024,13 +5023,13 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>2394650</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1254</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="A3" s="4">
+        <v>2388192</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>123</v>
       </c>
       <c r="D3" s="1">
@@ -5073,13 +5072,13 @@
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="98">
+      <c r="A4" s="4">
         <v>2394650</v>
       </c>
-      <c r="B4" s="98" t="s">
-        <v>1277</v>
-      </c>
-      <c r="C4" s="98" t="s">
+      <c r="B4" s="4" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>131</v>
       </c>
       <c r="D4" s="1">
@@ -5104,13 +5103,13 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>2390495</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1261</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="A5" s="4">
+        <v>2388008</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>175</v>
       </c>
       <c r="D5" s="1">
@@ -5133,22 +5132,31 @@
       <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="98">
+      <c r="A6" s="4">
         <v>13221514</v>
       </c>
-      <c r="B6" s="98" t="s">
+      <c r="B6" s="4" t="s">
         <v>1275</v>
       </c>
-      <c r="C6" s="98" t="s">
-        <v>1276</v>
-      </c>
-      <c r="D6" s="99">
+      <c r="C6" s="4" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D6" s="98">
         <v>767240995</v>
       </c>
     </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" display="July@123$" xr:uid="{2D89B76A-2B24-5543-B716-F2339666933E}"/>
+    <hyperlink ref="B2" r:id="rId2" display="July@123$" xr:uid="{C33C2D5D-1F76-0E4E-AA89-090B23C89740}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -14222,10 +14230,10 @@
         <v>911</v>
       </c>
       <c r="H1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="I1" t="s">
         <v>1257</v>
-      </c>
-      <c r="I1" t="s">
-        <v>1258</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -14241,13 +14249,13 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>1254</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>1255</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>1256</v>
-      </c>
       <c r="I3" s="4" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
   </sheetData>
@@ -14972,7 +14980,7 @@
         <v>151</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>148</v>
@@ -15020,7 +15028,7 @@
         <v>156</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -15139,7 +15147,7 @@
         <v>950</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>951</v>
@@ -15246,7 +15254,7 @@
         <v>975</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>148</v>
@@ -15367,13 +15375,13 @@
         <v>1237</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="D18" s="38" t="s">
         <v>1238</v>
       </c>
       <c r="E18" s="38" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>902</v>
@@ -15391,7 +15399,7 @@
         <v>1247</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="C19" s="38" t="s">
         <v>143</v>
@@ -15412,13 +15420,13 @@
         <v>144</v>
       </c>
       <c r="I19" s="95" t="s">
+        <v>1264</v>
+      </c>
+      <c r="J19" s="95" t="s">
+        <v>1265</v>
+      </c>
+      <c r="K19" s="95" t="s">
         <v>1266</v>
-      </c>
-      <c r="J19" s="95" t="s">
-        <v>1267</v>
-      </c>
-      <c r="K19" s="95" t="s">
-        <v>1268</v>
       </c>
       <c r="L19" s="38" t="s">
         <v>145</v>
@@ -15430,25 +15438,25 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="38" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>148</v>
       </c>
       <c r="D20" s="38" t="s">
+        <v>1269</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>1270</v>
+      </c>
+      <c r="F20" s="38" t="s">
         <v>1271</v>
       </c>
-      <c r="E20" s="38" t="s">
+      <c r="G20" s="38" t="s">
         <v>1272</v>
-      </c>
-      <c r="F20" s="38" t="s">
-        <v>1273</v>
-      </c>
-      <c r="G20" s="38" t="s">
-        <v>1274</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>

--- a/resources/excels/KE.xlsx
+++ b/resources/excels/KE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13221514/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB9FFD6-FAE3-574C-9EF9-C70079205986}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C502036-FE2B-DE41-8BD2-1D84CFE7D012}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="20500" windowHeight="11580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="34080" windowHeight="10080" firstSheet="5" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -29,8 +29,9 @@
     <sheet name="Sheet1" sheetId="26" r:id="rId14"/>
     <sheet name="Authentication Policy" sheetId="17" r:id="rId15"/>
     <sheet name="Action Tagging" sheetId="18" r:id="rId16"/>
-    <sheet name="State Queue Mapping" sheetId="21" r:id="rId17"/>
-    <sheet name="Transfer To Queue" sheetId="24" r:id="rId18"/>
+    <sheet name="QuestionAnswerKey" sheetId="27" r:id="rId17"/>
+    <sheet name="State Queue Mapping" sheetId="21" r:id="rId18"/>
+    <sheet name="Transfer To Queue" sheetId="24" r:id="rId19"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'NFTRTickets-Reg'!$A$1:$BG$45</definedName>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7800" uniqueCount="1278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7854" uniqueCount="1331">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -3853,62 +3854,222 @@
     <t>HLR Code Detail</t>
   </si>
   <si>
-    <t>Charges (ZMW)</t>
-  </si>
-  <si>
-    <t>Bundle Price (ZMW)</t>
-  </si>
-  <si>
-    <t>Loan Amount (ZMW)</t>
+    <t>Action Trail Tab</t>
+  </si>
+  <si>
+    <t>Action Type</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>Agent Id</t>
+  </si>
+  <si>
+    <t>Agent Name</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Beta</t>
+  </si>
+  <si>
+    <t>QXByQDIwMjE</t>
+  </si>
+  <si>
+    <t>UmFvQDA4OTI</t>
+  </si>
+  <si>
+    <t>U29hQDIwMjE</t>
+  </si>
+  <si>
+    <t>QWFpcnRlbEAwOTE5</t>
   </si>
   <si>
     <t>Amount
-(ZMW)</t>
+(ksh)</t>
+  </si>
+  <si>
+    <t>Charges (KSH)</t>
+  </si>
+  <si>
+    <t>Bundle Price (KSH)</t>
+  </si>
+  <si>
+    <t>Loan Amount (KSH)</t>
+  </si>
+  <si>
+    <t>Amount
+(KSH)</t>
   </si>
   <si>
     <t>Service Charge
-(ZMW)</t>
+(KSH)</t>
   </si>
   <si>
     <t>Pre balance
-(ZMW)</t>
+(KSH)</t>
   </si>
   <si>
     <t>Post balance
-(ZMW)</t>
-  </si>
-  <si>
-    <t>Action Trail Tab</t>
-  </si>
-  <si>
-    <t>Action Type</t>
-  </si>
-  <si>
-    <t>Reason</t>
-  </si>
-  <si>
-    <t>Agent Id</t>
-  </si>
-  <si>
-    <t>Agent Name</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Beta</t>
-  </si>
-  <si>
-    <t>QXByQDIwMjE</t>
-  </si>
-  <si>
-    <t>UmFvQDA4OTI</t>
-  </si>
-  <si>
-    <t>U29hQDIwMjE</t>
-  </si>
-  <si>
-    <t>QWFpcnRlbEAwOTE5</t>
+(KSH)</t>
+  </si>
+  <si>
+    <t>Auth Pop up(TRUE/FALSE)</t>
+  </si>
+  <si>
+    <t>reverseTransaction</t>
+  </si>
+  <si>
+    <t>resetPin</t>
+  </si>
+  <si>
+    <t>block</t>
+  </si>
+  <si>
+    <t>unblock</t>
+  </si>
+  <si>
+    <t>sendNotification</t>
+  </si>
+  <si>
+    <t>voucher</t>
+  </si>
+  <si>
+    <t>resetMe2UPassword</t>
+  </si>
+  <si>
+    <t>simUnBarring</t>
+  </si>
+  <si>
+    <t>simBarring</t>
+  </si>
+  <si>
+    <t>changeServiceClass</t>
+  </si>
+  <si>
+    <t>Question Label</t>
+  </si>
+  <si>
+    <t>Question_Key</t>
+  </si>
+  <si>
+    <t>Answer_key</t>
+  </si>
+  <si>
+    <t>Airtel Money Name</t>
+  </si>
+  <si>
+    <t>AM_NAME</t>
+  </si>
+  <si>
+    <t>cs-am-service/v1/profile.result.firstName</t>
+  </si>
+  <si>
+    <t>Available Credit Balance</t>
+  </si>
+  <si>
+    <t>AVAILABLE_CREDIT_BALANCE</t>
+  </si>
+  <si>
+    <t>cs-gsm-service/v1/account/plans.result.mainAccountBalance.balance</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>cs-gsm-service/v1/gsm/kyc.result.dob</t>
+  </si>
+  <si>
+    <t>GSM Name</t>
+  </si>
+  <si>
+    <t>GSM_NAME</t>
+  </si>
+  <si>
+    <t>cs-gsm-service/v1/gsm/kyc.result.name</t>
+  </si>
+  <si>
+    <t>Usage History Last Five Transaction</t>
+  </si>
+  <si>
+    <t>LAST_FIVE_TRANSACTIONS</t>
+  </si>
+  <si>
+    <t>Last Recharge Date</t>
+  </si>
+  <si>
+    <t>LAST_RECHARGE_DATE</t>
+  </si>
+  <si>
+    <t>cs-gsm-service/v1/recharge/history.result[0].dateTime</t>
+  </si>
+  <si>
+    <t>Last Recharge Value</t>
+  </si>
+  <si>
+    <t>LAST_RECHARGE_VALUE</t>
+  </si>
+  <si>
+    <t>cs-gsm-service/v1/recharge/history.result[0].charges</t>
+  </si>
+  <si>
+    <t>Last Transaction Amount</t>
+  </si>
+  <si>
+    <t>LAST_TRANSACTION_AMOUNT</t>
+  </si>
+  <si>
+    <t>cs-am-service/v1/transaction/history.result.data[0].amount</t>
+  </si>
+  <si>
+    <t>Last Transaction Id</t>
+  </si>
+  <si>
+    <t>LAST_TRANSACTION_ID</t>
+  </si>
+  <si>
+    <t>cs-am-service/v1/transaction/history.result.data[0].transactionId</t>
+  </si>
+  <si>
+    <t>Last Transaction Msisdn</t>
+  </si>
+  <si>
+    <t>LAST_TRANSACTION_MSISDN</t>
+  </si>
+  <si>
+    <t>cs-am-service/v1/transaction/history.result.data[0].msisdn</t>
+  </si>
+  <si>
+    <t>National Id</t>
+  </si>
+  <si>
+    <t>NATIONAL_ID</t>
+  </si>
+  <si>
+    <t>cs-gsm-service/v1/gsm/kyc.result.identificationNo</t>
+  </si>
+  <si>
+    <t>Register Id</t>
+  </si>
+  <si>
+    <t>REGISTERED_ID</t>
+  </si>
+  <si>
+    <t>Two Last Dialled Number</t>
+  </si>
+  <si>
+    <t>TWO_LAST_DIALLED_NUMBER</t>
+  </si>
+  <si>
+    <t>AM Wallet Balance</t>
+  </si>
+  <si>
+    <t>WALLET_BALANCE</t>
+  </si>
+  <si>
+    <t>cs-am-service/v1/profile.result.wallet[0].balance</t>
   </si>
 </sst>
 </file>
@@ -4196,7 +4357,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -4356,6 +4517,11 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4581,6 +4747,102 @@
         <a:xfrm>
           <a:off x="0" y="2095500"/>
           <a:ext cx="304800" cy="301625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF08D5FD-92C7-4540-AF22-FEEA19CA4C87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="2070100"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14EBD159-F09F-5A4A-BACB-F932EFB20343}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="2070100"/>
+          <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4901,8 +5163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4974,7 +5236,7 @@
         <v>2394650</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1276</v>
+        <v>1269</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>124</v>
@@ -5027,7 +5289,7 @@
         <v>2388192</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1274</v>
+        <v>1267</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>123</v>
@@ -5067,7 +5329,7 @@
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1">
-        <v>0</v>
+        <v>783425592</v>
       </c>
       <c r="Q3" s="1"/>
     </row>
@@ -5076,7 +5338,7 @@
         <v>2394650</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1276</v>
+        <v>1269</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>131</v>
@@ -5107,7 +5369,7 @@
         <v>2388008</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1277</v>
+        <v>1270</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>175</v>
@@ -5127,7 +5389,7 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1">
-        <v>0</v>
+        <v>783425592</v>
       </c>
       <c r="Q5" s="1"/>
     </row>
@@ -5136,10 +5398,10 @@
         <v>13221514</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1275</v>
+        <v>1268</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1273</v>
+        <v>1266</v>
       </c>
       <c r="D6" s="98">
         <v>767240995</v>
@@ -5162,15 +5424,15 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>110</v>
       </c>
@@ -5183,8 +5445,11 @@
       <c r="D1" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="98" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>125</v>
       </c>
@@ -5197,8 +5462,11 @@
       <c r="D2" s="1">
         <v>735873718</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" s="1">
+        <v>783425592</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>126</v>
       </c>
@@ -5211,8 +5479,11 @@
       <c r="D3" s="1">
         <v>735873718</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" s="1">
+        <v>783425592</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>127</v>
       </c>
@@ -5224,6 +5495,9 @@
       </c>
       <c r="D4" s="1">
         <v>735873718</v>
+      </c>
+      <c r="E4" s="1">
+        <v>783425592</v>
       </c>
     </row>
   </sheetData>
@@ -14194,10 +14468,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14207,56 +14481,250 @@
     <col min="7" max="7" width="14" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>904</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>905</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>908</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>909</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>910</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>911</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>1256</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>1257</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="J1" s="99" t="s">
+        <v>1279</v>
+      </c>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>903</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>906</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>907</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="100" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>1254</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
         <v>1255</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="1" t="s">
         <v>1255</v>
       </c>
+      <c r="J3" s="100" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="100" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="100" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="100" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="100" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="100" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B8" s="100"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="100" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B9" s="100"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="100"/>
+      <c r="J9" s="100" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="100" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B10" s="100"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="100" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="100" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B11" s="100"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="100" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="100" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B12" s="100"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="100" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="100" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B13" s="100"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="100"/>
+      <c r="J13" s="100" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14265,6 +14733,186 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B68203-BE4D-E747-BC71-5AEB341493FD}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="35.1640625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="42.1640625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="54.83203125" style="29" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="39" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="39" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="39" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="39" t="s">
+        <v>994</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="39" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="39" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C6" s="101"/>
+    </row>
+    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="39" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="39" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="39" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="39" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="39" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="39" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="39" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C13" s="101"/>
+    </row>
+    <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="39" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C14" s="101"/>
+    </row>
+    <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="39" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:L24"/>
   <sheetViews>
@@ -14749,7 +15397,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -14860,8 +15508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14921,12 +15569,12 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>867</v>
+        <v>1271</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>142</v>
@@ -14980,7 +15628,7 @@
         <v>151</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1260</v>
+        <v>1272</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>148</v>
@@ -15028,7 +15676,7 @@
         <v>156</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>1261</v>
+        <v>1273</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -15147,7 +15795,7 @@
         <v>950</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1262</v>
+        <v>1274</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>951</v>
@@ -15254,7 +15902,7 @@
         <v>975</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1260</v>
+        <v>1272</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>148</v>
@@ -15399,7 +16047,7 @@
         <v>1247</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>1263</v>
+        <v>1275</v>
       </c>
       <c r="C19" s="38" t="s">
         <v>143</v>
@@ -15420,13 +16068,13 @@
         <v>144</v>
       </c>
       <c r="I19" s="95" t="s">
-        <v>1264</v>
+        <v>1276</v>
       </c>
       <c r="J19" s="95" t="s">
-        <v>1265</v>
+        <v>1277</v>
       </c>
       <c r="K19" s="95" t="s">
-        <v>1266</v>
+        <v>1278</v>
       </c>
       <c r="L19" s="38" t="s">
         <v>145</v>
@@ -15438,25 +16086,25 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="38" t="s">
-        <v>1267</v>
+        <v>1260</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1268</v>
+        <v>1261</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>148</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>1269</v>
+        <v>1262</v>
       </c>
       <c r="E20" s="38" t="s">
-        <v>1270</v>
+        <v>1263</v>
       </c>
       <c r="F20" s="38" t="s">
-        <v>1271</v>
+        <v>1264</v>
       </c>
       <c r="G20" s="38" t="s">
-        <v>1272</v>
+        <v>1265</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>

--- a/resources/excels/KE.xlsx
+++ b/resources/excels/KE.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11012"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13221514/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2394650\IdeaProjects\cs-portal-automation_selenium1\resources\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C502036-FE2B-DE41-8BD2-1D84CFE7D012}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="34080" windowHeight="10080" firstSheet="5" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="34080" windowHeight="10080" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -37,7 +36,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'NFTRTickets-Reg'!$A$1:$BG$45</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'NFTRTickets-Reg1'!$A$1:$BG$86</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7854" uniqueCount="1331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7864" uniqueCount="1339">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -4071,11 +4070,35 @@
   <si>
     <t>cs-am-service/v1/profile.result.wallet[0].balance</t>
   </si>
+  <si>
+    <t>UC-UT Offer</t>
+  </si>
+  <si>
+    <t>Offer ID</t>
+  </si>
+  <si>
+    <t>Offer Name</t>
+  </si>
+  <si>
+    <t>Product ID</t>
+  </si>
+  <si>
+    <t>PAM Service ID</t>
+  </si>
+  <si>
+    <t>Offer Type</t>
+  </si>
+  <si>
+    <t>Offer State</t>
+  </si>
+  <si>
+    <t>No. Of DAs</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -4525,13 +4548,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normal 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Normal 5" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Normal 90 3 2 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Normal 90 3 2 3 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="5"/>
+    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 4" xfId="3"/>
+    <cellStyle name="Normal 5" xfId="4"/>
+    <cellStyle name="Normal 90 3 2 3" xfId="6"/>
+    <cellStyle name="Normal 90 3 2 3 2" xfId="7"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -4687,7 +4710,7 @@
         <xdr:cNvPr id="9217" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001240000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000001240000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4735,7 +4758,7 @@
         <xdr:cNvPr id="3" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4783,7 +4806,7 @@
         <xdr:cNvPr id="4" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF08D5FD-92C7-4540-AF22-FEEA19CA4C87}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EF08D5FD-92C7-4540-AF22-FEEA19CA4C87}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4831,7 +4854,7 @@
         <xdr:cNvPr id="5" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14EBD159-F09F-5A4A-BACB-F932EFB20343}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{14EBD159-F09F-5A4A-BACB-F932EFB20343}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5160,25 +5183,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1"/>
-    <col min="2" max="2" width="19.83203125" customWidth="1"/>
-    <col min="4" max="4" width="17.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="17.375" customWidth="1"/>
+    <col min="2" max="2" width="19.875" customWidth="1"/>
+    <col min="4" max="4" width="17.125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="14.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="8" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5231,7 +5254,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>2394650</v>
       </c>
@@ -5284,7 +5307,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2388192</v>
       </c>
@@ -5333,7 +5356,7 @@
       </c>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2394650</v>
       </c>
@@ -5364,7 +5387,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2388008</v>
       </c>
@@ -5393,7 +5416,7 @@
       </c>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>13221514</v>
       </c>
@@ -5407,15 +5430,15 @@
         <v>767240995</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" display="July@123$" xr:uid="{2D89B76A-2B24-5543-B716-F2339666933E}"/>
-    <hyperlink ref="B2" r:id="rId2" display="July@123$" xr:uid="{C33C2D5D-1F76-0E4E-AA89-090B23C89740}"/>
+    <hyperlink ref="B4" r:id="rId1" display="July@123$"/>
+    <hyperlink ref="B2" r:id="rId2" display="July@123$"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
@@ -5423,16 +5446,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>110</v>
       </c>
@@ -5449,7 +5472,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>125</v>
       </c>
@@ -5466,7 +5489,7 @@
         <v>783425592</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>126</v>
       </c>
@@ -5483,7 +5506,7 @@
         <v>783425592</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>127</v>
       </c>
@@ -5507,7 +5530,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
@@ -5517,14 +5540,14 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.83203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.875" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>122</v>
       </c>
@@ -5535,7 +5558,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>114</v>
       </c>
@@ -5543,7 +5566,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>119</v>
       </c>
@@ -5551,7 +5574,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>118</v>
       </c>
@@ -5559,7 +5582,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>117</v>
       </c>
@@ -5567,7 +5590,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>115</v>
       </c>
@@ -5578,7 +5601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>878</v>
       </c>
@@ -5586,7 +5609,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>196</v>
       </c>
@@ -5594,7 +5617,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>879</v>
       </c>
@@ -5602,7 +5625,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>197</v>
       </c>
@@ -5610,7 +5633,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>198</v>
       </c>
@@ -5618,7 +5641,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>199</v>
       </c>
@@ -5626,7 +5649,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>200</v>
       </c>
@@ -5634,7 +5657,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>201</v>
       </c>
@@ -5642,7 +5665,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>202</v>
       </c>
@@ -5650,7 +5673,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
         <v>1017</v>
       </c>
@@ -5658,7 +5681,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
         <v>1018</v>
       </c>
@@ -5666,7 +5689,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>198</v>
       </c>
@@ -5674,7 +5697,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
         <v>1019</v>
       </c>
@@ -5682,7 +5705,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
         <v>1020</v>
       </c>
@@ -5690,7 +5713,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
         <v>1021</v>
       </c>
@@ -5698,7 +5721,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
         <v>1022</v>
       </c>
@@ -5706,7 +5729,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
         <v>1023</v>
       </c>
@@ -5714,7 +5737,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
         <v>1024</v>
       </c>
@@ -5729,20 +5752,20 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J13" activeCellId="1" sqref="I1 J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.83203125" style="31" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="30.875" style="31" customWidth="1" collapsed="1"/>
     <col min="2" max="16384" width="9" style="31" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>922</v>
       </c>
@@ -5750,7 +5773,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>920</v>
       </c>
@@ -5758,7 +5781,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>918</v>
       </c>
@@ -5766,7 +5789,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>916</v>
       </c>
@@ -5774,17 +5797,17 @@
         <v>915</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>912</v>
       </c>
@@ -5795,22 +5818,22 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E444"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="37.1640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.1640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="37.125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27.625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>872</v>
       </c>
@@ -5827,7 +5850,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="89" t="s">
         <v>712</v>
       </c>
@@ -5844,7 +5867,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="89" t="s">
         <v>712</v>
       </c>
@@ -5861,7 +5884,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="89" t="s">
         <v>712</v>
       </c>
@@ -5878,7 +5901,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="89" t="s">
         <v>712</v>
       </c>
@@ -5895,7 +5918,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="89" t="s">
         <v>712</v>
       </c>
@@ -5912,7 +5935,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="89" t="s">
         <v>712</v>
       </c>
@@ -5929,7 +5952,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="89" t="s">
         <v>712</v>
       </c>
@@ -5946,7 +5969,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="89" t="s">
         <v>715</v>
       </c>
@@ -5963,7 +5986,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="89" t="s">
         <v>715</v>
       </c>
@@ -5980,7 +6003,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="89" t="s">
         <v>715</v>
       </c>
@@ -5997,7 +6020,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="89" t="s">
         <v>715</v>
       </c>
@@ -6014,7 +6037,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="89" t="s">
         <v>715</v>
       </c>
@@ -6031,7 +6054,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="89" t="s">
         <v>715</v>
       </c>
@@ -6048,7 +6071,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="89" t="s">
         <v>715</v>
       </c>
@@ -6065,7 +6088,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="89" t="s">
         <v>715</v>
       </c>
@@ -6082,7 +6105,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="89" t="s">
         <v>718</v>
       </c>
@@ -6099,7 +6122,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="89" t="s">
         <v>718</v>
       </c>
@@ -6116,7 +6139,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="89" t="s">
         <v>718</v>
       </c>
@@ -6133,7 +6156,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="89" t="s">
         <v>718</v>
       </c>
@@ -6150,7 +6173,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="89" t="s">
         <v>718</v>
       </c>
@@ -6167,7 +6190,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="89" t="s">
         <v>718</v>
       </c>
@@ -6184,7 +6207,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="89" t="s">
         <v>718</v>
       </c>
@@ -6201,7 +6224,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="89" t="s">
         <v>718</v>
       </c>
@@ -6218,7 +6241,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="89" t="s">
         <v>721</v>
       </c>
@@ -6235,7 +6258,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="89" t="s">
         <v>721</v>
       </c>
@@ -6252,7 +6275,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="89" t="s">
         <v>721</v>
       </c>
@@ -6269,7 +6292,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="89" t="s">
         <v>721</v>
       </c>
@@ -6286,7 +6309,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="89" t="s">
         <v>721</v>
       </c>
@@ -6303,7 +6326,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="89" t="s">
         <v>721</v>
       </c>
@@ -6320,7 +6343,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="89" t="s">
         <v>721</v>
       </c>
@@ -6337,7 +6360,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="89" t="s">
         <v>724</v>
       </c>
@@ -6354,7 +6377,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="89" t="s">
         <v>724</v>
       </c>
@@ -6371,7 +6394,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="89" t="s">
         <v>724</v>
       </c>
@@ -6388,7 +6411,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="89" t="s">
         <v>724</v>
       </c>
@@ -6405,7 +6428,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="89" t="s">
         <v>724</v>
       </c>
@@ -6422,7 +6445,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="89" t="s">
         <v>724</v>
       </c>
@@ -6439,7 +6462,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="89" t="s">
         <v>724</v>
       </c>
@@ -6456,7 +6479,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="89" t="s">
         <v>724</v>
       </c>
@@ -6473,7 +6496,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="89" t="s">
         <v>727</v>
       </c>
@@ -6490,7 +6513,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="89" t="s">
         <v>727</v>
       </c>
@@ -6507,7 +6530,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="89" t="s">
         <v>727</v>
       </c>
@@ -6524,7 +6547,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="89" t="s">
         <v>727</v>
       </c>
@@ -6541,7 +6564,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="89" t="s">
         <v>727</v>
       </c>
@@ -6558,7 +6581,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="89" t="s">
         <v>727</v>
       </c>
@@ -6575,7 +6598,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="89" t="s">
         <v>727</v>
       </c>
@@ -6592,7 +6615,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="89" t="s">
         <v>727</v>
       </c>
@@ -6609,7 +6632,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="89" t="s">
         <v>215</v>
       </c>
@@ -6626,7 +6649,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="89" t="s">
         <v>215</v>
       </c>
@@ -6643,7 +6666,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="89" t="s">
         <v>215</v>
       </c>
@@ -6660,7 +6683,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="89" t="s">
         <v>215</v>
       </c>
@@ -6677,7 +6700,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="89" t="s">
         <v>215</v>
       </c>
@@ -6694,7 +6717,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="89" t="s">
         <v>215</v>
       </c>
@@ -6711,7 +6734,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="89" t="s">
         <v>215</v>
       </c>
@@ -6728,7 +6751,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="89" t="s">
         <v>215</v>
       </c>
@@ -6745,7 +6768,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="89" t="s">
         <v>215</v>
       </c>
@@ -6762,7 +6785,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="89" t="s">
         <v>215</v>
       </c>
@@ -6779,7 +6802,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="89" t="s">
         <v>218</v>
       </c>
@@ -6796,7 +6819,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="89" t="s">
         <v>218</v>
       </c>
@@ -6813,7 +6836,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="89" t="s">
         <v>218</v>
       </c>
@@ -6830,7 +6853,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="89" t="s">
         <v>218</v>
       </c>
@@ -6847,7 +6870,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="89" t="s">
         <v>218</v>
       </c>
@@ -6864,7 +6887,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="89" t="s">
         <v>218</v>
       </c>
@@ -6881,7 +6904,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="89" t="s">
         <v>218</v>
       </c>
@@ -6898,7 +6921,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="89" t="s">
         <v>218</v>
       </c>
@@ -6915,7 +6938,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="89" t="s">
         <v>218</v>
       </c>
@@ -6932,7 +6955,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="89" t="s">
         <v>218</v>
       </c>
@@ -6949,7 +6972,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="89" t="s">
         <v>218</v>
       </c>
@@ -6966,7 +6989,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="89" t="s">
         <v>218</v>
       </c>
@@ -6983,7 +7006,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="89" t="s">
         <v>761</v>
       </c>
@@ -7000,7 +7023,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="89" t="s">
         <v>761</v>
       </c>
@@ -7017,7 +7040,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="89" t="s">
         <v>761</v>
       </c>
@@ -7034,7 +7057,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="89" t="s">
         <v>761</v>
       </c>
@@ -7051,7 +7074,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="89" t="s">
         <v>761</v>
       </c>
@@ -7068,7 +7091,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="89" t="s">
         <v>761</v>
       </c>
@@ -7085,7 +7108,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="89" t="s">
         <v>761</v>
       </c>
@@ -7102,7 +7125,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="89" t="s">
         <v>761</v>
       </c>
@@ -7119,7 +7142,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="89" t="s">
         <v>761</v>
       </c>
@@ -7136,7 +7159,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="89" t="s">
         <v>761</v>
       </c>
@@ -7153,7 +7176,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="89" t="s">
         <v>761</v>
       </c>
@@ -7170,7 +7193,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="89" t="s">
         <v>761</v>
       </c>
@@ -7187,7 +7210,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="89" t="s">
         <v>761</v>
       </c>
@@ -7204,7 +7227,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="89" t="s">
         <v>221</v>
       </c>
@@ -7221,7 +7244,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="89" t="s">
         <v>221</v>
       </c>
@@ -7238,7 +7261,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="89" t="s">
         <v>221</v>
       </c>
@@ -7255,7 +7278,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="89" t="s">
         <v>221</v>
       </c>
@@ -7272,7 +7295,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="89" t="s">
         <v>221</v>
       </c>
@@ -7289,7 +7312,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="89" t="s">
         <v>221</v>
       </c>
@@ -7306,7 +7329,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="89" t="s">
         <v>221</v>
       </c>
@@ -7323,7 +7346,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="89" t="s">
         <v>221</v>
       </c>
@@ -7340,7 +7363,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="89" t="s">
         <v>221</v>
       </c>
@@ -7357,7 +7380,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="89" t="s">
         <v>221</v>
       </c>
@@ -7374,7 +7397,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="89" t="s">
         <v>221</v>
       </c>
@@ -7391,7 +7414,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="89" t="s">
         <v>221</v>
       </c>
@@ -7408,7 +7431,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="89" t="s">
         <v>833</v>
       </c>
@@ -7425,7 +7448,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="89" t="s">
         <v>833</v>
       </c>
@@ -7442,7 +7465,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="89" t="s">
         <v>833</v>
       </c>
@@ -7459,7 +7482,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="89" t="s">
         <v>833</v>
       </c>
@@ -7476,7 +7499,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="89" t="s">
         <v>833</v>
       </c>
@@ -7493,7 +7516,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="89" t="s">
         <v>833</v>
       </c>
@@ -7510,7 +7533,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="89" t="s">
         <v>833</v>
       </c>
@@ -7527,7 +7550,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="89" t="s">
         <v>833</v>
       </c>
@@ -7544,7 +7567,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="89" t="s">
         <v>833</v>
       </c>
@@ -7561,7 +7584,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="89" t="s">
         <v>833</v>
       </c>
@@ -7578,7 +7601,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="89" t="s">
         <v>833</v>
       </c>
@@ -7595,7 +7618,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="89" t="s">
         <v>833</v>
       </c>
@@ -7612,7 +7635,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="89" t="s">
         <v>836</v>
       </c>
@@ -7629,7 +7652,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="89" t="s">
         <v>836</v>
       </c>
@@ -7646,7 +7669,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="89" t="s">
         <v>836</v>
       </c>
@@ -7663,7 +7686,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="89" t="s">
         <v>836</v>
       </c>
@@ -7680,7 +7703,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="89" t="s">
         <v>836</v>
       </c>
@@ -7697,7 +7720,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="89" t="s">
         <v>836</v>
       </c>
@@ -7714,7 +7737,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="89" t="s">
         <v>836</v>
       </c>
@@ -7731,7 +7754,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="89" t="s">
         <v>836</v>
       </c>
@@ -7748,7 +7771,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="89" t="s">
         <v>836</v>
       </c>
@@ -7765,7 +7788,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="89" t="s">
         <v>836</v>
       </c>
@@ -7782,7 +7805,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="89" t="s">
         <v>836</v>
       </c>
@@ -7799,7 +7822,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="89" t="s">
         <v>836</v>
       </c>
@@ -7816,7 +7839,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="89" t="s">
         <v>839</v>
       </c>
@@ -7833,7 +7856,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="89" t="s">
         <v>839</v>
       </c>
@@ -7850,7 +7873,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="89" t="s">
         <v>839</v>
       </c>
@@ -7867,7 +7890,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="89" t="s">
         <v>839</v>
       </c>
@@ -7884,7 +7907,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="89" t="s">
         <v>839</v>
       </c>
@@ -7901,7 +7924,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="89" t="s">
         <v>839</v>
       </c>
@@ -7918,7 +7941,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="89" t="s">
         <v>839</v>
       </c>
@@ -7935,7 +7958,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="89" t="s">
         <v>839</v>
       </c>
@@ -7952,7 +7975,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="89" t="s">
         <v>839</v>
       </c>
@@ -7969,7 +7992,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="89" t="s">
         <v>839</v>
       </c>
@@ -7986,7 +8009,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="89" t="s">
         <v>839</v>
       </c>
@@ -8003,7 +8026,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="89" t="s">
         <v>839</v>
       </c>
@@ -8020,7 +8043,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="89" t="s">
         <v>841</v>
       </c>
@@ -8037,7 +8060,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="89" t="s">
         <v>841</v>
       </c>
@@ -8054,7 +8077,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="89" t="s">
         <v>841</v>
       </c>
@@ -8071,7 +8094,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="89" t="s">
         <v>841</v>
       </c>
@@ -8088,7 +8111,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="89" t="s">
         <v>841</v>
       </c>
@@ -8105,7 +8128,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="89" t="s">
         <v>841</v>
       </c>
@@ -8122,7 +8145,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="89" t="s">
         <v>841</v>
       </c>
@@ -8139,7 +8162,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="89" t="s">
         <v>841</v>
       </c>
@@ -8156,7 +8179,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="89" t="s">
         <v>841</v>
       </c>
@@ -8173,7 +8196,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="89" t="s">
         <v>841</v>
       </c>
@@ -8190,7 +8213,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="89" t="s">
         <v>841</v>
       </c>
@@ -8207,7 +8230,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="89" t="s">
         <v>841</v>
       </c>
@@ -8224,7 +8247,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="89" t="s">
         <v>764</v>
       </c>
@@ -8241,7 +8264,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="89" t="s">
         <v>764</v>
       </c>
@@ -8258,7 +8281,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="89" t="s">
         <v>764</v>
       </c>
@@ -8275,7 +8298,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="89" t="s">
         <v>764</v>
       </c>
@@ -8292,7 +8315,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="89" t="s">
         <v>764</v>
       </c>
@@ -8309,7 +8332,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="89" t="s">
         <v>764</v>
       </c>
@@ -8326,7 +8349,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="89" t="s">
         <v>764</v>
       </c>
@@ -8343,7 +8366,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="89" t="s">
         <v>764</v>
       </c>
@@ -8360,7 +8383,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="89" t="s">
         <v>764</v>
       </c>
@@ -8377,7 +8400,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="89" t="s">
         <v>764</v>
       </c>
@@ -8394,7 +8417,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="89" t="s">
         <v>764</v>
       </c>
@@ -8411,7 +8434,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="89" t="s">
         <v>764</v>
       </c>
@@ -8428,7 +8451,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="89" t="s">
         <v>801</v>
       </c>
@@ -8445,7 +8468,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="89" t="s">
         <v>801</v>
       </c>
@@ -8462,7 +8485,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="89" t="s">
         <v>801</v>
       </c>
@@ -8479,7 +8502,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="89" t="s">
         <v>801</v>
       </c>
@@ -8496,7 +8519,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="89" t="s">
         <v>801</v>
       </c>
@@ -8513,7 +8536,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="89" t="s">
         <v>801</v>
       </c>
@@ -8530,7 +8553,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="89" t="s">
         <v>801</v>
       </c>
@@ -8547,7 +8570,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="89" t="s">
         <v>801</v>
       </c>
@@ -8564,7 +8587,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="89" t="s">
         <v>801</v>
       </c>
@@ -8581,7 +8604,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="89" t="s">
         <v>801</v>
       </c>
@@ -8598,7 +8621,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="89" t="s">
         <v>801</v>
       </c>
@@ -8615,7 +8638,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="89" t="s">
         <v>843</v>
       </c>
@@ -8632,7 +8655,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="89" t="s">
         <v>843</v>
       </c>
@@ -8649,7 +8672,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="89" t="s">
         <v>843</v>
       </c>
@@ -8666,7 +8689,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="89" t="s">
         <v>843</v>
       </c>
@@ -8683,7 +8706,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="89" t="s">
         <v>843</v>
       </c>
@@ -8700,7 +8723,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="89" t="s">
         <v>843</v>
       </c>
@@ -8717,7 +8740,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="89" t="s">
         <v>843</v>
       </c>
@@ -8734,7 +8757,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="89" t="s">
         <v>843</v>
       </c>
@@ -8751,7 +8774,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="89" t="s">
         <v>843</v>
       </c>
@@ -8768,7 +8791,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="89" t="s">
         <v>843</v>
       </c>
@@ -8785,7 +8808,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="89" t="s">
         <v>225</v>
       </c>
@@ -8802,7 +8825,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="89" t="s">
         <v>225</v>
       </c>
@@ -8819,7 +8842,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="89" t="s">
         <v>225</v>
       </c>
@@ -8836,7 +8859,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="89" t="s">
         <v>225</v>
       </c>
@@ -8853,7 +8876,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="89" t="s">
         <v>225</v>
       </c>
@@ -8870,7 +8893,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="89" t="s">
         <v>225</v>
       </c>
@@ -8887,7 +8910,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="89" t="s">
         <v>225</v>
       </c>
@@ -8904,7 +8927,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="89" t="s">
         <v>225</v>
       </c>
@@ -8921,7 +8944,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="89" t="s">
         <v>225</v>
       </c>
@@ -8938,7 +8961,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="89" t="s">
         <v>225</v>
       </c>
@@ -8955,7 +8978,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="89" t="s">
         <v>225</v>
       </c>
@@ -8972,7 +8995,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="89" t="s">
         <v>845</v>
       </c>
@@ -8989,7 +9012,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="89" t="s">
         <v>845</v>
       </c>
@@ -9006,7 +9029,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="89" t="s">
         <v>845</v>
       </c>
@@ -9023,7 +9046,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="89" t="s">
         <v>845</v>
       </c>
@@ -9040,7 +9063,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="89" t="s">
         <v>845</v>
       </c>
@@ -9057,7 +9080,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="89" t="s">
         <v>845</v>
       </c>
@@ -9074,7 +9097,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="89" t="s">
         <v>845</v>
       </c>
@@ -9091,7 +9114,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="89" t="s">
         <v>845</v>
       </c>
@@ -9108,7 +9131,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="89" t="s">
         <v>845</v>
       </c>
@@ -9125,7 +9148,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="89" t="s">
         <v>845</v>
       </c>
@@ -9142,7 +9165,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="89" t="s">
         <v>845</v>
       </c>
@@ -9159,7 +9182,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="89" t="s">
         <v>847</v>
       </c>
@@ -9176,7 +9199,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="89" t="s">
         <v>847</v>
       </c>
@@ -9193,7 +9216,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="89" t="s">
         <v>847</v>
       </c>
@@ -9210,7 +9233,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="89" t="s">
         <v>847</v>
       </c>
@@ -9227,7 +9250,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="89" t="s">
         <v>847</v>
       </c>
@@ -9244,7 +9267,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="89" t="s">
         <v>847</v>
       </c>
@@ -9261,7 +9284,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="89" t="s">
         <v>847</v>
       </c>
@@ -9278,7 +9301,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="89" t="s">
         <v>847</v>
       </c>
@@ -9295,7 +9318,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="89" t="s">
         <v>847</v>
       </c>
@@ -9312,7 +9335,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="89" t="s">
         <v>847</v>
       </c>
@@ -9329,7 +9352,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="89" t="s">
         <v>847</v>
       </c>
@@ -9346,7 +9369,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="89" t="s">
         <v>847</v>
       </c>
@@ -9363,7 +9386,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="89" t="s">
         <v>227</v>
       </c>
@@ -9380,7 +9403,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="89" t="s">
         <v>227</v>
       </c>
@@ -9397,7 +9420,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="89" t="s">
         <v>227</v>
       </c>
@@ -9414,7 +9437,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="89" t="s">
         <v>227</v>
       </c>
@@ -9431,7 +9454,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="89" t="s">
         <v>227</v>
       </c>
@@ -9448,7 +9471,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="89" t="s">
         <v>227</v>
       </c>
@@ -9465,7 +9488,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="89" t="s">
         <v>227</v>
       </c>
@@ -9482,7 +9505,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="89" t="s">
         <v>227</v>
       </c>
@@ -9499,7 +9522,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="89" t="s">
         <v>227</v>
       </c>
@@ -9516,7 +9539,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="89" t="s">
         <v>227</v>
       </c>
@@ -9533,7 +9556,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="89" t="s">
         <v>227</v>
       </c>
@@ -9550,7 +9573,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="89" t="s">
         <v>227</v>
       </c>
@@ -9567,7 +9590,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="89" t="s">
         <v>227</v>
       </c>
@@ -9584,7 +9607,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="89" t="s">
         <v>229</v>
       </c>
@@ -9601,7 +9624,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="89" t="s">
         <v>229</v>
       </c>
@@ -9618,7 +9641,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="89" t="s">
         <v>229</v>
       </c>
@@ -9635,7 +9658,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="89" t="s">
         <v>229</v>
       </c>
@@ -9652,7 +9675,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="89" t="s">
         <v>229</v>
       </c>
@@ -9669,7 +9692,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="89" t="s">
         <v>229</v>
       </c>
@@ -9686,7 +9709,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="89" t="s">
         <v>229</v>
       </c>
@@ -9703,7 +9726,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="89" t="s">
         <v>229</v>
       </c>
@@ -9720,7 +9743,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="89" t="s">
         <v>229</v>
       </c>
@@ -9737,7 +9760,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="89" t="s">
         <v>229</v>
       </c>
@@ -9754,7 +9777,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="89" t="s">
         <v>229</v>
       </c>
@@ -9771,7 +9794,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="89" t="s">
         <v>229</v>
       </c>
@@ -9788,7 +9811,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="89" t="s">
         <v>231</v>
       </c>
@@ -9805,7 +9828,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="89" t="s">
         <v>231</v>
       </c>
@@ -9822,7 +9845,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="89" t="s">
         <v>231</v>
       </c>
@@ -9839,7 +9862,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="89" t="s">
         <v>231</v>
       </c>
@@ -9856,7 +9879,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="89" t="s">
         <v>231</v>
       </c>
@@ -9873,7 +9896,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="89" t="s">
         <v>231</v>
       </c>
@@ -9890,7 +9913,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="89" t="s">
         <v>231</v>
       </c>
@@ -9907,7 +9930,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="89" t="s">
         <v>231</v>
       </c>
@@ -9924,7 +9947,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="89" t="s">
         <v>231</v>
       </c>
@@ -9941,7 +9964,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="89" t="s">
         <v>231</v>
       </c>
@@ -9958,7 +9981,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="89" t="s">
         <v>799</v>
       </c>
@@ -9975,7 +9998,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="89" t="s">
         <v>799</v>
       </c>
@@ -9992,7 +10015,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="89" t="s">
         <v>623</v>
       </c>
@@ -10009,7 +10032,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="89" t="s">
         <v>623</v>
       </c>
@@ -10026,7 +10049,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="89" t="s">
         <v>547</v>
       </c>
@@ -10043,7 +10066,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="89" t="s">
         <v>547</v>
       </c>
@@ -10060,7 +10083,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="89" t="s">
         <v>576</v>
       </c>
@@ -10077,7 +10100,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="89" t="s">
         <v>576</v>
       </c>
@@ -10094,7 +10117,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="22" t="s">
         <v>686</v>
       </c>
@@ -10111,7 +10134,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="22" t="s">
         <v>686</v>
       </c>
@@ -10128,7 +10151,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="22" t="s">
         <v>686</v>
       </c>
@@ -10145,7 +10168,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="22" t="s">
         <v>686</v>
       </c>
@@ -10162,7 +10185,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="22" t="s">
         <v>686</v>
       </c>
@@ -10179,7 +10202,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="22" t="s">
         <v>686</v>
       </c>
@@ -10196,7 +10219,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="22" t="s">
         <v>686</v>
       </c>
@@ -10213,7 +10236,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="22" t="s">
         <v>686</v>
       </c>
@@ -10230,7 +10253,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="22" t="s">
         <v>686</v>
       </c>
@@ -10247,7 +10270,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="22" t="s">
         <v>686</v>
       </c>
@@ -10264,7 +10287,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="22" t="s">
         <v>686</v>
       </c>
@@ -10281,7 +10304,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="22" t="s">
         <v>686</v>
       </c>
@@ -10298,7 +10321,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="22" t="s">
         <v>686</v>
       </c>
@@ -10315,7 +10338,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="22" t="s">
         <v>709</v>
       </c>
@@ -10332,7 +10355,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="22" t="s">
         <v>709</v>
       </c>
@@ -10349,7 +10372,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="22" t="s">
         <v>709</v>
       </c>
@@ -10366,7 +10389,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="22" t="s">
         <v>709</v>
       </c>
@@ -10383,7 +10406,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="22" t="s">
         <v>709</v>
       </c>
@@ -10400,7 +10423,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="22" t="s">
         <v>709</v>
       </c>
@@ -10417,7 +10440,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="22" t="s">
         <v>709</v>
       </c>
@@ -10434,7 +10457,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="22" t="s">
         <v>709</v>
       </c>
@@ -10451,7 +10474,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="22" t="s">
         <v>709</v>
       </c>
@@ -10468,7 +10491,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="22" t="s">
         <v>709</v>
       </c>
@@ -10485,7 +10508,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="22" t="s">
         <v>709</v>
       </c>
@@ -10502,7 +10525,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="22" t="s">
         <v>709</v>
       </c>
@@ -10519,7 +10542,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="22" t="s">
         <v>709</v>
       </c>
@@ -10536,7 +10559,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="91" t="s">
         <v>730</v>
       </c>
@@ -10553,7 +10576,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="91" t="s">
         <v>730</v>
       </c>
@@ -10570,7 +10593,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="91" t="s">
         <v>730</v>
       </c>
@@ -10587,7 +10610,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="91" t="s">
         <v>730</v>
       </c>
@@ -10604,7 +10627,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="91" t="s">
         <v>730</v>
       </c>
@@ -10621,7 +10644,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="91" t="s">
         <v>730</v>
       </c>
@@ -10638,7 +10661,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="91" t="s">
         <v>730</v>
       </c>
@@ -10655,7 +10678,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="91" t="s">
         <v>730</v>
       </c>
@@ -10672,7 +10695,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="91" t="s">
         <v>730</v>
       </c>
@@ -10689,7 +10712,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="91" t="s">
         <v>730</v>
       </c>
@@ -10706,7 +10729,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="91" t="s">
         <v>730</v>
       </c>
@@ -10723,7 +10746,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="91" t="s">
         <v>730</v>
       </c>
@@ -10740,7 +10763,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="91" t="s">
         <v>730</v>
       </c>
@@ -10757,7 +10780,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="22" t="s">
         <v>732</v>
       </c>
@@ -10774,7 +10797,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="22" t="s">
         <v>732</v>
       </c>
@@ -10791,7 +10814,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="22" t="s">
         <v>732</v>
       </c>
@@ -10808,7 +10831,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="22" t="s">
         <v>732</v>
       </c>
@@ -10825,7 +10848,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="22" t="s">
         <v>732</v>
       </c>
@@ -10842,7 +10865,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="22" t="s">
         <v>732</v>
       </c>
@@ -10859,7 +10882,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="22" t="s">
         <v>732</v>
       </c>
@@ -10876,7 +10899,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="22" t="s">
         <v>732</v>
       </c>
@@ -10893,7 +10916,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="22" t="s">
         <v>732</v>
       </c>
@@ -10910,7 +10933,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="22" t="s">
         <v>732</v>
       </c>
@@ -10927,7 +10950,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="22" t="s">
         <v>732</v>
       </c>
@@ -10944,7 +10967,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="22" t="s">
         <v>732</v>
       </c>
@@ -10961,7 +10984,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="22" t="s">
         <v>732</v>
       </c>
@@ -10978,7 +11001,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="22" t="s">
         <v>791</v>
       </c>
@@ -10995,7 +11018,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="22" t="s">
         <v>791</v>
       </c>
@@ -11012,7 +11035,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="22" t="s">
         <v>791</v>
       </c>
@@ -11029,7 +11052,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="22" t="s">
         <v>791</v>
       </c>
@@ -11046,7 +11069,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="22" t="s">
         <v>791</v>
       </c>
@@ -11063,7 +11086,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="22" t="s">
         <v>791</v>
       </c>
@@ -11080,7 +11103,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="22" t="s">
         <v>791</v>
       </c>
@@ -11097,7 +11120,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="22" t="s">
         <v>791</v>
       </c>
@@ -11114,7 +11137,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="22" t="s">
         <v>791</v>
       </c>
@@ -11131,7 +11154,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="22" t="s">
         <v>791</v>
       </c>
@@ -11148,7 +11171,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="22" t="s">
         <v>791</v>
       </c>
@@ -11165,7 +11188,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="22" t="s">
         <v>791</v>
       </c>
@@ -11182,7 +11205,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="22" t="s">
         <v>791</v>
       </c>
@@ -11199,7 +11222,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="22" t="s">
         <v>793</v>
       </c>
@@ -11216,7 +11239,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="22" t="s">
         <v>793</v>
       </c>
@@ -11233,7 +11256,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="22" t="s">
         <v>793</v>
       </c>
@@ -11250,7 +11273,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="22" t="s">
         <v>793</v>
       </c>
@@ -11267,7 +11290,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="22" t="s">
         <v>793</v>
       </c>
@@ -11284,7 +11307,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="22" t="s">
         <v>793</v>
       </c>
@@ -11301,7 +11324,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="22" t="s">
         <v>793</v>
       </c>
@@ -11318,7 +11341,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="22" t="s">
         <v>793</v>
       </c>
@@ -11335,7 +11358,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="22" t="s">
         <v>793</v>
       </c>
@@ -11352,7 +11375,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="22" t="s">
         <v>793</v>
       </c>
@@ -11369,7 +11392,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="22" t="s">
         <v>793</v>
       </c>
@@ -11386,7 +11409,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="22" t="s">
         <v>793</v>
       </c>
@@ -11403,7 +11426,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="22" t="s">
         <v>793</v>
       </c>
@@ -11420,7 +11443,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="22" t="s">
         <v>805</v>
       </c>
@@ -11437,7 +11460,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="22" t="s">
         <v>805</v>
       </c>
@@ -11454,7 +11477,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="22" t="s">
         <v>805</v>
       </c>
@@ -11471,7 +11494,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="22" t="s">
         <v>805</v>
       </c>
@@ -11488,7 +11511,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="22" t="s">
         <v>805</v>
       </c>
@@ -11505,7 +11528,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="22" t="s">
         <v>805</v>
       </c>
@@ -11522,7 +11545,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="22" t="s">
         <v>805</v>
       </c>
@@ -11539,7 +11562,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="22" t="s">
         <v>805</v>
       </c>
@@ -11556,7 +11579,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" s="22" t="s">
         <v>805</v>
       </c>
@@ -11573,7 +11596,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="22" t="s">
         <v>805</v>
       </c>
@@ -11590,7 +11613,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="22" t="s">
         <v>805</v>
       </c>
@@ -11607,7 +11630,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="22" t="s">
         <v>805</v>
       </c>
@@ -11624,7 +11647,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="22" t="s">
         <v>805</v>
       </c>
@@ -11641,7 +11664,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="22" t="s">
         <v>807</v>
       </c>
@@ -11658,7 +11681,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" s="22" t="s">
         <v>807</v>
       </c>
@@ -11675,7 +11698,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="22" t="s">
         <v>807</v>
       </c>
@@ -11692,7 +11715,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="22" t="s">
         <v>807</v>
       </c>
@@ -11709,7 +11732,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="22" t="s">
         <v>807</v>
       </c>
@@ -11726,7 +11749,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="22" t="s">
         <v>807</v>
       </c>
@@ -11743,7 +11766,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" s="22" t="s">
         <v>807</v>
       </c>
@@ -11760,7 +11783,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" s="22" t="s">
         <v>807</v>
       </c>
@@ -11777,7 +11800,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" s="22" t="s">
         <v>807</v>
       </c>
@@ -11794,7 +11817,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" s="22" t="s">
         <v>807</v>
       </c>
@@ -11811,7 +11834,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" s="22" t="s">
         <v>807</v>
       </c>
@@ -11828,7 +11851,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" s="22" t="s">
         <v>807</v>
       </c>
@@ -11845,7 +11868,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="22" t="s">
         <v>807</v>
       </c>
@@ -11862,7 +11885,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" s="22" t="s">
         <v>809</v>
       </c>
@@ -11879,7 +11902,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="22" t="s">
         <v>809</v>
       </c>
@@ -11896,7 +11919,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="22" t="s">
         <v>809</v>
       </c>
@@ -11913,7 +11936,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="22" t="s">
         <v>809</v>
       </c>
@@ -11930,7 +11953,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="22" t="s">
         <v>809</v>
       </c>
@@ -11947,7 +11970,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="22" t="s">
         <v>809</v>
       </c>
@@ -11964,7 +11987,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="22" t="s">
         <v>809</v>
       </c>
@@ -11981,7 +12004,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="22" t="s">
         <v>809</v>
       </c>
@@ -11998,7 +12021,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="22" t="s">
         <v>809</v>
       </c>
@@ -12015,7 +12038,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="22" t="s">
         <v>809</v>
       </c>
@@ -12032,7 +12055,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" s="22" t="s">
         <v>809</v>
       </c>
@@ -12049,7 +12072,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" s="22" t="s">
         <v>809</v>
       </c>
@@ -12066,7 +12089,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="22" t="s">
         <v>809</v>
       </c>
@@ -12083,7 +12106,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="22" t="s">
         <v>812</v>
       </c>
@@ -12100,7 +12123,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="22" t="s">
         <v>812</v>
       </c>
@@ -12117,7 +12140,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="22" t="s">
         <v>812</v>
       </c>
@@ -12134,7 +12157,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="22" t="s">
         <v>812</v>
       </c>
@@ -12151,7 +12174,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="22" t="s">
         <v>812</v>
       </c>
@@ -12168,7 +12191,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="22" t="s">
         <v>812</v>
       </c>
@@ -12185,7 +12208,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="22" t="s">
         <v>812</v>
       </c>
@@ -12202,7 +12225,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="22" t="s">
         <v>812</v>
       </c>
@@ -12219,7 +12242,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="22" t="s">
         <v>812</v>
       </c>
@@ -12236,7 +12259,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="22" t="s">
         <v>812</v>
       </c>
@@ -12253,7 +12276,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="22" t="s">
         <v>812</v>
       </c>
@@ -12270,7 +12293,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" s="22" t="s">
         <v>812</v>
       </c>
@@ -12287,7 +12310,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" s="22" t="s">
         <v>812</v>
       </c>
@@ -12304,7 +12327,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" s="22" t="s">
         <v>815</v>
       </c>
@@ -12321,7 +12344,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" s="22" t="s">
         <v>815</v>
       </c>
@@ -12338,7 +12361,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" s="22" t="s">
         <v>815</v>
       </c>
@@ -12355,7 +12378,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" s="22" t="s">
         <v>815</v>
       </c>
@@ -12372,7 +12395,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" s="22" t="s">
         <v>815</v>
       </c>
@@ -12389,7 +12412,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" s="22" t="s">
         <v>815</v>
       </c>
@@ -12406,7 +12429,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" s="22" t="s">
         <v>815</v>
       </c>
@@ -12423,7 +12446,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" s="22" t="s">
         <v>815</v>
       </c>
@@ -12440,7 +12463,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" s="22" t="s">
         <v>815</v>
       </c>
@@ -12457,7 +12480,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" s="22" t="s">
         <v>815</v>
       </c>
@@ -12474,7 +12497,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" s="22" t="s">
         <v>815</v>
       </c>
@@ -12491,7 +12514,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" s="22" t="s">
         <v>815</v>
       </c>
@@ -12508,7 +12531,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" s="22" t="s">
         <v>815</v>
       </c>
@@ -12525,7 +12548,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" s="22" t="s">
         <v>206</v>
       </c>
@@ -12542,7 +12565,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" s="22" t="s">
         <v>206</v>
       </c>
@@ -12559,7 +12582,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" s="22" t="s">
         <v>206</v>
       </c>
@@ -12576,7 +12599,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" s="22" t="s">
         <v>206</v>
       </c>
@@ -12593,7 +12616,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" s="22" t="s">
         <v>206</v>
       </c>
@@ -12610,7 +12633,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" s="22" t="s">
         <v>206</v>
       </c>
@@ -12627,7 +12650,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" s="22" t="s">
         <v>206</v>
       </c>
@@ -12644,7 +12667,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" s="22" t="s">
         <v>206</v>
       </c>
@@ -12661,7 +12684,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" s="22" t="s">
         <v>206</v>
       </c>
@@ -12678,7 +12701,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" s="22" t="s">
         <v>206</v>
       </c>
@@ -12695,7 +12718,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" s="22" t="s">
         <v>206</v>
       </c>
@@ -12712,7 +12735,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" s="22" t="s">
         <v>206</v>
       </c>
@@ -12729,7 +12752,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" s="22" t="s">
         <v>734</v>
       </c>
@@ -12746,7 +12769,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" s="22" t="s">
         <v>734</v>
       </c>
@@ -12763,7 +12786,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" s="22" t="s">
         <v>734</v>
       </c>
@@ -12780,7 +12803,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" s="22" t="s">
         <v>734</v>
       </c>
@@ -12797,7 +12820,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" s="22" t="s">
         <v>734</v>
       </c>
@@ -12814,7 +12837,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" s="22" t="s">
         <v>734</v>
       </c>
@@ -12831,7 +12854,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" s="22" t="s">
         <v>734</v>
       </c>
@@ -12848,7 +12871,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" s="22" t="s">
         <v>734</v>
       </c>
@@ -12865,7 +12888,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" s="22" t="s">
         <v>734</v>
       </c>
@@ -12882,7 +12905,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" s="22" t="s">
         <v>734</v>
       </c>
@@ -12899,7 +12922,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" s="22" t="s">
         <v>734</v>
       </c>
@@ -12916,7 +12939,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419" s="22" t="s">
         <v>749</v>
       </c>
@@ -12933,7 +12956,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" s="22" t="s">
         <v>749</v>
       </c>
@@ -12950,7 +12973,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" s="22" t="s">
         <v>749</v>
       </c>
@@ -12967,7 +12990,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" s="22" t="s">
         <v>749</v>
       </c>
@@ -12984,7 +13007,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" s="22" t="s">
         <v>749</v>
       </c>
@@ -13001,7 +13024,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" s="22" t="s">
         <v>749</v>
       </c>
@@ -13018,7 +13041,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" s="22" t="s">
         <v>749</v>
       </c>
@@ -13035,7 +13058,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" s="22" t="s">
         <v>749</v>
       </c>
@@ -13052,7 +13075,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" s="22" t="s">
         <v>749</v>
       </c>
@@ -13069,7 +13092,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" s="22" t="s">
         <v>749</v>
       </c>
@@ -13086,7 +13109,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" s="22" t="s">
         <v>749</v>
       </c>
@@ -13103,7 +13126,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" s="22" t="s">
         <v>743</v>
       </c>
@@ -13120,7 +13143,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" s="22" t="s">
         <v>743</v>
       </c>
@@ -13137,7 +13160,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" s="22" t="s">
         <v>743</v>
       </c>
@@ -13154,7 +13177,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" s="22" t="s">
         <v>743</v>
       </c>
@@ -13171,7 +13194,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" s="22" t="s">
         <v>743</v>
       </c>
@@ -13188,7 +13211,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" s="22" t="s">
         <v>743</v>
       </c>
@@ -13205,7 +13228,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" s="22" t="s">
         <v>743</v>
       </c>
@@ -13222,7 +13245,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" s="22" t="s">
         <v>743</v>
       </c>
@@ -13239,7 +13262,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" s="22" t="s">
         <v>743</v>
       </c>
@@ -13256,7 +13279,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439" s="22" t="s">
         <v>743</v>
       </c>
@@ -13273,7 +13296,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440" s="22" t="s">
         <v>743</v>
       </c>
@@ -13290,7 +13313,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" s="22" t="s">
         <v>743</v>
       </c>
@@ -13307,7 +13330,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442" s="22" t="s">
         <v>743</v>
       </c>
@@ -13324,7 +13347,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443" s="22" t="s">
         <v>743</v>
       </c>
@@ -13341,7 +13364,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444" s="22" t="s">
         <v>743</v>
       </c>
@@ -13364,16 +13387,16 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>872</v>
       </c>
@@ -13390,7 +13413,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="57" t="s">
         <v>712</v>
       </c>
@@ -13407,7 +13430,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="57" t="s">
         <v>715</v>
       </c>
@@ -13424,7 +13447,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="57" t="s">
         <v>718</v>
       </c>
@@ -13441,7 +13464,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="57" t="s">
         <v>721</v>
       </c>
@@ -13458,7 +13481,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="57" t="s">
         <v>724</v>
       </c>
@@ -13475,7 +13498,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="57" t="s">
         <v>727</v>
       </c>
@@ -13492,7 +13515,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="57" t="s">
         <v>215</v>
       </c>
@@ -13509,7 +13532,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="57" t="s">
         <v>215</v>
       </c>
@@ -13526,7 +13549,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="57" t="s">
         <v>215</v>
       </c>
@@ -13543,7 +13566,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="57" t="s">
         <v>218</v>
       </c>
@@ -13560,7 +13583,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="57" t="s">
         <v>218</v>
       </c>
@@ -13577,7 +13600,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="57" t="s">
         <v>218</v>
       </c>
@@ -13594,7 +13617,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="57" t="s">
         <v>218</v>
       </c>
@@ -13611,7 +13634,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="57" t="s">
         <v>761</v>
       </c>
@@ -13628,7 +13651,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="57" t="s">
         <v>761</v>
       </c>
@@ -13645,7 +13668,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="57" t="s">
         <v>761</v>
       </c>
@@ -13662,7 +13685,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="57" t="s">
         <v>761</v>
       </c>
@@ -13679,7 +13702,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="57" t="s">
         <v>761</v>
       </c>
@@ -13696,7 +13719,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="57" t="s">
         <v>221</v>
       </c>
@@ -13713,7 +13736,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="57" t="s">
         <v>221</v>
       </c>
@@ -13730,7 +13753,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="57" t="s">
         <v>221</v>
       </c>
@@ -13747,7 +13770,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="57" t="s">
         <v>221</v>
       </c>
@@ -13764,7 +13787,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="57" t="s">
         <v>221</v>
       </c>
@@ -13781,7 +13804,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="57" t="s">
         <v>833</v>
       </c>
@@ -13798,7 +13821,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="57" t="s">
         <v>833</v>
       </c>
@@ -13815,7 +13838,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="57" t="s">
         <v>833</v>
       </c>
@@ -13832,7 +13855,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="57" t="s">
         <v>833</v>
       </c>
@@ -13849,7 +13872,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="57" t="s">
         <v>833</v>
       </c>
@@ -13866,7 +13889,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="57" t="s">
         <v>836</v>
       </c>
@@ -13883,7 +13906,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="57" t="s">
         <v>836</v>
       </c>
@@ -13900,7 +13923,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="57" t="s">
         <v>836</v>
       </c>
@@ -13917,7 +13940,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="57" t="s">
         <v>836</v>
       </c>
@@ -13934,7 +13957,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="57" t="s">
         <v>836</v>
       </c>
@@ -13951,7 +13974,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="57" t="s">
         <v>839</v>
       </c>
@@ -13968,7 +13991,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="57" t="s">
         <v>839</v>
       </c>
@@ -13985,7 +14008,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="57" t="s">
         <v>839</v>
       </c>
@@ -14002,7 +14025,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="57" t="s">
         <v>839</v>
       </c>
@@ -14019,7 +14042,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="57" t="s">
         <v>839</v>
       </c>
@@ -14036,7 +14059,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="57" t="s">
         <v>841</v>
       </c>
@@ -14053,7 +14076,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="57" t="s">
         <v>841</v>
       </c>
@@ -14070,7 +14093,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="57" t="s">
         <v>841</v>
       </c>
@@ -14087,7 +14110,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="57" t="s">
         <v>841</v>
       </c>
@@ -14104,7 +14127,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="57" t="s">
         <v>841</v>
       </c>
@@ -14121,7 +14144,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="57" t="s">
         <v>764</v>
       </c>
@@ -14138,7 +14161,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="57" t="s">
         <v>801</v>
       </c>
@@ -14155,7 +14178,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="57" t="s">
         <v>843</v>
       </c>
@@ -14172,7 +14195,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="57" t="s">
         <v>225</v>
       </c>
@@ -14189,7 +14212,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="57" t="s">
         <v>845</v>
       </c>
@@ -14206,7 +14229,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="57" t="s">
         <v>847</v>
       </c>
@@ -14223,7 +14246,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="57" t="s">
         <v>847</v>
       </c>
@@ -14240,7 +14263,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="57" t="s">
         <v>227</v>
       </c>
@@ -14257,7 +14280,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="57" t="s">
         <v>229</v>
       </c>
@@ -14274,7 +14297,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="57" t="s">
         <v>231</v>
       </c>
@@ -14291,7 +14314,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="57" t="s">
         <v>799</v>
       </c>
@@ -14308,7 +14331,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="57" t="s">
         <v>623</v>
       </c>
@@ -14325,7 +14348,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="57" t="s">
         <v>547</v>
       </c>
@@ -14342,7 +14365,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="57" t="s">
         <v>576</v>
       </c>
@@ -14365,30 +14388,30 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.83203125" style="4" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.6640625" style="4" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.83203125" style="29" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.875" style="4" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.625" style="4" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.875" style="29" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="11.5" style="29" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.1640625" style="29" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.125" style="29" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="10" style="29" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="11" style="29" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="10.1640625" style="29" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="10.125" style="29" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="10.5" style="29" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.6640625" style="29" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="11.83203125" style="29" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.625" style="29" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="11.875" style="29" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>883</v>
       </c>
@@ -14431,7 +14454,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" ht="170" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>895</v>
       </c>
@@ -14467,21 +14490,21 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="13.375" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="11" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="14" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>902</v>
       </c>
@@ -14514,7 +14537,7 @@
       </c>
       <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>903</v>
       </c>
@@ -14535,7 +14558,7 @@
       </c>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1254</v>
       </c>
@@ -14556,7 +14579,7 @@
       </c>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="100" t="s">
         <v>1280</v>
       </c>
@@ -14573,7 +14596,7 @@
       </c>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="100" t="s">
         <v>1281</v>
       </c>
@@ -14590,7 +14613,7 @@
       </c>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="100" t="s">
         <v>1282</v>
       </c>
@@ -14607,7 +14630,7 @@
       </c>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="100" t="s">
         <v>1283</v>
       </c>
@@ -14624,7 +14647,7 @@
       </c>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="100" t="s">
         <v>1284</v>
       </c>
@@ -14641,7 +14664,7 @@
       </c>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="100" t="s">
         <v>1285</v>
       </c>
@@ -14658,7 +14681,7 @@
       </c>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="100" t="s">
         <v>1286</v>
       </c>
@@ -14675,7 +14698,7 @@
       </c>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="100" t="s">
         <v>1287</v>
       </c>
@@ -14692,7 +14715,7 @@
       </c>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="100" t="s">
         <v>1288</v>
       </c>
@@ -14709,7 +14732,7 @@
       </c>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="100" t="s">
         <v>1289</v>
       </c>
@@ -14733,22 +14756,22 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B68203-BE4D-E747-BC71-5AEB341493FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.1640625" style="29" customWidth="1"/>
-    <col min="2" max="2" width="42.1640625" style="29" customWidth="1"/>
-    <col min="3" max="3" width="54.83203125" style="29" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="29"/>
+    <col min="1" max="1" width="35.125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="42.125" style="29" customWidth="1"/>
+    <col min="3" max="3" width="54.875" style="29" customWidth="1"/>
+    <col min="4" max="16384" width="10.875" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>1290</v>
       </c>
@@ -14759,7 +14782,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>1293</v>
       </c>
@@ -14770,7 +14793,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
         <v>1296</v>
       </c>
@@ -14781,7 +14804,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
         <v>994</v>
       </c>
@@ -14792,7 +14815,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
         <v>1301</v>
       </c>
@@ -14803,7 +14826,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
         <v>1304</v>
       </c>
@@ -14812,7 +14835,7 @@
       </c>
       <c r="C6" s="101"/>
     </row>
-    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
         <v>1306</v>
       </c>
@@ -14823,7 +14846,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="39" t="s">
         <v>1309</v>
       </c>
@@ -14834,7 +14857,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="39" t="s">
         <v>1312</v>
       </c>
@@ -14845,7 +14868,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="39" t="s">
         <v>1315</v>
       </c>
@@ -14856,7 +14879,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="39" t="s">
         <v>1318</v>
       </c>
@@ -14867,7 +14890,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="39" t="s">
         <v>1321</v>
       </c>
@@ -14878,7 +14901,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="39" t="s">
         <v>1324</v>
       </c>
@@ -14887,7 +14910,7 @@
       </c>
       <c r="C13" s="101"/>
     </row>
-    <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="39" t="s">
         <v>1326</v>
       </c>
@@ -14896,7 +14919,7 @@
       </c>
       <c r="C14" s="101"/>
     </row>
-    <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="39" t="s">
         <v>1328</v>
       </c>
@@ -14913,23 +14936,23 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" style="34" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="19.125" style="34" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="9" style="34" collapsed="1"/>
-    <col min="3" max="3" width="13.83203125" style="34" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.875" style="34" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="11.5" style="34" customWidth="1" collapsed="1"/>
     <col min="5" max="16384" width="9" style="34" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>923</v>
       </c>
@@ -14964,7 +14987,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="58" t="s">
         <v>97</v>
       </c>
@@ -14985,7 +15008,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="58" t="s">
         <v>98</v>
       </c>
@@ -15006,7 +15029,7 @@
       <c r="J3" s="33"/>
       <c r="K3" s="33"/>
     </row>
-    <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>99</v>
       </c>
@@ -15027,7 +15050,7 @@
       <c r="J4" s="33"/>
       <c r="K4" s="33"/>
     </row>
-    <row r="5" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="58" t="s">
         <v>84</v>
       </c>
@@ -15056,7 +15079,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="58" t="s">
         <v>82</v>
       </c>
@@ -15079,7 +15102,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="58" t="s">
         <v>93</v>
       </c>
@@ -15093,7 +15116,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="58" t="s">
         <v>100</v>
       </c>
@@ -15107,7 +15130,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="58" t="s">
         <v>77</v>
       </c>
@@ -15121,7 +15144,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="58" t="s">
         <v>77</v>
       </c>
@@ -15135,7 +15158,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="58" t="s">
         <v>1010</v>
       </c>
@@ -15158,7 +15181,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="58" t="s">
         <v>101</v>
       </c>
@@ -15172,7 +15195,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="58" t="s">
         <v>102</v>
       </c>
@@ -15186,7 +15209,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="58" t="s">
         <v>103</v>
       </c>
@@ -15200,7 +15223,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="58" t="s">
         <v>104</v>
       </c>
@@ -15214,7 +15237,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="58" t="s">
         <v>79</v>
       </c>
@@ -15231,7 +15254,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="58" t="s">
         <v>85</v>
       </c>
@@ -15245,7 +15268,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="58" t="s">
         <v>1006</v>
       </c>
@@ -15268,7 +15291,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="58" t="s">
         <v>1008</v>
       </c>
@@ -15288,7 +15311,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="59" t="s">
         <v>1004</v>
       </c>
@@ -15326,7 +15349,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="58" t="s">
         <v>195</v>
       </c>
@@ -15343,7 +15366,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="60" t="s">
         <v>1012</v>
       </c>
@@ -15360,7 +15383,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="58" t="s">
         <v>1013</v>
       </c>
@@ -15374,7 +15397,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A24" s="60" t="s">
         <v>1005</v>
       </c>
@@ -15398,21 +15421,21 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.1640625" style="4" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.1640625" style="4" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="23.125" style="4" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.125" style="4" customWidth="1" collapsed="1"/>
     <col min="3" max="16384" width="9" style="4" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>875</v>
       </c>
@@ -15423,7 +15446,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>84</v>
       </c>
@@ -15434,7 +15457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1010</v>
       </c>
@@ -15452,49 +15475,49 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="16.625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>176</v>
       </c>
@@ -15505,30 +15528,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:N20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="15.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="21.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.375" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.6640625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.6640625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.33203125" customWidth="1"/>
+    <col min="10" max="10" width="13.625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>134</v>
       </c>
@@ -15569,7 +15592,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>77</v>
       </c>
@@ -15596,7 +15619,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>146</v>
       </c>
@@ -15623,7 +15646,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>151</v>
       </c>
@@ -15650,7 +15673,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>168</v>
       </c>
@@ -15683,7 +15706,7 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>169</v>
       </c>
@@ -15708,7 +15731,7 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>170</v>
       </c>
@@ -15733,7 +15756,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>171</v>
       </c>
@@ -15760,7 +15783,7 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>167</v>
       </c>
@@ -15787,7 +15810,7 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>949</v>
       </c>
@@ -15814,7 +15837,7 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="38" t="s">
         <v>954</v>
       </c>
@@ -15841,7 +15864,7 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
         <v>960</v>
       </c>
@@ -15872,7 +15895,7 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>968</v>
       </c>
@@ -15897,7 +15920,7 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
         <v>975</v>
       </c>
@@ -15934,7 +15957,7 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="38" t="s">
         <v>982</v>
       </c>
@@ -15965,7 +15988,7 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="38" t="s">
         <v>985</v>
       </c>
@@ -15990,7 +16013,7 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="38" t="s">
         <v>989</v>
       </c>
@@ -16015,7 +16038,7 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="38" t="s">
         <v>1236</v>
       </c>
@@ -16042,7 +16065,7 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" s="38" t="s">
         <v>1247</v>
       </c>
@@ -16084,7 +16107,7 @@
       </c>
       <c r="N19" s="94"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="38" t="s">
         <v>1260</v>
       </c>
@@ -16112,6 +16135,41 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>1337</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>1338</v>
+      </c>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -16122,42 +16180,42 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG3"/>
   <sheetViews>
     <sheetView topLeftCell="AZ1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="BE19" sqref="BE19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="15" max="15" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="16" max="16" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="18" max="18" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="19" max="19" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="22" max="22" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="26" width="23.83203125" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="9.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="26" width="23.875" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="9.875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:59" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>36</v>
       </c>
@@ -16336,7 +16394,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:59" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:59" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -16417,7 +16475,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -16461,22 +16519,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="4" width="24.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -16496,7 +16554,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
@@ -16513,7 +16571,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>203</v>
       </c>
@@ -16536,24 +16594,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG130"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="9" style="4" collapsed="1"/>
     <col min="6" max="46" width="9" style="4" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="3.1640625" style="4" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="3.125" style="4" customWidth="1" collapsed="1"/>
     <col min="48" max="58" width="9" style="4" collapsed="1"/>
-    <col min="59" max="59" width="10.83203125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="59" max="59" width="10.875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="60" max="16384" width="9" style="4" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>36</v>
       </c>
@@ -16732,7 +16790,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:59" ht="75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>58</v>
       </c>
@@ -16819,7 +16877,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="3" spans="1:59" ht="45" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>58</v>
       </c>
@@ -16906,7 +16964,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="4" spans="1:59" ht="45" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>58</v>
       </c>
@@ -16987,7 +17045,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="5" spans="1:59" ht="45" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>58</v>
       </c>
@@ -17074,7 +17132,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="6" spans="1:59" ht="60" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:59" ht="51" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>58</v>
       </c>
@@ -17149,7 +17207,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="7" spans="1:59" ht="45" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>58</v>
       </c>
@@ -17224,7 +17282,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="8" spans="1:59" ht="30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:59" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>58</v>
       </c>
@@ -17299,7 +17357,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="9" spans="1:59" ht="75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>58</v>
       </c>
@@ -17374,7 +17432,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="10" spans="1:59" ht="105" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:59" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>58</v>
       </c>
@@ -17461,7 +17519,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="11" spans="1:59" ht="30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:59" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>58</v>
       </c>
@@ -17524,7 +17582,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="12" spans="1:59" ht="75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>58</v>
       </c>
@@ -17599,7 +17657,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="13" spans="1:59" ht="75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>58</v>
       </c>
@@ -17674,7 +17732,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="14" spans="1:59" ht="60" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:59" ht="51" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
         <v>58</v>
       </c>
@@ -17749,7 +17807,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="15" spans="1:59" ht="45" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
         <v>58</v>
       </c>
@@ -17830,7 +17888,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="16" spans="1:59" ht="75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
         <v>58</v>
       </c>
@@ -17893,7 +17951,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="17" spans="1:59" ht="90" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
         <v>58</v>
       </c>
@@ -17956,7 +18014,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="18" spans="1:59" ht="75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>58</v>
       </c>
@@ -18041,7 +18099,7 @@
       </c>
       <c r="BG18" s="1"/>
     </row>
-    <row r="19" spans="1:59" ht="60" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:59" ht="51" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
         <v>58</v>
       </c>
@@ -18104,7 +18162,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="20" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>222</v>
       </c>
@@ -18197,7 +18255,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="21" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>222</v>
       </c>
@@ -18290,7 +18348,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="22" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>222</v>
       </c>
@@ -18383,7 +18441,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="23" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>222</v>
       </c>
@@ -18476,7 +18534,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="24" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>222</v>
       </c>
@@ -18569,7 +18627,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="25" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>222</v>
       </c>
@@ -18662,7 +18720,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="26" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>222</v>
       </c>
@@ -18761,7 +18819,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="27" spans="1:59" ht="75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
         <v>58</v>
       </c>
@@ -18846,7 +18904,7 @@
       </c>
       <c r="BG27" s="1"/>
     </row>
-    <row r="28" spans="1:59" ht="75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>58</v>
       </c>
@@ -18909,7 +18967,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="29" spans="1:59" ht="60" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:59" ht="51" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>58</v>
       </c>
@@ -18972,7 +19030,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="30" spans="1:59" ht="75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>58</v>
       </c>
@@ -19035,7 +19093,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="31" spans="1:59" ht="60" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:59" ht="51" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>58</v>
       </c>
@@ -19098,7 +19156,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="32" spans="1:59" ht="75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>58</v>
       </c>
@@ -19161,7 +19219,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="33" spans="1:59" ht="45" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:59" ht="51" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>58</v>
       </c>
@@ -19224,7 +19282,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="34" spans="1:59" ht="60" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
         <v>58</v>
       </c>
@@ -19311,7 +19369,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="35" spans="1:59" ht="90" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
         <v>58</v>
       </c>
@@ -19404,7 +19462,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="36" spans="1:59" ht="60" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:59" ht="51" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
         <v>58</v>
       </c>
@@ -19485,7 +19543,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="37" spans="1:59" ht="60" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:59" ht="51" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
         <v>58</v>
       </c>
@@ -19560,7 +19618,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="38" spans="1:59" ht="30" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:59" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
         <v>58</v>
       </c>
@@ -19635,7 +19693,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="39" spans="1:59" ht="30" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:59" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
         <v>58</v>
       </c>
@@ -19710,7 +19768,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="40" spans="1:59" ht="45" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
         <v>58</v>
       </c>
@@ -19797,7 +19855,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="41" spans="1:59" ht="75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
         <v>58</v>
       </c>
@@ -19884,7 +19942,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="42" spans="1:59" ht="60" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
         <v>58</v>
       </c>
@@ -19947,7 +20005,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="43" spans="1:59" ht="90" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
         <v>58</v>
       </c>
@@ -20016,7 +20074,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="44" spans="1:59" ht="60" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:59" ht="51" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
         <v>58</v>
       </c>
@@ -20079,7 +20137,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="45" spans="1:59" ht="90" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
         <v>58</v>
       </c>
@@ -20142,7 +20200,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="46" spans="1:59" ht="120" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:59" ht="102" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
         <v>58</v>
       </c>
@@ -20203,7 +20261,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="47" spans="1:59" ht="30" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:59" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
         <v>58</v>
       </c>
@@ -20278,7 +20336,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="48" spans="1:59" ht="45" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
         <v>58</v>
       </c>
@@ -20341,7 +20399,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="49" spans="1:59" ht="60" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:59" ht="51" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
         <v>58</v>
       </c>
@@ -20416,7 +20474,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="50" spans="1:59" ht="75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A50" s="22" t="s">
         <v>58</v>
       </c>
@@ -20491,7 +20549,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="51" spans="1:59" ht="90" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A51" s="22" t="s">
         <v>58</v>
       </c>
@@ -20566,7 +20624,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="52" spans="1:59" ht="75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="s">
         <v>58</v>
       </c>
@@ -20641,7 +20699,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="53" spans="1:59" ht="75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
         <v>58</v>
       </c>
@@ -20704,7 +20762,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="54" spans="1:59" ht="75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A54" s="22" t="s">
         <v>58</v>
       </c>
@@ -20773,7 +20831,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="55" spans="1:59" ht="90" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A55" s="22" t="s">
         <v>58</v>
       </c>
@@ -20860,7 +20918,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="56" spans="1:59" ht="105" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:59" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A56" s="22" t="s">
         <v>58</v>
       </c>
@@ -20923,7 +20981,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="57" spans="1:59" ht="60" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:59" ht="51" x14ac:dyDescent="0.25">
       <c r="A57" s="22" t="s">
         <v>58</v>
       </c>
@@ -20986,7 +21044,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="58" spans="1:59" ht="60" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:59" ht="51" x14ac:dyDescent="0.25">
       <c r="A58" s="22" t="s">
         <v>58</v>
       </c>
@@ -21061,7 +21119,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="59" spans="1:59" ht="75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A59" s="22" t="s">
         <v>58</v>
       </c>
@@ -21142,7 +21200,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="60" spans="1:59" ht="30" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:59" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A60" s="22" t="s">
         <v>58</v>
       </c>
@@ -21223,7 +21281,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="61" spans="1:59" ht="45" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A61" s="22" t="s">
         <v>58</v>
       </c>
@@ -21286,7 +21344,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="62" spans="1:59" ht="45" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A62" s="22" t="s">
         <v>58</v>
       </c>
@@ -21349,7 +21407,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="63" spans="1:59" ht="45" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A63" s="22" t="s">
         <v>58</v>
       </c>
@@ -21412,7 +21470,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="64" spans="1:59" ht="45" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A64" s="22" t="s">
         <v>58</v>
       </c>
@@ -21475,7 +21533,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="65" spans="1:59" ht="60" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:59" ht="51" x14ac:dyDescent="0.25">
       <c r="A65" s="23" t="s">
         <v>58</v>
       </c>
@@ -21550,7 +21608,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="66" spans="1:59" ht="45" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A66" s="23" t="s">
         <v>58</v>
       </c>
@@ -21619,7 +21677,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="67" spans="1:59" ht="45" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A67" s="23" t="s">
         <v>58</v>
       </c>
@@ -21694,7 +21752,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="68" spans="1:59" ht="60" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:59" ht="51" x14ac:dyDescent="0.25">
       <c r="A68" s="23" t="s">
         <v>58</v>
       </c>
@@ -21757,7 +21815,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="69" spans="1:59" ht="60" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:59" ht="51" x14ac:dyDescent="0.25">
       <c r="A69" s="23" t="s">
         <v>58</v>
       </c>
@@ -21832,7 +21890,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="70" spans="1:59" ht="60" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:59" ht="51" x14ac:dyDescent="0.25">
       <c r="A70" s="23" t="s">
         <v>58</v>
       </c>
@@ -21907,7 +21965,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="71" spans="1:59" ht="60" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:59" ht="51" x14ac:dyDescent="0.25">
       <c r="A71" s="23" t="s">
         <v>58</v>
       </c>
@@ -21970,7 +22028,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="72" spans="1:59" ht="60" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:59" ht="51" x14ac:dyDescent="0.25">
       <c r="A72" s="23" t="s">
         <v>58</v>
       </c>
@@ -22039,7 +22097,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="73" spans="1:59" ht="75" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A73" s="23" t="s">
         <v>58</v>
       </c>
@@ -22108,7 +22166,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="74" spans="1:59" ht="75" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A74" s="22" t="s">
         <v>58</v>
       </c>
@@ -22183,7 +22241,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="75" spans="1:59" ht="60" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A75" s="22" t="s">
         <v>58</v>
       </c>
@@ -22258,7 +22316,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="76" spans="1:59" ht="60" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:59" ht="51" x14ac:dyDescent="0.25">
       <c r="A76" s="22" t="s">
         <v>58</v>
       </c>
@@ -22321,7 +22379,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="77" spans="1:59" ht="30" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:59" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A77" s="22" t="s">
         <v>58</v>
       </c>
@@ -22384,7 +22442,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="78" spans="1:59" ht="45" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:59" ht="51" x14ac:dyDescent="0.25">
       <c r="A78" s="22" t="s">
         <v>58</v>
       </c>
@@ -22447,7 +22505,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="79" spans="1:59" ht="60" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:59" ht="51" x14ac:dyDescent="0.25">
       <c r="A79" s="23" t="s">
         <v>58</v>
       </c>
@@ -22522,7 +22580,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="80" spans="1:59" ht="60" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:59" ht="51" x14ac:dyDescent="0.25">
       <c r="A80" s="22" t="s">
         <v>58</v>
       </c>
@@ -22585,7 +22643,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="81" spans="1:59" ht="45" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A81" s="22" t="s">
         <v>58</v>
       </c>
@@ -22654,7 +22712,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="82" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>222</v>
       </c>
@@ -22753,7 +22811,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="83" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>222</v>
       </c>
@@ -22852,7 +22910,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="84" spans="1:59" ht="45" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A84" s="22" t="s">
         <v>58</v>
       </c>
@@ -22915,7 +22973,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="85" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>222</v>
       </c>
@@ -23008,7 +23066,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="86" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>222</v>
       </c>
@@ -23101,7 +23159,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="87" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>222</v>
       </c>
@@ -23200,7 +23258,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="88" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>222</v>
       </c>
@@ -23293,7 +23351,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="89" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>222</v>
       </c>
@@ -23392,7 +23450,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="90" spans="1:59" ht="45" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A90" s="22" t="s">
         <v>58</v>
       </c>
@@ -23485,7 +23543,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="91" spans="1:59" ht="45" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A91" s="22" t="s">
         <v>58</v>
       </c>
@@ -23560,7 +23618,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="92" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A92" s="22" t="s">
         <v>58</v>
       </c>
@@ -23635,7 +23693,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="93" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A93" s="22" t="s">
         <v>58</v>
       </c>
@@ -23710,7 +23768,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="94" spans="1:59" ht="60" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:59" ht="51" x14ac:dyDescent="0.25">
       <c r="A94" s="22" t="s">
         <v>58</v>
       </c>
@@ -23773,7 +23831,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="95" spans="1:59" ht="60" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:59" ht="51" x14ac:dyDescent="0.25">
       <c r="A95" s="22" t="s">
         <v>58</v>
       </c>
@@ -23836,7 +23894,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="96" spans="1:59" ht="60" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:59" ht="51" x14ac:dyDescent="0.25">
       <c r="A96" s="22" t="s">
         <v>58</v>
       </c>
@@ -23899,7 +23957,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="97" spans="1:59" ht="60" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:59" ht="51" x14ac:dyDescent="0.25">
       <c r="A97" s="22" t="s">
         <v>58</v>
       </c>
@@ -23962,7 +24020,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="98" spans="1:59" ht="60" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:59" ht="51" x14ac:dyDescent="0.25">
       <c r="A98" s="22" t="s">
         <v>58</v>
       </c>
@@ -24025,7 +24083,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="99" spans="1:59" ht="105" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:59" ht="102" x14ac:dyDescent="0.25">
       <c r="A99" s="22" t="s">
         <v>58</v>
       </c>
@@ -24088,7 +24146,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="100" spans="1:59" ht="45" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A100" s="23" t="s">
         <v>58</v>
       </c>
@@ -24163,7 +24221,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="101" spans="1:59" ht="45" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A101" s="23" t="s">
         <v>58</v>
       </c>
@@ -24238,7 +24296,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="102" spans="1:59" ht="75" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A102" s="23" t="s">
         <v>58</v>
       </c>
@@ -24313,7 +24371,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="103" spans="1:59" ht="45" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A103" s="23" t="s">
         <v>248</v>
       </c>
@@ -24400,7 +24458,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="104" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A104" s="22" t="s">
         <v>248</v>
       </c>
@@ -24481,7 +24539,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="105" spans="1:59" ht="75" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:59" ht="51" x14ac:dyDescent="0.25">
       <c r="A105" s="22" t="s">
         <v>248</v>
       </c>
@@ -24556,7 +24614,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="106" spans="1:59" ht="60" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:59" ht="51" x14ac:dyDescent="0.25">
       <c r="A106" s="22" t="s">
         <v>248</v>
       </c>
@@ -24631,7 +24689,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="107" spans="1:59" ht="60" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:59" ht="51" x14ac:dyDescent="0.25">
       <c r="A107" s="22" t="s">
         <v>248</v>
       </c>
@@ -24706,7 +24764,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="108" spans="1:59" ht="60" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:59" ht="51" x14ac:dyDescent="0.25">
       <c r="A108" s="22" t="s">
         <v>248</v>
       </c>
@@ -24781,7 +24839,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="109" spans="1:59" ht="60" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:59" ht="51" x14ac:dyDescent="0.25">
       <c r="A109" s="22" t="s">
         <v>248</v>
       </c>
@@ -24856,7 +24914,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="110" spans="1:59" ht="75" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A110" s="22" t="s">
         <v>248</v>
       </c>
@@ -24931,7 +24989,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="111" spans="1:59" ht="75" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A111" s="22" t="s">
         <v>248</v>
       </c>
@@ -25012,7 +25070,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="112" spans="1:59" ht="45" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A112" s="22" t="s">
         <v>248</v>
       </c>
@@ -25105,7 +25163,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="113" spans="1:59" ht="45" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A113" s="22" t="s">
         <v>248</v>
       </c>
@@ -25192,7 +25250,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="114" spans="1:59" ht="45" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A114" s="22" t="s">
         <v>248</v>
       </c>
@@ -25261,7 +25319,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="115" spans="1:59" ht="45" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A115" s="22" t="s">
         <v>248</v>
       </c>
@@ -25354,7 +25412,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="116" spans="1:59" ht="60" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:59" ht="51" x14ac:dyDescent="0.25">
       <c r="A116" s="22" t="s">
         <v>248</v>
       </c>
@@ -25447,7 +25505,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="117" spans="1:59" ht="60" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:59" ht="51" x14ac:dyDescent="0.25">
       <c r="A117" s="22" t="s">
         <v>248</v>
       </c>
@@ -25540,7 +25598,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="118" spans="1:59" ht="105" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:59" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A118" s="22" t="s">
         <v>248</v>
       </c>
@@ -25603,7 +25661,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="119" spans="1:59" ht="90" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A119" s="22" t="s">
         <v>248</v>
       </c>
@@ -25684,7 +25742,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="120" spans="1:59" ht="105" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:59" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A120" s="22" t="s">
         <v>248</v>
       </c>
@@ -25771,7 +25829,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="121" spans="1:59" ht="75" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A121" s="22" t="s">
         <v>248</v>
       </c>
@@ -25858,7 +25916,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="122" spans="1:59" ht="75" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:59" ht="51" x14ac:dyDescent="0.25">
       <c r="A122" s="22" t="s">
         <v>248</v>
       </c>
@@ -25921,7 +25979,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="123" spans="1:59" ht="45" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A123" s="22" t="s">
         <v>248</v>
       </c>
@@ -25984,7 +26042,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="124" spans="1:59" ht="150" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:59" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A124" s="22" t="s">
         <v>248</v>
       </c>
@@ -26047,7 +26105,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="125" spans="1:59" ht="60" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:59" ht="51" x14ac:dyDescent="0.25">
       <c r="A125" s="22" t="s">
         <v>248</v>
       </c>
@@ -26134,7 +26192,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="126" spans="1:59" ht="45" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A126" s="22" t="s">
         <v>248</v>
       </c>
@@ -26221,7 +26279,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="127" spans="1:59" ht="75" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A127" s="22" t="s">
         <v>248</v>
       </c>
@@ -26294,7 +26352,7 @@
       </c>
       <c r="BG127" s="1"/>
     </row>
-    <row r="128" spans="1:59" ht="75" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A128" s="22" t="s">
         <v>248</v>
       </c>
@@ -26379,7 +26437,7 @@
       </c>
       <c r="BG128" s="1"/>
     </row>
-    <row r="129" spans="1:59" ht="105" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:59" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A129" s="22" t="s">
         <v>248</v>
       </c>
@@ -26466,7 +26524,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="130" spans="1:59" ht="60" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:59" ht="51" x14ac:dyDescent="0.25">
       <c r="A130" s="22" t="s">
         <v>248</v>
       </c>
@@ -26542,7 +26600,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BG130" xr:uid="{00000000-0009-0000-0000-000005000000}">
+  <autoFilter ref="A1:BG130">
     <sortState ref="A2:BG130">
       <sortCondition ref="E1:E130"/>
     </sortState>
@@ -26564,22 +26622,22 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG86"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="BC6" sqref="BC6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="20" width="0" hidden="1" customWidth="1" collapsed="1"/>
     <col min="21" max="26" width="0" style="4" hidden="1" customWidth="1" collapsed="1"/>
     <col min="27" max="47" width="0" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="59" max="59" width="10.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="59" max="59" width="10.875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>36</v>
       </c>
@@ -26758,7 +26816,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:59" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:59" s="4" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>58</v>
       </c>
@@ -26819,7 +26877,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="3" spans="1:59" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:59" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>58</v>
       </c>
@@ -26894,7 +26952,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="4" spans="1:59" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:59" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>58</v>
       </c>
@@ -26955,7 +27013,7 @@
       </c>
       <c r="BG4" s="1"/>
     </row>
-    <row r="5" spans="1:59" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>58</v>
       </c>
@@ -27030,7 +27088,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="6" spans="1:59" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:59" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>58</v>
       </c>
@@ -27105,7 +27163,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="7" spans="1:59" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:59" s="4" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>58</v>
       </c>
@@ -27180,7 +27238,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="8" spans="1:59" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:59" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>58</v>
       </c>
@@ -27255,7 +27313,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="9" spans="1:59" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:59" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>58</v>
       </c>
@@ -27318,7 +27376,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="10" spans="1:59" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:59" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>58</v>
       </c>
@@ -27387,7 +27445,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="11" spans="1:59" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:59" s="4" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>58</v>
       </c>
@@ -27474,7 +27532,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="12" spans="1:59" s="4" customFormat="1" ht="105" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:59" s="4" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>58</v>
       </c>
@@ -27537,7 +27595,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="13" spans="1:59" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>58</v>
       </c>
@@ -27600,7 +27658,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="14" spans="1:59" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>58</v>
       </c>
@@ -27675,7 +27733,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="15" spans="1:59" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:59" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>58</v>
       </c>
@@ -27756,7 +27814,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="16" spans="1:59" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:59" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>58</v>
       </c>
@@ -27837,7 +27895,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="17" spans="1:59" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:59" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>58</v>
       </c>
@@ -27900,7 +27958,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="18" spans="1:59" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:59" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>58</v>
       </c>
@@ -27963,7 +28021,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="19" spans="1:59" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:59" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>58</v>
       </c>
@@ -28026,7 +28084,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="20" spans="1:59" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:59" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>58</v>
       </c>
@@ -28089,7 +28147,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="21" spans="1:59" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
         <v>58</v>
       </c>
@@ -28164,7 +28222,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="22" spans="1:59" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:59" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
         <v>58</v>
       </c>
@@ -28233,7 +28291,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="23" spans="1:59" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:59" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
         <v>58</v>
       </c>
@@ -28308,7 +28366,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="24" spans="1:59" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
         <v>58</v>
       </c>
@@ -28371,7 +28429,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="25" spans="1:59" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
         <v>58</v>
       </c>
@@ -28446,7 +28504,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="26" spans="1:59" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
         <v>58</v>
       </c>
@@ -28521,7 +28579,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="27" spans="1:59" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
         <v>58</v>
       </c>
@@ -28584,7 +28642,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="28" spans="1:59" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
         <v>58</v>
       </c>
@@ -28653,7 +28711,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="29" spans="1:59" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:59" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
         <v>58</v>
       </c>
@@ -28722,7 +28780,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="30" spans="1:59" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:59" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
         <v>58</v>
       </c>
@@ -28797,7 +28855,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="31" spans="1:59" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:59" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
         <v>58</v>
       </c>
@@ -28872,7 +28930,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="32" spans="1:59" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
         <v>58</v>
       </c>
@@ -28935,7 +28993,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="33" spans="1:59" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:59" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
         <v>58</v>
       </c>
@@ -28998,7 +29056,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="34" spans="1:59" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
         <v>58</v>
       </c>
@@ -29061,7 +29119,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="35" spans="1:59" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="s">
         <v>58</v>
       </c>
@@ -29136,7 +29194,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="36" spans="1:59" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
         <v>58</v>
       </c>
@@ -29199,7 +29257,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="37" spans="1:59" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:59" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
         <v>58</v>
       </c>
@@ -29268,7 +29326,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="38" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>222</v>
       </c>
@@ -29367,7 +29425,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="39" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>222</v>
       </c>
@@ -29466,7 +29524,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="40" spans="1:59" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:59" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
         <v>58</v>
       </c>
@@ -29529,7 +29587,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="41" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>222</v>
       </c>
@@ -29622,7 +29680,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="42" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>222</v>
       </c>
@@ -29715,7 +29773,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="43" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>222</v>
       </c>
@@ -29814,7 +29872,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="44" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>222</v>
       </c>
@@ -29907,7 +29965,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="45" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>222</v>
       </c>
@@ -30006,7 +30064,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="46" spans="1:59" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:59" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
         <v>58</v>
       </c>
@@ -30099,7 +30157,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="47" spans="1:59" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:59" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
         <v>58</v>
       </c>
@@ -30174,7 +30232,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="48" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
         <v>58</v>
       </c>
@@ -30249,7 +30307,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="49" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
         <v>58</v>
       </c>
@@ -30324,7 +30382,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="50" spans="1:59" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A50" s="22" t="s">
         <v>58</v>
       </c>
@@ -30387,7 +30445,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="51" spans="1:59" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A51" s="22" t="s">
         <v>58</v>
       </c>
@@ -30450,7 +30508,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="52" spans="1:59" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="s">
         <v>58</v>
       </c>
@@ -30513,7 +30571,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="53" spans="1:59" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
         <v>58</v>
       </c>
@@ -30576,7 +30634,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="54" spans="1:59" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A54" s="22" t="s">
         <v>58</v>
       </c>
@@ -30639,7 +30697,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="55" spans="1:59" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:59" s="4" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A55" s="22" t="s">
         <v>58</v>
       </c>
@@ -30702,7 +30760,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="56" spans="1:59" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:59" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A56" s="23" t="s">
         <v>58</v>
       </c>
@@ -30777,7 +30835,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="57" spans="1:59" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:59" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A57" s="23" t="s">
         <v>58</v>
       </c>
@@ -30852,7 +30910,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="58" spans="1:59" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:59" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A58" s="23" t="s">
         <v>58</v>
       </c>
@@ -30927,7 +30985,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="59" spans="1:59" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:59" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A59" s="23" t="s">
         <v>248</v>
       </c>
@@ -31014,7 +31072,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="60" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="22" t="s">
         <v>248</v>
       </c>
@@ -31095,7 +31153,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="61" spans="1:59" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:59" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A61" s="22" t="s">
         <v>248</v>
       </c>
@@ -31170,7 +31228,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="62" spans="1:59" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A62" s="22" t="s">
         <v>248</v>
       </c>
@@ -31245,7 +31303,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="63" spans="1:59" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A63" s="22" t="s">
         <v>248</v>
       </c>
@@ -31320,7 +31378,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="64" spans="1:59" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:59" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A64" s="22" t="s">
         <v>248</v>
       </c>
@@ -31395,7 +31453,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="65" spans="1:59" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A65" s="22" t="s">
         <v>248</v>
       </c>
@@ -31470,7 +31528,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="66" spans="1:59" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:59" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A66" s="22" t="s">
         <v>248</v>
       </c>
@@ -31545,7 +31603,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="67" spans="1:59" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:59" s="4" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A67" s="22" t="s">
         <v>248</v>
       </c>
@@ -31626,7 +31684,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="68" spans="1:59" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:59" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A68" s="22" t="s">
         <v>248</v>
       </c>
@@ -31719,7 +31777,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="69" spans="1:59" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:59" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A69" s="22" t="s">
         <v>248</v>
       </c>
@@ -31806,7 +31864,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="70" spans="1:59" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:59" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A70" s="22" t="s">
         <v>248</v>
       </c>
@@ -31875,7 +31933,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="71" spans="1:59" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:59" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A71" s="22" t="s">
         <v>248</v>
       </c>
@@ -31968,7 +32026,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="72" spans="1:59" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A72" s="22" t="s">
         <v>248</v>
       </c>
@@ -32061,7 +32119,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="73" spans="1:59" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:59" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A73" s="22" t="s">
         <v>248</v>
       </c>
@@ -32154,7 +32212,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="74" spans="1:59" s="4" customFormat="1" ht="105" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:59" s="4" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A74" s="22" t="s">
         <v>248</v>
       </c>
@@ -32217,7 +32275,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="75" spans="1:59" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:59" s="4" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A75" s="22" t="s">
         <v>248</v>
       </c>
@@ -32298,7 +32356,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="76" spans="1:59" s="4" customFormat="1" ht="105" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:59" s="4" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A76" s="22" t="s">
         <v>248</v>
       </c>
@@ -32385,7 +32443,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="77" spans="1:59" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:59" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A77" s="22" t="s">
         <v>248</v>
       </c>
@@ -32472,7 +32530,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="78" spans="1:59" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A78" s="22" t="s">
         <v>248</v>
       </c>
@@ -32535,7 +32593,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="79" spans="1:59" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:59" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A79" s="22" t="s">
         <v>248</v>
       </c>
@@ -32598,7 +32656,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="80" spans="1:59" s="4" customFormat="1" ht="150" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:59" s="4" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A80" s="22" t="s">
         <v>248</v>
       </c>
@@ -32661,7 +32719,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="81" spans="1:59" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A81" s="22" t="s">
         <v>248</v>
       </c>
@@ -32748,7 +32806,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="82" spans="1:59" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:59" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A82" s="22" t="s">
         <v>248</v>
       </c>
@@ -32835,7 +32893,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="83" spans="1:59" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:59" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A83" s="22" t="s">
         <v>248</v>
       </c>
@@ -32908,7 +32966,7 @@
       </c>
       <c r="BG83" s="1"/>
     </row>
-    <row r="84" spans="1:59" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:59" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A84" s="22" t="s">
         <v>248</v>
       </c>
@@ -32993,7 +33051,7 @@
       </c>
       <c r="BG84" s="1"/>
     </row>
-    <row r="85" spans="1:59" s="4" customFormat="1" ht="105" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:59" s="4" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A85" s="22" t="s">
         <v>248</v>
       </c>
@@ -33080,7 +33138,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="86" spans="1:59" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A86" s="22" t="s">
         <v>248</v>
       </c>
@@ -33156,7 +33214,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BG86" xr:uid="{00000000-0009-0000-0000-000006000000}">
+  <autoFilter ref="A1:BG86">
     <sortState ref="A2:BG130">
       <sortCondition ref="E1:E130"/>
     </sortState>
@@ -33178,16 +33236,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F128"/>
   <sheetViews>
     <sheetView topLeftCell="A112" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="I115" sqref="I115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>36</v>
       </c>
@@ -33207,7 +33265,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>18</v>
       </c>
@@ -33224,7 +33282,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>18</v>
       </c>
@@ -33241,7 +33299,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>24</v>
       </c>
@@ -33258,7 +33316,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>18</v>
       </c>
@@ -33275,7 +33333,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>24</v>
       </c>
@@ -33292,7 +33350,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>18</v>
       </c>
@@ -33309,7 +33367,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>24</v>
       </c>
@@ -33326,7 +33384,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>24</v>
       </c>
@@ -33343,7 +33401,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>18</v>
       </c>
@@ -33360,7 +33418,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>18</v>
       </c>
@@ -33377,7 +33435,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>18</v>
       </c>
@@ -33394,7 +33452,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>18</v>
       </c>
@@ -33411,7 +33469,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="60" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>18</v>
       </c>
@@ -33428,7 +33486,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>18</v>
       </c>
@@ -33445,7 +33503,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>24</v>
       </c>
@@ -33462,7 +33520,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>18</v>
       </c>
@@ -33479,7 +33537,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>24</v>
       </c>
@@ -33496,7 +33554,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>18</v>
       </c>
@@ -33513,7 +33571,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>18</v>
       </c>
@@ -33530,7 +33588,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>18</v>
       </c>
@@ -33547,7 +33605,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>18</v>
       </c>
@@ -33564,7 +33622,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>18</v>
       </c>
@@ -33581,7 +33639,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>18</v>
       </c>
@@ -33598,7 +33656,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>18</v>
       </c>
@@ -33615,7 +33673,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>18</v>
       </c>
@@ -33632,7 +33690,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>18</v>
       </c>
@@ -33649,7 +33707,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>18</v>
       </c>
@@ -33666,7 +33724,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>24</v>
       </c>
@@ -33683,7 +33741,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>24</v>
       </c>
@@ -33700,7 +33758,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="90" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
         <v>24</v>
       </c>
@@ -33717,7 +33775,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="105" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
         <v>24</v>
       </c>
@@ -33734,7 +33792,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="90" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>18</v>
       </c>
@@ -33751,7 +33809,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="90" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>18</v>
       </c>
@@ -33768,7 +33826,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
         <v>18</v>
       </c>
@@ -33785,7 +33843,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="90" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
         <v>18</v>
       </c>
@@ -33802,7 +33860,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="90" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
         <v>18</v>
       </c>
@@ -33819,7 +33877,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
         <v>18</v>
       </c>
@@ -33836,7 +33894,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
         <v>18</v>
       </c>
@@ -33853,7 +33911,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="90" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
         <v>18</v>
       </c>
@@ -33870,7 +33928,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
         <v>18</v>
       </c>
@@ -33887,7 +33945,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
         <v>18</v>
       </c>
@@ -33904,7 +33962,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
         <v>18</v>
       </c>
@@ -33921,7 +33979,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="90" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
         <v>18</v>
       </c>
@@ -33938,7 +33996,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="90" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
         <v>18</v>
       </c>
@@ -33955,7 +34013,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
         <v>24</v>
       </c>
@@ -33972,7 +34030,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
         <v>18</v>
       </c>
@@ -33989,7 +34047,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
         <v>18</v>
       </c>
@@ -34006,7 +34064,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
         <v>18</v>
       </c>
@@ -34023,7 +34081,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="16" t="s">
         <v>18</v>
       </c>
@@ -34040,7 +34098,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A51" s="16" t="s">
         <v>18</v>
       </c>
@@ -34057,7 +34115,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A52" s="16" t="s">
         <v>24</v>
       </c>
@@ -34074,7 +34132,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A53" s="16" t="s">
         <v>18</v>
       </c>
@@ -34091,7 +34149,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A54" s="16" t="s">
         <v>18</v>
       </c>
@@ -34108,7 +34166,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
         <v>18</v>
       </c>
@@ -34125,7 +34183,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="s">
         <v>18</v>
       </c>
@@ -34142,7 +34200,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="90" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A57" s="16" t="s">
         <v>18</v>
       </c>
@@ -34159,7 +34217,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A58" s="16" t="s">
         <v>18</v>
       </c>
@@ -34176,7 +34234,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="120" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" ht="102" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
         <v>18</v>
       </c>
@@ -34193,7 +34251,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A60" s="16" t="s">
         <v>18</v>
       </c>
@@ -34210,7 +34268,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A61" s="16" t="s">
         <v>18</v>
       </c>
@@ -34227,7 +34285,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
         <v>18</v>
       </c>
@@ -34244,7 +34302,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
         <v>18</v>
       </c>
@@ -34261,7 +34319,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="105" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
         <v>18</v>
       </c>
@@ -34278,7 +34336,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="90" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="s">
         <v>18</v>
       </c>
@@ -34295,7 +34353,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="90" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A66" s="16" t="s">
         <v>24</v>
       </c>
@@ -34312,7 +34370,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="16" t="s">
         <v>203</v>
       </c>
@@ -34329,7 +34387,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="16" t="s">
         <v>203</v>
       </c>
@@ -34346,7 +34404,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="16" t="s">
         <v>203</v>
       </c>
@@ -34363,7 +34421,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A70" s="17" t="s">
         <v>18</v>
       </c>
@@ -34380,7 +34438,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="90" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A71" s="17" t="s">
         <v>18</v>
       </c>
@@ -34397,7 +34455,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A72" s="17" t="s">
         <v>18</v>
       </c>
@@ -34414,7 +34472,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="75" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A73" s="16" t="s">
         <v>24</v>
       </c>
@@ -34431,7 +34489,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="75" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A74" s="16" t="s">
         <v>203</v>
       </c>
@@ -34448,7 +34506,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A75" s="16" t="s">
         <v>18</v>
       </c>
@@ -34465,7 +34523,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A76" s="16" t="s">
         <v>18</v>
       </c>
@@ -34482,7 +34540,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A77" s="16" t="s">
         <v>18</v>
       </c>
@@ -34499,7 +34557,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="90" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A78" s="16" t="s">
         <v>203</v>
       </c>
@@ -34516,7 +34574,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="16" t="s">
         <v>18</v>
       </c>
@@ -34533,7 +34591,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="16" t="s">
         <v>18</v>
       </c>
@@ -34550,7 +34608,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="16" t="s">
         <v>18</v>
       </c>
@@ -34567,7 +34625,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="16" t="s">
         <v>18</v>
       </c>
@@ -34584,7 +34642,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="16" t="s">
         <v>18</v>
       </c>
@@ -34601,7 +34659,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="16" t="s">
         <v>18</v>
       </c>
@@ -34618,7 +34676,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="75" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A85" s="16" t="s">
         <v>24</v>
       </c>
@@ -34635,7 +34693,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="16" t="s">
         <v>18</v>
       </c>
@@ -34652,7 +34710,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="16" t="s">
         <v>18</v>
       </c>
@@ -34669,7 +34727,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="90" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A88" s="16" t="s">
         <v>24</v>
       </c>
@@ -34686,7 +34744,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="16" t="s">
         <v>18</v>
       </c>
@@ -34703,7 +34761,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="16" t="s">
         <v>18</v>
       </c>
@@ -34720,7 +34778,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="16" t="s">
         <v>203</v>
       </c>
@@ -34737,7 +34795,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A92" s="18" t="s">
         <v>24</v>
       </c>
@@ -34754,7 +34812,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A93" s="18" t="s">
         <v>24</v>
       </c>
@@ -34771,7 +34829,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A94" s="18" t="s">
         <v>24</v>
       </c>
@@ -34788,7 +34846,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A95" s="18" t="s">
         <v>24</v>
       </c>
@@ -34805,7 +34863,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A96" s="18" t="s">
         <v>24</v>
       </c>
@@ -34822,7 +34880,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A97" s="18" t="s">
         <v>24</v>
       </c>
@@ -34839,7 +34897,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A98" s="16" t="s">
         <v>18</v>
       </c>
@@ -34856,7 +34914,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="16" t="s">
         <v>18</v>
       </c>
@@ -34873,7 +34931,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A100" s="16" t="s">
         <v>203</v>
       </c>
@@ -34890,7 +34948,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="90" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A101" s="16" t="s">
         <v>203</v>
       </c>
@@ -34907,7 +34965,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A102" s="16" t="s">
         <v>203</v>
       </c>
@@ -34924,7 +34982,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="90" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A103" s="16" t="s">
         <v>203</v>
       </c>
@@ -34941,7 +34999,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="16" t="s">
         <v>18</v>
       </c>
@@ -34958,7 +35016,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="16" t="s">
         <v>18</v>
       </c>
@@ -34975,7 +35033,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A106" s="16" t="s">
         <v>18</v>
       </c>
@@ -34992,7 +35050,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A107" s="16" t="s">
         <v>18</v>
       </c>
@@ -35009,7 +35067,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A108" s="16" t="s">
         <v>18</v>
       </c>
@@ -35026,7 +35084,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="16" t="s">
         <v>18</v>
       </c>
@@ -35043,7 +35101,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="75" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A110" s="16" t="s">
         <v>18</v>
       </c>
@@ -35060,7 +35118,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="90" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A111" s="16" t="s">
         <v>18</v>
       </c>
@@ -35077,7 +35135,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="75" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A112" s="16" t="s">
         <v>18</v>
       </c>
@@ -35094,7 +35152,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="90" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A113" s="16" t="s">
         <v>203</v>
       </c>
@@ -35111,7 +35169,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A114" s="18" t="s">
         <v>24</v>
       </c>
@@ -35128,7 +35186,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="75" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A115" s="16" t="s">
         <v>18</v>
       </c>
@@ -35145,7 +35203,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="75" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A116" s="18" t="s">
         <v>24</v>
       </c>
@@ -35162,7 +35220,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>203</v>
       </c>
@@ -35179,7 +35237,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>203</v>
       </c>
@@ -35196,7 +35254,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
         <v>203</v>
       </c>
@@ -35213,7 +35271,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="75" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A120" s="10" t="s">
         <v>18</v>
       </c>
@@ -35230,7 +35288,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="75" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
         <v>18</v>
       </c>
@@ -35247,7 +35305,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="75" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
         <v>248</v>
       </c>
@@ -35264,7 +35322,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="43" t="s">
         <v>58</v>
       </c>
@@ -35281,7 +35339,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="43" t="s">
         <v>58</v>
       </c>
@@ -35298,7 +35356,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="43" t="s">
         <v>58</v>
       </c>
@@ -35315,7 +35373,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="43" t="s">
         <v>58</v>
       </c>
@@ -35332,7 +35390,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="43" t="s">
         <v>58</v>
       </c>
@@ -35349,7 +35407,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="43" t="s">
         <v>58</v>
       </c>
@@ -35384,20 +35442,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="22.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="17.125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="22.625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>94</v>
       </c>
@@ -35408,7 +35466,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>106</v>
       </c>
@@ -35419,7 +35477,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>107</v>
       </c>
@@ -35430,7 +35488,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>108</v>
       </c>
@@ -35441,7 +35499,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>109</v>
       </c>
@@ -35452,7 +35510,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>76</v>
       </c>
@@ -35460,7 +35518,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>84</v>
       </c>
@@ -35468,7 +35526,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>1010</v>
       </c>
@@ -35476,7 +35534,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>1004</v>
       </c>
@@ -35484,7 +35542,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>195</v>
       </c>
@@ -35492,7 +35550,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>1014</v>
       </c>
@@ -35500,7 +35558,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>1015</v>
       </c>
@@ -35508,7 +35566,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>1016</v>
       </c>
@@ -35516,7 +35574,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>1011</v>
       </c>
@@ -35524,7 +35582,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>1013</v>
       </c>
@@ -35532,7 +35590,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>1006</v>
       </c>
@@ -35540,7 +35598,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>1008</v>
       </c>
@@ -35548,7 +35606,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>1005</v>
       </c>
@@ -35556,7 +35614,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>82</v>
       </c>
@@ -35564,7 +35622,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>83</v>
       </c>
@@ -35572,7 +35630,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>105</v>
       </c>
@@ -35580,7 +35638,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>79</v>
       </c>
@@ -35588,7 +35646,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>85</v>
       </c>
@@ -35596,32 +35654,32 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C25" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C26" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C27" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C28" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C29" s="1" t="s">
         <v>195</v>
       </c>

--- a/resources/excels/KE.xlsx
+++ b/resources/excels/KE.xlsx
@@ -9,32 +9,34 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="34080" windowHeight="10080" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="34080" windowHeight="10080" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
     <sheet name="Priority" sheetId="10" r:id="rId2"/>
     <sheet name="Headers" sheetId="9" r:id="rId3"/>
     <sheet name="NFTRTickets-San" sheetId="3" r:id="rId4"/>
-    <sheet name="FTRTickets-San" sheetId="2" r:id="rId5"/>
-    <sheet name="NFTRTickets-Reg" sheetId="25" r:id="rId6"/>
-    <sheet name="NFTRTickets-Reg1" sheetId="11" r:id="rId7"/>
-    <sheet name="FTRTickets-Reg" sheetId="12" r:id="rId8"/>
-    <sheet name="UserManagement" sheetId="19" r:id="rId9"/>
-    <sheet name="PinnedTags" sheetId="5" r:id="rId10"/>
-    <sheet name="Ticket State" sheetId="6" r:id="rId11"/>
-    <sheet name="TemplateManagement" sheetId="20" r:id="rId12"/>
-    <sheet name="Ticket Transfer Rules" sheetId="15" r:id="rId13"/>
-    <sheet name="Sheet1" sheetId="26" r:id="rId14"/>
-    <sheet name="Authentication Policy" sheetId="17" r:id="rId15"/>
-    <sheet name="Action Tagging" sheetId="18" r:id="rId16"/>
-    <sheet name="QuestionAnswerKey" sheetId="27" r:id="rId17"/>
-    <sheet name="State Queue Mapping" sheetId="21" r:id="rId18"/>
-    <sheet name="Transfer To Queue" sheetId="24" r:id="rId19"/>
+    <sheet name="SLA Configuration" sheetId="29" r:id="rId5"/>
+    <sheet name="Assignment Rule" sheetId="28" r:id="rId6"/>
+    <sheet name="FTRTickets-San" sheetId="2" r:id="rId7"/>
+    <sheet name="NFTRTickets-Reg" sheetId="25" r:id="rId8"/>
+    <sheet name="NFTRTickets-Reg1" sheetId="11" r:id="rId9"/>
+    <sheet name="FTRTickets-Reg" sheetId="12" r:id="rId10"/>
+    <sheet name="UserManagement" sheetId="19" r:id="rId11"/>
+    <sheet name="PinnedTags" sheetId="5" r:id="rId12"/>
+    <sheet name="Ticket State" sheetId="6" r:id="rId13"/>
+    <sheet name="TemplateManagement" sheetId="20" r:id="rId14"/>
+    <sheet name="Ticket Transfer Rules" sheetId="15" r:id="rId15"/>
+    <sheet name="Sheet1" sheetId="26" r:id="rId16"/>
+    <sheet name="Authentication Policy" sheetId="17" r:id="rId17"/>
+    <sheet name="Action Tagging" sheetId="18" r:id="rId18"/>
+    <sheet name="QuestionAnswerKey" sheetId="27" r:id="rId19"/>
+    <sheet name="State Queue Mapping" sheetId="21" r:id="rId20"/>
+    <sheet name="Transfer To Queue" sheetId="24" r:id="rId21"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'NFTRTickets-Reg'!$A$1:$BG$45</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'NFTRTickets-Reg1'!$A$1:$BG$86</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'NFTRTickets-Reg'!$A$1:$BG$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'NFTRTickets-Reg1'!$A$1:$BG$86</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -45,8 +47,231 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Rahul Gupta</author>
+  </authors>
+  <commentList>
+    <comment ref="AV1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Rahul Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+This column represent the customer VIP or not. For which customer ticket is created that customer VIP status will store.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AW1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Rahul Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+This column represent the customer Line type(Prepaid/postpaid/hybrid)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AX1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Rahul Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Rahul Gupta:
+This column represent the customer Type</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AY1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Rahul Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+This column represent customer service category</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AZ1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Rahul Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+This column represent customer segment</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Rahul Gupta</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Rahul Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+This column represent the customer VIP or not. For which customer ticket is created that customer VIP status will store.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Rahul Gupta</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Rahul Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+This column represent the customer VIP or not. For which customer ticket is created that customer VIP status will store.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Rahul Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+This column represent the customer Line type(Prepaid/postpaid/hybrid)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7864" uniqueCount="1339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7899" uniqueCount="1354">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -3403,9 +3628,6 @@
     <t>Airtel Money_Agent</t>
   </si>
   <si>
-    <t>080221003433</t>
-  </si>
-  <si>
     <t>100221003564</t>
   </si>
   <si>
@@ -4093,13 +4315,61 @@
   </si>
   <si>
     <t>No. Of DAs</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>VIP</t>
+  </si>
+  <si>
+    <t>Line Type</t>
+  </si>
+  <si>
+    <t>Customer Type</t>
+  </si>
+  <si>
+    <t>Service Category</t>
+  </si>
+  <si>
+    <t>Customer Segment</t>
+  </si>
+  <si>
+    <t>Customer SubSegment</t>
+  </si>
+  <si>
+    <t>Interaction Channel</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Workgroup Name</t>
+  </si>
+  <si>
+    <t>Rule Priority</t>
+  </si>
+  <si>
+    <t>Prepaid</t>
+  </si>
+  <si>
+    <t>Pre</t>
+  </si>
+  <si>
+    <t>Silver</t>
+  </si>
+  <si>
+    <t>Attribute name</t>
+  </si>
+  <si>
+    <t>Attribute value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4219,6 +4489,19 @@
       <sz val="10"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="10">
@@ -4710,7 +4993,7 @@
         <xdr:cNvPr id="9217" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000001240000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001240000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4758,7 +5041,7 @@
         <xdr:cNvPr id="3" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4806,7 +5089,7 @@
         <xdr:cNvPr id="4" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EF08D5FD-92C7-4540-AF22-FEEA19CA4C87}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF08D5FD-92C7-4540-AF22-FEEA19CA4C87}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4854,7 +5137,7 @@
         <xdr:cNvPr id="5" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{14EBD159-F09F-5A4A-BACB-F932EFB20343}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14EBD159-F09F-5A4A-BACB-F932EFB20343}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5248,10 +5531,10 @@
         <v>172</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>1249</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>1250</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -5259,7 +5542,7 @@
         <v>2394650</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>124</v>
@@ -5304,7 +5587,7 @@
         <v>789474747</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -5312,7 +5595,7 @@
         <v>2388192</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>123</v>
@@ -5361,7 +5644,7 @@
         <v>2394650</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>131</v>
@@ -5384,7 +5667,7 @@
         <v>789474747</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -5392,7 +5675,7 @@
         <v>2388008</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>175</v>
@@ -5421,10 +5704,10 @@
         <v>13221514</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="D6" s="98">
         <v>767240995</v>
@@ -5447,6 +5730,2460 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F128"/>
+  <sheetViews>
+    <sheetView topLeftCell="A112" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I115" sqref="I115"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A35" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>353</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>354</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>354</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>365</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>365</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A42" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>367</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A43" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A44" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A48" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A52" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>396</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>397</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>397</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A53" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>399</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="D55" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A56" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="C57" s="17" t="s">
+        <v>412</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>412</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B58" s="17" t="s">
+        <v>414</v>
+      </c>
+      <c r="C58" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="E58" s="16" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="102" x14ac:dyDescent="0.25">
+      <c r="A59" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>417</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>418</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>418</v>
+      </c>
+      <c r="E59" s="16" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A60" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>420</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>421</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>421</v>
+      </c>
+      <c r="E60" s="16" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A61" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>424</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>424</v>
+      </c>
+      <c r="E61" s="16" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>426</v>
+      </c>
+      <c r="C62" s="17" t="s">
+        <v>427</v>
+      </c>
+      <c r="D62" s="17" t="s">
+        <v>427</v>
+      </c>
+      <c r="E62" s="16" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A63" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>429</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>430</v>
+      </c>
+      <c r="D63" s="16" t="s">
+        <v>430</v>
+      </c>
+      <c r="E63" s="16" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A64" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>432</v>
+      </c>
+      <c r="C64" s="17" t="s">
+        <v>433</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>433</v>
+      </c>
+      <c r="E64" s="16" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A65" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>435</v>
+      </c>
+      <c r="C65" s="17" t="s">
+        <v>436</v>
+      </c>
+      <c r="D65" s="17" t="s">
+        <v>436</v>
+      </c>
+      <c r="E65" s="16" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A66" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B66" s="17" t="s">
+        <v>854</v>
+      </c>
+      <c r="C66" s="17" t="s">
+        <v>855</v>
+      </c>
+      <c r="D66" s="17" t="s">
+        <v>855</v>
+      </c>
+      <c r="E66" s="16" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>438</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="D67" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="B68" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>442</v>
+      </c>
+      <c r="D68" s="16" t="s">
+        <v>442</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="B69" s="16" t="s">
+        <v>444</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>444</v>
+      </c>
+      <c r="D69" s="16" t="s">
+        <v>444</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A70" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B70" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="C70" s="17" t="s">
+        <v>447</v>
+      </c>
+      <c r="D70" s="17" t="s">
+        <v>447</v>
+      </c>
+      <c r="E70" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A71" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B71" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="E71" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A72" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B72" s="17" t="s">
+        <v>450</v>
+      </c>
+      <c r="C72" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="D72" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="E72" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B73" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="C73" s="17" t="s">
+        <v>453</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>453</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="B74" s="17" t="s">
+        <v>455</v>
+      </c>
+      <c r="C74" s="17" t="s">
+        <v>456</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>456</v>
+      </c>
+      <c r="E74" s="16" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A75" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B75" s="17" t="s">
+        <v>458</v>
+      </c>
+      <c r="C75" s="16" t="s">
+        <v>459</v>
+      </c>
+      <c r="D75" s="16" t="s">
+        <v>459</v>
+      </c>
+      <c r="E75" s="16" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A76" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B76" s="17" t="s">
+        <v>461</v>
+      </c>
+      <c r="C76" s="16" t="s">
+        <v>462</v>
+      </c>
+      <c r="D76" s="16" t="s">
+        <v>462</v>
+      </c>
+      <c r="E76" s="16" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A77" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B77" s="17" t="s">
+        <v>464</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>465</v>
+      </c>
+      <c r="D77" s="16" t="s">
+        <v>465</v>
+      </c>
+      <c r="E77" s="16" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A78" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="B78" s="17" t="s">
+        <v>467</v>
+      </c>
+      <c r="C78" s="17" t="s">
+        <v>468</v>
+      </c>
+      <c r="D78" s="17" t="s">
+        <v>468</v>
+      </c>
+      <c r="E78" s="16" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B79" s="16" t="s">
+        <v>470</v>
+      </c>
+      <c r="C79" s="16" t="s">
+        <v>470</v>
+      </c>
+      <c r="D79" s="16" t="s">
+        <v>470</v>
+      </c>
+      <c r="E79" s="16" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B80" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="C80" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="D80" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="E80" s="16" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B81" s="16" t="s">
+        <v>474</v>
+      </c>
+      <c r="C81" s="16" t="s">
+        <v>474</v>
+      </c>
+      <c r="D81" s="16" t="s">
+        <v>474</v>
+      </c>
+      <c r="E81" s="16" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B82" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="C82" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="D82" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="E82" s="16" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B83" s="16" t="s">
+        <v>478</v>
+      </c>
+      <c r="C83" s="16" t="s">
+        <v>478</v>
+      </c>
+      <c r="D83" s="16" t="s">
+        <v>478</v>
+      </c>
+      <c r="E83" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B84" s="16" t="s">
+        <v>480</v>
+      </c>
+      <c r="C84" s="16" t="s">
+        <v>480</v>
+      </c>
+      <c r="D84" s="16" t="s">
+        <v>480</v>
+      </c>
+      <c r="E84" s="16" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B85" s="16" t="s">
+        <v>482</v>
+      </c>
+      <c r="C85" s="17" t="s">
+        <v>482</v>
+      </c>
+      <c r="D85" s="17" t="s">
+        <v>482</v>
+      </c>
+      <c r="E85" s="16" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B86" s="16" t="s">
+        <v>484</v>
+      </c>
+      <c r="C86" s="16" t="s">
+        <v>484</v>
+      </c>
+      <c r="D86" s="16" t="s">
+        <v>484</v>
+      </c>
+      <c r="E86" s="16" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B87" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="C87" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="D87" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="E87" s="16" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A88" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B88" s="17" t="s">
+        <v>488</v>
+      </c>
+      <c r="C88" s="17" t="s">
+        <v>488</v>
+      </c>
+      <c r="D88" s="17" t="s">
+        <v>488</v>
+      </c>
+      <c r="E88" s="16" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B89" s="16" t="s">
+        <v>490</v>
+      </c>
+      <c r="C89" s="16" t="s">
+        <v>490</v>
+      </c>
+      <c r="D89" s="16" t="s">
+        <v>490</v>
+      </c>
+      <c r="E89" s="16" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B90" s="16" t="s">
+        <v>492</v>
+      </c>
+      <c r="C90" s="16" t="s">
+        <v>492</v>
+      </c>
+      <c r="D90" s="16" t="s">
+        <v>492</v>
+      </c>
+      <c r="E90" s="16" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="B91" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="C91" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="D91" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="E91" s="16" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A92" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B92" s="18" t="s">
+        <v>496</v>
+      </c>
+      <c r="C92" s="18" t="s">
+        <v>496</v>
+      </c>
+      <c r="D92" s="18" t="s">
+        <v>496</v>
+      </c>
+      <c r="E92" s="18" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A93" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B93" s="18" t="s">
+        <v>498</v>
+      </c>
+      <c r="C93" s="18" t="s">
+        <v>498</v>
+      </c>
+      <c r="D93" s="18" t="s">
+        <v>498</v>
+      </c>
+      <c r="E93" s="18" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A94" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B94" s="18" t="s">
+        <v>500</v>
+      </c>
+      <c r="C94" s="18" t="s">
+        <v>500</v>
+      </c>
+      <c r="D94" s="18" t="s">
+        <v>500</v>
+      </c>
+      <c r="E94" s="18" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A95" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B95" s="18" t="s">
+        <v>502</v>
+      </c>
+      <c r="C95" s="18" t="s">
+        <v>502</v>
+      </c>
+      <c r="D95" s="18" t="s">
+        <v>502</v>
+      </c>
+      <c r="E95" s="18" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A96" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B96" s="18" t="s">
+        <v>504</v>
+      </c>
+      <c r="C96" s="18" t="s">
+        <v>504</v>
+      </c>
+      <c r="D96" s="18" t="s">
+        <v>504</v>
+      </c>
+      <c r="E96" s="18" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A97" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B97" s="18" t="s">
+        <v>506</v>
+      </c>
+      <c r="C97" s="18" t="s">
+        <v>506</v>
+      </c>
+      <c r="D97" s="18" t="s">
+        <v>506</v>
+      </c>
+      <c r="E97" s="18" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A98" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B98" s="17" t="s">
+        <v>508</v>
+      </c>
+      <c r="C98" s="17" t="s">
+        <v>509</v>
+      </c>
+      <c r="D98" s="17" t="s">
+        <v>509</v>
+      </c>
+      <c r="E98" s="16" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B99" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C99" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="D99" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="E99" s="16" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A100" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="B100" s="17" t="s">
+        <v>513</v>
+      </c>
+      <c r="C100" s="17" t="s">
+        <v>514</v>
+      </c>
+      <c r="D100" s="17" t="s">
+        <v>514</v>
+      </c>
+      <c r="E100" s="17" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A101" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="B101" s="17" t="s">
+        <v>516</v>
+      </c>
+      <c r="C101" s="17" t="s">
+        <v>516</v>
+      </c>
+      <c r="D101" s="17" t="s">
+        <v>516</v>
+      </c>
+      <c r="E101" s="17" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A102" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="B102" s="17" t="s">
+        <v>518</v>
+      </c>
+      <c r="C102" s="17" t="s">
+        <v>518</v>
+      </c>
+      <c r="D102" s="17" t="s">
+        <v>518</v>
+      </c>
+      <c r="E102" s="17" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A103" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="B103" s="17" t="s">
+        <v>520</v>
+      </c>
+      <c r="C103" s="17" t="s">
+        <v>520</v>
+      </c>
+      <c r="D103" s="17" t="s">
+        <v>520</v>
+      </c>
+      <c r="E103" s="17" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B104" s="16" t="s">
+        <v>522</v>
+      </c>
+      <c r="C104" s="16" t="s">
+        <v>522</v>
+      </c>
+      <c r="D104" s="16" t="s">
+        <v>522</v>
+      </c>
+      <c r="E104" s="16" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B105" s="16" t="s">
+        <v>524</v>
+      </c>
+      <c r="C105" s="16" t="s">
+        <v>524</v>
+      </c>
+      <c r="D105" s="16" t="s">
+        <v>524</v>
+      </c>
+      <c r="E105" s="16" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A106" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B106" s="16" t="s">
+        <v>526</v>
+      </c>
+      <c r="C106" s="17" t="s">
+        <v>527</v>
+      </c>
+      <c r="D106" s="17" t="s">
+        <v>527</v>
+      </c>
+      <c r="E106" s="16" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A107" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B107" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="C107" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="D107" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="E107" s="16" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A108" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B108" s="17" t="s">
+        <v>529</v>
+      </c>
+      <c r="C108" s="17" t="s">
+        <v>529</v>
+      </c>
+      <c r="D108" s="17" t="s">
+        <v>529</v>
+      </c>
+      <c r="E108" s="16" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B109" s="16" t="s">
+        <v>531</v>
+      </c>
+      <c r="C109" s="16" t="s">
+        <v>531</v>
+      </c>
+      <c r="D109" s="16" t="s">
+        <v>531</v>
+      </c>
+      <c r="E109" s="16" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A110" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B110" s="17" t="s">
+        <v>533</v>
+      </c>
+      <c r="C110" s="17" t="s">
+        <v>533</v>
+      </c>
+      <c r="D110" s="17" t="s">
+        <v>533</v>
+      </c>
+      <c r="E110" s="16" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A111" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B111" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="C111" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="D111" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="E111" s="16" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A112" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B112" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="C112" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="D112" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="E112" s="16" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A113" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="B113" s="17" t="s">
+        <v>535</v>
+      </c>
+      <c r="C113" s="17" t="s">
+        <v>536</v>
+      </c>
+      <c r="D113" s="17" t="s">
+        <v>536</v>
+      </c>
+      <c r="E113" s="17" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A114" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B114" s="18" t="s">
+        <v>538</v>
+      </c>
+      <c r="C114" s="18" t="s">
+        <v>538</v>
+      </c>
+      <c r="D114" s="18" t="s">
+        <v>538</v>
+      </c>
+      <c r="E114" s="18" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A115" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B115" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="C115" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="D115" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="E115" s="16" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A116" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B116" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="C116" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="D116" s="19" t="s">
+        <v>540</v>
+      </c>
+      <c r="E116" s="18" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E117" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E118" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E119" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A120" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B120" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="C120" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="D120" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="E120" s="11" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A121" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B121" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="C121" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="D121" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="E121" s="11" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A122" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="B122" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="C122" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="D122" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="E122" s="14" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A123" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="B123" s="44" t="s">
+        <v>818</v>
+      </c>
+      <c r="C123" s="44" t="s">
+        <v>818</v>
+      </c>
+      <c r="D123" s="44" t="s">
+        <v>818</v>
+      </c>
+      <c r="E123" s="44" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A124" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="B124" s="44" t="s">
+        <v>820</v>
+      </c>
+      <c r="C124" s="44" t="s">
+        <v>820</v>
+      </c>
+      <c r="D124" s="44" t="s">
+        <v>820</v>
+      </c>
+      <c r="E124" s="44" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A125" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="B125" s="44" t="s">
+        <v>822</v>
+      </c>
+      <c r="C125" s="44" t="s">
+        <v>822</v>
+      </c>
+      <c r="D125" s="44" t="s">
+        <v>822</v>
+      </c>
+      <c r="E125" s="44" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A126" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="B126" s="44" t="s">
+        <v>824</v>
+      </c>
+      <c r="C126" s="44" t="s">
+        <v>825</v>
+      </c>
+      <c r="D126" s="44" t="s">
+        <v>825</v>
+      </c>
+      <c r="E126" s="44" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A127" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="B127" s="44" t="s">
+        <v>827</v>
+      </c>
+      <c r="C127" s="44" t="s">
+        <v>827</v>
+      </c>
+      <c r="D127" s="44" t="s">
+        <v>827</v>
+      </c>
+      <c r="E127" s="44" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A128" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="B128" s="44" t="s">
+        <v>829</v>
+      </c>
+      <c r="C128" s="44" t="s">
+        <v>829</v>
+      </c>
+      <c r="D128" s="44" t="s">
+        <v>829</v>
+      </c>
+      <c r="E128" s="44" t="s">
+        <v>830</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E117">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118:E119">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E120">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E121">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="22.625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C27" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C29" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5469,7 +8206,7 @@
         <v>113</v>
       </c>
       <c r="E1" s="98" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -5529,7 +8266,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7"/>
@@ -5751,7 +8488,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -5817,7 +8554,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E444"/>
   <sheetViews>
@@ -6728,7 +9465,7 @@
         <v>1019</v>
       </c>
       <c r="D53" s="89" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="E53" s="90" t="s">
         <v>84</v>
@@ -13386,7 +16123,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E58"/>
   <sheetViews>
@@ -14387,7 +17124,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
@@ -14459,7 +17196,7 @@
         <v>895</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="C2" s="4">
         <v>4</v>
@@ -14474,7 +17211,7 @@
         <v>898</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="H2" s="29" t="s">
         <v>899</v>
@@ -14489,7 +17226,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
@@ -14527,13 +17264,13 @@
         <v>911</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>1255</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>1256</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>1257</v>
-      </c>
       <c r="J1" s="99" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="K1" s="4"/>
     </row>
@@ -14560,7 +17297,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -14569,10 +17306,10 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="J3" s="100" t="b">
         <v>0</v>
@@ -14581,7 +17318,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="100" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="B4" s="100"/>
       <c r="C4" s="100"/>
@@ -14598,7 +17335,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="100" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="B5" s="100"/>
       <c r="C5" s="100"/>
@@ -14615,7 +17352,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="100" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="B6" s="100"/>
       <c r="C6" s="100"/>
@@ -14632,7 +17369,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="100" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="B7" s="100"/>
       <c r="C7" s="100"/>
@@ -14649,7 +17386,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="100" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="B8" s="100"/>
       <c r="C8" s="100"/>
@@ -14666,7 +17403,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="100" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="B9" s="100"/>
       <c r="C9" s="100"/>
@@ -14683,7 +17420,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="100" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="B10" s="100"/>
       <c r="C10" s="100"/>
@@ -14700,7 +17437,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="100" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="B11" s="100"/>
       <c r="C11" s="100"/>
@@ -14717,7 +17454,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="100" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="B12" s="100"/>
       <c r="C12" s="100"/>
@@ -14734,7 +17471,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="100" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="B13" s="100"/>
       <c r="C13" s="100"/>
@@ -14755,7 +17492,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -14773,35 +17510,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B1" s="39" t="s">
         <v>1290</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="C1" s="39" t="s">
         <v>1291</v>
-      </c>
-      <c r="C1" s="39" t="s">
-        <v>1292</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B2" s="39" t="s">
         <v>1293</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="C2" s="39" t="s">
         <v>1294</v>
-      </c>
-      <c r="C2" s="39" t="s">
-        <v>1295</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B3" s="39" t="s">
         <v>1296</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="C3" s="39" t="s">
         <v>1297</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>1298</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -14809,125 +17546,125 @@
         <v>994</v>
       </c>
       <c r="B4" s="39" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C4" s="39" t="s">
         <v>1299</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>1300</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B5" s="39" t="s">
         <v>1301</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="C5" s="39" t="s">
         <v>1302</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>1303</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B6" s="39" t="s">
         <v>1304</v>
-      </c>
-      <c r="B6" s="39" t="s">
-        <v>1305</v>
       </c>
       <c r="C6" s="101"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B7" s="39" t="s">
         <v>1306</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="C7" s="39" t="s">
         <v>1307</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>1308</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="39" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B8" s="39" t="s">
         <v>1309</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="C8" s="39" t="s">
         <v>1310</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>1311</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="39" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B9" s="39" t="s">
         <v>1312</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="C9" s="39" t="s">
         <v>1313</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>1314</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="39" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B10" s="39" t="s">
         <v>1315</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="C10" s="39" t="s">
         <v>1316</v>
-      </c>
-      <c r="C10" s="39" t="s">
-        <v>1317</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="39" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B11" s="39" t="s">
         <v>1318</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="C11" s="39" t="s">
         <v>1319</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>1320</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="39" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B12" s="39" t="s">
         <v>1321</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="C12" s="39" t="s">
         <v>1322</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>1323</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="39" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B13" s="39" t="s">
         <v>1324</v>
-      </c>
-      <c r="B13" s="39" t="s">
-        <v>1325</v>
       </c>
       <c r="C13" s="101"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="39" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B14" s="39" t="s">
         <v>1326</v>
-      </c>
-      <c r="B14" s="39" t="s">
-        <v>1327</v>
       </c>
       <c r="C14" s="101"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="39" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B15" s="39" t="s">
         <v>1328</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="C15" s="39" t="s">
         <v>1329</v>
-      </c>
-      <c r="C15" s="39" t="s">
-        <v>1330</v>
       </c>
     </row>
   </sheetData>
@@ -14935,7 +17672,60 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.625" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L24"/>
   <sheetViews>
@@ -15420,7 +18210,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -15443,7 +18233,7 @@
         <v>876</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -15471,59 +18261,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.625" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -15531,8 +18268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -15586,10 +18323,10 @@
         <v>980</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>1245</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>1246</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
@@ -15597,7 +18334,7 @@
         <v>77</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>142</v>
@@ -15651,7 +18388,7 @@
         <v>151</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>148</v>
@@ -15699,7 +18436,7 @@
         <v>156</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -15818,7 +18555,7 @@
         <v>950</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>951</v>
@@ -15925,7 +18662,7 @@
         <v>975</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>148</v>
@@ -16040,19 +18777,19 @@
     </row>
     <row r="18" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="38" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B18" s="38" t="s">
         <v>1236</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="C18" s="38" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D18" s="38" t="s">
         <v>1237</v>
       </c>
-      <c r="C18" s="38" t="s">
+      <c r="E18" s="38" t="s">
         <v>1258</v>
-      </c>
-      <c r="D18" s="38" t="s">
-        <v>1238</v>
-      </c>
-      <c r="E18" s="38" t="s">
-        <v>1259</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>902</v>
@@ -16067,67 +18804,67 @@
     </row>
     <row r="19" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" s="38" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="C19" s="38" t="s">
         <v>143</v>
       </c>
       <c r="D19" s="38" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E19" s="38" t="s">
         <v>1240</v>
       </c>
-      <c r="E19" s="38" t="s">
+      <c r="F19" s="38" t="s">
         <v>1241</v>
       </c>
-      <c r="F19" s="38" t="s">
+      <c r="G19" s="38" t="s">
         <v>1242</v>
-      </c>
-      <c r="G19" s="38" t="s">
-        <v>1243</v>
       </c>
       <c r="H19" s="38" t="s">
         <v>144</v>
       </c>
       <c r="I19" s="95" t="s">
+        <v>1275</v>
+      </c>
+      <c r="J19" s="95" t="s">
         <v>1276</v>
       </c>
-      <c r="J19" s="95" t="s">
+      <c r="K19" s="95" t="s">
         <v>1277</v>
-      </c>
-      <c r="K19" s="95" t="s">
-        <v>1278</v>
       </c>
       <c r="L19" s="38" t="s">
         <v>145</v>
       </c>
       <c r="M19" s="38" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="N19" s="94"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="38" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>1260</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>1261</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>148</v>
       </c>
       <c r="D20" s="38" t="s">
+        <v>1261</v>
+      </c>
+      <c r="E20" s="38" t="s">
         <v>1262</v>
       </c>
-      <c r="E20" s="38" t="s">
+      <c r="F20" s="38" t="s">
         <v>1263</v>
       </c>
-      <c r="F20" s="38" t="s">
+      <c r="G20" s="38" t="s">
         <v>1264</v>
-      </c>
-      <c r="G20" s="38" t="s">
-        <v>1265</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -16138,16 +18875,16 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>1331</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>1332</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>1333</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>1334</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>992</v>
@@ -16156,16 +18893,16 @@
         <v>166</v>
       </c>
       <c r="G21" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>1335</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>1336</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="J21" s="1" t="s">
         <v>1337</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>1338</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -16180,11 +18917,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BG3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BC2"/>
   <sheetViews>
-    <sheetView topLeftCell="AZ1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BE19" sqref="BE19"/>
+    <sheetView topLeftCell="AP1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BC2" sqref="BC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -16213,9 +18950,10 @@
     <col min="23" max="23" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="24" max="26" width="23.875" customWidth="1" collapsed="1"/>
     <col min="27" max="27" width="9.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="54" width="11" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:55" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>36</v>
       </c>
@@ -16358,43 +19096,31 @@
         <v>43</v>
       </c>
       <c r="AV1" s="4" t="s">
-        <v>74</v>
+        <v>1339</v>
       </c>
       <c r="AW1" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AX1" s="20" t="s">
-        <v>934</v>
-      </c>
-      <c r="AY1" s="20" t="s">
-        <v>935</v>
-      </c>
-      <c r="AZ1" s="20" t="s">
-        <v>936</v>
-      </c>
-      <c r="BA1" s="20" t="s">
-        <v>937</v>
-      </c>
-      <c r="BB1" s="20" t="s">
-        <v>938</v>
-      </c>
-      <c r="BC1" s="20" t="s">
-        <v>939</v>
-      </c>
-      <c r="BD1" s="37" t="s">
-        <v>940</v>
-      </c>
-      <c r="BE1" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="BF1" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="BG1" s="4" t="s">
+        <v>1340</v>
+      </c>
+      <c r="AX1" s="4" t="s">
+        <v>1341</v>
+      </c>
+      <c r="AY1" s="4" t="s">
+        <v>1342</v>
+      </c>
+      <c r="AZ1" s="4" t="s">
+        <v>1343</v>
+      </c>
+      <c r="BA1" s="4" t="s">
+        <v>1344</v>
+      </c>
+      <c r="BB1" s="4" t="s">
+        <v>1345</v>
+      </c>
+      <c r="BC1" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:59" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:55" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -16456,69 +19182,292 @@
         <v>54</v>
       </c>
       <c r="AI2" s="4"/>
-      <c r="AV2" t="s">
-        <v>1004</v>
-      </c>
-      <c r="AW2">
-        <v>3</v>
-      </c>
-      <c r="BD2" s="4">
-        <v>4</v>
-      </c>
-      <c r="BE2" s="4" t="s">
-        <v>1004</v>
-      </c>
-      <c r="BF2" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="BG2" s="2" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI3" s="4"/>
-      <c r="AV3" t="s">
-        <v>1004</v>
-      </c>
-      <c r="AW3">
-        <v>8</v>
-      </c>
-      <c r="BD3" s="4">
-        <f>SUM(AW3,AY3,BA3,BC3)</f>
-        <v>8</v>
-      </c>
-      <c r="BE3" s="4" t="s">
-        <v>1004</v>
-      </c>
-      <c r="BF3" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="BG3" s="2" t="s">
+      <c r="AV2" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW2" s="4" t="s">
+        <v>1350</v>
+      </c>
+      <c r="AX2" s="4" t="s">
+        <v>1351</v>
+      </c>
+      <c r="BC2" s="2" t="s">
         <v>1110</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q9"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="23.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1343</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="I1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K1" t="s">
+        <v>934</v>
+      </c>
+      <c r="L1" t="s">
+        <v>935</v>
+      </c>
+      <c r="M1" t="s">
+        <v>936</v>
+      </c>
+      <c r="N1" t="s">
+        <v>937</v>
+      </c>
+      <c r="O1" t="s">
+        <v>938</v>
+      </c>
+      <c r="P1" t="s">
+        <v>939</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="Q2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="Q3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="Q4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="Q5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="Q6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="Q7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="Q8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="Q9">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="19.125" customWidth="1"/>
+    <col min="5" max="5" width="17.375" customWidth="1"/>
+    <col min="6" max="6" width="9.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1347</v>
+      </c>
+      <c r="E1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1346</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1349</v>
+      </c>
+      <c r="H3">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -16593,7 +19542,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG130"/>
   <sheetViews>
@@ -16874,7 +19823,7 @@
         <v>89</v>
       </c>
       <c r="BG2" s="1" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="3" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -16961,7 +19910,7 @@
         <v>89</v>
       </c>
       <c r="BG3" s="1" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="4" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -17042,7 +19991,7 @@
         <v>89</v>
       </c>
       <c r="BG4" s="1" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="5" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -17129,7 +20078,7 @@
         <v>89</v>
       </c>
       <c r="BG5" s="1" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="6" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -17204,7 +20153,7 @@
         <v>89</v>
       </c>
       <c r="BG6" s="1" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="7" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -17354,7 +20303,7 @@
         <v>89</v>
       </c>
       <c r="BG8" s="1" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="9" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -17429,7 +20378,7 @@
         <v>89</v>
       </c>
       <c r="BG9" s="1" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="10" spans="1:59" ht="89.25" x14ac:dyDescent="0.25">
@@ -17516,7 +20465,7 @@
         <v>89</v>
       </c>
       <c r="BG10" s="1" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="11" spans="1:59" ht="25.5" x14ac:dyDescent="0.25">
@@ -17579,7 +20528,7 @@
         <v>89</v>
       </c>
       <c r="BG11" s="1" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="12" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -17654,7 +20603,7 @@
         <v>89</v>
       </c>
       <c r="BG12" s="1" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="13" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -17729,7 +20678,7 @@
         <v>89</v>
       </c>
       <c r="BG13" s="1" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="14" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -17804,7 +20753,7 @@
         <v>89</v>
       </c>
       <c r="BG14" s="1" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="15" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -17885,7 +20834,7 @@
         <v>89</v>
       </c>
       <c r="BG15" s="1" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="16" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -17948,7 +20897,7 @@
         <v>89</v>
       </c>
       <c r="BG16" s="1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="17" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
@@ -18011,7 +20960,7 @@
         <v>89</v>
       </c>
       <c r="BG17" s="1" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="18" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
@@ -18159,7 +21108,7 @@
         <v>89</v>
       </c>
       <c r="BG19" s="1" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="20" spans="1:59" x14ac:dyDescent="0.25">
@@ -18252,7 +21201,7 @@
         <v>89</v>
       </c>
       <c r="BG20" s="1" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="21" spans="1:59" x14ac:dyDescent="0.25">
@@ -18345,7 +21294,7 @@
         <v>89</v>
       </c>
       <c r="BG21" s="1" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="22" spans="1:59" x14ac:dyDescent="0.25">
@@ -18438,7 +21387,7 @@
         <v>89</v>
       </c>
       <c r="BG22" s="1" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="23" spans="1:59" x14ac:dyDescent="0.25">
@@ -18531,7 +21480,7 @@
         <v>89</v>
       </c>
       <c r="BG23" s="1" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="24" spans="1:59" x14ac:dyDescent="0.25">
@@ -18624,7 +21573,7 @@
         <v>89</v>
       </c>
       <c r="BG24" s="1" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="25" spans="1:59" x14ac:dyDescent="0.25">
@@ -18717,7 +21666,7 @@
         <v>89</v>
       </c>
       <c r="BG25" s="1" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="26" spans="1:59" x14ac:dyDescent="0.25">
@@ -18816,7 +21765,7 @@
         <v>89</v>
       </c>
       <c r="BG26" s="1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="27" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
@@ -18964,7 +21913,7 @@
         <v>89</v>
       </c>
       <c r="BG28" s="1" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="29" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -19027,7 +21976,7 @@
         <v>89</v>
       </c>
       <c r="BG29" s="1" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="30" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -19090,7 +22039,7 @@
         <v>89</v>
       </c>
       <c r="BG30" s="1" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="31" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -19153,7 +22102,7 @@
         <v>89</v>
       </c>
       <c r="BG31" s="1" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="32" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
@@ -19216,7 +22165,7 @@
         <v>89</v>
       </c>
       <c r="BG32" s="1" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="33" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -19279,7 +22228,7 @@
         <v>89</v>
       </c>
       <c r="BG33" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="34" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -19366,7 +22315,7 @@
         <v>89</v>
       </c>
       <c r="BG34" s="1" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="35" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
@@ -19459,7 +22408,7 @@
         <v>89</v>
       </c>
       <c r="BG35" s="1" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="36" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -19540,7 +22489,7 @@
         <v>89</v>
       </c>
       <c r="BG36" s="1" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="37" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -19615,7 +22564,7 @@
         <v>89</v>
       </c>
       <c r="BG37" s="1" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="38" spans="1:59" ht="25.5" x14ac:dyDescent="0.25">
@@ -19690,7 +22639,7 @@
         <v>89</v>
       </c>
       <c r="BG38" s="1" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="39" spans="1:59" ht="25.5" x14ac:dyDescent="0.25">
@@ -19765,7 +22714,7 @@
         <v>89</v>
       </c>
       <c r="BG39" s="1" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="40" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -19852,7 +22801,7 @@
         <v>89</v>
       </c>
       <c r="BG40" s="1" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="41" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -19939,7 +22888,7 @@
         <v>89</v>
       </c>
       <c r="BG41" s="1" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="42" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -20002,7 +22951,7 @@
         <v>89</v>
       </c>
       <c r="BG42" s="1" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="43" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
@@ -20071,7 +23020,7 @@
         <v>89</v>
       </c>
       <c r="BG43" s="1" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="44" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -20134,7 +23083,7 @@
         <v>89</v>
       </c>
       <c r="BG44" s="1" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="45" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
@@ -20197,7 +23146,7 @@
         <v>89</v>
       </c>
       <c r="BG45" s="1" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="46" spans="1:59" ht="102" x14ac:dyDescent="0.25">
@@ -20258,7 +23207,7 @@
         <v>89</v>
       </c>
       <c r="BG46" s="1" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="47" spans="1:59" ht="25.5" x14ac:dyDescent="0.25">
@@ -20333,7 +23282,7 @@
         <v>89</v>
       </c>
       <c r="BG47" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="48" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -20396,7 +23345,7 @@
         <v>89</v>
       </c>
       <c r="BG48" s="1" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="49" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -20471,7 +23420,7 @@
         <v>89</v>
       </c>
       <c r="BG49" s="1" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="50" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -20546,7 +23495,7 @@
         <v>89</v>
       </c>
       <c r="BG50" s="1" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="51" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
@@ -20621,7 +23570,7 @@
         <v>89</v>
       </c>
       <c r="BG51" s="1" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="52" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -20696,7 +23645,7 @@
         <v>89</v>
       </c>
       <c r="BG52" s="1" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="53" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -20759,7 +23708,7 @@
         <v>89</v>
       </c>
       <c r="BG53" s="1" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="54" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -20828,7 +23777,7 @@
         <v>89</v>
       </c>
       <c r="BG54" s="1" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="55" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
@@ -20915,7 +23864,7 @@
         <v>89</v>
       </c>
       <c r="BG55" s="1" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="56" spans="1:59" ht="89.25" x14ac:dyDescent="0.25">
@@ -20978,7 +23927,7 @@
         <v>89</v>
       </c>
       <c r="BG56" s="1" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="57" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -21041,7 +23990,7 @@
         <v>89</v>
       </c>
       <c r="BG57" s="1" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="58" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -21116,7 +24065,7 @@
         <v>89</v>
       </c>
       <c r="BG58" s="1" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="59" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -21197,7 +24146,7 @@
         <v>89</v>
       </c>
       <c r="BG59" s="1" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="60" spans="1:59" ht="25.5" x14ac:dyDescent="0.25">
@@ -21278,7 +24227,7 @@
         <v>89</v>
       </c>
       <c r="BG60" s="1" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="61" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -21341,7 +24290,7 @@
         <v>89</v>
       </c>
       <c r="BG61" s="1" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="62" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -21404,7 +24353,7 @@
         <v>89</v>
       </c>
       <c r="BG62" s="1" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="63" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -21467,7 +24416,7 @@
         <v>89</v>
       </c>
       <c r="BG63" s="1" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="64" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -21530,7 +24479,7 @@
         <v>89</v>
       </c>
       <c r="BG64" s="1" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="65" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -21605,7 +24554,7 @@
         <v>89</v>
       </c>
       <c r="BG65" s="1" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="66" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -21674,7 +24623,7 @@
         <v>89</v>
       </c>
       <c r="BG66" s="1" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="67" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -21749,7 +24698,7 @@
         <v>89</v>
       </c>
       <c r="BG67" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="68" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -21812,7 +24761,7 @@
         <v>89</v>
       </c>
       <c r="BG68" s="1" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="69" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -21887,7 +24836,7 @@
         <v>89</v>
       </c>
       <c r="BG69" s="1" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="70" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -21962,7 +24911,7 @@
         <v>89</v>
       </c>
       <c r="BG70" s="1" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="71" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -22025,7 +24974,7 @@
         <v>89</v>
       </c>
       <c r="BG71" s="1" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="72" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -22094,7 +25043,7 @@
         <v>89</v>
       </c>
       <c r="BG72" s="1" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="73" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -22163,7 +25112,7 @@
         <v>89</v>
       </c>
       <c r="BG73" s="1" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="74" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -22238,7 +25187,7 @@
         <v>89</v>
       </c>
       <c r="BG74" s="1" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="75" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -22313,7 +25262,7 @@
         <v>89</v>
       </c>
       <c r="BG75" s="1" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="76" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -22376,7 +25325,7 @@
         <v>89</v>
       </c>
       <c r="BG76" s="1" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="77" spans="1:59" ht="25.5" x14ac:dyDescent="0.25">
@@ -22439,7 +25388,7 @@
         <v>89</v>
       </c>
       <c r="BG77" s="1" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="78" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -22502,7 +25451,7 @@
         <v>89</v>
       </c>
       <c r="BG78" s="1" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="79" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -22577,7 +25526,7 @@
         <v>89</v>
       </c>
       <c r="BG79" s="1" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="80" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -22640,7 +25589,7 @@
         <v>89</v>
       </c>
       <c r="BG80" s="1" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="81" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -22709,7 +25658,7 @@
         <v>89</v>
       </c>
       <c r="BG81" s="1" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="82" spans="1:59" x14ac:dyDescent="0.25">
@@ -22808,7 +25757,7 @@
         <v>89</v>
       </c>
       <c r="BG82" s="1" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="83" spans="1:59" x14ac:dyDescent="0.25">
@@ -22907,7 +25856,7 @@
         <v>89</v>
       </c>
       <c r="BG83" s="1" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="84" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -22970,7 +25919,7 @@
         <v>89</v>
       </c>
       <c r="BG84" s="1" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="85" spans="1:59" x14ac:dyDescent="0.25">
@@ -23063,7 +26012,7 @@
         <v>89</v>
       </c>
       <c r="BG85" s="1" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="86" spans="1:59" x14ac:dyDescent="0.25">
@@ -23156,7 +26105,7 @@
         <v>89</v>
       </c>
       <c r="BG86" s="1" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="87" spans="1:59" x14ac:dyDescent="0.25">
@@ -23255,7 +26204,7 @@
         <v>89</v>
       </c>
       <c r="BG87" s="1" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="88" spans="1:59" x14ac:dyDescent="0.25">
@@ -23348,7 +26297,7 @@
         <v>89</v>
       </c>
       <c r="BG88" s="1" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="89" spans="1:59" x14ac:dyDescent="0.25">
@@ -23447,7 +26396,7 @@
         <v>89</v>
       </c>
       <c r="BG89" s="1" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="90" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -23540,7 +26489,7 @@
         <v>89</v>
       </c>
       <c r="BG90" s="1" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="91" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -23615,7 +26564,7 @@
         <v>89</v>
       </c>
       <c r="BG91" s="1" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="92" spans="1:59" x14ac:dyDescent="0.25">
@@ -23690,7 +26639,7 @@
         <v>89</v>
       </c>
       <c r="BG92" s="1" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="93" spans="1:59" x14ac:dyDescent="0.25">
@@ -23765,7 +26714,7 @@
         <v>89</v>
       </c>
       <c r="BG93" s="1" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="94" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -23828,7 +26777,7 @@
         <v>89</v>
       </c>
       <c r="BG94" s="1" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="95" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -23891,7 +26840,7 @@
         <v>89</v>
       </c>
       <c r="BG95" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="96" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -23954,7 +26903,7 @@
         <v>89</v>
       </c>
       <c r="BG96" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="97" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -24017,7 +26966,7 @@
         <v>89</v>
       </c>
       <c r="BG97" s="1" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="98" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -24080,7 +27029,7 @@
         <v>89</v>
       </c>
       <c r="BG98" s="1" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="99" spans="1:59" ht="102" x14ac:dyDescent="0.25">
@@ -24143,7 +27092,7 @@
         <v>89</v>
       </c>
       <c r="BG99" s="1" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="100" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -24218,7 +27167,7 @@
         <v>89</v>
       </c>
       <c r="BG100" s="1" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="101" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -24293,7 +27242,7 @@
         <v>89</v>
       </c>
       <c r="BG101" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="102" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -24368,7 +27317,7 @@
         <v>89</v>
       </c>
       <c r="BG102" s="1" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="103" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -24455,7 +27404,7 @@
         <v>89</v>
       </c>
       <c r="BG103" s="1" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="104" spans="1:59" x14ac:dyDescent="0.25">
@@ -24536,7 +27485,7 @@
         <v>89</v>
       </c>
       <c r="BG104" s="40" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="105" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -24611,7 +27560,7 @@
         <v>89</v>
       </c>
       <c r="BG105" s="1" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="106" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -24686,7 +27635,7 @@
         <v>89</v>
       </c>
       <c r="BG106" s="1" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="107" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -24761,7 +27710,7 @@
         <v>89</v>
       </c>
       <c r="BG107" s="1" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="108" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -24836,7 +27785,7 @@
         <v>89</v>
       </c>
       <c r="BG108" s="1" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="109" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -24911,7 +27860,7 @@
         <v>89</v>
       </c>
       <c r="BG109" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="110" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -24986,7 +27935,7 @@
         <v>89</v>
       </c>
       <c r="BG110" s="1" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="111" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -25067,7 +28016,7 @@
         <v>89</v>
       </c>
       <c r="BG111" s="1" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="112" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -25160,7 +28109,7 @@
         <v>89</v>
       </c>
       <c r="BG112" s="1" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="113" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -25247,7 +28196,7 @@
         <v>89</v>
       </c>
       <c r="BG113" s="1" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="114" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -25316,7 +28265,7 @@
         <v>89</v>
       </c>
       <c r="BG114" s="1" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="115" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -25409,7 +28358,7 @@
         <v>89</v>
       </c>
       <c r="BG115" s="1" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="116" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -25502,7 +28451,7 @@
         <v>89</v>
       </c>
       <c r="BG116" s="1" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="117" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -25595,7 +28544,7 @@
         <v>89</v>
       </c>
       <c r="BG117" s="1" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="118" spans="1:59" ht="89.25" x14ac:dyDescent="0.25">
@@ -25658,7 +28607,7 @@
         <v>89</v>
       </c>
       <c r="BG118" s="1" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="119" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
@@ -25739,7 +28688,7 @@
         <v>89</v>
       </c>
       <c r="BG119" s="1" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="120" spans="1:59" ht="89.25" x14ac:dyDescent="0.25">
@@ -25826,7 +28775,7 @@
         <v>89</v>
       </c>
       <c r="BG120" s="1" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="121" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -25913,7 +28862,7 @@
         <v>89</v>
       </c>
       <c r="BG121" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="122" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -25976,7 +28925,7 @@
         <v>89</v>
       </c>
       <c r="BG122" s="1" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="123" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -26039,7 +28988,7 @@
         <v>89</v>
       </c>
       <c r="BG123" s="1" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="124" spans="1:59" ht="127.5" x14ac:dyDescent="0.25">
@@ -26102,7 +29051,7 @@
         <v>89</v>
       </c>
       <c r="BG124" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="125" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -26189,7 +29138,7 @@
         <v>89</v>
       </c>
       <c r="BG125" s="1" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="126" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -26276,7 +29225,7 @@
         <v>89</v>
       </c>
       <c r="BG126" s="1" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="127" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -26521,7 +29470,7 @@
         <v>89</v>
       </c>
       <c r="BG129" s="1" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="130" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -26596,7 +29545,7 @@
         <v>89</v>
       </c>
       <c r="BG130" s="1" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
   </sheetData>
@@ -26621,7 +29570,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG86"/>
   <sheetViews>
@@ -33233,2458 +36182,4 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F128"/>
-  <sheetViews>
-    <sheetView topLeftCell="A112" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I115" sqref="I115"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="51" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="51" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>274</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="51" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>280</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>283</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>284</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>284</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="51" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>286</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>287</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>287</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>290</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>290</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>292</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>293</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>293</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>296</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>296</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>298</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>299</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>299</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="51" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>302</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>302</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>304</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>304</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>304</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="51" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>306</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>307</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>307</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>309</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>310</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>310</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>314</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>315</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>315</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>317</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>321</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>321</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>323</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="51" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>326</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>327</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>327</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>330</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>330</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>332</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>333</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>333</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>335</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>336</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>336</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>338</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>339</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>339</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>341</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>342</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>342</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>344</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>345</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>345</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="51" x14ac:dyDescent="0.25">
-      <c r="A35" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>347</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>348</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>348</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B36" s="17" t="s">
-        <v>350</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>351</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>351</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B37" s="17" t="s">
-        <v>353</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>354</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>354</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B38" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>357</v>
-      </c>
-      <c r="D38" s="16" t="s">
-        <v>357</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B39" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>359</v>
-      </c>
-      <c r="D39" s="16" t="s">
-        <v>359</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B40" s="17" t="s">
-        <v>361</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>362</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>362</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B41" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>365</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>365</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A42" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B42" s="17" t="s">
-        <v>367</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>368</v>
-      </c>
-      <c r="D42" s="16" t="s">
-        <v>368</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="51" x14ac:dyDescent="0.25">
-      <c r="A43" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B43" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>371</v>
-      </c>
-      <c r="D43" s="16" t="s">
-        <v>371</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A44" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B44" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>374</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>374</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B45" s="17" t="s">
-        <v>376</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>377</v>
-      </c>
-      <c r="D45" s="17" t="s">
-        <v>377</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B46" s="17" t="s">
-        <v>379</v>
-      </c>
-      <c r="C46" s="17" t="s">
-        <v>379</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>379</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B47" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="C47" s="17" t="s">
-        <v>382</v>
-      </c>
-      <c r="D47" s="17" t="s">
-        <v>382</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="51" x14ac:dyDescent="0.25">
-      <c r="A48" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B48" s="17" t="s">
-        <v>384</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>385</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>385</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B49" s="17" t="s">
-        <v>387</v>
-      </c>
-      <c r="C49" s="17" t="s">
-        <v>388</v>
-      </c>
-      <c r="D49" s="17" t="s">
-        <v>388</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B50" s="16" t="s">
-        <v>390</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>391</v>
-      </c>
-      <c r="D50" s="16" t="s">
-        <v>391</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B51" s="17" t="s">
-        <v>393</v>
-      </c>
-      <c r="C51" s="17" t="s">
-        <v>394</v>
-      </c>
-      <c r="D51" s="17" t="s">
-        <v>394</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="51" x14ac:dyDescent="0.25">
-      <c r="A52" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B52" s="17" t="s">
-        <v>396</v>
-      </c>
-      <c r="C52" s="17" t="s">
-        <v>397</v>
-      </c>
-      <c r="D52" s="17" t="s">
-        <v>397</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="51" x14ac:dyDescent="0.25">
-      <c r="A53" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B53" s="17" t="s">
-        <v>399</v>
-      </c>
-      <c r="C53" s="17" t="s">
-        <v>400</v>
-      </c>
-      <c r="D53" s="17" t="s">
-        <v>400</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B54" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="C54" s="17" t="s">
-        <v>403</v>
-      </c>
-      <c r="D54" s="17" t="s">
-        <v>403</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B55" s="17" t="s">
-        <v>405</v>
-      </c>
-      <c r="C55" s="16" t="s">
-        <v>406</v>
-      </c>
-      <c r="D55" s="16" t="s">
-        <v>406</v>
-      </c>
-      <c r="E55" s="16" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A56" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B56" s="17" t="s">
-        <v>408</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>409</v>
-      </c>
-      <c r="D56" s="16" t="s">
-        <v>409</v>
-      </c>
-      <c r="E56" s="16" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B57" s="17" t="s">
-        <v>411</v>
-      </c>
-      <c r="C57" s="17" t="s">
-        <v>412</v>
-      </c>
-      <c r="D57" s="17" t="s">
-        <v>412</v>
-      </c>
-      <c r="E57" s="16" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B58" s="17" t="s">
-        <v>414</v>
-      </c>
-      <c r="C58" s="17" t="s">
-        <v>415</v>
-      </c>
-      <c r="D58" s="17" t="s">
-        <v>415</v>
-      </c>
-      <c r="E58" s="16" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="102" x14ac:dyDescent="0.25">
-      <c r="A59" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B59" s="17" t="s">
-        <v>417</v>
-      </c>
-      <c r="C59" s="17" t="s">
-        <v>418</v>
-      </c>
-      <c r="D59" s="17" t="s">
-        <v>418</v>
-      </c>
-      <c r="E59" s="16" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A60" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B60" s="16" t="s">
-        <v>420</v>
-      </c>
-      <c r="C60" s="17" t="s">
-        <v>421</v>
-      </c>
-      <c r="D60" s="17" t="s">
-        <v>421</v>
-      </c>
-      <c r="E60" s="16" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A61" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B61" s="17" t="s">
-        <v>423</v>
-      </c>
-      <c r="C61" s="16" t="s">
-        <v>424</v>
-      </c>
-      <c r="D61" s="16" t="s">
-        <v>424</v>
-      </c>
-      <c r="E61" s="16" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B62" s="17" t="s">
-        <v>426</v>
-      </c>
-      <c r="C62" s="17" t="s">
-        <v>427</v>
-      </c>
-      <c r="D62" s="17" t="s">
-        <v>427</v>
-      </c>
-      <c r="E62" s="16" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="51" x14ac:dyDescent="0.25">
-      <c r="A63" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B63" s="17" t="s">
-        <v>429</v>
-      </c>
-      <c r="C63" s="16" t="s">
-        <v>430</v>
-      </c>
-      <c r="D63" s="16" t="s">
-        <v>430</v>
-      </c>
-      <c r="E63" s="16" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A64" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B64" s="17" t="s">
-        <v>432</v>
-      </c>
-      <c r="C64" s="17" t="s">
-        <v>433</v>
-      </c>
-      <c r="D64" s="17" t="s">
-        <v>433</v>
-      </c>
-      <c r="E64" s="16" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B65" s="17" t="s">
-        <v>435</v>
-      </c>
-      <c r="C65" s="17" t="s">
-        <v>436</v>
-      </c>
-      <c r="D65" s="17" t="s">
-        <v>436</v>
-      </c>
-      <c r="E65" s="16" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B66" s="17" t="s">
-        <v>854</v>
-      </c>
-      <c r="C66" s="17" t="s">
-        <v>855</v>
-      </c>
-      <c r="D66" s="17" t="s">
-        <v>855</v>
-      </c>
-      <c r="E66" s="16" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="B67" s="16" t="s">
-        <v>438</v>
-      </c>
-      <c r="C67" s="16" t="s">
-        <v>439</v>
-      </c>
-      <c r="D67" s="16" t="s">
-        <v>439</v>
-      </c>
-      <c r="E67" s="16" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="B68" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="C68" s="16" t="s">
-        <v>442</v>
-      </c>
-      <c r="D68" s="16" t="s">
-        <v>442</v>
-      </c>
-      <c r="E68" s="16" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="B69" s="16" t="s">
-        <v>444</v>
-      </c>
-      <c r="C69" s="16" t="s">
-        <v>444</v>
-      </c>
-      <c r="D69" s="16" t="s">
-        <v>444</v>
-      </c>
-      <c r="E69" s="16" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="51" x14ac:dyDescent="0.25">
-      <c r="A70" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B70" s="17" t="s">
-        <v>446</v>
-      </c>
-      <c r="C70" s="17" t="s">
-        <v>447</v>
-      </c>
-      <c r="D70" s="17" t="s">
-        <v>447</v>
-      </c>
-      <c r="E70" s="16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B71" s="17" t="s">
-        <v>448</v>
-      </c>
-      <c r="C71" s="17" t="s">
-        <v>449</v>
-      </c>
-      <c r="D71" s="17" t="s">
-        <v>449</v>
-      </c>
-      <c r="E71" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B72" s="17" t="s">
-        <v>450</v>
-      </c>
-      <c r="C72" s="17" t="s">
-        <v>451</v>
-      </c>
-      <c r="D72" s="17" t="s">
-        <v>451</v>
-      </c>
-      <c r="E72" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B73" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="C73" s="17" t="s">
-        <v>453</v>
-      </c>
-      <c r="D73" s="17" t="s">
-        <v>453</v>
-      </c>
-      <c r="E73" s="16" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="B74" s="17" t="s">
-        <v>455</v>
-      </c>
-      <c r="C74" s="17" t="s">
-        <v>456</v>
-      </c>
-      <c r="D74" s="17" t="s">
-        <v>456</v>
-      </c>
-      <c r="E74" s="16" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="51" x14ac:dyDescent="0.25">
-      <c r="A75" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B75" s="17" t="s">
-        <v>458</v>
-      </c>
-      <c r="C75" s="16" t="s">
-        <v>459</v>
-      </c>
-      <c r="D75" s="16" t="s">
-        <v>459</v>
-      </c>
-      <c r="E75" s="16" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="51" x14ac:dyDescent="0.25">
-      <c r="A76" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B76" s="17" t="s">
-        <v>461</v>
-      </c>
-      <c r="C76" s="16" t="s">
-        <v>462</v>
-      </c>
-      <c r="D76" s="16" t="s">
-        <v>462</v>
-      </c>
-      <c r="E76" s="16" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="51" x14ac:dyDescent="0.25">
-      <c r="A77" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B77" s="17" t="s">
-        <v>464</v>
-      </c>
-      <c r="C77" s="16" t="s">
-        <v>465</v>
-      </c>
-      <c r="D77" s="16" t="s">
-        <v>465</v>
-      </c>
-      <c r="E77" s="16" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="B78" s="17" t="s">
-        <v>467</v>
-      </c>
-      <c r="C78" s="17" t="s">
-        <v>468</v>
-      </c>
-      <c r="D78" s="17" t="s">
-        <v>468</v>
-      </c>
-      <c r="E78" s="16" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B79" s="16" t="s">
-        <v>470</v>
-      </c>
-      <c r="C79" s="16" t="s">
-        <v>470</v>
-      </c>
-      <c r="D79" s="16" t="s">
-        <v>470</v>
-      </c>
-      <c r="E79" s="16" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B80" s="16" t="s">
-        <v>472</v>
-      </c>
-      <c r="C80" s="16" t="s">
-        <v>472</v>
-      </c>
-      <c r="D80" s="16" t="s">
-        <v>472</v>
-      </c>
-      <c r="E80" s="16" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B81" s="16" t="s">
-        <v>474</v>
-      </c>
-      <c r="C81" s="16" t="s">
-        <v>474</v>
-      </c>
-      <c r="D81" s="16" t="s">
-        <v>474</v>
-      </c>
-      <c r="E81" s="16" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B82" s="16" t="s">
-        <v>476</v>
-      </c>
-      <c r="C82" s="16" t="s">
-        <v>476</v>
-      </c>
-      <c r="D82" s="16" t="s">
-        <v>476</v>
-      </c>
-      <c r="E82" s="16" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B83" s="16" t="s">
-        <v>478</v>
-      </c>
-      <c r="C83" s="16" t="s">
-        <v>478</v>
-      </c>
-      <c r="D83" s="16" t="s">
-        <v>478</v>
-      </c>
-      <c r="E83" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B84" s="16" t="s">
-        <v>480</v>
-      </c>
-      <c r="C84" s="16" t="s">
-        <v>480</v>
-      </c>
-      <c r="D84" s="16" t="s">
-        <v>480</v>
-      </c>
-      <c r="E84" s="16" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B85" s="16" t="s">
-        <v>482</v>
-      </c>
-      <c r="C85" s="17" t="s">
-        <v>482</v>
-      </c>
-      <c r="D85" s="17" t="s">
-        <v>482</v>
-      </c>
-      <c r="E85" s="16" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B86" s="16" t="s">
-        <v>484</v>
-      </c>
-      <c r="C86" s="16" t="s">
-        <v>484</v>
-      </c>
-      <c r="D86" s="16" t="s">
-        <v>484</v>
-      </c>
-      <c r="E86" s="16" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B87" s="16" t="s">
-        <v>486</v>
-      </c>
-      <c r="C87" s="16" t="s">
-        <v>486</v>
-      </c>
-      <c r="D87" s="16" t="s">
-        <v>486</v>
-      </c>
-      <c r="E87" s="16" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B88" s="17" t="s">
-        <v>488</v>
-      </c>
-      <c r="C88" s="17" t="s">
-        <v>488</v>
-      </c>
-      <c r="D88" s="17" t="s">
-        <v>488</v>
-      </c>
-      <c r="E88" s="16" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B89" s="16" t="s">
-        <v>490</v>
-      </c>
-      <c r="C89" s="16" t="s">
-        <v>490</v>
-      </c>
-      <c r="D89" s="16" t="s">
-        <v>490</v>
-      </c>
-      <c r="E89" s="16" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B90" s="16" t="s">
-        <v>492</v>
-      </c>
-      <c r="C90" s="16" t="s">
-        <v>492</v>
-      </c>
-      <c r="D90" s="16" t="s">
-        <v>492</v>
-      </c>
-      <c r="E90" s="16" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="B91" s="16" t="s">
-        <v>494</v>
-      </c>
-      <c r="C91" s="16" t="s">
-        <v>494</v>
-      </c>
-      <c r="D91" s="16" t="s">
-        <v>494</v>
-      </c>
-      <c r="E91" s="16" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="51" x14ac:dyDescent="0.25">
-      <c r="A92" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B92" s="18" t="s">
-        <v>496</v>
-      </c>
-      <c r="C92" s="18" t="s">
-        <v>496</v>
-      </c>
-      <c r="D92" s="18" t="s">
-        <v>496</v>
-      </c>
-      <c r="E92" s="18" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B93" s="18" t="s">
-        <v>498</v>
-      </c>
-      <c r="C93" s="18" t="s">
-        <v>498</v>
-      </c>
-      <c r="D93" s="18" t="s">
-        <v>498</v>
-      </c>
-      <c r="E93" s="18" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="51" x14ac:dyDescent="0.25">
-      <c r="A94" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B94" s="18" t="s">
-        <v>500</v>
-      </c>
-      <c r="C94" s="18" t="s">
-        <v>500</v>
-      </c>
-      <c r="D94" s="18" t="s">
-        <v>500</v>
-      </c>
-      <c r="E94" s="18" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A95" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B95" s="18" t="s">
-        <v>502</v>
-      </c>
-      <c r="C95" s="18" t="s">
-        <v>502</v>
-      </c>
-      <c r="D95" s="18" t="s">
-        <v>502</v>
-      </c>
-      <c r="E95" s="18" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B96" s="18" t="s">
-        <v>504</v>
-      </c>
-      <c r="C96" s="18" t="s">
-        <v>504</v>
-      </c>
-      <c r="D96" s="18" t="s">
-        <v>504</v>
-      </c>
-      <c r="E96" s="18" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B97" s="18" t="s">
-        <v>506</v>
-      </c>
-      <c r="C97" s="18" t="s">
-        <v>506</v>
-      </c>
-      <c r="D97" s="18" t="s">
-        <v>506</v>
-      </c>
-      <c r="E97" s="18" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="51" x14ac:dyDescent="0.25">
-      <c r="A98" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B98" s="17" t="s">
-        <v>508</v>
-      </c>
-      <c r="C98" s="17" t="s">
-        <v>509</v>
-      </c>
-      <c r="D98" s="17" t="s">
-        <v>509</v>
-      </c>
-      <c r="E98" s="16" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B99" s="16" t="s">
-        <v>511</v>
-      </c>
-      <c r="C99" s="16" t="s">
-        <v>511</v>
-      </c>
-      <c r="D99" s="16" t="s">
-        <v>511</v>
-      </c>
-      <c r="E99" s="16" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="51" x14ac:dyDescent="0.25">
-      <c r="A100" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="B100" s="17" t="s">
-        <v>513</v>
-      </c>
-      <c r="C100" s="17" t="s">
-        <v>514</v>
-      </c>
-      <c r="D100" s="17" t="s">
-        <v>514</v>
-      </c>
-      <c r="E100" s="17" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="B101" s="17" t="s">
-        <v>516</v>
-      </c>
-      <c r="C101" s="17" t="s">
-        <v>516</v>
-      </c>
-      <c r="D101" s="17" t="s">
-        <v>516</v>
-      </c>
-      <c r="E101" s="17" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A102" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="B102" s="17" t="s">
-        <v>518</v>
-      </c>
-      <c r="C102" s="17" t="s">
-        <v>518</v>
-      </c>
-      <c r="D102" s="17" t="s">
-        <v>518</v>
-      </c>
-      <c r="E102" s="17" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A103" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="B103" s="17" t="s">
-        <v>520</v>
-      </c>
-      <c r="C103" s="17" t="s">
-        <v>520</v>
-      </c>
-      <c r="D103" s="17" t="s">
-        <v>520</v>
-      </c>
-      <c r="E103" s="17" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B104" s="16" t="s">
-        <v>522</v>
-      </c>
-      <c r="C104" s="16" t="s">
-        <v>522</v>
-      </c>
-      <c r="D104" s="16" t="s">
-        <v>522</v>
-      </c>
-      <c r="E104" s="16" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B105" s="16" t="s">
-        <v>524</v>
-      </c>
-      <c r="C105" s="16" t="s">
-        <v>524</v>
-      </c>
-      <c r="D105" s="16" t="s">
-        <v>524</v>
-      </c>
-      <c r="E105" s="16" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A106" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B106" s="16" t="s">
-        <v>526</v>
-      </c>
-      <c r="C106" s="17" t="s">
-        <v>527</v>
-      </c>
-      <c r="D106" s="17" t="s">
-        <v>527</v>
-      </c>
-      <c r="E106" s="16" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A107" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B107" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="C107" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="D107" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="E107" s="16" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="51" x14ac:dyDescent="0.25">
-      <c r="A108" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B108" s="17" t="s">
-        <v>529</v>
-      </c>
-      <c r="C108" s="17" t="s">
-        <v>529</v>
-      </c>
-      <c r="D108" s="17" t="s">
-        <v>529</v>
-      </c>
-      <c r="E108" s="16" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B109" s="16" t="s">
-        <v>531</v>
-      </c>
-      <c r="C109" s="16" t="s">
-        <v>531</v>
-      </c>
-      <c r="D109" s="16" t="s">
-        <v>531</v>
-      </c>
-      <c r="E109" s="16" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B110" s="17" t="s">
-        <v>533</v>
-      </c>
-      <c r="C110" s="17" t="s">
-        <v>533</v>
-      </c>
-      <c r="D110" s="17" t="s">
-        <v>533</v>
-      </c>
-      <c r="E110" s="16" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A111" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B111" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="C111" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="D111" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="E111" s="16" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="51" x14ac:dyDescent="0.25">
-      <c r="A112" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B112" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="C112" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="D112" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="E112" s="16" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A113" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="B113" s="17" t="s">
-        <v>535</v>
-      </c>
-      <c r="C113" s="17" t="s">
-        <v>536</v>
-      </c>
-      <c r="D113" s="17" t="s">
-        <v>536</v>
-      </c>
-      <c r="E113" s="17" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A114" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B114" s="18" t="s">
-        <v>538</v>
-      </c>
-      <c r="C114" s="18" t="s">
-        <v>538</v>
-      </c>
-      <c r="D114" s="18" t="s">
-        <v>538</v>
-      </c>
-      <c r="E114" s="18" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B115" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="C115" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="D115" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="E115" s="16" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B116" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="C116" s="17" t="s">
-        <v>382</v>
-      </c>
-      <c r="D116" s="19" t="s">
-        <v>540</v>
-      </c>
-      <c r="E116" s="18" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="B117" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="D117" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="E117" s="6" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="D118" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="E118" s="6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="B119" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="C119" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="D119" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="E119" s="6" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A120" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B120" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="C120" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="D120" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="E120" s="11" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A121" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B121" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="C121" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="D121" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="E121" s="11" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A122" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="B122" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="C122" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="D122" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="E122" s="14" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A123" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="B123" s="44" t="s">
-        <v>818</v>
-      </c>
-      <c r="C123" s="44" t="s">
-        <v>818</v>
-      </c>
-      <c r="D123" s="44" t="s">
-        <v>818</v>
-      </c>
-      <c r="E123" s="44" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A124" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="B124" s="44" t="s">
-        <v>820</v>
-      </c>
-      <c r="C124" s="44" t="s">
-        <v>820</v>
-      </c>
-      <c r="D124" s="44" t="s">
-        <v>820</v>
-      </c>
-      <c r="E124" s="44" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A125" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="B125" s="44" t="s">
-        <v>822</v>
-      </c>
-      <c r="C125" s="44" t="s">
-        <v>822</v>
-      </c>
-      <c r="D125" s="44" t="s">
-        <v>822</v>
-      </c>
-      <c r="E125" s="44" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A126" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="B126" s="44" t="s">
-        <v>824</v>
-      </c>
-      <c r="C126" s="44" t="s">
-        <v>825</v>
-      </c>
-      <c r="D126" s="44" t="s">
-        <v>825</v>
-      </c>
-      <c r="E126" s="44" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A127" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="B127" s="44" t="s">
-        <v>827</v>
-      </c>
-      <c r="C127" s="44" t="s">
-        <v>827</v>
-      </c>
-      <c r="D127" s="44" t="s">
-        <v>827</v>
-      </c>
-      <c r="E127" s="44" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A128" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="B128" s="44" t="s">
-        <v>829</v>
-      </c>
-      <c r="C128" s="44" t="s">
-        <v>829</v>
-      </c>
-      <c r="D128" s="44" t="s">
-        <v>829</v>
-      </c>
-      <c r="E128" s="44" t="s">
-        <v>830</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="E117">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118:E119">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E120">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E121">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C29"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="22.625" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>1010</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>1014</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>1015</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C24" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C25" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C26" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C27" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C28" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C29" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/resources/excels/KE.xlsx
+++ b/resources/excels/KE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2394650\IdeaProjects\cs-portal-automation_selenium1\resources\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\23101480\IdeaProjects\cs-portal-automation_selenium\resources\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7864" uniqueCount="1339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7871" uniqueCount="1342">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -3886,213 +3886,221 @@
     <t>QWFpcnRlbEAwOTE5</t>
   </si>
   <si>
+    <t>Auth Pop up(TRUE/FALSE)</t>
+  </si>
+  <si>
+    <t>reverseTransaction</t>
+  </si>
+  <si>
+    <t>resetPin</t>
+  </si>
+  <si>
+    <t>block</t>
+  </si>
+  <si>
+    <t>unblock</t>
+  </si>
+  <si>
+    <t>sendNotification</t>
+  </si>
+  <si>
+    <t>voucher</t>
+  </si>
+  <si>
+    <t>resetMe2UPassword</t>
+  </si>
+  <si>
+    <t>simUnBarring</t>
+  </si>
+  <si>
+    <t>simBarring</t>
+  </si>
+  <si>
+    <t>changeServiceClass</t>
+  </si>
+  <si>
+    <t>Question Label</t>
+  </si>
+  <si>
+    <t>Question_Key</t>
+  </si>
+  <si>
+    <t>Answer_key</t>
+  </si>
+  <si>
+    <t>Airtel Money Name</t>
+  </si>
+  <si>
+    <t>AM_NAME</t>
+  </si>
+  <si>
+    <t>cs-am-service/v1/profile.result.firstName</t>
+  </si>
+  <si>
+    <t>Available Credit Balance</t>
+  </si>
+  <si>
+    <t>AVAILABLE_CREDIT_BALANCE</t>
+  </si>
+  <si>
+    <t>cs-gsm-service/v1/account/plans.result.mainAccountBalance.balance</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>cs-gsm-service/v1/gsm/kyc.result.dob</t>
+  </si>
+  <si>
+    <t>GSM Name</t>
+  </si>
+  <si>
+    <t>GSM_NAME</t>
+  </si>
+  <si>
+    <t>cs-gsm-service/v1/gsm/kyc.result.name</t>
+  </si>
+  <si>
+    <t>Usage History Last Five Transaction</t>
+  </si>
+  <si>
+    <t>LAST_FIVE_TRANSACTIONS</t>
+  </si>
+  <si>
+    <t>Last Recharge Date</t>
+  </si>
+  <si>
+    <t>LAST_RECHARGE_DATE</t>
+  </si>
+  <si>
+    <t>cs-gsm-service/v1/recharge/history.result[0].dateTime</t>
+  </si>
+  <si>
+    <t>Last Recharge Value</t>
+  </si>
+  <si>
+    <t>LAST_RECHARGE_VALUE</t>
+  </si>
+  <si>
+    <t>cs-gsm-service/v1/recharge/history.result[0].charges</t>
+  </si>
+  <si>
+    <t>Last Transaction Amount</t>
+  </si>
+  <si>
+    <t>LAST_TRANSACTION_AMOUNT</t>
+  </si>
+  <si>
+    <t>cs-am-service/v1/transaction/history.result.data[0].amount</t>
+  </si>
+  <si>
+    <t>Last Transaction Id</t>
+  </si>
+  <si>
+    <t>LAST_TRANSACTION_ID</t>
+  </si>
+  <si>
+    <t>cs-am-service/v1/transaction/history.result.data[0].transactionId</t>
+  </si>
+  <si>
+    <t>Last Transaction Msisdn</t>
+  </si>
+  <si>
+    <t>LAST_TRANSACTION_MSISDN</t>
+  </si>
+  <si>
+    <t>cs-am-service/v1/transaction/history.result.data[0].msisdn</t>
+  </si>
+  <si>
+    <t>National Id</t>
+  </si>
+  <si>
+    <t>NATIONAL_ID</t>
+  </si>
+  <si>
+    <t>cs-gsm-service/v1/gsm/kyc.result.identificationNo</t>
+  </si>
+  <si>
+    <t>Register Id</t>
+  </si>
+  <si>
+    <t>REGISTERED_ID</t>
+  </si>
+  <si>
+    <t>Two Last Dialled Number</t>
+  </si>
+  <si>
+    <t>TWO_LAST_DIALLED_NUMBER</t>
+  </si>
+  <si>
+    <t>AM Wallet Balance</t>
+  </si>
+  <si>
+    <t>WALLET_BALANCE</t>
+  </si>
+  <si>
+    <t>cs-am-service/v1/profile.result.wallet[0].balance</t>
+  </si>
+  <si>
+    <t>UC-UT Offer</t>
+  </si>
+  <si>
+    <t>Offer ID</t>
+  </si>
+  <si>
+    <t>Offer Name</t>
+  </si>
+  <si>
+    <t>Product ID</t>
+  </si>
+  <si>
+    <t>PAM Service ID</t>
+  </si>
+  <si>
+    <t>Offer Type</t>
+  </si>
+  <si>
+    <t>Offer State</t>
+  </si>
+  <si>
+    <t>No. Of DAs</t>
+  </si>
+  <si>
+    <t>Friends and Family</t>
+  </si>
+  <si>
+    <t>FnF Number</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>FnF Indicator</t>
+  </si>
+  <si>
     <t>Amount
-(ksh)</t>
-  </si>
-  <si>
-    <t>Charges (KSH)</t>
-  </si>
-  <si>
-    <t>Bundle Price (KSH)</t>
-  </si>
-  <si>
-    <t>Loan Amount (KSH)</t>
-  </si>
-  <si>
-    <t>Amount
-(KSH)</t>
+(KES)</t>
+  </si>
+  <si>
+    <t>Charges (KES)</t>
+  </si>
+  <si>
+    <t>Bundle Price (KES)</t>
+  </si>
+  <si>
+    <t>Loan Amount (KES)</t>
   </si>
   <si>
     <t>Service Charge
-(KSH)</t>
+(KES)</t>
   </si>
   <si>
     <t>Pre balance
-(KSH)</t>
+(KES)</t>
   </si>
   <si>
     <t>Post balance
-(KSH)</t>
-  </si>
-  <si>
-    <t>Auth Pop up(TRUE/FALSE)</t>
-  </si>
-  <si>
-    <t>reverseTransaction</t>
-  </si>
-  <si>
-    <t>resetPin</t>
-  </si>
-  <si>
-    <t>block</t>
-  </si>
-  <si>
-    <t>unblock</t>
-  </si>
-  <si>
-    <t>sendNotification</t>
-  </si>
-  <si>
-    <t>voucher</t>
-  </si>
-  <si>
-    <t>resetMe2UPassword</t>
-  </si>
-  <si>
-    <t>simUnBarring</t>
-  </si>
-  <si>
-    <t>simBarring</t>
-  </si>
-  <si>
-    <t>changeServiceClass</t>
-  </si>
-  <si>
-    <t>Question Label</t>
-  </si>
-  <si>
-    <t>Question_Key</t>
-  </si>
-  <si>
-    <t>Answer_key</t>
-  </si>
-  <si>
-    <t>Airtel Money Name</t>
-  </si>
-  <si>
-    <t>AM_NAME</t>
-  </si>
-  <si>
-    <t>cs-am-service/v1/profile.result.firstName</t>
-  </si>
-  <si>
-    <t>Available Credit Balance</t>
-  </si>
-  <si>
-    <t>AVAILABLE_CREDIT_BALANCE</t>
-  </si>
-  <si>
-    <t>cs-gsm-service/v1/account/plans.result.mainAccountBalance.balance</t>
-  </si>
-  <si>
-    <t>DOB</t>
-  </si>
-  <si>
-    <t>cs-gsm-service/v1/gsm/kyc.result.dob</t>
-  </si>
-  <si>
-    <t>GSM Name</t>
-  </si>
-  <si>
-    <t>GSM_NAME</t>
-  </si>
-  <si>
-    <t>cs-gsm-service/v1/gsm/kyc.result.name</t>
-  </si>
-  <si>
-    <t>Usage History Last Five Transaction</t>
-  </si>
-  <si>
-    <t>LAST_FIVE_TRANSACTIONS</t>
-  </si>
-  <si>
-    <t>Last Recharge Date</t>
-  </si>
-  <si>
-    <t>LAST_RECHARGE_DATE</t>
-  </si>
-  <si>
-    <t>cs-gsm-service/v1/recharge/history.result[0].dateTime</t>
-  </si>
-  <si>
-    <t>Last Recharge Value</t>
-  </si>
-  <si>
-    <t>LAST_RECHARGE_VALUE</t>
-  </si>
-  <si>
-    <t>cs-gsm-service/v1/recharge/history.result[0].charges</t>
-  </si>
-  <si>
-    <t>Last Transaction Amount</t>
-  </si>
-  <si>
-    <t>LAST_TRANSACTION_AMOUNT</t>
-  </si>
-  <si>
-    <t>cs-am-service/v1/transaction/history.result.data[0].amount</t>
-  </si>
-  <si>
-    <t>Last Transaction Id</t>
-  </si>
-  <si>
-    <t>LAST_TRANSACTION_ID</t>
-  </si>
-  <si>
-    <t>cs-am-service/v1/transaction/history.result.data[0].transactionId</t>
-  </si>
-  <si>
-    <t>Last Transaction Msisdn</t>
-  </si>
-  <si>
-    <t>LAST_TRANSACTION_MSISDN</t>
-  </si>
-  <si>
-    <t>cs-am-service/v1/transaction/history.result.data[0].msisdn</t>
-  </si>
-  <si>
-    <t>National Id</t>
-  </si>
-  <si>
-    <t>NATIONAL_ID</t>
-  </si>
-  <si>
-    <t>cs-gsm-service/v1/gsm/kyc.result.identificationNo</t>
-  </si>
-  <si>
-    <t>Register Id</t>
-  </si>
-  <si>
-    <t>REGISTERED_ID</t>
-  </si>
-  <si>
-    <t>Two Last Dialled Number</t>
-  </si>
-  <si>
-    <t>TWO_LAST_DIALLED_NUMBER</t>
-  </si>
-  <si>
-    <t>AM Wallet Balance</t>
-  </si>
-  <si>
-    <t>WALLET_BALANCE</t>
-  </si>
-  <si>
-    <t>cs-am-service/v1/profile.result.wallet[0].balance</t>
-  </si>
-  <si>
-    <t>UC-UT Offer</t>
-  </si>
-  <si>
-    <t>Offer ID</t>
-  </si>
-  <si>
-    <t>Offer Name</t>
-  </si>
-  <si>
-    <t>Product ID</t>
-  </si>
-  <si>
-    <t>PAM Service ID</t>
-  </si>
-  <si>
-    <t>Offer Type</t>
-  </si>
-  <si>
-    <t>Offer State</t>
-  </si>
-  <si>
-    <t>No. Of DAs</t>
+(KES)</t>
   </si>
 </sst>
 </file>
@@ -4710,7 +4718,7 @@
         <xdr:cNvPr id="9217" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000001240000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001240000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4758,7 +4766,7 @@
         <xdr:cNvPr id="3" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4806,7 +4814,7 @@
         <xdr:cNvPr id="4" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EF08D5FD-92C7-4540-AF22-FEEA19CA4C87}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF08D5FD-92C7-4540-AF22-FEEA19CA4C87}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4854,7 +4862,7 @@
         <xdr:cNvPr id="5" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{14EBD159-F09F-5A4A-BACB-F932EFB20343}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14EBD159-F09F-5A4A-BACB-F932EFB20343}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14533,7 +14541,7 @@
         <v>1257</v>
       </c>
       <c r="J1" s="99" t="s">
-        <v>1279</v>
+        <v>1271</v>
       </c>
       <c r="K1" s="4"/>
     </row>
@@ -14581,7 +14589,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="100" t="s">
-        <v>1280</v>
+        <v>1272</v>
       </c>
       <c r="B4" s="100"/>
       <c r="C4" s="100"/>
@@ -14598,7 +14606,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="100" t="s">
-        <v>1281</v>
+        <v>1273</v>
       </c>
       <c r="B5" s="100"/>
       <c r="C5" s="100"/>
@@ -14615,7 +14623,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="100" t="s">
-        <v>1282</v>
+        <v>1274</v>
       </c>
       <c r="B6" s="100"/>
       <c r="C6" s="100"/>
@@ -14632,7 +14640,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="100" t="s">
-        <v>1283</v>
+        <v>1275</v>
       </c>
       <c r="B7" s="100"/>
       <c r="C7" s="100"/>
@@ -14649,7 +14657,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="100" t="s">
-        <v>1284</v>
+        <v>1276</v>
       </c>
       <c r="B8" s="100"/>
       <c r="C8" s="100"/>
@@ -14666,7 +14674,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="100" t="s">
-        <v>1285</v>
+        <v>1277</v>
       </c>
       <c r="B9" s="100"/>
       <c r="C9" s="100"/>
@@ -14683,7 +14691,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="100" t="s">
-        <v>1286</v>
+        <v>1278</v>
       </c>
       <c r="B10" s="100"/>
       <c r="C10" s="100"/>
@@ -14700,7 +14708,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="100" t="s">
-        <v>1287</v>
+        <v>1279</v>
       </c>
       <c r="B11" s="100"/>
       <c r="C11" s="100"/>
@@ -14717,7 +14725,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="100" t="s">
-        <v>1288</v>
+        <v>1280</v>
       </c>
       <c r="B12" s="100"/>
       <c r="C12" s="100"/>
@@ -14734,7 +14742,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="100" t="s">
-        <v>1289</v>
+        <v>1281</v>
       </c>
       <c r="B13" s="100"/>
       <c r="C13" s="100"/>
@@ -14773,35 +14781,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
-        <v>1290</v>
+        <v>1282</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>1291</v>
+        <v>1283</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>1292</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
-        <v>1293</v>
+        <v>1285</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>1294</v>
+        <v>1286</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>1295</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
-        <v>1296</v>
+        <v>1288</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>1297</v>
+        <v>1289</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>1298</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -14809,125 +14817,125 @@
         <v>994</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>1299</v>
+        <v>1291</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>1300</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
-        <v>1301</v>
+        <v>1293</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>1302</v>
+        <v>1294</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>1303</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
-        <v>1304</v>
+        <v>1296</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>1305</v>
+        <v>1297</v>
       </c>
       <c r="C6" s="101"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
-        <v>1306</v>
+        <v>1298</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>1307</v>
+        <v>1299</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>1308</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="39" t="s">
-        <v>1309</v>
+        <v>1301</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>1310</v>
+        <v>1302</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>1311</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="39" t="s">
-        <v>1312</v>
+        <v>1304</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>1313</v>
+        <v>1305</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>1314</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="39" t="s">
-        <v>1315</v>
+        <v>1307</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>1316</v>
+        <v>1308</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="39" t="s">
-        <v>1318</v>
+        <v>1310</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>1319</v>
+        <v>1311</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>1320</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="39" t="s">
-        <v>1321</v>
+        <v>1313</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>1322</v>
+        <v>1314</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>1323</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="39" t="s">
-        <v>1324</v>
+        <v>1316</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>1325</v>
+        <v>1317</v>
       </c>
       <c r="C13" s="101"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="39" t="s">
-        <v>1326</v>
+        <v>1318</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>1327</v>
+        <v>1319</v>
       </c>
       <c r="C14" s="101"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="39" t="s">
-        <v>1328</v>
+        <v>1320</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>1329</v>
+        <v>1321</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>1330</v>
+        <v>1322</v>
       </c>
     </row>
   </sheetData>
@@ -15529,10 +15537,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -15597,7 +15605,7 @@
         <v>77</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>1271</v>
+        <v>1335</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>142</v>
@@ -15651,7 +15659,7 @@
         <v>151</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1272</v>
+        <v>1336</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>148</v>
@@ -15699,7 +15707,7 @@
         <v>156</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>1273</v>
+        <v>1337</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -15818,7 +15826,7 @@
         <v>950</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1274</v>
+        <v>1338</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>951</v>
@@ -15925,7 +15933,7 @@
         <v>975</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1272</v>
+        <v>1336</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>148</v>
@@ -16070,7 +16078,7 @@
         <v>1247</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>1275</v>
+        <v>1335</v>
       </c>
       <c r="C19" s="38" t="s">
         <v>143</v>
@@ -16091,13 +16099,13 @@
         <v>144</v>
       </c>
       <c r="I19" s="95" t="s">
-        <v>1276</v>
+        <v>1339</v>
       </c>
       <c r="J19" s="95" t="s">
-        <v>1277</v>
+        <v>1340</v>
       </c>
       <c r="K19" s="95" t="s">
-        <v>1278</v>
+        <v>1341</v>
       </c>
       <c r="L19" s="38" t="s">
         <v>145</v>
@@ -16138,16 +16146,16 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>1331</v>
+        <v>1323</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1332</v>
+        <v>1324</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1333</v>
+        <v>1325</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1334</v>
+        <v>1326</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>992</v>
@@ -16156,20 +16164,49 @@
         <v>166</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>1335</v>
+        <v>1327</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>1337</v>
+        <v>1329</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>1338</v>
+        <v>1330</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>

--- a/resources/excels/KE.xlsx
+++ b/resources/excels/KE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="34080" windowHeight="10080" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="34080" windowHeight="10080" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -208,6 +208,103 @@
         </r>
       </text>
     </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Rahul Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+This column represent the customer Line type(Prepaid/postpaid/hybrid)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Rahul Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Rahul Gupta:
+This column represent the customer Type</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Rahul Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+This column represent customer service category</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Rahul Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+This column represent customer segment</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -266,12 +363,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Rahul Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+This column represent the customer Line type(Prepaid/postpaid/hybrid)</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7899" uniqueCount="1354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7901" uniqueCount="1365">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -3628,9 +3749,6 @@
     <t>Airtel Money_Agent</t>
   </si>
   <si>
-    <t>100221003564</t>
-  </si>
-  <si>
     <t>110221003574</t>
   </si>
   <si>
@@ -4320,49 +4438,85 @@
     <t>Code</t>
   </si>
   <si>
+    <t>Customer Type</t>
+  </si>
+  <si>
+    <t>Service Category</t>
+  </si>
+  <si>
+    <t>Customer SubSegment</t>
+  </si>
+  <si>
+    <t>Interaction Channel</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Workgroup Name</t>
+  </si>
+  <si>
+    <t>Rule Priority</t>
+  </si>
+  <si>
+    <t>Prepaid</t>
+  </si>
+  <si>
+    <t>Silver</t>
+  </si>
+  <si>
+    <t>Attribute name</t>
+  </si>
+  <si>
+    <t>Attribute value</t>
+  </si>
+  <si>
+    <t>lineType</t>
+  </si>
+  <si>
+    <t>customerVip</t>
+  </si>
+  <si>
+    <t>SKIP</t>
+  </si>
+  <si>
+    <t>Default SLA</t>
+  </si>
+  <si>
+    <t>customerSegment</t>
+  </si>
+  <si>
+    <t>VIP Consumer</t>
+  </si>
+  <si>
+    <t>Individual</t>
+  </si>
+  <si>
+    <t>Premier with CRM</t>
+  </si>
+  <si>
+    <t>HYBRID</t>
+  </si>
+  <si>
     <t>VIP</t>
   </si>
   <si>
-    <t>Line Type</t>
-  </si>
-  <si>
-    <t>Customer Type</t>
-  </si>
-  <si>
-    <t>Service Category</t>
-  </si>
-  <si>
-    <t>Customer Segment</t>
-  </si>
-  <si>
-    <t>Customer SubSegment</t>
-  </si>
-  <si>
-    <t>Interaction Channel</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>Workgroup Name</t>
-  </si>
-  <si>
-    <t>Rule Priority</t>
-  </si>
-  <si>
-    <t>Prepaid</t>
-  </si>
-  <si>
-    <t>Pre</t>
-  </si>
-  <si>
-    <t>Silver</t>
-  </si>
-  <si>
-    <t>Attribute name</t>
-  </si>
-  <si>
-    <t>Attribute value</t>
+    <t>customerType</t>
+  </si>
+  <si>
+    <t>serviceCategory</t>
+  </si>
+  <si>
+    <t>customerSubSegment</t>
+  </si>
+  <si>
+    <t>interactionChannel</t>
+  </si>
+  <si>
+    <t>ticketNumber</t>
+  </si>
+  <si>
+    <t>100721003079</t>
   </si>
 </sst>
 </file>
@@ -5475,8 +5629,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.375" customWidth="1"/>
-    <col min="2" max="2" width="19.875" customWidth="1"/>
+    <col min="1" max="1" width="17.375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.875" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="17.125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="14.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="13.125" bestFit="1" customWidth="1" collapsed="1"/>
@@ -5531,10 +5685,10 @@
         <v>172</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>1248</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>1249</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -5542,7 +5696,7 @@
         <v>2394650</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>124</v>
@@ -5587,7 +5741,7 @@
         <v>789474747</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -5595,7 +5749,7 @@
         <v>2388192</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>123</v>
@@ -5644,7 +5798,7 @@
         <v>2394650</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>131</v>
@@ -5667,7 +5821,7 @@
         <v>789474747</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -5675,7 +5829,7 @@
         <v>2388008</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>175</v>
@@ -5704,10 +5858,10 @@
         <v>13221514</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="D6" s="98">
         <v>767240995</v>
@@ -8206,7 +8360,7 @@
         <v>113</v>
       </c>
       <c r="E1" s="98" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -9465,7 +9619,7 @@
         <v>1019</v>
       </c>
       <c r="D53" s="89" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="E53" s="90" t="s">
         <v>84</v>
@@ -17196,7 +17350,7 @@
         <v>895</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="C2" s="4">
         <v>4</v>
@@ -17211,7 +17365,7 @@
         <v>898</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="H2" s="29" t="s">
         <v>899</v>
@@ -17264,13 +17418,13 @@
         <v>911</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>1255</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>1256</v>
-      </c>
       <c r="J1" s="99" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="K1" s="4"/>
     </row>
@@ -17297,7 +17451,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -17306,10 +17460,10 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="J3" s="100" t="b">
         <v>0</v>
@@ -17318,7 +17472,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="100" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="B4" s="100"/>
       <c r="C4" s="100"/>
@@ -17335,7 +17489,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="100" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="B5" s="100"/>
       <c r="C5" s="100"/>
@@ -17352,7 +17506,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="100" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="B6" s="100"/>
       <c r="C6" s="100"/>
@@ -17369,7 +17523,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="100" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="B7" s="100"/>
       <c r="C7" s="100"/>
@@ -17386,7 +17540,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="100" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="B8" s="100"/>
       <c r="C8" s="100"/>
@@ -17403,7 +17557,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="100" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="B9" s="100"/>
       <c r="C9" s="100"/>
@@ -17420,7 +17574,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="100" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="B10" s="100"/>
       <c r="C10" s="100"/>
@@ -17437,7 +17591,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="100" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="B11" s="100"/>
       <c r="C11" s="100"/>
@@ -17454,7 +17608,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="100" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="B12" s="100"/>
       <c r="C12" s="100"/>
@@ -17471,7 +17625,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="100" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="B13" s="100"/>
       <c r="C13" s="100"/>
@@ -17502,43 +17656,43 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.125" style="29" customWidth="1"/>
-    <col min="2" max="2" width="42.125" style="29" customWidth="1"/>
-    <col min="3" max="3" width="54.875" style="29" customWidth="1"/>
-    <col min="4" max="16384" width="10.875" style="29"/>
+    <col min="1" max="1" width="35.125" style="29" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="42.125" style="29" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="54.875" style="29" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="10.875" style="29" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B1" s="39" t="s">
         <v>1289</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="C1" s="39" t="s">
         <v>1290</v>
-      </c>
-      <c r="C1" s="39" t="s">
-        <v>1291</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B2" s="39" t="s">
         <v>1292</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="C2" s="39" t="s">
         <v>1293</v>
-      </c>
-      <c r="C2" s="39" t="s">
-        <v>1294</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B3" s="39" t="s">
         <v>1295</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="C3" s="39" t="s">
         <v>1296</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>1297</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -17546,125 +17700,125 @@
         <v>994</v>
       </c>
       <c r="B4" s="39" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C4" s="39" t="s">
         <v>1298</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>1299</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B5" s="39" t="s">
         <v>1300</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="C5" s="39" t="s">
         <v>1301</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>1302</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B6" s="39" t="s">
         <v>1303</v>
-      </c>
-      <c r="B6" s="39" t="s">
-        <v>1304</v>
       </c>
       <c r="C6" s="101"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B7" s="39" t="s">
         <v>1305</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="C7" s="39" t="s">
         <v>1306</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>1307</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="39" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B8" s="39" t="s">
         <v>1308</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="C8" s="39" t="s">
         <v>1309</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>1310</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="39" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B9" s="39" t="s">
         <v>1311</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="C9" s="39" t="s">
         <v>1312</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>1313</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="39" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B10" s="39" t="s">
         <v>1314</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="C10" s="39" t="s">
         <v>1315</v>
-      </c>
-      <c r="C10" s="39" t="s">
-        <v>1316</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="39" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B11" s="39" t="s">
         <v>1317</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="C11" s="39" t="s">
         <v>1318</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>1319</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="39" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B12" s="39" t="s">
         <v>1320</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="C12" s="39" t="s">
         <v>1321</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>1322</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="39" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B13" s="39" t="s">
         <v>1323</v>
-      </c>
-      <c r="B13" s="39" t="s">
-        <v>1324</v>
       </c>
       <c r="C13" s="101"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="39" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B14" s="39" t="s">
         <v>1325</v>
-      </c>
-      <c r="B14" s="39" t="s">
-        <v>1326</v>
       </c>
       <c r="C14" s="101"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="39" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B15" s="39" t="s">
         <v>1327</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="C15" s="39" t="s">
         <v>1328</v>
-      </c>
-      <c r="C15" s="39" t="s">
-        <v>1329</v>
       </c>
     </row>
   </sheetData>
@@ -18233,7 +18387,7 @@
         <v>876</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -18285,7 +18439,7 @@
     <col min="9" max="9" width="16" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="13.625" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="9.625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.375" customWidth="1"/>
+    <col min="13" max="13" width="12.375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -18323,10 +18477,10 @@
         <v>980</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>1244</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>1245</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
@@ -18334,7 +18488,7 @@
         <v>77</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>142</v>
@@ -18388,7 +18542,7 @@
         <v>151</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>148</v>
@@ -18436,7 +18590,7 @@
         <v>156</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -18555,7 +18709,7 @@
         <v>950</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>951</v>
@@ -18662,7 +18816,7 @@
         <v>975</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>148</v>
@@ -18777,19 +18931,19 @@
     </row>
     <row r="18" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="38" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B18" s="38" t="s">
         <v>1235</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="C18" s="38" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D18" s="38" t="s">
         <v>1236</v>
       </c>
-      <c r="C18" s="38" t="s">
+      <c r="E18" s="38" t="s">
         <v>1257</v>
-      </c>
-      <c r="D18" s="38" t="s">
-        <v>1237</v>
-      </c>
-      <c r="E18" s="38" t="s">
-        <v>1258</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>902</v>
@@ -18804,67 +18958,67 @@
     </row>
     <row r="19" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" s="38" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C19" s="38" t="s">
         <v>143</v>
       </c>
       <c r="D19" s="38" t="s">
+        <v>1238</v>
+      </c>
+      <c r="E19" s="38" t="s">
         <v>1239</v>
       </c>
-      <c r="E19" s="38" t="s">
+      <c r="F19" s="38" t="s">
         <v>1240</v>
       </c>
-      <c r="F19" s="38" t="s">
+      <c r="G19" s="38" t="s">
         <v>1241</v>
-      </c>
-      <c r="G19" s="38" t="s">
-        <v>1242</v>
       </c>
       <c r="H19" s="38" t="s">
         <v>144</v>
       </c>
       <c r="I19" s="95" t="s">
+        <v>1274</v>
+      </c>
+      <c r="J19" s="95" t="s">
         <v>1275</v>
       </c>
-      <c r="J19" s="95" t="s">
+      <c r="K19" s="95" t="s">
         <v>1276</v>
-      </c>
-      <c r="K19" s="95" t="s">
-        <v>1277</v>
       </c>
       <c r="L19" s="38" t="s">
         <v>145</v>
       </c>
       <c r="M19" s="38" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="N19" s="94"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="38" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>1259</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>1260</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>148</v>
       </c>
       <c r="D20" s="38" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E20" s="38" t="s">
         <v>1261</v>
       </c>
-      <c r="E20" s="38" t="s">
+      <c r="F20" s="38" t="s">
         <v>1262</v>
       </c>
-      <c r="F20" s="38" t="s">
+      <c r="G20" s="38" t="s">
         <v>1263</v>
-      </c>
-      <c r="G20" s="38" t="s">
-        <v>1264</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -18875,16 +19029,16 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>1330</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>1331</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>1332</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>1333</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>992</v>
@@ -18893,16 +19047,16 @@
         <v>166</v>
       </c>
       <c r="G21" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>1334</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>1335</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="J21" s="1" t="s">
         <v>1336</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>1337</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -18920,8 +19074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC2"/>
   <sheetViews>
-    <sheetView topLeftCell="AP1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BC2" sqref="BC2"/>
+    <sheetView tabSelected="1" topLeftCell="AP1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AV2" sqref="AV2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -18950,7 +19104,7 @@
     <col min="23" max="23" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="24" max="26" width="23.875" customWidth="1" collapsed="1"/>
     <col min="27" max="27" width="9.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="54" width="11" style="4"/>
+    <col min="48" max="54" width="11" style="4" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:55" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19096,28 +19250,28 @@
         <v>43</v>
       </c>
       <c r="AV1" s="4" t="s">
-        <v>1339</v>
+        <v>1350</v>
       </c>
       <c r="AW1" s="4" t="s">
-        <v>1340</v>
+        <v>1349</v>
       </c>
       <c r="AX1" s="4" t="s">
-        <v>1341</v>
+        <v>1359</v>
       </c>
       <c r="AY1" s="4" t="s">
-        <v>1342</v>
+        <v>1360</v>
       </c>
       <c r="AZ1" s="4" t="s">
-        <v>1343</v>
+        <v>1353</v>
       </c>
       <c r="BA1" s="4" t="s">
-        <v>1344</v>
+        <v>1361</v>
       </c>
       <c r="BB1" s="4" t="s">
-        <v>1345</v>
+        <v>1362</v>
       </c>
       <c r="BC1" s="4" t="s">
-        <v>57</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="2" spans="1:55" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19186,13 +19340,23 @@
         <v>1</v>
       </c>
       <c r="AW2" s="4" t="s">
-        <v>1350</v>
-      </c>
-      <c r="AX2" s="4" t="s">
-        <v>1351</v>
-      </c>
+        <v>1357</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>1354</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="AZ2" s="4" t="s">
+        <v>1355</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="BB2"/>
       <c r="BC2" s="2" t="s">
-        <v>1110</v>
+        <v>1364</v>
       </c>
     </row>
   </sheetData>
@@ -19204,41 +19368,42 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="23.875" customWidth="1"/>
+    <col min="9" max="9" width="23.875" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="10.125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>1338</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" s="4" t="s">
         <v>1339</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" s="4" t="s">
+        <v>1353</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>1340</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" s="4" t="s">
         <v>1341</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1342</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1343</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1344</v>
-      </c>
-      <c r="H1" t="s">
-        <v>1345</v>
       </c>
       <c r="I1" t="s">
         <v>74</v>
@@ -19267,13 +19432,16 @@
       <c r="Q1" t="s">
         <v>940</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R1" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>60</v>
       </c>
       <c r="I2" t="s">
-        <v>1004</v>
+        <v>1351</v>
       </c>
       <c r="J2">
         <v>3</v>
@@ -19282,7 +19450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -19293,10 +19461,13 @@
         <v>3</v>
       </c>
       <c r="Q3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="R3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -19310,10 +19481,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>60</v>
       </c>
+      <c r="B5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>1346</v>
+      </c>
       <c r="I5" t="s">
         <v>1004</v>
       </c>
@@ -19321,10 +19502,10 @@
         <v>3</v>
       </c>
       <c r="Q5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>63</v>
       </c>
@@ -19338,7 +19519,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>63</v>
       </c>
@@ -19352,7 +19533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>63</v>
       </c>
@@ -19366,7 +19547,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>63</v>
       </c>
@@ -19382,7 +19563,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -19390,29 +19572,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="19.125" customWidth="1"/>
-    <col min="5" max="5" width="17.375" customWidth="1"/>
-    <col min="6" max="6" width="9.125" customWidth="1"/>
+    <col min="4" max="4" width="19.125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="B1" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
       <c r="C1" t="s">
-        <v>1353</v>
+        <v>1348</v>
       </c>
       <c r="D1" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="E1" t="s">
         <v>86</v>
@@ -19421,10 +19603,10 @@
         <v>87</v>
       </c>
       <c r="G1" t="s">
-        <v>1346</v>
+        <v>1342</v>
       </c>
       <c r="H1" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -19432,7 +19614,10 @@
         <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>1339</v>
+        <v>1350</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
       </c>
       <c r="D2" t="s">
         <v>1004</v>
@@ -19447,18 +19632,21 @@
         <v>114</v>
       </c>
       <c r="H2">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>60</v>
       </c>
+      <c r="B3" s="4" t="s">
+        <v>1349</v>
+      </c>
       <c r="C3" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
       <c r="H3">
-        <v>8</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -19469,10 +19657,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -19518,23 +19706,6 @@
       </c>
       <c r="E2" s="4" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C3" t="s">
-        <v>208</v>
-      </c>
-      <c r="D3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E3" t="s">
-        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -19823,7 +19994,7 @@
         <v>89</v>
       </c>
       <c r="BG2" s="1" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="3" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -19910,7 +20081,7 @@
         <v>89</v>
       </c>
       <c r="BG3" s="1" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="4" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -19991,7 +20162,7 @@
         <v>89</v>
       </c>
       <c r="BG4" s="1" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="5" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -20078,7 +20249,7 @@
         <v>89</v>
       </c>
       <c r="BG5" s="1" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="6" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -20153,7 +20324,7 @@
         <v>89</v>
       </c>
       <c r="BG6" s="1" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="7" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -20303,7 +20474,7 @@
         <v>89</v>
       </c>
       <c r="BG8" s="1" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="9" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -20378,7 +20549,7 @@
         <v>89</v>
       </c>
       <c r="BG9" s="1" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="10" spans="1:59" ht="89.25" x14ac:dyDescent="0.25">
@@ -20465,7 +20636,7 @@
         <v>89</v>
       </c>
       <c r="BG10" s="1" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="11" spans="1:59" ht="25.5" x14ac:dyDescent="0.25">
@@ -20528,7 +20699,7 @@
         <v>89</v>
       </c>
       <c r="BG11" s="1" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="12" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -20603,7 +20774,7 @@
         <v>89</v>
       </c>
       <c r="BG12" s="1" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="13" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -20678,7 +20849,7 @@
         <v>89</v>
       </c>
       <c r="BG13" s="1" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="14" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -20753,7 +20924,7 @@
         <v>89</v>
       </c>
       <c r="BG14" s="1" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="15" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -20834,7 +21005,7 @@
         <v>89</v>
       </c>
       <c r="BG15" s="1" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="16" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -20897,7 +21068,7 @@
         <v>89</v>
       </c>
       <c r="BG16" s="1" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="17" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
@@ -20960,7 +21131,7 @@
         <v>89</v>
       </c>
       <c r="BG17" s="1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="18" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
@@ -21108,7 +21279,7 @@
         <v>89</v>
       </c>
       <c r="BG19" s="1" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="20" spans="1:59" x14ac:dyDescent="0.25">
@@ -21201,7 +21372,7 @@
         <v>89</v>
       </c>
       <c r="BG20" s="1" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="21" spans="1:59" x14ac:dyDescent="0.25">
@@ -21294,7 +21465,7 @@
         <v>89</v>
       </c>
       <c r="BG21" s="1" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="22" spans="1:59" x14ac:dyDescent="0.25">
@@ -21387,7 +21558,7 @@
         <v>89</v>
       </c>
       <c r="BG22" s="1" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="23" spans="1:59" x14ac:dyDescent="0.25">
@@ -21480,7 +21651,7 @@
         <v>89</v>
       </c>
       <c r="BG23" s="1" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="24" spans="1:59" x14ac:dyDescent="0.25">
@@ -21573,7 +21744,7 @@
         <v>89</v>
       </c>
       <c r="BG24" s="1" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="25" spans="1:59" x14ac:dyDescent="0.25">
@@ -21666,7 +21837,7 @@
         <v>89</v>
       </c>
       <c r="BG25" s="1" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="26" spans="1:59" x14ac:dyDescent="0.25">
@@ -21765,7 +21936,7 @@
         <v>89</v>
       </c>
       <c r="BG26" s="1" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="27" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
@@ -21913,7 +22084,7 @@
         <v>89</v>
       </c>
       <c r="BG28" s="1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="29" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -21976,7 +22147,7 @@
         <v>89</v>
       </c>
       <c r="BG29" s="1" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="30" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -22039,7 +22210,7 @@
         <v>89</v>
       </c>
       <c r="BG30" s="1" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="31" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -22102,7 +22273,7 @@
         <v>89</v>
       </c>
       <c r="BG31" s="1" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="32" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
@@ -22165,7 +22336,7 @@
         <v>89</v>
       </c>
       <c r="BG32" s="1" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="33" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -22228,7 +22399,7 @@
         <v>89</v>
       </c>
       <c r="BG33" s="1" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="34" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -22315,7 +22486,7 @@
         <v>89</v>
       </c>
       <c r="BG34" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="35" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
@@ -22408,7 +22579,7 @@
         <v>89</v>
       </c>
       <c r="BG35" s="1" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="36" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -22489,7 +22660,7 @@
         <v>89</v>
       </c>
       <c r="BG36" s="1" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="37" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -22564,7 +22735,7 @@
         <v>89</v>
       </c>
       <c r="BG37" s="1" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="38" spans="1:59" ht="25.5" x14ac:dyDescent="0.25">
@@ -22639,7 +22810,7 @@
         <v>89</v>
       </c>
       <c r="BG38" s="1" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="39" spans="1:59" ht="25.5" x14ac:dyDescent="0.25">
@@ -22714,7 +22885,7 @@
         <v>89</v>
       </c>
       <c r="BG39" s="1" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="40" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -22801,7 +22972,7 @@
         <v>89</v>
       </c>
       <c r="BG40" s="1" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="41" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -22888,7 +23059,7 @@
         <v>89</v>
       </c>
       <c r="BG41" s="1" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="42" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -22951,7 +23122,7 @@
         <v>89</v>
       </c>
       <c r="BG42" s="1" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="43" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
@@ -23020,7 +23191,7 @@
         <v>89</v>
       </c>
       <c r="BG43" s="1" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="44" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -23083,7 +23254,7 @@
         <v>89</v>
       </c>
       <c r="BG44" s="1" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="45" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
@@ -23146,7 +23317,7 @@
         <v>89</v>
       </c>
       <c r="BG45" s="1" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="46" spans="1:59" ht="102" x14ac:dyDescent="0.25">
@@ -23207,7 +23378,7 @@
         <v>89</v>
       </c>
       <c r="BG46" s="1" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="47" spans="1:59" ht="25.5" x14ac:dyDescent="0.25">
@@ -23282,7 +23453,7 @@
         <v>89</v>
       </c>
       <c r="BG47" s="1" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="48" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -23345,7 +23516,7 @@
         <v>89</v>
       </c>
       <c r="BG48" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="49" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -23420,7 +23591,7 @@
         <v>89</v>
       </c>
       <c r="BG49" s="1" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="50" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -23495,7 +23666,7 @@
         <v>89</v>
       </c>
       <c r="BG50" s="1" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="51" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
@@ -23570,7 +23741,7 @@
         <v>89</v>
       </c>
       <c r="BG51" s="1" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="52" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -23645,7 +23816,7 @@
         <v>89</v>
       </c>
       <c r="BG52" s="1" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="53" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -23708,7 +23879,7 @@
         <v>89</v>
       </c>
       <c r="BG53" s="1" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="54" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -23777,7 +23948,7 @@
         <v>89</v>
       </c>
       <c r="BG54" s="1" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="55" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
@@ -23864,7 +24035,7 @@
         <v>89</v>
       </c>
       <c r="BG55" s="1" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="56" spans="1:59" ht="89.25" x14ac:dyDescent="0.25">
@@ -23927,7 +24098,7 @@
         <v>89</v>
       </c>
       <c r="BG56" s="1" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="57" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -23990,7 +24161,7 @@
         <v>89</v>
       </c>
       <c r="BG57" s="1" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="58" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -24065,7 +24236,7 @@
         <v>89</v>
       </c>
       <c r="BG58" s="1" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="59" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -24146,7 +24317,7 @@
         <v>89</v>
       </c>
       <c r="BG59" s="1" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="60" spans="1:59" ht="25.5" x14ac:dyDescent="0.25">
@@ -24227,7 +24398,7 @@
         <v>89</v>
       </c>
       <c r="BG60" s="1" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="61" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -24290,7 +24461,7 @@
         <v>89</v>
       </c>
       <c r="BG61" s="1" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="62" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -24353,7 +24524,7 @@
         <v>89</v>
       </c>
       <c r="BG62" s="1" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="63" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -24416,7 +24587,7 @@
         <v>89</v>
       </c>
       <c r="BG63" s="1" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="64" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -24479,7 +24650,7 @@
         <v>89</v>
       </c>
       <c r="BG64" s="1" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="65" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -24554,7 +24725,7 @@
         <v>89</v>
       </c>
       <c r="BG65" s="1" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="66" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -24623,7 +24794,7 @@
         <v>89</v>
       </c>
       <c r="BG66" s="1" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="67" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -24698,7 +24869,7 @@
         <v>89</v>
       </c>
       <c r="BG67" s="1" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="68" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -24761,7 +24932,7 @@
         <v>89</v>
       </c>
       <c r="BG68" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="69" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -24836,7 +25007,7 @@
         <v>89</v>
       </c>
       <c r="BG69" s="1" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="70" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -24911,7 +25082,7 @@
         <v>89</v>
       </c>
       <c r="BG70" s="1" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="71" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -24974,7 +25145,7 @@
         <v>89</v>
       </c>
       <c r="BG71" s="1" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="72" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -25043,7 +25214,7 @@
         <v>89</v>
       </c>
       <c r="BG72" s="1" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="73" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -25112,7 +25283,7 @@
         <v>89</v>
       </c>
       <c r="BG73" s="1" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="74" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -25187,7 +25358,7 @@
         <v>89</v>
       </c>
       <c r="BG74" s="1" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="75" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -25262,7 +25433,7 @@
         <v>89</v>
       </c>
       <c r="BG75" s="1" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="76" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -25325,7 +25496,7 @@
         <v>89</v>
       </c>
       <c r="BG76" s="1" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="77" spans="1:59" ht="25.5" x14ac:dyDescent="0.25">
@@ -25388,7 +25559,7 @@
         <v>89</v>
       </c>
       <c r="BG77" s="1" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="78" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -25451,7 +25622,7 @@
         <v>89</v>
       </c>
       <c r="BG78" s="1" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="79" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -25526,7 +25697,7 @@
         <v>89</v>
       </c>
       <c r="BG79" s="1" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="80" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -25589,7 +25760,7 @@
         <v>89</v>
       </c>
       <c r="BG80" s="1" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="81" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -25658,7 +25829,7 @@
         <v>89</v>
       </c>
       <c r="BG81" s="1" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="82" spans="1:59" x14ac:dyDescent="0.25">
@@ -25757,7 +25928,7 @@
         <v>89</v>
       </c>
       <c r="BG82" s="1" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="83" spans="1:59" x14ac:dyDescent="0.25">
@@ -25856,7 +26027,7 @@
         <v>89</v>
       </c>
       <c r="BG83" s="1" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="84" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -25919,7 +26090,7 @@
         <v>89</v>
       </c>
       <c r="BG84" s="1" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="85" spans="1:59" x14ac:dyDescent="0.25">
@@ -26012,7 +26183,7 @@
         <v>89</v>
       </c>
       <c r="BG85" s="1" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="86" spans="1:59" x14ac:dyDescent="0.25">
@@ -26105,7 +26276,7 @@
         <v>89</v>
       </c>
       <c r="BG86" s="1" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="87" spans="1:59" x14ac:dyDescent="0.25">
@@ -26204,7 +26375,7 @@
         <v>89</v>
       </c>
       <c r="BG87" s="1" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="88" spans="1:59" x14ac:dyDescent="0.25">
@@ -26297,7 +26468,7 @@
         <v>89</v>
       </c>
       <c r="BG88" s="1" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="89" spans="1:59" x14ac:dyDescent="0.25">
@@ -26396,7 +26567,7 @@
         <v>89</v>
       </c>
       <c r="BG89" s="1" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="90" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -26489,7 +26660,7 @@
         <v>89</v>
       </c>
       <c r="BG90" s="1" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="91" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -26564,7 +26735,7 @@
         <v>89</v>
       </c>
       <c r="BG91" s="1" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="92" spans="1:59" x14ac:dyDescent="0.25">
@@ -26639,7 +26810,7 @@
         <v>89</v>
       </c>
       <c r="BG92" s="1" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="93" spans="1:59" x14ac:dyDescent="0.25">
@@ -26714,7 +26885,7 @@
         <v>89</v>
       </c>
       <c r="BG93" s="1" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="94" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -26777,7 +26948,7 @@
         <v>89</v>
       </c>
       <c r="BG94" s="1" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="95" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -26840,7 +27011,7 @@
         <v>89</v>
       </c>
       <c r="BG95" s="1" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="96" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -26903,7 +27074,7 @@
         <v>89</v>
       </c>
       <c r="BG96" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="97" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -26966,7 +27137,7 @@
         <v>89</v>
       </c>
       <c r="BG97" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="98" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -27029,7 +27200,7 @@
         <v>89</v>
       </c>
       <c r="BG98" s="1" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="99" spans="1:59" ht="102" x14ac:dyDescent="0.25">
@@ -27092,7 +27263,7 @@
         <v>89</v>
       </c>
       <c r="BG99" s="1" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="100" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -27167,7 +27338,7 @@
         <v>89</v>
       </c>
       <c r="BG100" s="1" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="101" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -27242,7 +27413,7 @@
         <v>89</v>
       </c>
       <c r="BG101" s="1" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="102" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -27317,7 +27488,7 @@
         <v>89</v>
       </c>
       <c r="BG102" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="103" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -27404,7 +27575,7 @@
         <v>89</v>
       </c>
       <c r="BG103" s="1" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="104" spans="1:59" x14ac:dyDescent="0.25">
@@ -27485,7 +27656,7 @@
         <v>89</v>
       </c>
       <c r="BG104" s="40" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="105" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -27560,7 +27731,7 @@
         <v>89</v>
       </c>
       <c r="BG105" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="106" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -27635,7 +27806,7 @@
         <v>89</v>
       </c>
       <c r="BG106" s="1" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="107" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -27710,7 +27881,7 @@
         <v>89</v>
       </c>
       <c r="BG107" s="1" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="108" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -27785,7 +27956,7 @@
         <v>89</v>
       </c>
       <c r="BG108" s="1" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="109" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -27860,7 +28031,7 @@
         <v>89</v>
       </c>
       <c r="BG109" s="1" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="110" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -27935,7 +28106,7 @@
         <v>89</v>
       </c>
       <c r="BG110" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="111" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -28016,7 +28187,7 @@
         <v>89</v>
       </c>
       <c r="BG111" s="1" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="112" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -28109,7 +28280,7 @@
         <v>89</v>
       </c>
       <c r="BG112" s="1" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="113" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -28196,7 +28367,7 @@
         <v>89</v>
       </c>
       <c r="BG113" s="1" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="114" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -28265,7 +28436,7 @@
         <v>89</v>
       </c>
       <c r="BG114" s="1" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="115" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -28358,7 +28529,7 @@
         <v>89</v>
       </c>
       <c r="BG115" s="1" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="116" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -28451,7 +28622,7 @@
         <v>89</v>
       </c>
       <c r="BG116" s="1" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="117" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -28544,7 +28715,7 @@
         <v>89</v>
       </c>
       <c r="BG117" s="1" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="118" spans="1:59" ht="89.25" x14ac:dyDescent="0.25">
@@ -28607,7 +28778,7 @@
         <v>89</v>
       </c>
       <c r="BG118" s="1" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="119" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
@@ -28688,7 +28859,7 @@
         <v>89</v>
       </c>
       <c r="BG119" s="1" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="120" spans="1:59" ht="89.25" x14ac:dyDescent="0.25">
@@ -28775,7 +28946,7 @@
         <v>89</v>
       </c>
       <c r="BG120" s="1" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="121" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -28862,7 +29033,7 @@
         <v>89</v>
       </c>
       <c r="BG121" s="1" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="122" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -28925,7 +29096,7 @@
         <v>89</v>
       </c>
       <c r="BG122" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="123" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -28988,7 +29159,7 @@
         <v>89</v>
       </c>
       <c r="BG123" s="1" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="124" spans="1:59" ht="127.5" x14ac:dyDescent="0.25">
@@ -29051,7 +29222,7 @@
         <v>89</v>
       </c>
       <c r="BG124" s="1" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="125" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -29138,7 +29309,7 @@
         <v>89</v>
       </c>
       <c r="BG125" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="126" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -29225,7 +29396,7 @@
         <v>89</v>
       </c>
       <c r="BG126" s="1" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="127" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -29470,7 +29641,7 @@
         <v>89</v>
       </c>
       <c r="BG129" s="1" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="130" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -29545,7 +29716,7 @@
         <v>89</v>
       </c>
       <c r="BG130" s="1" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
   </sheetData>

--- a/resources/excels/KE.xlsx
+++ b/resources/excels/KE.xlsx
@@ -1,46 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2394650\IdeaProjects\cs-portal-automation_selenium1\resources\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="34080" windowHeight="10080" firstSheet="2" activeTab="3"/>
+    <workbookView activeTab="3" firstSheet="2" windowHeight="10080" windowWidth="34080" xWindow="0" yWindow="495"/>
   </bookViews>
   <sheets>
-    <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
-    <sheet name="Priority" sheetId="10" r:id="rId2"/>
-    <sheet name="Headers" sheetId="9" r:id="rId3"/>
-    <sheet name="NFTRTickets-San" sheetId="3" r:id="rId4"/>
-    <sheet name="SLA Configuration" sheetId="29" r:id="rId5"/>
-    <sheet name="Assignment Rule" sheetId="28" r:id="rId6"/>
-    <sheet name="FTRTickets-San" sheetId="2" r:id="rId7"/>
-    <sheet name="NFTRTickets-Reg" sheetId="25" r:id="rId8"/>
-    <sheet name="NFTRTickets-Reg1" sheetId="11" r:id="rId9"/>
-    <sheet name="FTRTickets-Reg" sheetId="12" r:id="rId10"/>
-    <sheet name="UserManagement" sheetId="19" r:id="rId11"/>
-    <sheet name="PinnedTags" sheetId="5" r:id="rId12"/>
-    <sheet name="Ticket State" sheetId="6" r:id="rId13"/>
-    <sheet name="TemplateManagement" sheetId="20" r:id="rId14"/>
-    <sheet name="Ticket Transfer Rules" sheetId="15" r:id="rId15"/>
-    <sheet name="Sheet1" sheetId="26" r:id="rId16"/>
-    <sheet name="Authentication Policy" sheetId="17" r:id="rId17"/>
-    <sheet name="Action Tagging" sheetId="18" r:id="rId18"/>
-    <sheet name="QuestionAnswerKey" sheetId="27" r:id="rId19"/>
-    <sheet name="State Queue Mapping" sheetId="21" r:id="rId20"/>
-    <sheet name="Transfer To Queue" sheetId="24" r:id="rId21"/>
+    <sheet name="LoginCredentials" r:id="rId1" sheetId="1"/>
+    <sheet name="Priority" r:id="rId2" sheetId="10"/>
+    <sheet name="Headers" r:id="rId3" sheetId="9"/>
+    <sheet name="NFTRTickets-San" r:id="rId4" sheetId="3"/>
+    <sheet name="SLA Configuration" r:id="rId5" sheetId="29"/>
+    <sheet name="Assignment Rule" r:id="rId6" sheetId="28"/>
+    <sheet name="FTRTickets-San" r:id="rId7" sheetId="2"/>
+    <sheet name="NFTRTickets-Reg" r:id="rId8" sheetId="25"/>
+    <sheet name="NFTRTickets-Reg1" r:id="rId9" sheetId="11"/>
+    <sheet name="FTRTickets-Reg" r:id="rId10" sheetId="12"/>
+    <sheet name="UserManagement" r:id="rId11" sheetId="19"/>
+    <sheet name="PinnedTags" r:id="rId12" sheetId="5"/>
+    <sheet name="Ticket State" r:id="rId13" sheetId="6"/>
+    <sheet name="TemplateManagement" r:id="rId14" sheetId="20"/>
+    <sheet name="Ticket Transfer Rules" r:id="rId15" sheetId="15"/>
+    <sheet name="Sheet1" r:id="rId16" sheetId="26"/>
+    <sheet name="Authentication Policy" r:id="rId17" sheetId="17"/>
+    <sheet name="Action Tagging" r:id="rId18" sheetId="18"/>
+    <sheet name="QuestionAnswerKey" r:id="rId19" sheetId="27"/>
+    <sheet name="State Queue Mapping" r:id="rId20" sheetId="21"/>
+    <sheet name="Transfer To Queue" r:id="rId21" sheetId="24"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'NFTRTickets-Reg'!$A$1:$BG$45</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'NFTRTickets-Reg1'!$A$1:$BG$86</definedName>
+    <definedName hidden="1" localSheetId="7" name="_xlnm._FilterDatabase">'NFTRTickets-Reg'!$A$1:$BG$45</definedName>
+    <definedName hidden="1" localSheetId="8" name="_xlnm._FilterDatabase">'NFTRTickets-Reg1'!$A$1:$BG$86</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -53,7 +53,7 @@
     <author>Rahul Gupta</author>
   </authors>
   <commentList>
-    <comment ref="AV1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AV1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AW1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AW1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -101,7 +101,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AX1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AX1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -126,7 +126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AY1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AY1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -150,7 +150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AZ1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AZ1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -184,7 +184,7 @@
     <author>Rahul Gupta</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="B1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -208,7 +208,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -232,7 +232,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="D1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -257,7 +257,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="E1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -281,7 +281,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="F1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -315,7 +315,7 @@
     <author>Rahul Gupta</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="B1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -339,7 +339,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -363,7 +363,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0" shapeId="0">
+    <comment authorId="0" ref="B3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -392,7 +392,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7901" uniqueCount="1365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7908" uniqueCount="1367">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -4518,11 +4518,18 @@
   <si>
     <t>100721003079</t>
   </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>160721005865</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -4802,189 +4809,189 @@
     </border>
   </borders>
   <cellStyleXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0"/>
+    <xf applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="12" numFmtId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="15" numFmtId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="12" numFmtId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="102">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="8" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="8" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="8" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="10" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="10" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="7" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="8" fontId="11" numFmtId="0" xfId="1"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="3"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="3"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="2"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="7" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="1"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="4" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="0" fontId="13" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="0" fontId="13" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="3" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="5" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" borderId="4" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="9" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="9" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="14" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="16" numFmtId="0" xfId="4"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="16" numFmtId="0" xfId="4">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="16" numFmtId="0" xfId="4">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="4"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="4"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="4"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="4"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="4"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="4"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="4"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="4"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="4"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="4"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="4"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="4"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="4"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="4"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="4"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="4"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="4"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="4"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="4"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="4"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="4"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="4"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="4"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="4"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="4"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="4"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="4"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="4"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="14" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="0" fontId="14" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="17" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="18" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="0" fontId="18" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="18" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="15" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="18" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="6" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal 2 2" xfId="5"/>
     <cellStyle name="Normal 3" xfId="2"/>
@@ -5115,7 +5122,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -5128,7 +5135,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -5147,12 +5154,12 @@
         <xdr:cNvPr id="9217" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001240000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001240000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:spLocks noChangeArrowheads="1" noChangeAspect="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -5195,12 +5202,12 @@
         <xdr:cNvPr id="3" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:spLocks noChangeArrowheads="1" noChangeAspect="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -5243,12 +5250,12 @@
         <xdr:cNvPr id="4" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF08D5FD-92C7-4540-AF22-FEEA19CA4C87}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF08D5FD-92C7-4540-AF22-FEEA19CA4C87}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:spLocks noChangeArrowheads="1" noChangeAspect="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -5291,12 +5298,12 @@
         <xdr:cNvPr id="5" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14EBD159-F09F-5A4A-BACB-F932EFB20343}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14EBD159-F09F-5A4A-BACB-F932EFB20343}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:spLocks noChangeArrowheads="1" noChangeAspect="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -5329,10 +5336,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -5367,7 +5374,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -5419,7 +5426,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -5530,21 +5537,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -5561,7 +5568,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -5613,14 +5620,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5629,13 +5636,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="17.375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.5" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.125" collapsed="true"/>
+    <col min="7" max="8" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -5874,19 +5881,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" display="July@123$"/>
-    <hyperlink ref="B2" r:id="rId2" display="July@123$"/>
+    <hyperlink display="July@123$" r:id="rId1" ref="B4"/>
+    <hyperlink display="July@123$" r:id="rId2" ref="B2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId3" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F128"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A112" workbookViewId="0" zoomScale="110" zoomScaleNormal="110">
       <selection activeCell="I115" sqref="I115"/>
     </sheetView>
   </sheetViews>
@@ -5912,7 +5919,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
+    <row ht="76.5" r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>18</v>
       </c>
@@ -5963,7 +5970,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+    <row ht="51" r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>18</v>
       </c>
@@ -5980,7 +5987,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row ht="38.25" r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>24</v>
       </c>
@@ -5997,7 +6004,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+    <row ht="51" r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>18</v>
       </c>
@@ -6014,7 +6021,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+    <row ht="51" r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>24</v>
       </c>
@@ -6031,7 +6038,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="63.75" x14ac:dyDescent="0.25">
+    <row ht="63.75" r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>24</v>
       </c>
@@ -6048,7 +6055,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row ht="38.25" r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>18</v>
       </c>
@@ -6065,7 +6072,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+    <row ht="51" r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>18</v>
       </c>
@@ -6099,7 +6106,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row ht="38.25" r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>18</v>
       </c>
@@ -6116,7 +6123,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+    <row ht="51" r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>18</v>
       </c>
@@ -6133,7 +6140,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row ht="38.25" r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>18</v>
       </c>
@@ -6150,7 +6157,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row ht="38.25" r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>24</v>
       </c>
@@ -6167,7 +6174,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row ht="38.25" r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>18</v>
       </c>
@@ -6184,7 +6191,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row ht="38.25" r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>24</v>
       </c>
@@ -6201,7 +6208,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+    <row ht="51" r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>18</v>
       </c>
@@ -6218,7 +6225,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+    <row ht="63.75" r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>18</v>
       </c>
@@ -6235,7 +6242,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+    <row ht="51" r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>18</v>
       </c>
@@ -6252,7 +6259,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+    <row ht="63.75" r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>18</v>
       </c>
@@ -6286,7 +6293,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+    <row ht="63.75" r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>18</v>
       </c>
@@ -6303,7 +6310,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+    <row ht="63.75" r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>18</v>
       </c>
@@ -6320,7 +6327,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+    <row ht="63.75" r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>18</v>
       </c>
@@ -6337,7 +6344,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+    <row ht="63.75" r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>18</v>
       </c>
@@ -6354,7 +6361,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+    <row ht="51" r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>18</v>
       </c>
@@ -6371,7 +6378,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+    <row ht="63.75" r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>24</v>
       </c>
@@ -6405,7 +6412,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+    <row ht="76.5" r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
         <v>24</v>
       </c>
@@ -6422,7 +6429,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
+    <row ht="89.25" r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
         <v>24</v>
       </c>
@@ -6439,7 +6446,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+    <row ht="76.5" r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>18</v>
       </c>
@@ -6456,7 +6463,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+    <row ht="76.5" r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>18</v>
       </c>
@@ -6473,7 +6480,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+    <row ht="51" r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
         <v>18</v>
       </c>
@@ -6490,7 +6497,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+    <row ht="63.75" r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
         <v>18</v>
       </c>
@@ -6507,7 +6514,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+    <row ht="76.5" r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
         <v>18</v>
       </c>
@@ -6558,7 +6565,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+    <row ht="76.5" r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
         <v>18</v>
       </c>
@@ -6575,7 +6582,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+    <row ht="63.75" r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
         <v>18</v>
       </c>
@@ -6592,7 +6599,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row ht="38.25" r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
         <v>18</v>
       </c>
@@ -6609,7 +6616,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+    <row ht="51" r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
         <v>18</v>
       </c>
@@ -6626,7 +6633,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
+    <row ht="89.25" r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
         <v>18</v>
       </c>
@@ -6643,7 +6650,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+    <row ht="76.5" r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
         <v>18</v>
       </c>
@@ -6660,7 +6667,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+    <row ht="63.75" r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
         <v>24</v>
       </c>
@@ -6677,7 +6684,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+    <row ht="63.75" r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
         <v>18</v>
       </c>
@@ -6694,7 +6701,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+    <row ht="51" r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
         <v>18</v>
       </c>
@@ -6711,7 +6718,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+    <row ht="63.75" r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
         <v>18</v>
       </c>
@@ -6745,7 +6752,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+    <row ht="63.75" r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="16" t="s">
         <v>18</v>
       </c>
@@ -6762,7 +6769,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+    <row ht="51" r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="16" t="s">
         <v>24</v>
       </c>
@@ -6779,7 +6786,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+    <row ht="51" r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="16" t="s">
         <v>18</v>
       </c>
@@ -6796,7 +6803,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+    <row ht="63.75" r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="16" t="s">
         <v>18</v>
       </c>
@@ -6813,7 +6820,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row ht="25.5" r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
         <v>18</v>
       </c>
@@ -6830,7 +6837,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row ht="38.25" r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="s">
         <v>18</v>
       </c>
@@ -6847,7 +6854,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+    <row ht="76.5" r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="16" t="s">
         <v>18</v>
       </c>
@@ -6864,7 +6871,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+    <row ht="63.75" r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="16" t="s">
         <v>18</v>
       </c>
@@ -6881,7 +6888,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="102" x14ac:dyDescent="0.25">
+    <row ht="102" r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
         <v>18</v>
       </c>
@@ -6898,7 +6905,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row ht="38.25" r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="16" t="s">
         <v>18</v>
       </c>
@@ -6915,7 +6922,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row ht="38.25" r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="16" t="s">
         <v>18</v>
       </c>
@@ -6932,7 +6939,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+    <row ht="63.75" r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
         <v>18</v>
       </c>
@@ -6949,7 +6956,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+    <row ht="51" r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
         <v>18</v>
       </c>
@@ -6966,7 +6973,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
+    <row ht="89.25" r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
         <v>18</v>
       </c>
@@ -6983,7 +6990,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+    <row ht="76.5" r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="s">
         <v>18</v>
       </c>
@@ -7000,7 +7007,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+    <row ht="76.5" r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="16" t="s">
         <v>24</v>
       </c>
@@ -7068,7 +7075,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+    <row ht="51" r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="17" t="s">
         <v>18</v>
       </c>
@@ -7085,7 +7092,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+    <row ht="76.5" r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="17" t="s">
         <v>18</v>
       </c>
@@ -7102,7 +7109,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row ht="25.5" r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="17" t="s">
         <v>18</v>
       </c>
@@ -7119,7 +7126,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+    <row ht="63.75" r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="16" t="s">
         <v>24</v>
       </c>
@@ -7136,7 +7143,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+    <row ht="63.75" r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="16" t="s">
         <v>203</v>
       </c>
@@ -7153,7 +7160,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+    <row ht="51" r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="16" t="s">
         <v>18</v>
       </c>
@@ -7170,7 +7177,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+    <row ht="51" r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="16" t="s">
         <v>18</v>
       </c>
@@ -7187,7 +7194,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+    <row ht="51" r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="16" t="s">
         <v>18</v>
       </c>
@@ -7204,7 +7211,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+    <row ht="76.5" r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="16" t="s">
         <v>203</v>
       </c>
@@ -7323,7 +7330,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+    <row ht="63.75" r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="16" t="s">
         <v>24</v>
       </c>
@@ -7374,7 +7381,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+    <row ht="76.5" r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="16" t="s">
         <v>24</v>
       </c>
@@ -7442,7 +7449,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+    <row ht="51" r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="18" t="s">
         <v>24</v>
       </c>
@@ -7459,7 +7466,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+    <row ht="63.75" r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="18" t="s">
         <v>24</v>
       </c>
@@ -7476,7 +7483,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+    <row ht="51" r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="18" t="s">
         <v>24</v>
       </c>
@@ -7493,7 +7500,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row ht="25.5" r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="18" t="s">
         <v>24</v>
       </c>
@@ -7510,7 +7517,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row ht="25.5" r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="18" t="s">
         <v>24</v>
       </c>
@@ -7527,7 +7534,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row ht="25.5" r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="18" t="s">
         <v>24</v>
       </c>
@@ -7544,7 +7551,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+    <row ht="51" r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="16" t="s">
         <v>18</v>
       </c>
@@ -7578,7 +7585,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+    <row ht="51" r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="16" t="s">
         <v>203</v>
       </c>
@@ -7595,7 +7602,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+    <row ht="76.5" r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="16" t="s">
         <v>203</v>
       </c>
@@ -7612,7 +7619,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row ht="38.25" r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="16" t="s">
         <v>203</v>
       </c>
@@ -7629,7 +7636,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+    <row ht="76.5" r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="16" t="s">
         <v>203</v>
       </c>
@@ -7680,7 +7687,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row ht="38.25" r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="16" t="s">
         <v>18</v>
       </c>
@@ -7697,7 +7704,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row ht="38.25" r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="16" t="s">
         <v>18</v>
       </c>
@@ -7714,7 +7721,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+    <row ht="51" r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="16" t="s">
         <v>18</v>
       </c>
@@ -7748,7 +7755,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+    <row ht="63.75" r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="16" t="s">
         <v>18</v>
       </c>
@@ -7765,7 +7772,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+    <row ht="76.5" r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="16" t="s">
         <v>18</v>
       </c>
@@ -7782,7 +7789,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+    <row ht="51" r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="16" t="s">
         <v>18</v>
       </c>
@@ -7799,7 +7806,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+    <row ht="76.5" r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="16" t="s">
         <v>203</v>
       </c>
@@ -7816,7 +7823,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row ht="25.5" r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="18" t="s">
         <v>24</v>
       </c>
@@ -7833,7 +7840,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+    <row ht="63.75" r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="16" t="s">
         <v>18</v>
       </c>
@@ -7850,7 +7857,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+    <row ht="63.75" r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="18" t="s">
         <v>24</v>
       </c>
@@ -7918,7 +7925,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+    <row ht="63.75" r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="10" t="s">
         <v>18</v>
       </c>
@@ -7935,7 +7942,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+    <row ht="76.5" r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
         <v>18</v>
       </c>
@@ -7952,7 +7959,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+    <row ht="63.75" r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
         <v>248</v>
       </c>
@@ -7969,7 +7976,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="43" t="s">
         <v>58</v>
       </c>
@@ -7986,7 +7993,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="43" t="s">
         <v>58</v>
       </c>
@@ -8003,7 +8010,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="43" t="s">
         <v>58</v>
       </c>
@@ -8020,7 +8027,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="43" t="s">
         <v>58</v>
       </c>
@@ -8037,7 +8044,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="43" t="s">
         <v>58</v>
       </c>
@@ -8054,7 +8061,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="43" t="s">
         <v>58</v>
       </c>
@@ -8073,23 +8080,23 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E117">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule dxfId="3" priority="4" type="duplicateValues"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118:E119">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule dxfId="2" priority="3" type="duplicateValues"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E120">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule dxfId="1" priority="2" type="duplicateValues"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E121">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule dxfId="0" priority="1" type="duplicateValues"/>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -8098,8 +8105,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="22.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.125" collapsed="true"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" width="22.625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -8332,12 +8339,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8415,27 +8422,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -8637,13 +8644,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8652,8 +8659,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.875" style="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="16384" width="9" style="31" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="31" width="30.875" collapsed="true"/>
+    <col min="2" max="16384" style="31" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -8704,24 +8711,24 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E444"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="37.125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27.625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="13.375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="37.125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="20.125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="27.625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -16273,12 +16280,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17274,12 +17281,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17288,18 +17295,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.875" style="4" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.625" style="4" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.875" style="29" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.5" style="29" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.125" style="29" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10" style="29" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11" style="29" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="10.125" style="29" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.5" style="29" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.625" style="29" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="11.875" style="29" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="15.875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="4" width="19.625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="29" width="10.875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="29" width="11.5" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="29" width="10.125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="29" width="10.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="29" width="11.0" collapsed="true"/>
+    <col min="9" max="10" customWidth="true" style="29" width="10.125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="29" width="10.5" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="29" width="11.625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="29" width="11.875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -17345,7 +17352,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" ht="141.75" x14ac:dyDescent="0.25">
+    <row ht="141.75" r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>895</v>
       </c>
@@ -17375,13 +17382,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17390,9 +17397,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="13.375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -17641,13 +17648,13 @@
       <c r="K13" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17656,10 +17663,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.125" style="29" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="42.125" style="29" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="54.875" style="29" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="10.875" style="29" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="29" width="35.125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="29" width="42.125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="29" width="54.875" collapsed="true"/>
+    <col min="4" max="16384" style="29" width="10.875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -17684,7 +17691,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row ht="31.5" r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
         <v>1294</v>
       </c>
@@ -17822,12 +17829,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17836,7 +17843,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -17875,12 +17882,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17889,11 +17896,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.125" style="34" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9" style="34" collapsed="1"/>
-    <col min="3" max="3" width="13.875" style="34" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.5" style="34" customWidth="1" collapsed="1"/>
-    <col min="5" max="16384" width="9" style="34" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="34" width="19.125" collapsed="true"/>
+    <col min="2" max="2" style="34" width="9.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="34" width="13.875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="34" width="11.5" collapsed="true"/>
+    <col min="5" max="16384" style="34" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -17931,7 +17938,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="58" t="s">
         <v>97</v>
       </c>
@@ -17952,7 +17959,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="58" t="s">
         <v>98</v>
       </c>
@@ -17973,7 +17980,7 @@
       <c r="J3" s="33"/>
       <c r="K3" s="33"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>99</v>
       </c>
@@ -17994,7 +18001,7 @@
       <c r="J4" s="33"/>
       <c r="K4" s="33"/>
     </row>
-    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="58" t="s">
         <v>84</v>
       </c>
@@ -18023,7 +18030,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="58" t="s">
         <v>82</v>
       </c>
@@ -18046,7 +18053,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="58" t="s">
         <v>93</v>
       </c>
@@ -18060,7 +18067,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="58" t="s">
         <v>100</v>
       </c>
@@ -18074,7 +18081,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="58" t="s">
         <v>77</v>
       </c>
@@ -18088,7 +18095,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="58" t="s">
         <v>77</v>
       </c>
@@ -18102,7 +18109,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="58" t="s">
         <v>1010</v>
       </c>
@@ -18125,7 +18132,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="58" t="s">
         <v>101</v>
       </c>
@@ -18139,7 +18146,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="58" t="s">
         <v>102</v>
       </c>
@@ -18153,7 +18160,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="58" t="s">
         <v>103</v>
       </c>
@@ -18167,7 +18174,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="58" t="s">
         <v>104</v>
       </c>
@@ -18181,7 +18188,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="58" t="s">
         <v>79</v>
       </c>
@@ -18198,7 +18205,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="58" t="s">
         <v>85</v>
       </c>
@@ -18212,7 +18219,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="58" t="s">
         <v>1006</v>
       </c>
@@ -18235,7 +18242,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="58" t="s">
         <v>1008</v>
       </c>
@@ -18255,7 +18262,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="59" t="s">
         <v>1004</v>
       </c>
@@ -18293,7 +18300,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="58" t="s">
         <v>195</v>
       </c>
@@ -18310,7 +18317,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="60" t="s">
         <v>1012</v>
       </c>
@@ -18327,7 +18334,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="58" t="s">
         <v>1013</v>
       </c>
@@ -18341,7 +18348,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+    <row ht="28.5" r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="60" t="s">
         <v>1005</v>
       </c>
@@ -18359,13 +18366,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18374,9 +18381,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.125" style="4" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.125" style="4" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9" style="4" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="4" width="23.125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="24.125" collapsed="true"/>
+    <col min="3" max="16384" style="4" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -18413,13 +18420,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18428,18 +18435,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.5" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="21.5" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="22.375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="9.625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="12.375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -18483,7 +18490,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+    <row ht="31.5" r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>77</v>
       </c>
@@ -18929,7 +18936,7 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="18" s="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="38" t="s">
         <v>1234</v>
       </c>
@@ -18956,7 +18963,7 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row ht="47.25" r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="38" t="s">
         <v>1245</v>
       </c>
@@ -19064,50 +19071,50 @@
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
   <dimension ref="A1:BC2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="AV2" sqref="AV2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="26" width="23.875" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="9.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="54" width="11" style="4" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="18.625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
+    <col min="24" max="26" customWidth="true" width="23.875" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="9.875" collapsed="true"/>
+    <col min="48" max="54" style="4" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="1" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>36</v>
       </c>
@@ -19274,7 +19281,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="2" spans="1:55" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="2" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -19336,8 +19343,8 @@
         <v>54</v>
       </c>
       <c r="AI2" s="4"/>
-      <c r="AV2" s="4" t="b">
-        <v>1</v>
+      <c r="AV2" s="4" t="s">
+        <v>1365</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>1357</v>
@@ -19356,28 +19363,28 @@
       </c>
       <c r="BB2"/>
       <c r="BC2" s="2" t="s">
-        <v>1364</v>
+        <v>1366</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
       <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="23.875" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="10.125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" customWidth="true" width="23.875" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="10.125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -19562,14 +19569,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19578,9 +19585,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="19.125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" customWidth="true" width="19.125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="17.375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="9.125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -19650,25 +19657,25 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="24.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="28.625" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="24.5" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="18.625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -19709,26 +19716,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG130"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="9" style="4" collapsed="1"/>
-    <col min="6" max="46" width="9" style="4" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="3.125" style="4" customWidth="1" collapsed="1"/>
-    <col min="48" max="58" width="9" style="4" collapsed="1"/>
-    <col min="59" max="59" width="10.875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="60" max="16384" width="9" style="4" collapsed="1"/>
+    <col min="1" max="5" style="4" width="9.0" collapsed="true"/>
+    <col min="6" max="46" customWidth="true" style="4" width="9.0" collapsed="true"/>
+    <col min="47" max="47" customWidth="true" style="4" width="3.125" collapsed="true"/>
+    <col min="48" max="58" style="4" width="9.0" collapsed="true"/>
+    <col min="59" max="59" bestFit="true" customWidth="true" style="4" width="10.875" collapsed="true"/>
+    <col min="60" max="16384" style="4" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.25">
@@ -19910,7 +19917,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
+    <row ht="63.75" r="2" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>58</v>
       </c>
@@ -19984,7 +19991,7 @@
         <v>3</v>
       </c>
       <c r="BD2" s="4">
-        <f t="shared" ref="BD2:BD65" si="0">SUM(AW2,AY2,BA2,BC2)</f>
+        <f ref="BD2:BD65" si="0" t="shared">SUM(AW2,AY2,BA2,BC2)</f>
         <v>3</v>
       </c>
       <c r="BE2" s="53" t="s">
@@ -19997,7 +20004,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="3" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
+    <row ht="38.25" r="3" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>58</v>
       </c>
@@ -20071,7 +20078,7 @@
         <v>8</v>
       </c>
       <c r="BD3" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>8</v>
       </c>
       <c r="BE3" s="53" t="s">
@@ -20084,7 +20091,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="4" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
+    <row ht="38.25" r="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>58</v>
       </c>
@@ -20152,7 +20159,7 @@
         <v>4</v>
       </c>
       <c r="BD4" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>4</v>
       </c>
       <c r="BE4" s="53" t="s">
@@ -20165,7 +20172,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="5" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
+    <row ht="38.25" r="5" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>58</v>
       </c>
@@ -20239,7 +20246,7 @@
         <v>8</v>
       </c>
       <c r="BD5" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>8</v>
       </c>
       <c r="BE5" s="53" t="s">
@@ -20252,7 +20259,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="6" spans="1:59" ht="51" x14ac:dyDescent="0.25">
+    <row ht="51" r="6" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>58</v>
       </c>
@@ -20314,7 +20321,7 @@
         <v>24</v>
       </c>
       <c r="BD6" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE6" s="53" t="s">
@@ -20327,7 +20334,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="7" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
+    <row ht="38.25" r="7" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>58</v>
       </c>
@@ -20389,7 +20396,7 @@
         <v>24</v>
       </c>
       <c r="BD7" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE7" s="53" t="s">
@@ -20402,7 +20409,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="8" spans="1:59" ht="25.5" x14ac:dyDescent="0.25">
+    <row ht="25.5" r="8" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>58</v>
       </c>
@@ -20464,7 +20471,7 @@
         <v>24</v>
       </c>
       <c r="BD8" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE8" s="53" t="s">
@@ -20477,7 +20484,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="9" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
+    <row ht="63.75" r="9" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>58</v>
       </c>
@@ -20539,7 +20546,7 @@
         <v>2</v>
       </c>
       <c r="BD9" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>2</v>
       </c>
       <c r="BE9" s="53" t="s">
@@ -20552,7 +20559,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="10" spans="1:59" ht="89.25" x14ac:dyDescent="0.25">
+    <row ht="89.25" r="10" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>58</v>
       </c>
@@ -20626,7 +20633,7 @@
         <v>24</v>
       </c>
       <c r="BD10" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE10" s="53" t="s">
@@ -20639,7 +20646,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="11" spans="1:59" ht="25.5" x14ac:dyDescent="0.25">
+    <row ht="25.5" r="11" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>58</v>
       </c>
@@ -20689,7 +20696,7 @@
         <v>2</v>
       </c>
       <c r="BD11" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>2</v>
       </c>
       <c r="BE11" s="53" t="s">
@@ -20702,7 +20709,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="12" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
+    <row ht="63.75" r="12" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>58</v>
       </c>
@@ -20764,7 +20771,7 @@
         <v>2</v>
       </c>
       <c r="BD12" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>2</v>
       </c>
       <c r="BE12" s="53" t="s">
@@ -20777,7 +20784,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="13" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
+    <row ht="63.75" r="13" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>58</v>
       </c>
@@ -20839,7 +20846,7 @@
         <v>48</v>
       </c>
       <c r="BD13" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE13" s="53" t="s">
@@ -20852,7 +20859,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="14" spans="1:59" ht="51" x14ac:dyDescent="0.25">
+    <row ht="51" r="14" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
         <v>58</v>
       </c>
@@ -20914,7 +20921,7 @@
         <v>48</v>
       </c>
       <c r="BD14" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE14" s="53" t="s">
@@ -20927,7 +20934,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="15" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
+    <row ht="38.25" r="15" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
         <v>58</v>
       </c>
@@ -20995,7 +21002,7 @@
         <v>48</v>
       </c>
       <c r="BD15" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE15" s="53" t="s">
@@ -21008,7 +21015,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="16" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
+    <row ht="63.75" r="16" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
         <v>58</v>
       </c>
@@ -21058,7 +21065,7 @@
         <v>48</v>
       </c>
       <c r="BD16" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE16" s="53" t="s">
@@ -21071,7 +21078,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="17" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
+    <row ht="76.5" r="17" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
         <v>58</v>
       </c>
@@ -21121,7 +21128,7 @@
         <v>48</v>
       </c>
       <c r="BD17" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE17" s="53" t="s">
@@ -21134,7 +21141,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="18" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
+    <row ht="76.5" r="18" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>58</v>
       </c>
@@ -21208,7 +21215,7 @@
         <v>24</v>
       </c>
       <c r="BD18" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE18" s="53" t="s">
@@ -21219,7 +21226,7 @@
       </c>
       <c r="BG18" s="1"/>
     </row>
-    <row r="19" spans="1:59" ht="51" x14ac:dyDescent="0.25">
+    <row ht="51" r="19" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
         <v>58</v>
       </c>
@@ -21269,7 +21276,7 @@
         <v>24</v>
       </c>
       <c r="BD19" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE19" s="53" t="s">
@@ -21362,7 +21369,7 @@
         <v>72</v>
       </c>
       <c r="BD20" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>72</v>
       </c>
       <c r="BE20" s="53" t="s">
@@ -21455,7 +21462,7 @@
         <v>24</v>
       </c>
       <c r="BD21" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE21" s="53" t="s">
@@ -21548,7 +21555,7 @@
         <v>24</v>
       </c>
       <c r="BD22" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE22" s="53" t="s">
@@ -21641,7 +21648,7 @@
         <v>48</v>
       </c>
       <c r="BD23" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE23" s="53" t="s">
@@ -21734,7 +21741,7 @@
         <v>24</v>
       </c>
       <c r="BD24" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE24" s="53" t="s">
@@ -21827,7 +21834,7 @@
         <v>24</v>
       </c>
       <c r="BD25" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE25" s="53" t="s">
@@ -21926,7 +21933,7 @@
         <v>24</v>
       </c>
       <c r="BD26" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE26" s="53" t="s">
@@ -21939,7 +21946,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="27" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
+    <row ht="76.5" r="27" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
         <v>58</v>
       </c>
@@ -22013,7 +22020,7 @@
         <v>24</v>
       </c>
       <c r="BD27" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE27" s="53" t="s">
@@ -22024,7 +22031,7 @@
       </c>
       <c r="BG27" s="1"/>
     </row>
-    <row r="28" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
+    <row ht="63.75" r="28" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>58</v>
       </c>
@@ -22074,7 +22081,7 @@
         <v>48</v>
       </c>
       <c r="BD28" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE28" s="53" t="s">
@@ -22087,7 +22094,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="29" spans="1:59" ht="51" x14ac:dyDescent="0.25">
+    <row ht="51" r="29" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>58</v>
       </c>
@@ -22137,7 +22144,7 @@
         <v>48</v>
       </c>
       <c r="BD29" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE29" s="53" t="s">
@@ -22150,7 +22157,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="30" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
+    <row ht="63.75" r="30" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>58</v>
       </c>
@@ -22200,7 +22207,7 @@
         <v>48</v>
       </c>
       <c r="BD30" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE30" s="53" t="s">
@@ -22213,7 +22220,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="31" spans="1:59" ht="51" x14ac:dyDescent="0.25">
+    <row ht="51" r="31" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>58</v>
       </c>
@@ -22263,7 +22270,7 @@
         <v>48</v>
       </c>
       <c r="BD31" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE31" s="53" t="s">
@@ -22276,7 +22283,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="32" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
+    <row ht="76.5" r="32" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>58</v>
       </c>
@@ -22326,7 +22333,7 @@
         <v>6</v>
       </c>
       <c r="BD32" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>6</v>
       </c>
       <c r="BE32" s="53" t="s">
@@ -22339,7 +22346,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="33" spans="1:59" ht="51" x14ac:dyDescent="0.25">
+    <row ht="51" r="33" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>58</v>
       </c>
@@ -22389,7 +22396,7 @@
         <v>6</v>
       </c>
       <c r="BD33" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>6</v>
       </c>
       <c r="BE33" s="53" t="s">
@@ -22402,7 +22409,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="34" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
+    <row ht="63.75" r="34" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
         <v>58</v>
       </c>
@@ -22476,7 +22483,7 @@
         <v>24</v>
       </c>
       <c r="BD34" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE34" s="53" t="s">
@@ -22489,7 +22496,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="35" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
+    <row ht="76.5" r="35" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
         <v>58</v>
       </c>
@@ -22569,7 +22576,7 @@
         <v>48</v>
       </c>
       <c r="BD35" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE35" s="53" t="s">
@@ -22582,7 +22589,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="36" spans="1:59" ht="51" x14ac:dyDescent="0.25">
+    <row ht="51" r="36" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
         <v>58</v>
       </c>
@@ -22650,7 +22657,7 @@
         <v>24</v>
       </c>
       <c r="BD36" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE36" s="53" t="s">
@@ -22663,7 +22670,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="37" spans="1:59" ht="51" x14ac:dyDescent="0.25">
+    <row ht="51" r="37" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
         <v>58</v>
       </c>
@@ -22725,7 +22732,7 @@
         <v>24</v>
       </c>
       <c r="BD37" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE37" s="53" t="s">
@@ -22738,7 +22745,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="38" spans="1:59" ht="25.5" x14ac:dyDescent="0.25">
+    <row ht="25.5" r="38" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
         <v>58</v>
       </c>
@@ -22800,7 +22807,7 @@
         <v>48</v>
       </c>
       <c r="BD38" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE38" s="53" t="s">
@@ -22813,7 +22820,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="39" spans="1:59" ht="25.5" x14ac:dyDescent="0.25">
+    <row ht="25.5" r="39" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
         <v>58</v>
       </c>
@@ -22875,7 +22882,7 @@
         <v>24</v>
       </c>
       <c r="BD39" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE39" s="53" t="s">
@@ -22888,7 +22895,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="40" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
+    <row ht="38.25" r="40" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
         <v>58</v>
       </c>
@@ -22962,7 +22969,7 @@
         <v>72</v>
       </c>
       <c r="BD40" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>72</v>
       </c>
       <c r="BE40" s="53" t="s">
@@ -22975,7 +22982,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="41" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
+    <row ht="63.75" r="41" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
         <v>58</v>
       </c>
@@ -23049,7 +23056,7 @@
         <v>24</v>
       </c>
       <c r="BD41" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE41" s="53" t="s">
@@ -23062,7 +23069,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="42" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
+    <row ht="38.25" r="42" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
         <v>58</v>
       </c>
@@ -23112,7 +23119,7 @@
         <v>24</v>
       </c>
       <c r="BD42" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE42" s="53" t="s">
@@ -23125,7 +23132,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="43" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
+    <row ht="76.5" r="43" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
         <v>58</v>
       </c>
@@ -23181,7 +23188,7 @@
         <v>24</v>
       </c>
       <c r="BD43" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE43" s="53" t="s">
@@ -23194,7 +23201,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="44" spans="1:59" ht="51" x14ac:dyDescent="0.25">
+    <row ht="51" r="44" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
         <v>58</v>
       </c>
@@ -23244,7 +23251,7 @@
         <v>24</v>
       </c>
       <c r="BD44" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE44" s="53" t="s">
@@ -23257,7 +23264,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="45" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
+    <row ht="76.5" r="45" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
         <v>58</v>
       </c>
@@ -23307,7 +23314,7 @@
         <v>24</v>
       </c>
       <c r="BD45" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE45" s="53" t="s">
@@ -23320,7 +23327,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="46" spans="1:59" ht="102" x14ac:dyDescent="0.25">
+    <row ht="102" r="46" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
         <v>58</v>
       </c>
@@ -23368,7 +23375,7 @@
         <v>24</v>
       </c>
       <c r="BD46" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE46" s="53" t="s">
@@ -23381,7 +23388,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="47" spans="1:59" ht="25.5" x14ac:dyDescent="0.25">
+    <row ht="25.5" r="47" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
         <v>58</v>
       </c>
@@ -23443,7 +23450,7 @@
         <v>24</v>
       </c>
       <c r="BD47" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE47" s="53" t="s">
@@ -23456,7 +23463,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="48" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
+    <row ht="38.25" r="48" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
         <v>58</v>
       </c>
@@ -23506,7 +23513,7 @@
         <v>24</v>
       </c>
       <c r="BD48" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE48" s="53" t="s">
@@ -23519,7 +23526,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="49" spans="1:59" ht="51" x14ac:dyDescent="0.25">
+    <row ht="51" r="49" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
         <v>58</v>
       </c>
@@ -23581,7 +23588,7 @@
         <v>24</v>
       </c>
       <c r="BD49" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE49" s="53" t="s">
@@ -23594,7 +23601,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="50" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
+    <row ht="63.75" r="50" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A50" s="22" t="s">
         <v>58</v>
       </c>
@@ -23656,7 +23663,7 @@
         <v>24</v>
       </c>
       <c r="BD50" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE50" s="53" t="s">
@@ -23669,7 +23676,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="51" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
+    <row ht="76.5" r="51" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A51" s="22" t="s">
         <v>58</v>
       </c>
@@ -23731,7 +23738,7 @@
         <v>24</v>
       </c>
       <c r="BD51" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE51" s="53" t="s">
@@ -23744,7 +23751,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="52" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
+    <row ht="63.75" r="52" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="s">
         <v>58</v>
       </c>
@@ -23806,7 +23813,7 @@
         <v>24</v>
       </c>
       <c r="BD52" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE52" s="53" t="s">
@@ -23819,7 +23826,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="53" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
+    <row ht="63.75" r="53" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
         <v>58</v>
       </c>
@@ -23869,7 +23876,7 @@
         <v>24</v>
       </c>
       <c r="BD53" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE53" s="53" t="s">
@@ -23882,7 +23889,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="54" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
+    <row ht="63.75" r="54" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A54" s="22" t="s">
         <v>58</v>
       </c>
@@ -23938,7 +23945,7 @@
         <v>24</v>
       </c>
       <c r="BD54" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE54" s="53" t="s">
@@ -23951,7 +23958,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="55" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
+    <row ht="76.5" r="55" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A55" s="22" t="s">
         <v>58</v>
       </c>
@@ -24025,7 +24032,7 @@
         <v>12</v>
       </c>
       <c r="BD55" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>12</v>
       </c>
       <c r="BE55" s="53" t="s">
@@ -24038,7 +24045,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="56" spans="1:59" ht="89.25" x14ac:dyDescent="0.25">
+    <row ht="89.25" r="56" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A56" s="22" t="s">
         <v>58</v>
       </c>
@@ -24088,7 +24095,7 @@
         <v>24</v>
       </c>
       <c r="BD56" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE56" s="53" t="s">
@@ -24101,7 +24108,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="57" spans="1:59" ht="51" x14ac:dyDescent="0.25">
+    <row ht="51" r="57" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A57" s="22" t="s">
         <v>58</v>
       </c>
@@ -24151,7 +24158,7 @@
         <v>24</v>
       </c>
       <c r="BD57" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE57" s="53" t="s">
@@ -24164,7 +24171,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="58" spans="1:59" ht="51" x14ac:dyDescent="0.25">
+    <row ht="51" r="58" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A58" s="22" t="s">
         <v>58</v>
       </c>
@@ -24226,7 +24233,7 @@
         <v>48</v>
       </c>
       <c r="BD58" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE58" s="53" t="s">
@@ -24239,7 +24246,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="59" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
+    <row ht="63.75" r="59" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A59" s="22" t="s">
         <v>58</v>
       </c>
@@ -24307,7 +24314,7 @@
         <v>24</v>
       </c>
       <c r="BD59" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE59" s="53" t="s">
@@ -24320,7 +24327,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="60" spans="1:59" ht="25.5" x14ac:dyDescent="0.25">
+    <row ht="25.5" r="60" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A60" s="22" t="s">
         <v>58</v>
       </c>
@@ -24388,7 +24395,7 @@
         <v>4</v>
       </c>
       <c r="BD60" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>4</v>
       </c>
       <c r="BE60" s="53" t="s">
@@ -24401,7 +24408,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="61" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
+    <row ht="38.25" r="61" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A61" s="22" t="s">
         <v>58</v>
       </c>
@@ -24451,7 +24458,7 @@
         <v>24</v>
       </c>
       <c r="BD61" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE61" s="53" t="s">
@@ -24464,7 +24471,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="62" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
+    <row ht="38.25" r="62" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A62" s="22" t="s">
         <v>58</v>
       </c>
@@ -24514,7 +24521,7 @@
         <v>24</v>
       </c>
       <c r="BD62" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE62" s="53" t="s">
@@ -24527,7 +24534,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="63" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
+    <row ht="38.25" r="63" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A63" s="22" t="s">
         <v>58</v>
       </c>
@@ -24577,7 +24584,7 @@
         <v>24</v>
       </c>
       <c r="BD63" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE63" s="53" t="s">
@@ -24590,7 +24597,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="64" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
+    <row ht="38.25" r="64" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A64" s="22" t="s">
         <v>58</v>
       </c>
@@ -24640,7 +24647,7 @@
         <v>24</v>
       </c>
       <c r="BD64" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE64" s="53" t="s">
@@ -24653,7 +24660,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="65" spans="1:59" ht="51" x14ac:dyDescent="0.25">
+    <row ht="51" r="65" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A65" s="23" t="s">
         <v>58</v>
       </c>
@@ -24715,7 +24722,7 @@
         <v>48</v>
       </c>
       <c r="BD65" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE65" s="53" t="s">
@@ -24728,7 +24735,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="66" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
+    <row ht="38.25" r="66" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A66" s="23" t="s">
         <v>58</v>
       </c>
@@ -24784,7 +24791,7 @@
         <v>24</v>
       </c>
       <c r="BD66" s="4">
-        <f t="shared" ref="BD66:BD129" si="1">SUM(AW66,AY66,BA66,BC66)</f>
+        <f ref="BD66:BD129" si="1" t="shared">SUM(AW66,AY66,BA66,BC66)</f>
         <v>24</v>
       </c>
       <c r="BE66" s="53" t="s">
@@ -24797,7 +24804,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="67" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
+    <row ht="38.25" r="67" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A67" s="23" t="s">
         <v>58</v>
       </c>
@@ -24859,7 +24866,7 @@
         <v>48</v>
       </c>
       <c r="BD67" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE67" s="53" t="s">
@@ -24872,7 +24879,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="68" spans="1:59" ht="51" x14ac:dyDescent="0.25">
+    <row ht="51" r="68" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A68" s="23" t="s">
         <v>58</v>
       </c>
@@ -24922,7 +24929,7 @@
         <v>24</v>
       </c>
       <c r="BD68" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE68" s="53" t="s">
@@ -24935,7 +24942,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="69" spans="1:59" ht="51" x14ac:dyDescent="0.25">
+    <row ht="51" r="69" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A69" s="23" t="s">
         <v>58</v>
       </c>
@@ -24997,7 +25004,7 @@
         <v>24</v>
       </c>
       <c r="BD69" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE69" s="53" t="s">
@@ -25010,7 +25017,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="70" spans="1:59" ht="51" x14ac:dyDescent="0.25">
+    <row ht="51" r="70" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A70" s="23" t="s">
         <v>58</v>
       </c>
@@ -25072,7 +25079,7 @@
         <v>24</v>
       </c>
       <c r="BD70" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE70" s="53" t="s">
@@ -25085,7 +25092,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="71" spans="1:59" ht="51" x14ac:dyDescent="0.25">
+    <row ht="51" r="71" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A71" s="23" t="s">
         <v>58</v>
       </c>
@@ -25135,7 +25142,7 @@
         <v>24</v>
       </c>
       <c r="BD71" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE71" s="53" t="s">
@@ -25148,7 +25155,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="72" spans="1:59" ht="51" x14ac:dyDescent="0.25">
+    <row ht="51" r="72" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A72" s="23" t="s">
         <v>58</v>
       </c>
@@ -25204,7 +25211,7 @@
         <v>48</v>
       </c>
       <c r="BD72" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE72" s="53" t="s">
@@ -25217,7 +25224,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="73" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
+    <row ht="63.75" r="73" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A73" s="23" t="s">
         <v>58</v>
       </c>
@@ -25273,7 +25280,7 @@
         <v>48</v>
       </c>
       <c r="BD73" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE73" s="53" t="s">
@@ -25286,7 +25293,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="74" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
+    <row ht="63.75" r="74" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A74" s="22" t="s">
         <v>58</v>
       </c>
@@ -25348,7 +25355,7 @@
         <v>48</v>
       </c>
       <c r="BD74" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE74" s="53" t="s">
@@ -25361,7 +25368,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="75" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
+    <row ht="63.75" r="75" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A75" s="22" t="s">
         <v>58</v>
       </c>
@@ -25423,7 +25430,7 @@
         <v>24</v>
       </c>
       <c r="BD75" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE75" s="53" t="s">
@@ -25436,7 +25443,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="76" spans="1:59" ht="51" x14ac:dyDescent="0.25">
+    <row ht="51" r="76" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A76" s="22" t="s">
         <v>58</v>
       </c>
@@ -25486,7 +25493,7 @@
         <v>48</v>
       </c>
       <c r="BD76" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE76" s="53" t="s">
@@ -25499,7 +25506,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="77" spans="1:59" ht="25.5" x14ac:dyDescent="0.25">
+    <row ht="25.5" r="77" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A77" s="22" t="s">
         <v>58</v>
       </c>
@@ -25549,7 +25556,7 @@
         <v>48</v>
       </c>
       <c r="BD77" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE77" s="53" t="s">
@@ -25562,7 +25569,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="78" spans="1:59" ht="51" x14ac:dyDescent="0.25">
+    <row ht="51" r="78" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A78" s="22" t="s">
         <v>58</v>
       </c>
@@ -25612,7 +25619,7 @@
         <v>48</v>
       </c>
       <c r="BD78" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE78" s="53" t="s">
@@ -25625,7 +25632,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="79" spans="1:59" ht="51" x14ac:dyDescent="0.25">
+    <row ht="51" r="79" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A79" s="23" t="s">
         <v>58</v>
       </c>
@@ -25687,7 +25694,7 @@
         <v>48</v>
       </c>
       <c r="BD79" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE79" s="53" t="s">
@@ -25700,7 +25707,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="80" spans="1:59" ht="51" x14ac:dyDescent="0.25">
+    <row ht="51" r="80" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A80" s="22" t="s">
         <v>58</v>
       </c>
@@ -25750,7 +25757,7 @@
         <v>72</v>
       </c>
       <c r="BD80" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>72</v>
       </c>
       <c r="BE80" s="55" t="s">
@@ -25763,7 +25770,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="81" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
+    <row ht="38.25" r="81" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A81" s="22" t="s">
         <v>58</v>
       </c>
@@ -25819,7 +25826,7 @@
         <v>24</v>
       </c>
       <c r="BD81" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE81" s="4" t="s">
@@ -25918,7 +25925,7 @@
         <v>72</v>
       </c>
       <c r="BD82" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>72</v>
       </c>
       <c r="BE82" s="53" t="s">
@@ -26017,7 +26024,7 @@
         <v>72</v>
       </c>
       <c r="BD83" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>72</v>
       </c>
       <c r="BE83" s="53" t="s">
@@ -26030,7 +26037,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="84" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
+    <row ht="38.25" r="84" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A84" s="22" t="s">
         <v>58</v>
       </c>
@@ -26080,7 +26087,7 @@
         <v>72</v>
       </c>
       <c r="BD84" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>72</v>
       </c>
       <c r="BE84" s="53" t="s">
@@ -26173,7 +26180,7 @@
         <v>72</v>
       </c>
       <c r="BD85" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>72</v>
       </c>
       <c r="BE85" s="53" t="s">
@@ -26266,7 +26273,7 @@
         <v>72</v>
       </c>
       <c r="BD86" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>72</v>
       </c>
       <c r="BE86" s="53" t="s">
@@ -26365,7 +26372,7 @@
         <v>24</v>
       </c>
       <c r="BD87" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE87" s="53" t="s">
@@ -26458,7 +26465,7 @@
         <v>72</v>
       </c>
       <c r="BD88" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>72</v>
       </c>
       <c r="BE88" s="53" t="s">
@@ -26557,7 +26564,7 @@
         <v>72</v>
       </c>
       <c r="BD89" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>72</v>
       </c>
       <c r="BE89" s="53" t="s">
@@ -26570,7 +26577,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="90" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
+    <row ht="38.25" r="90" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A90" s="22" t="s">
         <v>58</v>
       </c>
@@ -26650,7 +26657,7 @@
         <v>48</v>
       </c>
       <c r="BD90" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE90" s="53" t="s">
@@ -26663,7 +26670,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="91" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
+    <row ht="38.25" r="91" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A91" s="22" t="s">
         <v>58</v>
       </c>
@@ -26725,7 +26732,7 @@
         <v>48</v>
       </c>
       <c r="BD91" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE91" s="53" t="s">
@@ -26800,7 +26807,7 @@
         <v>48</v>
       </c>
       <c r="BD92" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE92" s="55" t="s">
@@ -26875,7 +26882,7 @@
         <v>48</v>
       </c>
       <c r="BD93" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE93" s="55" t="s">
@@ -26888,7 +26895,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="94" spans="1:59" ht="51" x14ac:dyDescent="0.25">
+    <row ht="51" r="94" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A94" s="22" t="s">
         <v>58</v>
       </c>
@@ -26938,7 +26945,7 @@
         <v>2</v>
       </c>
       <c r="BD94" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>2</v>
       </c>
       <c r="BE94" s="53" t="s">
@@ -26951,7 +26958,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="95" spans="1:59" ht="51" x14ac:dyDescent="0.25">
+    <row ht="51" r="95" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A95" s="22" t="s">
         <v>58</v>
       </c>
@@ -27001,7 +27008,7 @@
         <v>2</v>
       </c>
       <c r="BD95" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>2</v>
       </c>
       <c r="BE95" s="53" t="s">
@@ -27014,7 +27021,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="96" spans="1:59" ht="51" x14ac:dyDescent="0.25">
+    <row ht="51" r="96" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A96" s="22" t="s">
         <v>58</v>
       </c>
@@ -27064,7 +27071,7 @@
         <v>2</v>
       </c>
       <c r="BD96" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>2</v>
       </c>
       <c r="BE96" s="53" t="s">
@@ -27077,7 +27084,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="97" spans="1:59" ht="51" x14ac:dyDescent="0.25">
+    <row ht="51" r="97" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A97" s="22" t="s">
         <v>58</v>
       </c>
@@ -27127,7 +27134,7 @@
         <v>2</v>
       </c>
       <c r="BD97" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>2</v>
       </c>
       <c r="BE97" s="53" t="s">
@@ -27140,7 +27147,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="98" spans="1:59" ht="51" x14ac:dyDescent="0.25">
+    <row ht="51" r="98" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A98" s="22" t="s">
         <v>58</v>
       </c>
@@ -27190,7 +27197,7 @@
         <v>24</v>
       </c>
       <c r="BD98" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE98" s="53" t="s">
@@ -27203,7 +27210,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="99" spans="1:59" ht="102" x14ac:dyDescent="0.25">
+    <row ht="102" r="99" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A99" s="22" t="s">
         <v>58</v>
       </c>
@@ -27253,7 +27260,7 @@
         <v>24</v>
       </c>
       <c r="BD99" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE99" s="53" t="s">
@@ -27266,7 +27273,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="100" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
+    <row ht="38.25" r="100" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A100" s="23" t="s">
         <v>58</v>
       </c>
@@ -27328,7 +27335,7 @@
         <v>48</v>
       </c>
       <c r="BD100" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE100" s="53" t="s">
@@ -27341,7 +27348,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="101" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
+    <row ht="38.25" r="101" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A101" s="23" t="s">
         <v>58</v>
       </c>
@@ -27403,7 +27410,7 @@
         <v>48</v>
       </c>
       <c r="BD101" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE101" s="53" t="s">
@@ -27416,7 +27423,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="102" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
+    <row ht="63.75" r="102" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A102" s="23" t="s">
         <v>58</v>
       </c>
@@ -27478,7 +27485,7 @@
         <v>48</v>
       </c>
       <c r="BD102" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE102" s="53" t="s">
@@ -27491,7 +27498,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="103" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
+    <row ht="38.25" r="103" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A103" s="23" t="s">
         <v>248</v>
       </c>
@@ -27565,7 +27572,7 @@
         <v>24</v>
       </c>
       <c r="BD103" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE103" s="53" t="s">
@@ -27646,7 +27653,7 @@
         <v>4</v>
       </c>
       <c r="BD104" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>4</v>
       </c>
       <c r="BE104" s="53" t="s">
@@ -27659,7 +27666,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="105" spans="1:59" ht="51" x14ac:dyDescent="0.25">
+    <row ht="51" r="105" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A105" s="22" t="s">
         <v>248</v>
       </c>
@@ -27721,7 +27728,7 @@
         <v>24</v>
       </c>
       <c r="BD105" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE105" s="53" t="s">
@@ -27734,7 +27741,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="106" spans="1:59" ht="51" x14ac:dyDescent="0.25">
+    <row ht="51" r="106" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A106" s="22" t="s">
         <v>248</v>
       </c>
@@ -27796,7 +27803,7 @@
         <v>24</v>
       </c>
       <c r="BD106" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE106" s="53" t="s">
@@ -27809,7 +27816,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="107" spans="1:59" ht="51" x14ac:dyDescent="0.25">
+    <row ht="51" r="107" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A107" s="22" t="s">
         <v>248</v>
       </c>
@@ -27871,7 +27878,7 @@
         <v>24</v>
       </c>
       <c r="BD107" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE107" s="53" t="s">
@@ -27884,7 +27891,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="108" spans="1:59" ht="51" x14ac:dyDescent="0.25">
+    <row ht="51" r="108" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A108" s="22" t="s">
         <v>248</v>
       </c>
@@ -27946,7 +27953,7 @@
         <v>24</v>
       </c>
       <c r="BD108" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE108" s="53" t="s">
@@ -27959,7 +27966,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="109" spans="1:59" ht="51" x14ac:dyDescent="0.25">
+    <row ht="51" r="109" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A109" s="22" t="s">
         <v>248</v>
       </c>
@@ -28021,7 +28028,7 @@
         <v>24</v>
       </c>
       <c r="BD109" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE109" s="53" t="s">
@@ -28034,7 +28041,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="110" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
+    <row ht="63.75" r="110" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A110" s="22" t="s">
         <v>248</v>
       </c>
@@ -28096,7 +28103,7 @@
         <v>24</v>
       </c>
       <c r="BD110" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE110" s="53" t="s">
@@ -28109,7 +28116,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="111" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
+    <row ht="63.75" r="111" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A111" s="22" t="s">
         <v>248</v>
       </c>
@@ -28177,7 +28184,7 @@
         <v>24</v>
       </c>
       <c r="BD111" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE111" s="53" t="s">
@@ -28190,7 +28197,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="112" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
+    <row ht="38.25" r="112" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A112" s="22" t="s">
         <v>248</v>
       </c>
@@ -28270,7 +28277,7 @@
         <v>8</v>
       </c>
       <c r="BD112" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>8</v>
       </c>
       <c r="BE112" s="53" t="s">
@@ -28283,7 +28290,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="113" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
+    <row ht="38.25" r="113" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A113" s="22" t="s">
         <v>248</v>
       </c>
@@ -28357,7 +28364,7 @@
         <v>8</v>
       </c>
       <c r="BD113" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>8</v>
       </c>
       <c r="BE113" s="53" t="s">
@@ -28370,7 +28377,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="114" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
+    <row ht="38.25" r="114" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A114" s="22" t="s">
         <v>248</v>
       </c>
@@ -28426,7 +28433,7 @@
         <v>4</v>
       </c>
       <c r="BD114" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>4</v>
       </c>
       <c r="BE114" s="53" t="s">
@@ -28439,7 +28446,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="115" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
+    <row ht="38.25" r="115" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A115" s="22" t="s">
         <v>248</v>
       </c>
@@ -28519,7 +28526,7 @@
         <v>720</v>
       </c>
       <c r="BD115" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>720</v>
       </c>
       <c r="BE115" s="53" t="s">
@@ -28532,7 +28539,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="116" spans="1:59" ht="51" x14ac:dyDescent="0.25">
+    <row ht="51" r="116" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A116" s="22" t="s">
         <v>248</v>
       </c>
@@ -28612,7 +28619,7 @@
         <v>720</v>
       </c>
       <c r="BD116" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>720</v>
       </c>
       <c r="BE116" s="53" t="s">
@@ -28625,7 +28632,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="117" spans="1:59" ht="51" x14ac:dyDescent="0.25">
+    <row ht="51" r="117" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A117" s="22" t="s">
         <v>248</v>
       </c>
@@ -28705,7 +28712,7 @@
         <v>8</v>
       </c>
       <c r="BD117" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>8</v>
       </c>
       <c r="BE117" s="53" t="s">
@@ -28718,7 +28725,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="118" spans="1:59" ht="89.25" x14ac:dyDescent="0.25">
+    <row ht="89.25" r="118" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A118" s="22" t="s">
         <v>248</v>
       </c>
@@ -28768,7 +28775,7 @@
         <v>24</v>
       </c>
       <c r="BD118" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE118" s="53" t="s">
@@ -28781,7 +28788,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="119" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
+    <row ht="76.5" r="119" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A119" s="22" t="s">
         <v>248</v>
       </c>
@@ -28849,7 +28856,7 @@
         <v>24</v>
       </c>
       <c r="BD119" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE119" s="53" t="s">
@@ -28862,7 +28869,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="120" spans="1:59" ht="89.25" x14ac:dyDescent="0.25">
+    <row ht="89.25" r="120" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A120" s="22" t="s">
         <v>248</v>
       </c>
@@ -28936,7 +28943,7 @@
         <v>24</v>
       </c>
       <c r="BD120" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE120" s="53" t="s">
@@ -28949,7 +28956,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="121" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
+    <row ht="63.75" r="121" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A121" s="22" t="s">
         <v>248</v>
       </c>
@@ -29023,7 +29030,7 @@
         <v>48</v>
       </c>
       <c r="BD121" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE121" s="53" t="s">
@@ -29036,7 +29043,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="122" spans="1:59" ht="51" x14ac:dyDescent="0.25">
+    <row ht="51" r="122" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A122" s="22" t="s">
         <v>248</v>
       </c>
@@ -29086,7 +29093,7 @@
         <v>24</v>
       </c>
       <c r="BD122" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE122" s="53" t="s">
@@ -29099,7 +29106,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="123" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
+    <row ht="38.25" r="123" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A123" s="22" t="s">
         <v>248</v>
       </c>
@@ -29149,7 +29156,7 @@
         <v>24</v>
       </c>
       <c r="BD123" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE123" s="53" t="s">
@@ -29162,7 +29169,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="124" spans="1:59" ht="127.5" x14ac:dyDescent="0.25">
+    <row ht="127.5" r="124" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A124" s="22" t="s">
         <v>248</v>
       </c>
@@ -29212,7 +29219,7 @@
         <v>24</v>
       </c>
       <c r="BD124" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE124" s="53" t="s">
@@ -29225,7 +29232,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="125" spans="1:59" ht="51" x14ac:dyDescent="0.25">
+    <row ht="51" r="125" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A125" s="22" t="s">
         <v>248</v>
       </c>
@@ -29299,7 +29306,7 @@
         <v>24</v>
       </c>
       <c r="BD125" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE125" s="53" t="s">
@@ -29312,7 +29319,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="126" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
+    <row ht="38.25" r="126" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A126" s="22" t="s">
         <v>248</v>
       </c>
@@ -29386,7 +29393,7 @@
         <v>720</v>
       </c>
       <c r="BD126" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>720</v>
       </c>
       <c r="BE126" s="56" t="s">
@@ -29399,7 +29406,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="127" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
+    <row ht="63.75" r="127" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A127" s="22" t="s">
         <v>248</v>
       </c>
@@ -29461,7 +29468,7 @@
         <v>2</v>
       </c>
       <c r="BD127" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>2</v>
       </c>
       <c r="BE127" s="53" t="s">
@@ -29472,7 +29479,7 @@
       </c>
       <c r="BG127" s="1"/>
     </row>
-    <row r="128" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
+    <row ht="63.75" r="128" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A128" s="22" t="s">
         <v>248</v>
       </c>
@@ -29546,7 +29553,7 @@
         <v>4</v>
       </c>
       <c r="BD128" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>4</v>
       </c>
       <c r="BE128" s="53" t="s">
@@ -29557,7 +29564,7 @@
       </c>
       <c r="BG128" s="1"/>
     </row>
-    <row r="129" spans="1:59" ht="89.25" x14ac:dyDescent="0.25">
+    <row ht="89.25" r="129" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A129" s="22" t="s">
         <v>248</v>
       </c>
@@ -29631,7 +29638,7 @@
         <v>3</v>
       </c>
       <c r="BD129" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>3</v>
       </c>
       <c r="BE129" s="53" t="s">
@@ -29644,7 +29651,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="130" spans="1:59" ht="51" x14ac:dyDescent="0.25">
+    <row ht="51" r="130" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A130" s="22" t="s">
         <v>248</v>
       </c>
@@ -29706,7 +29713,7 @@
         <v>24</v>
       </c>
       <c r="BD130" s="4">
-        <f t="shared" ref="BD130" si="2">SUM(AW130,AY130,BA130,BC130)</f>
+        <f ref="BD130" si="2" t="shared">SUM(AW130,AY130,BA130,BC130)</f>
         <v>24</v>
       </c>
       <c r="BE130" s="53" t="s">
@@ -29726,35 +29733,35 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="E111:E112">
-    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
+    <cfRule dxfId="11" priority="4" type="duplicateValues"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E113:E117">
-    <cfRule type="duplicateValues" dxfId="10" priority="3"/>
+    <cfRule dxfId="10" priority="3" type="duplicateValues"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118:E124">
-    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
+    <cfRule dxfId="9" priority="2" type="duplicateValues"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E125:E130">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+    <cfRule dxfId="8" priority="1" type="duplicateValues"/>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG86"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="BC6" sqref="BC6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="20" width="0" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="26" width="0" style="4" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="47" width="0" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="59" max="59" width="10.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="20" customWidth="true" hidden="true" width="0.0" collapsed="true"/>
+    <col min="21" max="26" customWidth="true" hidden="true" style="4" width="0.0" collapsed="true"/>
+    <col min="27" max="47" customWidth="true" hidden="true" width="0.0" collapsed="true"/>
+    <col min="59" max="59" bestFit="true" customWidth="true" width="10.875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.25">
@@ -29936,7 +29943,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:59" s="4" customFormat="1" ht="102" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="102" r="2" s="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>58</v>
       </c>
@@ -29984,7 +29991,7 @@
         <v>24</v>
       </c>
       <c r="BD2" s="4">
-        <f t="shared" ref="BD2:BD33" si="0">SUM(AW2,AY2,BA2,BC2)</f>
+        <f ref="BD2:BD33" si="0" t="shared">SUM(AW2,AY2,BA2,BC2)</f>
         <v>24</v>
       </c>
       <c r="BE2" s="53" t="s">
@@ -29997,7 +30004,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="3" spans="1:59" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="25.5" r="3" s="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>58</v>
       </c>
@@ -30059,7 +30066,7 @@
         <v>24</v>
       </c>
       <c r="BD3" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE3" s="53" t="s">
@@ -30072,7 +30079,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="4" spans="1:59" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="38.25" r="4" s="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>58</v>
       </c>
@@ -30122,7 +30129,7 @@
         <v>24</v>
       </c>
       <c r="BD4" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE4" s="53" t="s">
@@ -30133,7 +30140,7 @@
       </c>
       <c r="BG4" s="1"/>
     </row>
-    <row r="5" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="51" r="5" s="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>58</v>
       </c>
@@ -30195,7 +30202,7 @@
         <v>24</v>
       </c>
       <c r="BD5" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE5" s="53" t="s">
@@ -30208,7 +30215,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="6" spans="1:59" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="63.75" r="6" s="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>58</v>
       </c>
@@ -30270,7 +30277,7 @@
         <v>24</v>
       </c>
       <c r="BD6" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE6" s="53" t="s">
@@ -30283,7 +30290,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="7" spans="1:59" s="4" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="76.5" r="7" s="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>58</v>
       </c>
@@ -30345,7 +30352,7 @@
         <v>24</v>
       </c>
       <c r="BD7" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE7" s="53" t="s">
@@ -30358,7 +30365,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="8" spans="1:59" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="63.75" r="8" s="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>58</v>
       </c>
@@ -30420,7 +30427,7 @@
         <v>24</v>
       </c>
       <c r="BD8" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE8" s="53" t="s">
@@ -30433,7 +30440,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="9" spans="1:59" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="63.75" r="9" s="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>58</v>
       </c>
@@ -30483,7 +30490,7 @@
         <v>24</v>
       </c>
       <c r="BD9" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE9" s="53" t="s">
@@ -30496,7 +30503,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="10" spans="1:59" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="63.75" r="10" s="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>58</v>
       </c>
@@ -30552,7 +30559,7 @@
         <v>24</v>
       </c>
       <c r="BD10" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE10" s="53" t="s">
@@ -30565,7 +30572,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="11" spans="1:59" s="4" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="76.5" r="11" s="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>58</v>
       </c>
@@ -30639,7 +30646,7 @@
         <v>12</v>
       </c>
       <c r="BD11" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>12</v>
       </c>
       <c r="BE11" s="53" t="s">
@@ -30652,7 +30659,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="12" spans="1:59" s="4" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="89.25" r="12" s="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>58</v>
       </c>
@@ -30702,7 +30709,7 @@
         <v>24</v>
       </c>
       <c r="BD12" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE12" s="53" t="s">
@@ -30715,7 +30722,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="13" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="51" r="13" s="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>58</v>
       </c>
@@ -30765,7 +30772,7 @@
         <v>24</v>
       </c>
       <c r="BD13" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE13" s="53" t="s">
@@ -30778,7 +30785,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="14" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="51" r="14" s="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>58</v>
       </c>
@@ -30840,7 +30847,7 @@
         <v>48</v>
       </c>
       <c r="BD14" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE14" s="53" t="s">
@@ -30853,7 +30860,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="15" spans="1:59" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="63.75" r="15" s="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>58</v>
       </c>
@@ -30921,7 +30928,7 @@
         <v>24</v>
       </c>
       <c r="BD15" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE15" s="53" t="s">
@@ -30934,7 +30941,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="16" spans="1:59" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="25.5" r="16" s="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>58</v>
       </c>
@@ -31002,7 +31009,7 @@
         <v>4</v>
       </c>
       <c r="BD16" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>4</v>
       </c>
       <c r="BE16" s="53" t="s">
@@ -31015,7 +31022,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="17" spans="1:59" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="38.25" r="17" s="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>58</v>
       </c>
@@ -31065,7 +31072,7 @@
         <v>24</v>
       </c>
       <c r="BD17" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE17" s="53" t="s">
@@ -31078,7 +31085,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="18" spans="1:59" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="38.25" r="18" s="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>58</v>
       </c>
@@ -31128,7 +31135,7 @@
         <v>24</v>
       </c>
       <c r="BD18" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE18" s="53" t="s">
@@ -31141,7 +31148,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="19" spans="1:59" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="38.25" r="19" s="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>58</v>
       </c>
@@ -31191,7 +31198,7 @@
         <v>24</v>
       </c>
       <c r="BD19" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE19" s="53" t="s">
@@ -31204,7 +31211,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="20" spans="1:59" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="38.25" r="20" s="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>58</v>
       </c>
@@ -31254,7 +31261,7 @@
         <v>24</v>
       </c>
       <c r="BD20" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE20" s="53" t="s">
@@ -31267,7 +31274,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="21" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="51" r="21" s="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
         <v>58</v>
       </c>
@@ -31329,7 +31336,7 @@
         <v>48</v>
       </c>
       <c r="BD21" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE21" s="53" t="s">
@@ -31342,7 +31349,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="22" spans="1:59" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="38.25" r="22" s="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
         <v>58</v>
       </c>
@@ -31398,7 +31405,7 @@
         <v>24</v>
       </c>
       <c r="BD22" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE22" s="53" t="s">
@@ -31411,7 +31418,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="23" spans="1:59" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="38.25" r="23" s="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
         <v>58</v>
       </c>
@@ -31473,7 +31480,7 @@
         <v>48</v>
       </c>
       <c r="BD23" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE23" s="53" t="s">
@@ -31486,7 +31493,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="24" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="51" r="24" s="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
         <v>58</v>
       </c>
@@ -31536,7 +31543,7 @@
         <v>24</v>
       </c>
       <c r="BD24" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE24" s="53" t="s">
@@ -31549,7 +31556,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="25" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="51" r="25" s="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
         <v>58</v>
       </c>
@@ -31611,7 +31618,7 @@
         <v>24</v>
       </c>
       <c r="BD25" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE25" s="53" t="s">
@@ -31624,7 +31631,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="26" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="51" r="26" s="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
         <v>58</v>
       </c>
@@ -31686,7 +31693,7 @@
         <v>24</v>
       </c>
       <c r="BD26" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE26" s="53" t="s">
@@ -31699,7 +31706,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="27" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="51" r="27" s="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
         <v>58</v>
       </c>
@@ -31749,7 +31756,7 @@
         <v>24</v>
       </c>
       <c r="BD27" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE27" s="53" t="s">
@@ -31762,7 +31769,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="28" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="51" r="28" s="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
         <v>58</v>
       </c>
@@ -31818,7 +31825,7 @@
         <v>48</v>
       </c>
       <c r="BD28" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE28" s="53" t="s">
@@ -31831,7 +31838,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="29" spans="1:59" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="63.75" r="29" s="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
         <v>58</v>
       </c>
@@ -31887,7 +31894,7 @@
         <v>48</v>
       </c>
       <c r="BD29" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE29" s="53" t="s">
@@ -31900,7 +31907,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="30" spans="1:59" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="63.75" r="30" s="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
         <v>58</v>
       </c>
@@ -31962,7 +31969,7 @@
         <v>48</v>
       </c>
       <c r="BD30" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE30" s="53" t="s">
@@ -31975,7 +31982,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="31" spans="1:59" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="63.75" r="31" s="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
         <v>58</v>
       </c>
@@ -32037,7 +32044,7 @@
         <v>24</v>
       </c>
       <c r="BD31" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE31" s="53" t="s">
@@ -32050,7 +32057,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="32" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="51" r="32" s="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
         <v>58</v>
       </c>
@@ -32100,7 +32107,7 @@
         <v>48</v>
       </c>
       <c r="BD32" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE32" s="53" t="s">
@@ -32113,7 +32120,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="33" spans="1:59" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="38.25" r="33" s="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
         <v>58</v>
       </c>
@@ -32163,7 +32170,7 @@
         <v>48</v>
       </c>
       <c r="BD33" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE33" s="53" t="s">
@@ -32176,7 +32183,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="34" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="51" r="34" s="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
         <v>58</v>
       </c>
@@ -32226,7 +32233,7 @@
         <v>48</v>
       </c>
       <c r="BD34" s="4">
-        <f t="shared" ref="BD34:BD65" si="1">SUM(AW34,AY34,BA34,BC34)</f>
+        <f ref="BD34:BD65" si="1" t="shared">SUM(AW34,AY34,BA34,BC34)</f>
         <v>48</v>
       </c>
       <c r="BE34" s="53" t="s">
@@ -32239,7 +32246,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="35" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="51" r="35" s="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="s">
         <v>58</v>
       </c>
@@ -32301,7 +32308,7 @@
         <v>48</v>
       </c>
       <c r="BD35" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE35" s="53" t="s">
@@ -32314,7 +32321,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="36" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="51" r="36" s="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
         <v>58</v>
       </c>
@@ -32364,7 +32371,7 @@
         <v>72</v>
       </c>
       <c r="BD36" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>72</v>
       </c>
       <c r="BE36" s="55" t="s">
@@ -32377,7 +32384,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="37" spans="1:59" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="38.25" r="37" s="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
         <v>58</v>
       </c>
@@ -32433,7 +32440,7 @@
         <v>24</v>
       </c>
       <c r="BD37" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE37" s="4" t="s">
@@ -32446,7 +32453,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="38" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="38" s="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>222</v>
       </c>
@@ -32532,7 +32539,7 @@
         <v>72</v>
       </c>
       <c r="BD38" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>72</v>
       </c>
       <c r="BE38" s="53" t="s">
@@ -32545,7 +32552,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="39" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="39" s="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>222</v>
       </c>
@@ -32631,7 +32638,7 @@
         <v>72</v>
       </c>
       <c r="BD39" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>72</v>
       </c>
       <c r="BE39" s="53" t="s">
@@ -32644,7 +32651,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="40" spans="1:59" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="38.25" r="40" s="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
         <v>58</v>
       </c>
@@ -32694,7 +32701,7 @@
         <v>72</v>
       </c>
       <c r="BD40" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>72</v>
       </c>
       <c r="BE40" s="53" t="s">
@@ -32707,7 +32714,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="41" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="41" s="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>222</v>
       </c>
@@ -32787,7 +32794,7 @@
         <v>72</v>
       </c>
       <c r="BD41" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>72</v>
       </c>
       <c r="BE41" s="53" t="s">
@@ -32800,7 +32807,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="42" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="42" s="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>222</v>
       </c>
@@ -32880,7 +32887,7 @@
         <v>72</v>
       </c>
       <c r="BD42" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>72</v>
       </c>
       <c r="BE42" s="53" t="s">
@@ -32893,7 +32900,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="43" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="43" s="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>222</v>
       </c>
@@ -32979,7 +32986,7 @@
         <v>24</v>
       </c>
       <c r="BD43" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE43" s="53" t="s">
@@ -32992,7 +32999,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="44" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="44" s="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>222</v>
       </c>
@@ -33072,7 +33079,7 @@
         <v>72</v>
       </c>
       <c r="BD44" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>72</v>
       </c>
       <c r="BE44" s="53" t="s">
@@ -33085,7 +33092,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="45" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="45" s="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>222</v>
       </c>
@@ -33171,7 +33178,7 @@
         <v>72</v>
       </c>
       <c r="BD45" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>72</v>
       </c>
       <c r="BE45" s="53" t="s">
@@ -33184,7 +33191,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="46" spans="1:59" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="38.25" r="46" s="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
         <v>58</v>
       </c>
@@ -33264,7 +33271,7 @@
         <v>48</v>
       </c>
       <c r="BD46" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE46" s="53" t="s">
@@ -33277,7 +33284,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="47" spans="1:59" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="38.25" r="47" s="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
         <v>58</v>
       </c>
@@ -33339,7 +33346,7 @@
         <v>48</v>
       </c>
       <c r="BD47" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE47" s="53" t="s">
@@ -33352,7 +33359,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="48" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="48" s="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
         <v>58</v>
       </c>
@@ -33414,7 +33421,7 @@
         <v>48</v>
       </c>
       <c r="BD48" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE48" s="55" t="s">
@@ -33427,7 +33434,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="49" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="49" s="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
         <v>58</v>
       </c>
@@ -33489,7 +33496,7 @@
         <v>48</v>
       </c>
       <c r="BD49" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE49" s="55" t="s">
@@ -33502,7 +33509,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="50" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="51" r="50" s="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A50" s="22" t="s">
         <v>58</v>
       </c>
@@ -33552,7 +33559,7 @@
         <v>2</v>
       </c>
       <c r="BD50" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>2</v>
       </c>
       <c r="BE50" s="53" t="s">
@@ -33565,7 +33572,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="51" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="51" r="51" s="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A51" s="22" t="s">
         <v>58</v>
       </c>
@@ -33615,7 +33622,7 @@
         <v>2</v>
       </c>
       <c r="BD51" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>2</v>
       </c>
       <c r="BE51" s="53" t="s">
@@ -33628,7 +33635,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="52" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="51" r="52" s="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="s">
         <v>58</v>
       </c>
@@ -33678,7 +33685,7 @@
         <v>2</v>
       </c>
       <c r="BD52" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>2</v>
       </c>
       <c r="BE52" s="53" t="s">
@@ -33691,7 +33698,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="53" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="51" r="53" s="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
         <v>58</v>
       </c>
@@ -33741,7 +33748,7 @@
         <v>2</v>
       </c>
       <c r="BD53" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>2</v>
       </c>
       <c r="BE53" s="53" t="s">
@@ -33754,7 +33761,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="54" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="51" r="54" s="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A54" s="22" t="s">
         <v>58</v>
       </c>
@@ -33804,7 +33811,7 @@
         <v>24</v>
       </c>
       <c r="BD54" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE54" s="53" t="s">
@@ -33817,7 +33824,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="55" spans="1:59" s="4" customFormat="1" ht="102" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="102" r="55" s="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A55" s="22" t="s">
         <v>58</v>
       </c>
@@ -33867,7 +33874,7 @@
         <v>24</v>
       </c>
       <c r="BD55" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE55" s="53" t="s">
@@ -33880,7 +33887,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="56" spans="1:59" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="38.25" r="56" s="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A56" s="23" t="s">
         <v>58</v>
       </c>
@@ -33942,7 +33949,7 @@
         <v>48</v>
       </c>
       <c r="BD56" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE56" s="53" t="s">
@@ -33955,7 +33962,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="57" spans="1:59" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="38.25" r="57" s="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A57" s="23" t="s">
         <v>58</v>
       </c>
@@ -34017,7 +34024,7 @@
         <v>48</v>
       </c>
       <c r="BD57" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE57" s="53" t="s">
@@ -34030,7 +34037,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="58" spans="1:59" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="63.75" r="58" s="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A58" s="23" t="s">
         <v>58</v>
       </c>
@@ -34092,7 +34099,7 @@
         <v>48</v>
       </c>
       <c r="BD58" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE58" s="53" t="s">
@@ -34105,7 +34112,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="59" spans="1:59" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="38.25" r="59" s="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A59" s="23" t="s">
         <v>248</v>
       </c>
@@ -34179,7 +34186,7 @@
         <v>24</v>
       </c>
       <c r="BD59" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE59" s="53" t="s">
@@ -34192,7 +34199,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="60" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="60" s="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A60" s="22" t="s">
         <v>248</v>
       </c>
@@ -34260,7 +34267,7 @@
         <v>4</v>
       </c>
       <c r="BD60" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>4</v>
       </c>
       <c r="BE60" s="53" t="s">
@@ -34273,7 +34280,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="61" spans="1:59" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="63.75" r="61" s="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A61" s="22" t="s">
         <v>248</v>
       </c>
@@ -34335,7 +34342,7 @@
         <v>24</v>
       </c>
       <c r="BD61" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE61" s="53" t="s">
@@ -34348,7 +34355,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="62" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="51" r="62" s="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A62" s="22" t="s">
         <v>248</v>
       </c>
@@ -34410,7 +34417,7 @@
         <v>24</v>
       </c>
       <c r="BD62" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE62" s="53" t="s">
@@ -34423,7 +34430,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="63" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="51" r="63" s="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A63" s="22" t="s">
         <v>248</v>
       </c>
@@ -34485,7 +34492,7 @@
         <v>24</v>
       </c>
       <c r="BD63" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE63" s="53" t="s">
@@ -34498,7 +34505,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="64" spans="1:59" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="63.75" r="64" s="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A64" s="22" t="s">
         <v>248</v>
       </c>
@@ -34560,7 +34567,7 @@
         <v>24</v>
       </c>
       <c r="BD64" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE64" s="53" t="s">
@@ -34573,7 +34580,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="65" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="51" r="65" s="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A65" s="22" t="s">
         <v>248</v>
       </c>
@@ -34635,7 +34642,7 @@
         <v>24</v>
       </c>
       <c r="BD65" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE65" s="53" t="s">
@@ -34648,7 +34655,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="66" spans="1:59" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="63.75" r="66" s="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A66" s="22" t="s">
         <v>248</v>
       </c>
@@ -34710,7 +34717,7 @@
         <v>24</v>
       </c>
       <c r="BD66" s="4">
-        <f t="shared" ref="BD66:BD86" si="2">SUM(AW66,AY66,BA66,BC66)</f>
+        <f ref="BD66:BD86" si="2" t="shared">SUM(AW66,AY66,BA66,BC66)</f>
         <v>24</v>
       </c>
       <c r="BE66" s="53" t="s">
@@ -34723,7 +34730,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="67" spans="1:59" s="4" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="76.5" r="67" s="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A67" s="22" t="s">
         <v>248</v>
       </c>
@@ -34791,7 +34798,7 @@
         <v>24</v>
       </c>
       <c r="BD67" s="4">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE67" s="53" t="s">
@@ -34804,7 +34811,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="68" spans="1:59" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="38.25" r="68" s="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A68" s="22" t="s">
         <v>248</v>
       </c>
@@ -34884,7 +34891,7 @@
         <v>8</v>
       </c>
       <c r="BD68" s="4">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>8</v>
       </c>
       <c r="BE68" s="53" t="s">
@@ -34897,7 +34904,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="69" spans="1:59" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="38.25" r="69" s="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A69" s="22" t="s">
         <v>248</v>
       </c>
@@ -34971,7 +34978,7 @@
         <v>8</v>
       </c>
       <c r="BD69" s="4">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>8</v>
       </c>
       <c r="BE69" s="53" t="s">
@@ -34984,7 +34991,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="70" spans="1:59" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="38.25" r="70" s="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A70" s="22" t="s">
         <v>248</v>
       </c>
@@ -35040,7 +35047,7 @@
         <v>4</v>
       </c>
       <c r="BD70" s="4">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>4</v>
       </c>
       <c r="BE70" s="53" t="s">
@@ -35053,7 +35060,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="71" spans="1:59" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="38.25" r="71" s="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A71" s="22" t="s">
         <v>248</v>
       </c>
@@ -35133,7 +35140,7 @@
         <v>720</v>
       </c>
       <c r="BD71" s="4">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>720</v>
       </c>
       <c r="BE71" s="53" t="s">
@@ -35146,7 +35153,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="72" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="51" r="72" s="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A72" s="22" t="s">
         <v>248</v>
       </c>
@@ -35226,7 +35233,7 @@
         <v>720</v>
       </c>
       <c r="BD72" s="4">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>720</v>
       </c>
       <c r="BE72" s="53" t="s">
@@ -35239,7 +35246,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="73" spans="1:59" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="63.75" r="73" s="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A73" s="22" t="s">
         <v>248</v>
       </c>
@@ -35319,7 +35326,7 @@
         <v>8</v>
       </c>
       <c r="BD73" s="4">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>8</v>
       </c>
       <c r="BE73" s="53" t="s">
@@ -35332,7 +35339,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="74" spans="1:59" s="4" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="89.25" r="74" s="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A74" s="22" t="s">
         <v>248</v>
       </c>
@@ -35382,7 +35389,7 @@
         <v>24</v>
       </c>
       <c r="BD74" s="4">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE74" s="53" t="s">
@@ -35395,7 +35402,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="75" spans="1:59" s="4" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="76.5" r="75" s="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A75" s="22" t="s">
         <v>248</v>
       </c>
@@ -35463,7 +35470,7 @@
         <v>24</v>
       </c>
       <c r="BD75" s="4">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE75" s="53" t="s">
@@ -35476,7 +35483,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="76" spans="1:59" s="4" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="89.25" r="76" s="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A76" s="22" t="s">
         <v>248</v>
       </c>
@@ -35550,7 +35557,7 @@
         <v>24</v>
       </c>
       <c r="BD76" s="4">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE76" s="53" t="s">
@@ -35563,7 +35570,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="77" spans="1:59" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="63.75" r="77" s="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A77" s="22" t="s">
         <v>248</v>
       </c>
@@ -35637,7 +35644,7 @@
         <v>48</v>
       </c>
       <c r="BD77" s="4">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE77" s="53" t="s">
@@ -35650,7 +35657,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="78" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="51" r="78" s="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A78" s="22" t="s">
         <v>248</v>
       </c>
@@ -35700,7 +35707,7 @@
         <v>24</v>
       </c>
       <c r="BD78" s="4">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE78" s="53" t="s">
@@ -35713,7 +35720,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="79" spans="1:59" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="38.25" r="79" s="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A79" s="22" t="s">
         <v>248</v>
       </c>
@@ -35763,7 +35770,7 @@
         <v>24</v>
       </c>
       <c r="BD79" s="4">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE79" s="53" t="s">
@@ -35776,7 +35783,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="80" spans="1:59" s="4" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="127.5" r="80" s="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A80" s="22" t="s">
         <v>248</v>
       </c>
@@ -35826,7 +35833,7 @@
         <v>24</v>
       </c>
       <c r="BD80" s="4">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE80" s="53" t="s">
@@ -35839,7 +35846,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="81" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="51" r="81" s="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A81" s="22" t="s">
         <v>248</v>
       </c>
@@ -35913,7 +35920,7 @@
         <v>24</v>
       </c>
       <c r="BD81" s="4">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE81" s="53" t="s">
@@ -35926,7 +35933,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="82" spans="1:59" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="38.25" r="82" s="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A82" s="22" t="s">
         <v>248</v>
       </c>
@@ -36000,7 +36007,7 @@
         <v>720</v>
       </c>
       <c r="BD82" s="4">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>720</v>
       </c>
       <c r="BE82" s="56" t="s">
@@ -36013,7 +36020,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="83" spans="1:59" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="63.75" r="83" s="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A83" s="22" t="s">
         <v>248</v>
       </c>
@@ -36075,7 +36082,7 @@
         <v>2</v>
       </c>
       <c r="BD83" s="4">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>2</v>
       </c>
       <c r="BE83" s="53" t="s">
@@ -36086,7 +36093,7 @@
       </c>
       <c r="BG83" s="1"/>
     </row>
-    <row r="84" spans="1:59" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="63.75" r="84" s="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A84" s="22" t="s">
         <v>248</v>
       </c>
@@ -36160,7 +36167,7 @@
         <v>4</v>
       </c>
       <c r="BD84" s="4">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>4</v>
       </c>
       <c r="BE84" s="53" t="s">
@@ -36171,7 +36178,7 @@
       </c>
       <c r="BG84" s="1"/>
     </row>
-    <row r="85" spans="1:59" s="4" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="89.25" r="85" s="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A85" s="22" t="s">
         <v>248</v>
       </c>
@@ -36245,7 +36252,7 @@
         <v>3</v>
       </c>
       <c r="BD85" s="4">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>3</v>
       </c>
       <c r="BE85" s="53" t="s">
@@ -36258,7 +36265,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="86" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="51" r="86" s="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A86" s="22" t="s">
         <v>248</v>
       </c>
@@ -36320,7 +36327,7 @@
         <v>24</v>
       </c>
       <c r="BD86" s="4">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE86" s="53" t="s">
@@ -36340,17 +36347,17 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="E67:E68">
-    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
+    <cfRule dxfId="7" priority="4" type="duplicateValues"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69:E73">
-    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
+    <cfRule dxfId="6" priority="3" type="duplicateValues"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74:E80">
-    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+    <cfRule dxfId="5" priority="2" type="duplicateValues"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81:E86">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule dxfId="4" priority="1" type="duplicateValues"/>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/resources/excels/KE.xlsx
+++ b/resources/excels/KE.xlsx
@@ -1,46 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2394650\IdeaProjects\cs-portal-automation_selenium1\resources\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="3" firstSheet="2" windowHeight="10080" windowWidth="34080" xWindow="0" yWindow="495"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="34080" windowHeight="10080" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="LoginCredentials" r:id="rId1" sheetId="1"/>
-    <sheet name="Priority" r:id="rId2" sheetId="10"/>
-    <sheet name="Headers" r:id="rId3" sheetId="9"/>
-    <sheet name="NFTRTickets-San" r:id="rId4" sheetId="3"/>
-    <sheet name="SLA Configuration" r:id="rId5" sheetId="29"/>
-    <sheet name="Assignment Rule" r:id="rId6" sheetId="28"/>
-    <sheet name="FTRTickets-San" r:id="rId7" sheetId="2"/>
-    <sheet name="NFTRTickets-Reg" r:id="rId8" sheetId="25"/>
-    <sheet name="NFTRTickets-Reg1" r:id="rId9" sheetId="11"/>
-    <sheet name="FTRTickets-Reg" r:id="rId10" sheetId="12"/>
-    <sheet name="UserManagement" r:id="rId11" sheetId="19"/>
-    <sheet name="PinnedTags" r:id="rId12" sheetId="5"/>
-    <sheet name="Ticket State" r:id="rId13" sheetId="6"/>
-    <sheet name="TemplateManagement" r:id="rId14" sheetId="20"/>
-    <sheet name="Ticket Transfer Rules" r:id="rId15" sheetId="15"/>
-    <sheet name="Sheet1" r:id="rId16" sheetId="26"/>
-    <sheet name="Authentication Policy" r:id="rId17" sheetId="17"/>
-    <sheet name="Action Tagging" r:id="rId18" sheetId="18"/>
-    <sheet name="QuestionAnswerKey" r:id="rId19" sheetId="27"/>
-    <sheet name="State Queue Mapping" r:id="rId20" sheetId="21"/>
-    <sheet name="Transfer To Queue" r:id="rId21" sheetId="24"/>
+    <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
+    <sheet name="Priority" sheetId="10" r:id="rId2"/>
+    <sheet name="Headers" sheetId="9" r:id="rId3"/>
+    <sheet name="NFTRTickets-San" sheetId="3" r:id="rId4"/>
+    <sheet name="SLA Configuration" sheetId="29" r:id="rId5"/>
+    <sheet name="Assignment Rule" sheetId="28" r:id="rId6"/>
+    <sheet name="FTRTickets-San" sheetId="2" r:id="rId7"/>
+    <sheet name="NFTRTickets-Reg" sheetId="25" r:id="rId8"/>
+    <sheet name="NFTRTickets-Reg1" sheetId="11" r:id="rId9"/>
+    <sheet name="FTRTickets-Reg" sheetId="12" r:id="rId10"/>
+    <sheet name="UserManagement" sheetId="19" r:id="rId11"/>
+    <sheet name="PinnedTags" sheetId="5" r:id="rId12"/>
+    <sheet name="Ticket State" sheetId="6" r:id="rId13"/>
+    <sheet name="TemplateManagement" sheetId="20" r:id="rId14"/>
+    <sheet name="Ticket Transfer Rules" sheetId="15" r:id="rId15"/>
+    <sheet name="Sheet1" sheetId="26" r:id="rId16"/>
+    <sheet name="Authentication Policy" sheetId="17" r:id="rId17"/>
+    <sheet name="Action Tagging" sheetId="18" r:id="rId18"/>
+    <sheet name="QuestionAnswerKey" sheetId="27" r:id="rId19"/>
+    <sheet name="State Queue Mapping" sheetId="21" r:id="rId20"/>
+    <sheet name="Transfer To Queue" sheetId="24" r:id="rId21"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="7" name="_xlnm._FilterDatabase">'NFTRTickets-Reg'!$A$1:$BG$45</definedName>
-    <definedName hidden="1" localSheetId="8" name="_xlnm._FilterDatabase">'NFTRTickets-Reg1'!$A$1:$BG$86</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'NFTRTickets-Reg'!$A$1:$BG$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'NFTRTickets-Reg1'!$A$1:$BG$86</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -53,7 +53,7 @@
     <author>Rahul Gupta</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="AV1" shapeId="0">
+    <comment ref="AV1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="AW1" shapeId="0">
+    <comment ref="AW1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -101,7 +101,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="AX1" shapeId="0">
+    <comment ref="AX1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -126,7 +126,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="AY1" shapeId="0">
+    <comment ref="AY1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -150,7 +150,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="AZ1" shapeId="0">
+    <comment ref="AZ1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -184,7 +184,7 @@
     <author>Rahul Gupta</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="B1" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -208,7 +208,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="C1" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -232,7 +232,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D1" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -257,7 +257,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="E1" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -281,7 +281,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="F1" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -315,7 +315,7 @@
     <author>Rahul Gupta</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="B1" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -339,7 +339,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="C1" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -363,7 +363,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="B3" shapeId="0">
+    <comment ref="B3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -392,7 +392,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7908" uniqueCount="1367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7909" uniqueCount="1370">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -4516,20 +4516,28 @@
     <t>ticketNumber</t>
   </si>
   <si>
-    <t>100721003079</t>
-  </si>
-  <si>
     <t>TRUE</t>
   </si>
   <si>
     <t>160721005865</t>
+  </si>
+  <si>
+    <t>Friends and Family</t>
+  </si>
+  <si>
+    <t>FnF Number</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>FnF Indicator</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -4809,189 +4817,189 @@
     </border>
   </borders>
   <cellStyleXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0"/>
-    <xf applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="12" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="15" numFmtId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="12" numFmtId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="102">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="8" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="8" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="8" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="10" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="10" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="1"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="7" numFmtId="0" xfId="1"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="1"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="8" fontId="11" numFmtId="0" xfId="1"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="3"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="3"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="2"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="7" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="1"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="4" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="0" fontId="13" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="0" fontId="13" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="3" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="5" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" borderId="4" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="9" fontId="5" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="9" fontId="5" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="14" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="16" numFmtId="0" xfId="4"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="16" numFmtId="0" xfId="4">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="16" numFmtId="0" xfId="4">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="4"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="4"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="4"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="4"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="4"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="4"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="4"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="4"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="4"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="4"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="4"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="4"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="4"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="4"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="4"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="4"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="4"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="4"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="4"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="4"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="4"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="4"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="4"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="4"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="4"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="4"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="4"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="4"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="14" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="0" fontId="14" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="17" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="18" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="0" fontId="18" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="15" xfId="0"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="18" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="6" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="1"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal 2 2" xfId="5"/>
     <cellStyle name="Normal 3" xfId="2"/>
@@ -5122,7 +5130,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -5135,7 +5143,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -5154,12 +5162,12 @@
         <xdr:cNvPr id="9217" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001240000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000001240000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1" noChangeAspect="1"/>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -5202,12 +5210,12 @@
         <xdr:cNvPr id="3" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1" noChangeAspect="1"/>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -5250,12 +5258,12 @@
         <xdr:cNvPr id="4" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF08D5FD-92C7-4540-AF22-FEEA19CA4C87}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EF08D5FD-92C7-4540-AF22-FEEA19CA4C87}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1" noChangeAspect="1"/>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -5298,12 +5306,12 @@
         <xdr:cNvPr id="5" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14EBD159-F09F-5A4A-BACB-F932EFB20343}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{14EBD159-F09F-5A4A-BACB-F932EFB20343}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1" noChangeAspect="1"/>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -5336,10 +5344,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -5374,7 +5382,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -5426,7 +5434,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -5537,21 +5545,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -5568,7 +5576,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -5620,14 +5628,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5636,13 +5644,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="19.875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="17.125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.5" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.125" collapsed="true"/>
-    <col min="7" max="8" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="20.375" collapsed="true"/>
+    <col min="1" max="1" width="17.375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -5881,19 +5889,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="July@123$" r:id="rId1" ref="B4"/>
-    <hyperlink display="July@123$" r:id="rId2" ref="B2"/>
+    <hyperlink ref="B4" r:id="rId1" display="July@123$"/>
+    <hyperlink ref="B2" r:id="rId2" display="July@123$"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId3" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F128"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0" zoomScale="110" zoomScaleNormal="110">
+    <sheetView topLeftCell="A112" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="I115" sqref="I115"/>
     </sheetView>
   </sheetViews>
@@ -5919,7 +5927,7 @@
         <v>183</v>
       </c>
     </row>
-    <row ht="76.5" r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>18</v>
       </c>
@@ -5970,7 +5978,7 @@
         <v>27</v>
       </c>
     </row>
-    <row ht="51" r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>18</v>
       </c>
@@ -5987,7 +5995,7 @@
         <v>30</v>
       </c>
     </row>
-    <row ht="38.25" r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>24</v>
       </c>
@@ -6004,7 +6012,7 @@
         <v>32</v>
       </c>
     </row>
-    <row ht="51" r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>18</v>
       </c>
@@ -6021,7 +6029,7 @@
         <v>267</v>
       </c>
     </row>
-    <row ht="51" r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>24</v>
       </c>
@@ -6038,7 +6046,7 @@
         <v>270</v>
       </c>
     </row>
-    <row ht="63.75" r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>24</v>
       </c>
@@ -6055,7 +6063,7 @@
         <v>273</v>
       </c>
     </row>
-    <row ht="38.25" r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>18</v>
       </c>
@@ -6072,7 +6080,7 @@
         <v>276</v>
       </c>
     </row>
-    <row ht="51" r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>18</v>
       </c>
@@ -6106,7 +6114,7 @@
         <v>282</v>
       </c>
     </row>
-    <row ht="38.25" r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>18</v>
       </c>
@@ -6123,7 +6131,7 @@
         <v>285</v>
       </c>
     </row>
-    <row ht="51" r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>18</v>
       </c>
@@ -6140,7 +6148,7 @@
         <v>288</v>
       </c>
     </row>
-    <row ht="38.25" r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>18</v>
       </c>
@@ -6157,7 +6165,7 @@
         <v>291</v>
       </c>
     </row>
-    <row ht="38.25" r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>24</v>
       </c>
@@ -6174,7 +6182,7 @@
         <v>294</v>
       </c>
     </row>
-    <row ht="38.25" r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>18</v>
       </c>
@@ -6191,7 +6199,7 @@
         <v>297</v>
       </c>
     </row>
-    <row ht="38.25" r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>24</v>
       </c>
@@ -6208,7 +6216,7 @@
         <v>300</v>
       </c>
     </row>
-    <row ht="51" r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>18</v>
       </c>
@@ -6225,7 +6233,7 @@
         <v>303</v>
       </c>
     </row>
-    <row ht="63.75" r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>18</v>
       </c>
@@ -6242,7 +6250,7 @@
         <v>305</v>
       </c>
     </row>
-    <row ht="51" r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>18</v>
       </c>
@@ -6259,7 +6267,7 @@
         <v>308</v>
       </c>
     </row>
-    <row ht="63.75" r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>18</v>
       </c>
@@ -6293,7 +6301,7 @@
         <v>313</v>
       </c>
     </row>
-    <row ht="63.75" r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>18</v>
       </c>
@@ -6310,7 +6318,7 @@
         <v>316</v>
       </c>
     </row>
-    <row ht="63.75" r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>18</v>
       </c>
@@ -6327,7 +6335,7 @@
         <v>319</v>
       </c>
     </row>
-    <row ht="63.75" r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>18</v>
       </c>
@@ -6344,7 +6352,7 @@
         <v>322</v>
       </c>
     </row>
-    <row ht="63.75" r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>18</v>
       </c>
@@ -6361,7 +6369,7 @@
         <v>325</v>
       </c>
     </row>
-    <row ht="51" r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>18</v>
       </c>
@@ -6378,7 +6386,7 @@
         <v>328</v>
       </c>
     </row>
-    <row ht="63.75" r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>24</v>
       </c>
@@ -6412,7 +6420,7 @@
         <v>334</v>
       </c>
     </row>
-    <row ht="76.5" r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
         <v>24</v>
       </c>
@@ -6429,7 +6437,7 @@
         <v>337</v>
       </c>
     </row>
-    <row ht="89.25" r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
         <v>24</v>
       </c>
@@ -6446,7 +6454,7 @@
         <v>340</v>
       </c>
     </row>
-    <row ht="76.5" r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>18</v>
       </c>
@@ -6463,7 +6471,7 @@
         <v>343</v>
       </c>
     </row>
-    <row ht="76.5" r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>18</v>
       </c>
@@ -6480,7 +6488,7 @@
         <v>346</v>
       </c>
     </row>
-    <row ht="51" r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
         <v>18</v>
       </c>
@@ -6497,7 +6505,7 @@
         <v>349</v>
       </c>
     </row>
-    <row ht="63.75" r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
         <v>18</v>
       </c>
@@ -6514,7 +6522,7 @@
         <v>352</v>
       </c>
     </row>
-    <row ht="76.5" r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
         <v>18</v>
       </c>
@@ -6565,7 +6573,7 @@
         <v>360</v>
       </c>
     </row>
-    <row ht="76.5" r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
         <v>18</v>
       </c>
@@ -6582,7 +6590,7 @@
         <v>363</v>
       </c>
     </row>
-    <row ht="63.75" r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
         <v>18</v>
       </c>
@@ -6599,7 +6607,7 @@
         <v>366</v>
       </c>
     </row>
-    <row ht="38.25" r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
         <v>18</v>
       </c>
@@ -6616,7 +6624,7 @@
         <v>369</v>
       </c>
     </row>
-    <row ht="51" r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
         <v>18</v>
       </c>
@@ -6633,7 +6641,7 @@
         <v>372</v>
       </c>
     </row>
-    <row ht="89.25" r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
         <v>18</v>
       </c>
@@ -6650,7 +6658,7 @@
         <v>375</v>
       </c>
     </row>
-    <row ht="76.5" r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
         <v>18</v>
       </c>
@@ -6667,7 +6675,7 @@
         <v>378</v>
       </c>
     </row>
-    <row ht="63.75" r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
         <v>24</v>
       </c>
@@ -6684,7 +6692,7 @@
         <v>380</v>
       </c>
     </row>
-    <row ht="63.75" r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
         <v>18</v>
       </c>
@@ -6701,7 +6709,7 @@
         <v>383</v>
       </c>
     </row>
-    <row ht="51" r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
         <v>18</v>
       </c>
@@ -6718,7 +6726,7 @@
         <v>386</v>
       </c>
     </row>
-    <row ht="63.75" r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
         <v>18</v>
       </c>
@@ -6752,7 +6760,7 @@
         <v>392</v>
       </c>
     </row>
-    <row ht="63.75" r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A51" s="16" t="s">
         <v>18</v>
       </c>
@@ -6769,7 +6777,7 @@
         <v>395</v>
       </c>
     </row>
-    <row ht="51" r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A52" s="16" t="s">
         <v>24</v>
       </c>
@@ -6786,7 +6794,7 @@
         <v>398</v>
       </c>
     </row>
-    <row ht="51" r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A53" s="16" t="s">
         <v>18</v>
       </c>
@@ -6803,7 +6811,7 @@
         <v>401</v>
       </c>
     </row>
-    <row ht="63.75" r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A54" s="16" t="s">
         <v>18</v>
       </c>
@@ -6820,7 +6828,7 @@
         <v>404</v>
       </c>
     </row>
-    <row ht="25.5" r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
         <v>18</v>
       </c>
@@ -6837,7 +6845,7 @@
         <v>407</v>
       </c>
     </row>
-    <row ht="38.25" r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="s">
         <v>18</v>
       </c>
@@ -6854,7 +6862,7 @@
         <v>410</v>
       </c>
     </row>
-    <row ht="76.5" r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A57" s="16" t="s">
         <v>18</v>
       </c>
@@ -6871,7 +6879,7 @@
         <v>413</v>
       </c>
     </row>
-    <row ht="63.75" r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A58" s="16" t="s">
         <v>18</v>
       </c>
@@ -6888,7 +6896,7 @@
         <v>416</v>
       </c>
     </row>
-    <row ht="102" r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="102" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
         <v>18</v>
       </c>
@@ -6905,7 +6913,7 @@
         <v>419</v>
       </c>
     </row>
-    <row ht="38.25" r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A60" s="16" t="s">
         <v>18</v>
       </c>
@@ -6922,7 +6930,7 @@
         <v>422</v>
       </c>
     </row>
-    <row ht="38.25" r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A61" s="16" t="s">
         <v>18</v>
       </c>
@@ -6939,7 +6947,7 @@
         <v>425</v>
       </c>
     </row>
-    <row ht="63.75" r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
         <v>18</v>
       </c>
@@ -6956,7 +6964,7 @@
         <v>428</v>
       </c>
     </row>
-    <row ht="51" r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
         <v>18</v>
       </c>
@@ -6973,7 +6981,7 @@
         <v>431</v>
       </c>
     </row>
-    <row ht="89.25" r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
         <v>18</v>
       </c>
@@ -6990,7 +6998,7 @@
         <v>434</v>
       </c>
     </row>
-    <row ht="76.5" r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="s">
         <v>18</v>
       </c>
@@ -7007,7 +7015,7 @@
         <v>437</v>
       </c>
     </row>
-    <row ht="76.5" r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A66" s="16" t="s">
         <v>24</v>
       </c>
@@ -7075,7 +7083,7 @@
         <v>445</v>
       </c>
     </row>
-    <row ht="51" r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A70" s="17" t="s">
         <v>18</v>
       </c>
@@ -7092,7 +7100,7 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="76.5" r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A71" s="17" t="s">
         <v>18</v>
       </c>
@@ -7109,7 +7117,7 @@
         <v>34</v>
       </c>
     </row>
-    <row ht="25.5" r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A72" s="17" t="s">
         <v>18</v>
       </c>
@@ -7126,7 +7134,7 @@
         <v>35</v>
       </c>
     </row>
-    <row ht="63.75" r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A73" s="16" t="s">
         <v>24</v>
       </c>
@@ -7143,7 +7151,7 @@
         <v>454</v>
       </c>
     </row>
-    <row ht="63.75" r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A74" s="16" t="s">
         <v>203</v>
       </c>
@@ -7160,7 +7168,7 @@
         <v>457</v>
       </c>
     </row>
-    <row ht="51" r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A75" s="16" t="s">
         <v>18</v>
       </c>
@@ -7177,7 +7185,7 @@
         <v>460</v>
       </c>
     </row>
-    <row ht="51" r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A76" s="16" t="s">
         <v>18</v>
       </c>
@@ -7194,7 +7202,7 @@
         <v>463</v>
       </c>
     </row>
-    <row ht="51" r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A77" s="16" t="s">
         <v>18</v>
       </c>
@@ -7211,7 +7219,7 @@
         <v>466</v>
       </c>
     </row>
-    <row ht="76.5" r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A78" s="16" t="s">
         <v>203</v>
       </c>
@@ -7330,7 +7338,7 @@
         <v>481</v>
       </c>
     </row>
-    <row ht="63.75" r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A85" s="16" t="s">
         <v>24</v>
       </c>
@@ -7381,7 +7389,7 @@
         <v>487</v>
       </c>
     </row>
-    <row ht="76.5" r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A88" s="16" t="s">
         <v>24</v>
       </c>
@@ -7449,7 +7457,7 @@
         <v>495</v>
       </c>
     </row>
-    <row ht="51" r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A92" s="18" t="s">
         <v>24</v>
       </c>
@@ -7466,7 +7474,7 @@
         <v>497</v>
       </c>
     </row>
-    <row ht="63.75" r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A93" s="18" t="s">
         <v>24</v>
       </c>
@@ -7483,7 +7491,7 @@
         <v>499</v>
       </c>
     </row>
-    <row ht="51" r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A94" s="18" t="s">
         <v>24</v>
       </c>
@@ -7500,7 +7508,7 @@
         <v>501</v>
       </c>
     </row>
-    <row ht="25.5" r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A95" s="18" t="s">
         <v>24</v>
       </c>
@@ -7517,7 +7525,7 @@
         <v>503</v>
       </c>
     </row>
-    <row ht="25.5" r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A96" s="18" t="s">
         <v>24</v>
       </c>
@@ -7534,7 +7542,7 @@
         <v>505</v>
       </c>
     </row>
-    <row ht="25.5" r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A97" s="18" t="s">
         <v>24</v>
       </c>
@@ -7551,7 +7559,7 @@
         <v>507</v>
       </c>
     </row>
-    <row ht="51" r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A98" s="16" t="s">
         <v>18</v>
       </c>
@@ -7585,7 +7593,7 @@
         <v>512</v>
       </c>
     </row>
-    <row ht="51" r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A100" s="16" t="s">
         <v>203</v>
       </c>
@@ -7602,7 +7610,7 @@
         <v>515</v>
       </c>
     </row>
-    <row ht="76.5" r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A101" s="16" t="s">
         <v>203</v>
       </c>
@@ -7619,7 +7627,7 @@
         <v>517</v>
       </c>
     </row>
-    <row ht="38.25" r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A102" s="16" t="s">
         <v>203</v>
       </c>
@@ -7636,7 +7644,7 @@
         <v>519</v>
       </c>
     </row>
-    <row ht="76.5" r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A103" s="16" t="s">
         <v>203</v>
       </c>
@@ -7687,7 +7695,7 @@
         <v>525</v>
       </c>
     </row>
-    <row ht="38.25" r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A106" s="16" t="s">
         <v>18</v>
       </c>
@@ -7704,7 +7712,7 @@
         <v>528</v>
       </c>
     </row>
-    <row ht="38.25" r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A107" s="16" t="s">
         <v>18</v>
       </c>
@@ -7721,7 +7729,7 @@
         <v>193</v>
       </c>
     </row>
-    <row ht="51" r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A108" s="16" t="s">
         <v>18</v>
       </c>
@@ -7755,7 +7763,7 @@
         <v>532</v>
       </c>
     </row>
-    <row ht="63.75" r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A110" s="16" t="s">
         <v>18</v>
       </c>
@@ -7772,7 +7780,7 @@
         <v>534</v>
       </c>
     </row>
-    <row ht="76.5" r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A111" s="16" t="s">
         <v>18</v>
       </c>
@@ -7789,7 +7797,7 @@
         <v>191</v>
       </c>
     </row>
-    <row ht="51" r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A112" s="16" t="s">
         <v>18</v>
       </c>
@@ -7806,7 +7814,7 @@
         <v>185</v>
       </c>
     </row>
-    <row ht="76.5" r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A113" s="16" t="s">
         <v>203</v>
       </c>
@@ -7823,7 +7831,7 @@
         <v>537</v>
       </c>
     </row>
-    <row ht="25.5" r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A114" s="18" t="s">
         <v>24</v>
       </c>
@@ -7840,7 +7848,7 @@
         <v>539</v>
       </c>
     </row>
-    <row ht="63.75" r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A115" s="16" t="s">
         <v>18</v>
       </c>
@@ -7857,7 +7865,7 @@
         <v>188</v>
       </c>
     </row>
-    <row ht="63.75" r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A116" s="18" t="s">
         <v>24</v>
       </c>
@@ -7925,7 +7933,7 @@
         <v>212</v>
       </c>
     </row>
-    <row ht="63.75" r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A120" s="10" t="s">
         <v>18</v>
       </c>
@@ -7942,7 +7950,7 @@
         <v>244</v>
       </c>
     </row>
-    <row ht="76.5" r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
         <v>18</v>
       </c>
@@ -7959,7 +7967,7 @@
         <v>247</v>
       </c>
     </row>
-    <row ht="63.75" r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
         <v>248</v>
       </c>
@@ -7976,7 +7984,7 @@
         <v>251</v>
       </c>
     </row>
-    <row ht="30" r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="43" t="s">
         <v>58</v>
       </c>
@@ -7993,7 +8001,7 @@
         <v>819</v>
       </c>
     </row>
-    <row ht="30" r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="43" t="s">
         <v>58</v>
       </c>
@@ -8010,7 +8018,7 @@
         <v>821</v>
       </c>
     </row>
-    <row ht="30" r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="43" t="s">
         <v>58</v>
       </c>
@@ -8027,7 +8035,7 @@
         <v>823</v>
       </c>
     </row>
-    <row ht="30" r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="43" t="s">
         <v>58</v>
       </c>
@@ -8044,7 +8052,7 @@
         <v>826</v>
       </c>
     </row>
-    <row ht="30" r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="43" t="s">
         <v>58</v>
       </c>
@@ -8061,7 +8069,7 @@
         <v>828</v>
       </c>
     </row>
-    <row ht="30" r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="43" t="s">
         <v>58</v>
       </c>
@@ -8080,23 +8088,23 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E117">
-    <cfRule dxfId="3" priority="4" type="duplicateValues"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118:E119">
-    <cfRule dxfId="2" priority="3" type="duplicateValues"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E120">
-    <cfRule dxfId="1" priority="2" type="duplicateValues"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E121">
-    <cfRule dxfId="0" priority="1" type="duplicateValues"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -8105,8 +8113,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.125" collapsed="true"/>
-    <col min="2" max="3" bestFit="true" customWidth="true" width="22.625" collapsed="true"/>
+    <col min="1" max="1" width="17.125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="22.625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -8339,12 +8347,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8422,27 +8430,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="1" max="1" width="24" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -8644,13 +8652,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8659,8 +8667,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="31" width="30.875" collapsed="true"/>
-    <col min="2" max="16384" style="31" width="9.0" collapsed="true"/>
+    <col min="1" max="1" width="30.875" style="31" customWidth="1" collapsed="1"/>
+    <col min="2" max="16384" width="9" style="31" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -8711,24 +8719,24 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E444"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="13.375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="37.125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="20.125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="27.625" collapsed="true"/>
+    <col min="2" max="2" width="13.375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="37.125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27.625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -16280,12 +16288,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17281,12 +17289,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17295,18 +17303,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="4" width="15.875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="4" width="19.625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="29" width="10.875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="29" width="11.5" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="29" width="10.125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="29" width="10.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="29" width="11.0" collapsed="true"/>
-    <col min="9" max="10" customWidth="true" style="29" width="10.125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="29" width="10.5" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="29" width="11.625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="29" width="11.875" collapsed="true"/>
+    <col min="1" max="1" width="12" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.875" style="4" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.625" style="4" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.875" style="29" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.5" style="29" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.125" style="29" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10" style="29" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11" style="29" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="10.125" style="29" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.5" style="29" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.625" style="29" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="11.875" style="29" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -17352,7 +17360,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row ht="141.75" r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>895</v>
       </c>
@@ -17382,13 +17390,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17397,9 +17405,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="1" max="1" width="13.375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -17648,13 +17656,13 @@
       <c r="K13" s="4"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17663,10 +17671,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="29" width="35.125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="29" width="42.125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="29" width="54.875" collapsed="true"/>
-    <col min="4" max="16384" style="29" width="10.875" collapsed="true"/>
+    <col min="1" max="1" width="35.125" style="29" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="42.125" style="29" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="54.875" style="29" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="10.875" style="29" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -17691,7 +17699,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row ht="31.5" r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
         <v>1294</v>
       </c>
@@ -17829,12 +17837,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17843,7 +17851,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.625" collapsed="true"/>
+    <col min="1" max="1" width="16.625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -17882,12 +17890,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17896,11 +17904,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="34" width="19.125" collapsed="true"/>
-    <col min="2" max="2" style="34" width="9.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="34" width="13.875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="34" width="11.5" collapsed="true"/>
-    <col min="5" max="16384" style="34" width="9.0" collapsed="true"/>
+    <col min="1" max="1" width="19.125" style="34" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9" style="34" collapsed="1"/>
+    <col min="3" max="3" width="13.875" style="34" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.5" style="34" customWidth="1" collapsed="1"/>
+    <col min="5" max="16384" width="9" style="34" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -17938,7 +17946,7 @@
         <v>933</v>
       </c>
     </row>
-    <row ht="15.75" r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="58" t="s">
         <v>97</v>
       </c>
@@ -17959,7 +17967,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
-    <row ht="15.75" r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="58" t="s">
         <v>98</v>
       </c>
@@ -17980,7 +17988,7 @@
       <c r="J3" s="33"/>
       <c r="K3" s="33"/>
     </row>
-    <row ht="15.75" r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>99</v>
       </c>
@@ -18001,7 +18009,7 @@
       <c r="J4" s="33"/>
       <c r="K4" s="33"/>
     </row>
-    <row ht="15.75" r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="58" t="s">
         <v>84</v>
       </c>
@@ -18030,7 +18038,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row ht="15.75" r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="58" t="s">
         <v>82</v>
       </c>
@@ -18053,7 +18061,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row ht="15.75" r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="58" t="s">
         <v>93</v>
       </c>
@@ -18067,7 +18075,7 @@
         <v>118</v>
       </c>
     </row>
-    <row ht="15.75" r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="58" t="s">
         <v>100</v>
       </c>
@@ -18081,7 +18089,7 @@
         <v>118</v>
       </c>
     </row>
-    <row ht="15.75" r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="58" t="s">
         <v>77</v>
       </c>
@@ -18095,7 +18103,7 @@
         <v>118</v>
       </c>
     </row>
-    <row ht="15.75" r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="58" t="s">
         <v>77</v>
       </c>
@@ -18109,7 +18117,7 @@
         <v>118</v>
       </c>
     </row>
-    <row ht="15.75" r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="58" t="s">
         <v>1010</v>
       </c>
@@ -18132,7 +18140,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row ht="15.75" r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="58" t="s">
         <v>101</v>
       </c>
@@ -18146,7 +18154,7 @@
         <v>118</v>
       </c>
     </row>
-    <row ht="15.75" r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="58" t="s">
         <v>102</v>
       </c>
@@ -18160,7 +18168,7 @@
         <v>118</v>
       </c>
     </row>
-    <row ht="15.75" r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="58" t="s">
         <v>103</v>
       </c>
@@ -18174,7 +18182,7 @@
         <v>118</v>
       </c>
     </row>
-    <row ht="15.75" r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="58" t="s">
         <v>104</v>
       </c>
@@ -18188,7 +18196,7 @@
         <v>118</v>
       </c>
     </row>
-    <row ht="15.75" r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="58" t="s">
         <v>79</v>
       </c>
@@ -18205,7 +18213,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row ht="15.75" r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="58" t="s">
         <v>85</v>
       </c>
@@ -18219,7 +18227,7 @@
         <v>118</v>
       </c>
     </row>
-    <row ht="15.75" r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="58" t="s">
         <v>1006</v>
       </c>
@@ -18242,7 +18250,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row ht="15.75" r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="58" t="s">
         <v>1008</v>
       </c>
@@ -18262,7 +18270,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row ht="15.75" r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="59" t="s">
         <v>1004</v>
       </c>
@@ -18300,7 +18308,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row ht="15.75" r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="58" t="s">
         <v>195</v>
       </c>
@@ -18317,7 +18325,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row ht="15.75" r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="60" t="s">
         <v>1012</v>
       </c>
@@ -18334,7 +18342,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row ht="15.75" r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="58" t="s">
         <v>1013</v>
       </c>
@@ -18348,7 +18356,7 @@
         <v>118</v>
       </c>
     </row>
-    <row ht="28.5" r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A24" s="60" t="s">
         <v>1005</v>
       </c>
@@ -18366,13 +18374,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18381,9 +18389,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="23.125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="4" width="24.125" collapsed="true"/>
-    <col min="3" max="16384" style="4" width="9.0" collapsed="true"/>
+    <col min="1" max="1" width="23.125" style="4" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.125" style="4" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9" style="4" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -18420,33 +18428,33 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.5" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="21.5" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="22.375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="9.625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="1" max="1" width="29" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="12.375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -18490,7 +18498,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row ht="31.5" r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>77</v>
       </c>
@@ -18936,7 +18944,7 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row customFormat="1" r="18" s="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="38" t="s">
         <v>1234</v>
       </c>
@@ -18963,7 +18971,7 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row ht="47.25" r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" s="38" t="s">
         <v>1245</v>
       </c>
@@ -19069,52 +19077,81 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
     </row>
+    <row r="22" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>1368</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>1369</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0" zoomScaleNormal="100">
+    <sheetView topLeftCell="AP1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AV2" sqref="AV2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="18.625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
-    <col min="24" max="26" customWidth="true" width="23.875" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="9.875" collapsed="true"/>
-    <col min="48" max="54" style="4" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="26" width="23.875" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="9.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="54" width="11" style="4" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="18.95" r="1" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:55" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>36</v>
       </c>
@@ -19281,7 +19318,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row customHeight="1" ht="18.95" r="2" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:55" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -19344,7 +19381,7 @@
       </c>
       <c r="AI2" s="4"/>
       <c r="AV2" s="4" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>1357</v>
@@ -19363,28 +19400,28 @@
       </c>
       <c r="BB2"/>
       <c r="BC2" s="2" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" customWidth="true" width="23.875" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="10.125" collapsed="true"/>
+    <col min="9" max="9" width="23.875" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="10.125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -19569,14 +19606,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19585,9 +19622,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" customWidth="true" width="19.125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="17.375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="9.125" collapsed="true"/>
+    <col min="4" max="4" width="19.125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -19657,25 +19694,25 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.5" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="28.625" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" width="24.5" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="18.625" collapsed="true"/>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="24.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -19716,26 +19753,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG130"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" style="4" width="9.0" collapsed="true"/>
-    <col min="6" max="46" customWidth="true" style="4" width="9.0" collapsed="true"/>
-    <col min="47" max="47" customWidth="true" style="4" width="3.125" collapsed="true"/>
-    <col min="48" max="58" style="4" width="9.0" collapsed="true"/>
-    <col min="59" max="59" bestFit="true" customWidth="true" style="4" width="10.875" collapsed="true"/>
-    <col min="60" max="16384" style="4" width="9.0" collapsed="true"/>
+    <col min="1" max="5" width="9" style="4" collapsed="1"/>
+    <col min="6" max="46" width="9" style="4" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="3.125" style="4" customWidth="1" collapsed="1"/>
+    <col min="48" max="58" width="9" style="4" collapsed="1"/>
+    <col min="59" max="59" width="10.875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="60" max="16384" width="9" style="4" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.25">
@@ -19917,7 +19954,7 @@
         <v>57</v>
       </c>
     </row>
-    <row ht="63.75" r="2" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>58</v>
       </c>
@@ -19991,7 +20028,7 @@
         <v>3</v>
       </c>
       <c r="BD2" s="4">
-        <f ref="BD2:BD65" si="0" t="shared">SUM(AW2,AY2,BA2,BC2)</f>
+        <f t="shared" ref="BD2:BD65" si="0">SUM(AW2,AY2,BA2,BC2)</f>
         <v>3</v>
       </c>
       <c r="BE2" s="53" t="s">
@@ -20004,7 +20041,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row ht="38.25" r="3" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>58</v>
       </c>
@@ -20078,7 +20115,7 @@
         <v>8</v>
       </c>
       <c r="BD3" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="BE3" s="53" t="s">
@@ -20091,7 +20128,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row ht="38.25" r="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>58</v>
       </c>
@@ -20159,7 +20196,7 @@
         <v>4</v>
       </c>
       <c r="BD4" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="BE4" s="53" t="s">
@@ -20172,7 +20209,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row ht="38.25" r="5" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>58</v>
       </c>
@@ -20246,7 +20283,7 @@
         <v>8</v>
       </c>
       <c r="BD5" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="BE5" s="53" t="s">
@@ -20259,7 +20296,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row ht="51" r="6" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:59" ht="51" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>58</v>
       </c>
@@ -20321,7 +20358,7 @@
         <v>24</v>
       </c>
       <c r="BD6" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE6" s="53" t="s">
@@ -20334,7 +20371,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row ht="38.25" r="7" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>58</v>
       </c>
@@ -20396,7 +20433,7 @@
         <v>24</v>
       </c>
       <c r="BD7" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE7" s="53" t="s">
@@ -20409,7 +20446,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row ht="25.5" r="8" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:59" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>58</v>
       </c>
@@ -20471,7 +20508,7 @@
         <v>24</v>
       </c>
       <c r="BD8" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE8" s="53" t="s">
@@ -20484,7 +20521,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row ht="63.75" r="9" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>58</v>
       </c>
@@ -20546,7 +20583,7 @@
         <v>2</v>
       </c>
       <c r="BD9" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="BE9" s="53" t="s">
@@ -20559,7 +20596,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row ht="89.25" r="10" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:59" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>58</v>
       </c>
@@ -20633,7 +20670,7 @@
         <v>24</v>
       </c>
       <c r="BD10" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE10" s="53" t="s">
@@ -20646,7 +20683,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row ht="25.5" r="11" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:59" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>58</v>
       </c>
@@ -20696,7 +20733,7 @@
         <v>2</v>
       </c>
       <c r="BD11" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="BE11" s="53" t="s">
@@ -20709,7 +20746,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row ht="63.75" r="12" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>58</v>
       </c>
@@ -20771,7 +20808,7 @@
         <v>2</v>
       </c>
       <c r="BD12" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="BE12" s="53" t="s">
@@ -20784,7 +20821,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row ht="63.75" r="13" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>58</v>
       </c>
@@ -20846,7 +20883,7 @@
         <v>48</v>
       </c>
       <c r="BD13" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="BE13" s="53" t="s">
@@ -20859,7 +20896,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row ht="51" r="14" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:59" ht="51" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
         <v>58</v>
       </c>
@@ -20921,7 +20958,7 @@
         <v>48</v>
       </c>
       <c r="BD14" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="BE14" s="53" t="s">
@@ -20934,7 +20971,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row ht="38.25" r="15" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
         <v>58</v>
       </c>
@@ -21002,7 +21039,7 @@
         <v>48</v>
       </c>
       <c r="BD15" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="BE15" s="53" t="s">
@@ -21015,7 +21052,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row ht="63.75" r="16" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
         <v>58</v>
       </c>
@@ -21065,7 +21102,7 @@
         <v>48</v>
       </c>
       <c r="BD16" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="BE16" s="53" t="s">
@@ -21078,7 +21115,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row ht="76.5" r="17" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
         <v>58</v>
       </c>
@@ -21128,7 +21165,7 @@
         <v>48</v>
       </c>
       <c r="BD17" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="BE17" s="53" t="s">
@@ -21141,7 +21178,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row ht="76.5" r="18" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>58</v>
       </c>
@@ -21215,7 +21252,7 @@
         <v>24</v>
       </c>
       <c r="BD18" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE18" s="53" t="s">
@@ -21226,7 +21263,7 @@
       </c>
       <c r="BG18" s="1"/>
     </row>
-    <row ht="51" r="19" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:59" ht="51" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
         <v>58</v>
       </c>
@@ -21276,7 +21313,7 @@
         <v>24</v>
       </c>
       <c r="BD19" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE19" s="53" t="s">
@@ -21369,7 +21406,7 @@
         <v>72</v>
       </c>
       <c r="BD20" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
       <c r="BE20" s="53" t="s">
@@ -21462,7 +21499,7 @@
         <v>24</v>
       </c>
       <c r="BD21" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE21" s="53" t="s">
@@ -21555,7 +21592,7 @@
         <v>24</v>
       </c>
       <c r="BD22" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE22" s="53" t="s">
@@ -21648,7 +21685,7 @@
         <v>48</v>
       </c>
       <c r="BD23" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="BE23" s="53" t="s">
@@ -21741,7 +21778,7 @@
         <v>24</v>
       </c>
       <c r="BD24" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE24" s="53" t="s">
@@ -21834,7 +21871,7 @@
         <v>24</v>
       </c>
       <c r="BD25" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE25" s="53" t="s">
@@ -21933,7 +21970,7 @@
         <v>24</v>
       </c>
       <c r="BD26" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE26" s="53" t="s">
@@ -21946,7 +21983,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row ht="76.5" r="27" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
         <v>58</v>
       </c>
@@ -22020,7 +22057,7 @@
         <v>24</v>
       </c>
       <c r="BD27" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE27" s="53" t="s">
@@ -22031,7 +22068,7 @@
       </c>
       <c r="BG27" s="1"/>
     </row>
-    <row ht="63.75" r="28" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>58</v>
       </c>
@@ -22081,7 +22118,7 @@
         <v>48</v>
       </c>
       <c r="BD28" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="BE28" s="53" t="s">
@@ -22094,7 +22131,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row ht="51" r="29" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:59" ht="51" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>58</v>
       </c>
@@ -22144,7 +22181,7 @@
         <v>48</v>
       </c>
       <c r="BD29" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="BE29" s="53" t="s">
@@ -22157,7 +22194,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row ht="63.75" r="30" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>58</v>
       </c>
@@ -22207,7 +22244,7 @@
         <v>48</v>
       </c>
       <c r="BD30" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="BE30" s="53" t="s">
@@ -22220,7 +22257,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row ht="51" r="31" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:59" ht="51" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>58</v>
       </c>
@@ -22270,7 +22307,7 @@
         <v>48</v>
       </c>
       <c r="BD31" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="BE31" s="53" t="s">
@@ -22283,7 +22320,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row ht="76.5" r="32" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>58</v>
       </c>
@@ -22333,7 +22370,7 @@
         <v>6</v>
       </c>
       <c r="BD32" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="BE32" s="53" t="s">
@@ -22346,7 +22383,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row ht="51" r="33" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:59" ht="51" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>58</v>
       </c>
@@ -22396,7 +22433,7 @@
         <v>6</v>
       </c>
       <c r="BD33" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="BE33" s="53" t="s">
@@ -22409,7 +22446,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row ht="63.75" r="34" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
         <v>58</v>
       </c>
@@ -22483,7 +22520,7 @@
         <v>24</v>
       </c>
       <c r="BD34" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE34" s="53" t="s">
@@ -22496,7 +22533,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row ht="76.5" r="35" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
         <v>58</v>
       </c>
@@ -22576,7 +22613,7 @@
         <v>48</v>
       </c>
       <c r="BD35" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="BE35" s="53" t="s">
@@ -22589,7 +22626,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row ht="51" r="36" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:59" ht="51" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
         <v>58</v>
       </c>
@@ -22657,7 +22694,7 @@
         <v>24</v>
       </c>
       <c r="BD36" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE36" s="53" t="s">
@@ -22670,7 +22707,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row ht="51" r="37" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:59" ht="51" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
         <v>58</v>
       </c>
@@ -22732,7 +22769,7 @@
         <v>24</v>
       </c>
       <c r="BD37" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE37" s="53" t="s">
@@ -22745,7 +22782,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row ht="25.5" r="38" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:59" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
         <v>58</v>
       </c>
@@ -22807,7 +22844,7 @@
         <v>48</v>
       </c>
       <c r="BD38" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="BE38" s="53" t="s">
@@ -22820,7 +22857,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row ht="25.5" r="39" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:59" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
         <v>58</v>
       </c>
@@ -22882,7 +22919,7 @@
         <v>24</v>
       </c>
       <c r="BD39" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE39" s="53" t="s">
@@ -22895,7 +22932,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row ht="38.25" r="40" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
         <v>58</v>
       </c>
@@ -22969,7 +23006,7 @@
         <v>72</v>
       </c>
       <c r="BD40" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
       <c r="BE40" s="53" t="s">
@@ -22982,7 +23019,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row ht="63.75" r="41" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
         <v>58</v>
       </c>
@@ -23056,7 +23093,7 @@
         <v>24</v>
       </c>
       <c r="BD41" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE41" s="53" t="s">
@@ -23069,7 +23106,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row ht="38.25" r="42" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
         <v>58</v>
       </c>
@@ -23119,7 +23156,7 @@
         <v>24</v>
       </c>
       <c r="BD42" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE42" s="53" t="s">
@@ -23132,7 +23169,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row ht="76.5" r="43" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
         <v>58</v>
       </c>
@@ -23188,7 +23225,7 @@
         <v>24</v>
       </c>
       <c r="BD43" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE43" s="53" t="s">
@@ -23201,7 +23238,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row ht="51" r="44" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:59" ht="51" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
         <v>58</v>
       </c>
@@ -23251,7 +23288,7 @@
         <v>24</v>
       </c>
       <c r="BD44" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE44" s="53" t="s">
@@ -23264,7 +23301,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row ht="76.5" r="45" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
         <v>58</v>
       </c>
@@ -23314,7 +23351,7 @@
         <v>24</v>
       </c>
       <c r="BD45" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE45" s="53" t="s">
@@ -23327,7 +23364,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row ht="102" r="46" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:59" ht="102" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
         <v>58</v>
       </c>
@@ -23375,7 +23412,7 @@
         <v>24</v>
       </c>
       <c r="BD46" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE46" s="53" t="s">
@@ -23388,7 +23425,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row ht="25.5" r="47" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:59" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
         <v>58</v>
       </c>
@@ -23450,7 +23487,7 @@
         <v>24</v>
       </c>
       <c r="BD47" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE47" s="53" t="s">
@@ -23463,7 +23500,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row ht="38.25" r="48" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
         <v>58</v>
       </c>
@@ -23513,7 +23550,7 @@
         <v>24</v>
       </c>
       <c r="BD48" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE48" s="53" t="s">
@@ -23526,7 +23563,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row ht="51" r="49" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:59" ht="51" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
         <v>58</v>
       </c>
@@ -23588,7 +23625,7 @@
         <v>24</v>
       </c>
       <c r="BD49" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE49" s="53" t="s">
@@ -23601,7 +23638,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row ht="63.75" r="50" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A50" s="22" t="s">
         <v>58</v>
       </c>
@@ -23663,7 +23700,7 @@
         <v>24</v>
       </c>
       <c r="BD50" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE50" s="53" t="s">
@@ -23676,7 +23713,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row ht="76.5" r="51" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A51" s="22" t="s">
         <v>58</v>
       </c>
@@ -23738,7 +23775,7 @@
         <v>24</v>
       </c>
       <c r="BD51" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE51" s="53" t="s">
@@ -23751,7 +23788,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row ht="63.75" r="52" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="s">
         <v>58</v>
       </c>
@@ -23813,7 +23850,7 @@
         <v>24</v>
       </c>
       <c r="BD52" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE52" s="53" t="s">
@@ -23826,7 +23863,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row ht="63.75" r="53" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
         <v>58</v>
       </c>
@@ -23876,7 +23913,7 @@
         <v>24</v>
       </c>
       <c r="BD53" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE53" s="53" t="s">
@@ -23889,7 +23926,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row ht="63.75" r="54" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A54" s="22" t="s">
         <v>58</v>
       </c>
@@ -23945,7 +23982,7 @@
         <v>24</v>
       </c>
       <c r="BD54" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE54" s="53" t="s">
@@ -23958,7 +23995,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row ht="76.5" r="55" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A55" s="22" t="s">
         <v>58</v>
       </c>
@@ -24032,7 +24069,7 @@
         <v>12</v>
       </c>
       <c r="BD55" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="BE55" s="53" t="s">
@@ -24045,7 +24082,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row ht="89.25" r="56" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:59" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A56" s="22" t="s">
         <v>58</v>
       </c>
@@ -24095,7 +24132,7 @@
         <v>24</v>
       </c>
       <c r="BD56" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE56" s="53" t="s">
@@ -24108,7 +24145,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row ht="51" r="57" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:59" ht="51" x14ac:dyDescent="0.25">
       <c r="A57" s="22" t="s">
         <v>58</v>
       </c>
@@ -24158,7 +24195,7 @@
         <v>24</v>
       </c>
       <c r="BD57" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE57" s="53" t="s">
@@ -24171,7 +24208,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row ht="51" r="58" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:59" ht="51" x14ac:dyDescent="0.25">
       <c r="A58" s="22" t="s">
         <v>58</v>
       </c>
@@ -24233,7 +24270,7 @@
         <v>48</v>
       </c>
       <c r="BD58" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="BE58" s="53" t="s">
@@ -24246,7 +24283,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row ht="63.75" r="59" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A59" s="22" t="s">
         <v>58</v>
       </c>
@@ -24314,7 +24351,7 @@
         <v>24</v>
       </c>
       <c r="BD59" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE59" s="53" t="s">
@@ -24327,7 +24364,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row ht="25.5" r="60" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:59" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A60" s="22" t="s">
         <v>58</v>
       </c>
@@ -24395,7 +24432,7 @@
         <v>4</v>
       </c>
       <c r="BD60" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="BE60" s="53" t="s">
@@ -24408,7 +24445,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row ht="38.25" r="61" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A61" s="22" t="s">
         <v>58</v>
       </c>
@@ -24458,7 +24495,7 @@
         <v>24</v>
       </c>
       <c r="BD61" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE61" s="53" t="s">
@@ -24471,7 +24508,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row ht="38.25" r="62" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A62" s="22" t="s">
         <v>58</v>
       </c>
@@ -24521,7 +24558,7 @@
         <v>24</v>
       </c>
       <c r="BD62" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE62" s="53" t="s">
@@ -24534,7 +24571,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row ht="38.25" r="63" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A63" s="22" t="s">
         <v>58</v>
       </c>
@@ -24584,7 +24621,7 @@
         <v>24</v>
       </c>
       <c r="BD63" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE63" s="53" t="s">
@@ -24597,7 +24634,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row ht="38.25" r="64" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A64" s="22" t="s">
         <v>58</v>
       </c>
@@ -24647,7 +24684,7 @@
         <v>24</v>
       </c>
       <c r="BD64" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE64" s="53" t="s">
@@ -24660,7 +24697,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row ht="51" r="65" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:59" ht="51" x14ac:dyDescent="0.25">
       <c r="A65" s="23" t="s">
         <v>58</v>
       </c>
@@ -24722,7 +24759,7 @@
         <v>48</v>
       </c>
       <c r="BD65" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="BE65" s="53" t="s">
@@ -24735,7 +24772,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row ht="38.25" r="66" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A66" s="23" t="s">
         <v>58</v>
       </c>
@@ -24791,7 +24828,7 @@
         <v>24</v>
       </c>
       <c r="BD66" s="4">
-        <f ref="BD66:BD129" si="1" t="shared">SUM(AW66,AY66,BA66,BC66)</f>
+        <f t="shared" ref="BD66:BD129" si="1">SUM(AW66,AY66,BA66,BC66)</f>
         <v>24</v>
       </c>
       <c r="BE66" s="53" t="s">
@@ -24804,7 +24841,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row ht="38.25" r="67" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A67" s="23" t="s">
         <v>58</v>
       </c>
@@ -24866,7 +24903,7 @@
         <v>48</v>
       </c>
       <c r="BD67" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="BE67" s="53" t="s">
@@ -24879,7 +24916,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row ht="51" r="68" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:59" ht="51" x14ac:dyDescent="0.25">
       <c r="A68" s="23" t="s">
         <v>58</v>
       </c>
@@ -24929,7 +24966,7 @@
         <v>24</v>
       </c>
       <c r="BD68" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="BE68" s="53" t="s">
@@ -24942,7 +24979,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row ht="51" r="69" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:59" ht="51" x14ac:dyDescent="0.25">
       <c r="A69" s="23" t="s">
         <v>58</v>
       </c>
@@ -25004,7 +25041,7 @@
         <v>24</v>
       </c>
       <c r="BD69" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="BE69" s="53" t="s">
@@ -25017,7 +25054,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row ht="51" r="70" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:59" ht="51" x14ac:dyDescent="0.25">
       <c r="A70" s="23" t="s">
         <v>58</v>
       </c>
@@ -25079,7 +25116,7 @@
         <v>24</v>
       </c>
       <c r="BD70" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="BE70" s="53" t="s">
@@ -25092,7 +25129,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row ht="51" r="71" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:59" ht="51" x14ac:dyDescent="0.25">
       <c r="A71" s="23" t="s">
         <v>58</v>
       </c>
@@ -25142,7 +25179,7 @@
         <v>24</v>
       </c>
       <c r="BD71" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="BE71" s="53" t="s">
@@ -25155,7 +25192,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row ht="51" r="72" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:59" ht="51" x14ac:dyDescent="0.25">
       <c r="A72" s="23" t="s">
         <v>58</v>
       </c>
@@ -25211,7 +25248,7 @@
         <v>48</v>
       </c>
       <c r="BD72" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="BE72" s="53" t="s">
@@ -25224,7 +25261,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row ht="63.75" r="73" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A73" s="23" t="s">
         <v>58</v>
       </c>
@@ -25280,7 +25317,7 @@
         <v>48</v>
       </c>
       <c r="BD73" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="BE73" s="53" t="s">
@@ -25293,7 +25330,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row ht="63.75" r="74" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A74" s="22" t="s">
         <v>58</v>
       </c>
@@ -25355,7 +25392,7 @@
         <v>48</v>
       </c>
       <c r="BD74" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="BE74" s="53" t="s">
@@ -25368,7 +25405,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row ht="63.75" r="75" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A75" s="22" t="s">
         <v>58</v>
       </c>
@@ -25430,7 +25467,7 @@
         <v>24</v>
       </c>
       <c r="BD75" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="BE75" s="53" t="s">
@@ -25443,7 +25480,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row ht="51" r="76" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:59" ht="51" x14ac:dyDescent="0.25">
       <c r="A76" s="22" t="s">
         <v>58</v>
       </c>
@@ -25493,7 +25530,7 @@
         <v>48</v>
       </c>
       <c r="BD76" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="BE76" s="53" t="s">
@@ -25506,7 +25543,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row ht="25.5" r="77" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:59" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A77" s="22" t="s">
         <v>58</v>
       </c>
@@ -25556,7 +25593,7 @@
         <v>48</v>
       </c>
       <c r="BD77" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="BE77" s="53" t="s">
@@ -25569,7 +25606,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row ht="51" r="78" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:59" ht="51" x14ac:dyDescent="0.25">
       <c r="A78" s="22" t="s">
         <v>58</v>
       </c>
@@ -25619,7 +25656,7 @@
         <v>48</v>
       </c>
       <c r="BD78" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="BE78" s="53" t="s">
@@ -25632,7 +25669,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row ht="51" r="79" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:59" ht="51" x14ac:dyDescent="0.25">
       <c r="A79" s="23" t="s">
         <v>58</v>
       </c>
@@ -25694,7 +25731,7 @@
         <v>48</v>
       </c>
       <c r="BD79" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="BE79" s="53" t="s">
@@ -25707,7 +25744,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row ht="51" r="80" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:59" ht="51" x14ac:dyDescent="0.25">
       <c r="A80" s="22" t="s">
         <v>58</v>
       </c>
@@ -25757,7 +25794,7 @@
         <v>72</v>
       </c>
       <c r="BD80" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="BE80" s="55" t="s">
@@ -25770,7 +25807,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row ht="38.25" r="81" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A81" s="22" t="s">
         <v>58</v>
       </c>
@@ -25826,7 +25863,7 @@
         <v>24</v>
       </c>
       <c r="BD81" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="BE81" s="4" t="s">
@@ -25925,7 +25962,7 @@
         <v>72</v>
       </c>
       <c r="BD82" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="BE82" s="53" t="s">
@@ -26024,7 +26061,7 @@
         <v>72</v>
       </c>
       <c r="BD83" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="BE83" s="53" t="s">
@@ -26037,7 +26074,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row ht="38.25" r="84" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A84" s="22" t="s">
         <v>58</v>
       </c>
@@ -26087,7 +26124,7 @@
         <v>72</v>
       </c>
       <c r="BD84" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="BE84" s="53" t="s">
@@ -26180,7 +26217,7 @@
         <v>72</v>
       </c>
       <c r="BD85" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="BE85" s="53" t="s">
@@ -26273,7 +26310,7 @@
         <v>72</v>
       </c>
       <c r="BD86" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="BE86" s="53" t="s">
@@ -26372,7 +26409,7 @@
         <v>24</v>
       </c>
       <c r="BD87" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="BE87" s="53" t="s">
@@ -26465,7 +26502,7 @@
         <v>72</v>
       </c>
       <c r="BD88" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="BE88" s="53" t="s">
@@ -26564,7 +26601,7 @@
         <v>72</v>
       </c>
       <c r="BD89" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="BE89" s="53" t="s">
@@ -26577,7 +26614,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row ht="38.25" r="90" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A90" s="22" t="s">
         <v>58</v>
       </c>
@@ -26657,7 +26694,7 @@
         <v>48</v>
       </c>
       <c r="BD90" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="BE90" s="53" t="s">
@@ -26670,7 +26707,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row ht="38.25" r="91" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A91" s="22" t="s">
         <v>58</v>
       </c>
@@ -26732,7 +26769,7 @@
         <v>48</v>
       </c>
       <c r="BD91" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="BE91" s="53" t="s">
@@ -26807,7 +26844,7 @@
         <v>48</v>
       </c>
       <c r="BD92" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="BE92" s="55" t="s">
@@ -26882,7 +26919,7 @@
         <v>48</v>
       </c>
       <c r="BD93" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="BE93" s="55" t="s">
@@ -26895,7 +26932,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row ht="51" r="94" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:59" ht="51" x14ac:dyDescent="0.25">
       <c r="A94" s="22" t="s">
         <v>58</v>
       </c>
@@ -26945,7 +26982,7 @@
         <v>2</v>
       </c>
       <c r="BD94" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="BE94" s="53" t="s">
@@ -26958,7 +26995,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row ht="51" r="95" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:59" ht="51" x14ac:dyDescent="0.25">
       <c r="A95" s="22" t="s">
         <v>58</v>
       </c>
@@ -27008,7 +27045,7 @@
         <v>2</v>
       </c>
       <c r="BD95" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="BE95" s="53" t="s">
@@ -27021,7 +27058,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row ht="51" r="96" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:59" ht="51" x14ac:dyDescent="0.25">
       <c r="A96" s="22" t="s">
         <v>58</v>
       </c>
@@ -27071,7 +27108,7 @@
         <v>2</v>
       </c>
       <c r="BD96" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="BE96" s="53" t="s">
@@ -27084,7 +27121,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row ht="51" r="97" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:59" ht="51" x14ac:dyDescent="0.25">
       <c r="A97" s="22" t="s">
         <v>58</v>
       </c>
@@ -27134,7 +27171,7 @@
         <v>2</v>
       </c>
       <c r="BD97" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="BE97" s="53" t="s">
@@ -27147,7 +27184,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row ht="51" r="98" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:59" ht="51" x14ac:dyDescent="0.25">
       <c r="A98" s="22" t="s">
         <v>58</v>
       </c>
@@ -27197,7 +27234,7 @@
         <v>24</v>
       </c>
       <c r="BD98" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="BE98" s="53" t="s">
@@ -27210,7 +27247,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row ht="102" r="99" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:59" ht="102" x14ac:dyDescent="0.25">
       <c r="A99" s="22" t="s">
         <v>58</v>
       </c>
@@ -27260,7 +27297,7 @@
         <v>24</v>
       </c>
       <c r="BD99" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="BE99" s="53" t="s">
@@ -27273,7 +27310,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row ht="38.25" r="100" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A100" s="23" t="s">
         <v>58</v>
       </c>
@@ -27335,7 +27372,7 @@
         <v>48</v>
       </c>
       <c r="BD100" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="BE100" s="53" t="s">
@@ -27348,7 +27385,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row ht="38.25" r="101" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A101" s="23" t="s">
         <v>58</v>
       </c>
@@ -27410,7 +27447,7 @@
         <v>48</v>
       </c>
       <c r="BD101" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="BE101" s="53" t="s">
@@ -27423,7 +27460,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row ht="63.75" r="102" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A102" s="23" t="s">
         <v>58</v>
       </c>
@@ -27485,7 +27522,7 @@
         <v>48</v>
       </c>
       <c r="BD102" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="BE102" s="53" t="s">
@@ -27498,7 +27535,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row ht="38.25" r="103" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A103" s="23" t="s">
         <v>248</v>
       </c>
@@ -27572,7 +27609,7 @@
         <v>24</v>
       </c>
       <c r="BD103" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="BE103" s="53" t="s">
@@ -27653,7 +27690,7 @@
         <v>4</v>
       </c>
       <c r="BD104" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="BE104" s="53" t="s">
@@ -27666,7 +27703,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row ht="51" r="105" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:59" ht="51" x14ac:dyDescent="0.25">
       <c r="A105" s="22" t="s">
         <v>248</v>
       </c>
@@ -27728,7 +27765,7 @@
         <v>24</v>
       </c>
       <c r="BD105" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="BE105" s="53" t="s">
@@ -27741,7 +27778,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row ht="51" r="106" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:59" ht="51" x14ac:dyDescent="0.25">
       <c r="A106" s="22" t="s">
         <v>248</v>
       </c>
@@ -27803,7 +27840,7 @@
         <v>24</v>
       </c>
       <c r="BD106" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="BE106" s="53" t="s">
@@ -27816,7 +27853,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row ht="51" r="107" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:59" ht="51" x14ac:dyDescent="0.25">
       <c r="A107" s="22" t="s">
         <v>248</v>
       </c>
@@ -27878,7 +27915,7 @@
         <v>24</v>
       </c>
       <c r="BD107" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="BE107" s="53" t="s">
@@ -27891,7 +27928,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row ht="51" r="108" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:59" ht="51" x14ac:dyDescent="0.25">
       <c r="A108" s="22" t="s">
         <v>248</v>
       </c>
@@ -27953,7 +27990,7 @@
         <v>24</v>
       </c>
       <c r="BD108" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="BE108" s="53" t="s">
@@ -27966,7 +28003,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row ht="51" r="109" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:59" ht="51" x14ac:dyDescent="0.25">
       <c r="A109" s="22" t="s">
         <v>248</v>
       </c>
@@ -28028,7 +28065,7 @@
         <v>24</v>
       </c>
       <c r="BD109" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="BE109" s="53" t="s">
@@ -28041,7 +28078,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row ht="63.75" r="110" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A110" s="22" t="s">
         <v>248</v>
       </c>
@@ -28103,7 +28140,7 @@
         <v>24</v>
       </c>
       <c r="BD110" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="BE110" s="53" t="s">
@@ -28116,7 +28153,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row ht="63.75" r="111" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A111" s="22" t="s">
         <v>248</v>
       </c>
@@ -28184,7 +28221,7 @@
         <v>24</v>
       </c>
       <c r="BD111" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="BE111" s="53" t="s">
@@ -28197,7 +28234,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row ht="38.25" r="112" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A112" s="22" t="s">
         <v>248</v>
       </c>
@@ -28277,7 +28314,7 @@
         <v>8</v>
       </c>
       <c r="BD112" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="BE112" s="53" t="s">
@@ -28290,7 +28327,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row ht="38.25" r="113" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A113" s="22" t="s">
         <v>248</v>
       </c>
@@ -28364,7 +28401,7 @@
         <v>8</v>
       </c>
       <c r="BD113" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="BE113" s="53" t="s">
@@ -28377,7 +28414,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row ht="38.25" r="114" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A114" s="22" t="s">
         <v>248</v>
       </c>
@@ -28433,7 +28470,7 @@
         <v>4</v>
       </c>
       <c r="BD114" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="BE114" s="53" t="s">
@@ -28446,7 +28483,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row ht="38.25" r="115" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A115" s="22" t="s">
         <v>248</v>
       </c>
@@ -28526,7 +28563,7 @@
         <v>720</v>
       </c>
       <c r="BD115" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>720</v>
       </c>
       <c r="BE115" s="53" t="s">
@@ -28539,7 +28576,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row ht="51" r="116" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:59" ht="51" x14ac:dyDescent="0.25">
       <c r="A116" s="22" t="s">
         <v>248</v>
       </c>
@@ -28619,7 +28656,7 @@
         <v>720</v>
       </c>
       <c r="BD116" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>720</v>
       </c>
       <c r="BE116" s="53" t="s">
@@ -28632,7 +28669,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row ht="51" r="117" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:59" ht="51" x14ac:dyDescent="0.25">
       <c r="A117" s="22" t="s">
         <v>248</v>
       </c>
@@ -28712,7 +28749,7 @@
         <v>8</v>
       </c>
       <c r="BD117" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="BE117" s="53" t="s">
@@ -28725,7 +28762,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row ht="89.25" r="118" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:59" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A118" s="22" t="s">
         <v>248</v>
       </c>
@@ -28775,7 +28812,7 @@
         <v>24</v>
       </c>
       <c r="BD118" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="BE118" s="53" t="s">
@@ -28788,7 +28825,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row ht="76.5" r="119" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A119" s="22" t="s">
         <v>248</v>
       </c>
@@ -28856,7 +28893,7 @@
         <v>24</v>
       </c>
       <c r="BD119" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="BE119" s="53" t="s">
@@ -28869,7 +28906,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row ht="89.25" r="120" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:59" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A120" s="22" t="s">
         <v>248</v>
       </c>
@@ -28943,7 +28980,7 @@
         <v>24</v>
       </c>
       <c r="BD120" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="BE120" s="53" t="s">
@@ -28956,7 +28993,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row ht="63.75" r="121" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A121" s="22" t="s">
         <v>248</v>
       </c>
@@ -29030,7 +29067,7 @@
         <v>48</v>
       </c>
       <c r="BD121" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="BE121" s="53" t="s">
@@ -29043,7 +29080,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row ht="51" r="122" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:59" ht="51" x14ac:dyDescent="0.25">
       <c r="A122" s="22" t="s">
         <v>248</v>
       </c>
@@ -29093,7 +29130,7 @@
         <v>24</v>
       </c>
       <c r="BD122" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="BE122" s="53" t="s">
@@ -29106,7 +29143,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row ht="38.25" r="123" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A123" s="22" t="s">
         <v>248</v>
       </c>
@@ -29156,7 +29193,7 @@
         <v>24</v>
       </c>
       <c r="BD123" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="BE123" s="53" t="s">
@@ -29169,7 +29206,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row ht="127.5" r="124" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:59" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A124" s="22" t="s">
         <v>248</v>
       </c>
@@ -29219,7 +29256,7 @@
         <v>24</v>
       </c>
       <c r="BD124" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="BE124" s="53" t="s">
@@ -29232,7 +29269,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row ht="51" r="125" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:59" ht="51" x14ac:dyDescent="0.25">
       <c r="A125" s="22" t="s">
         <v>248</v>
       </c>
@@ -29306,7 +29343,7 @@
         <v>24</v>
       </c>
       <c r="BD125" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="BE125" s="53" t="s">
@@ -29319,7 +29356,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row ht="38.25" r="126" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A126" s="22" t="s">
         <v>248</v>
       </c>
@@ -29393,7 +29430,7 @@
         <v>720</v>
       </c>
       <c r="BD126" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>720</v>
       </c>
       <c r="BE126" s="56" t="s">
@@ -29406,7 +29443,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row ht="63.75" r="127" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A127" s="22" t="s">
         <v>248</v>
       </c>
@@ -29468,7 +29505,7 @@
         <v>2</v>
       </c>
       <c r="BD127" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="BE127" s="53" t="s">
@@ -29479,7 +29516,7 @@
       </c>
       <c r="BG127" s="1"/>
     </row>
-    <row ht="63.75" r="128" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A128" s="22" t="s">
         <v>248</v>
       </c>
@@ -29553,7 +29590,7 @@
         <v>4</v>
       </c>
       <c r="BD128" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="BE128" s="53" t="s">
@@ -29564,7 +29601,7 @@
       </c>
       <c r="BG128" s="1"/>
     </row>
-    <row ht="89.25" r="129" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:59" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A129" s="22" t="s">
         <v>248</v>
       </c>
@@ -29638,7 +29675,7 @@
         <v>3</v>
       </c>
       <c r="BD129" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="BE129" s="53" t="s">
@@ -29651,7 +29688,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row ht="51" r="130" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:59" ht="51" x14ac:dyDescent="0.25">
       <c r="A130" s="22" t="s">
         <v>248</v>
       </c>
@@ -29713,7 +29750,7 @@
         <v>24</v>
       </c>
       <c r="BD130" s="4">
-        <f ref="BD130" si="2" t="shared">SUM(AW130,AY130,BA130,BC130)</f>
+        <f t="shared" ref="BD130" si="2">SUM(AW130,AY130,BA130,BC130)</f>
         <v>24</v>
       </c>
       <c r="BE130" s="53" t="s">
@@ -29733,35 +29770,35 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="E111:E112">
-    <cfRule dxfId="11" priority="4" type="duplicateValues"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E113:E117">
-    <cfRule dxfId="10" priority="3" type="duplicateValues"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118:E124">
-    <cfRule dxfId="9" priority="2" type="duplicateValues"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E125:E130">
-    <cfRule dxfId="8" priority="1" type="duplicateValues"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG86"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="BC6" sqref="BC6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="20" customWidth="true" hidden="true" width="0.0" collapsed="true"/>
-    <col min="21" max="26" customWidth="true" hidden="true" style="4" width="0.0" collapsed="true"/>
-    <col min="27" max="47" customWidth="true" hidden="true" width="0.0" collapsed="true"/>
-    <col min="59" max="59" bestFit="true" customWidth="true" width="10.875" collapsed="true"/>
+    <col min="6" max="20" width="0" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="26" width="0" style="4" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="47" width="0" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="59" max="59" width="10.875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.25">
@@ -29943,7 +29980,7 @@
         <v>57</v>
       </c>
     </row>
-    <row customFormat="1" ht="102" r="2" s="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:59" s="4" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>58</v>
       </c>
@@ -29991,7 +30028,7 @@
         <v>24</v>
       </c>
       <c r="BD2" s="4">
-        <f ref="BD2:BD33" si="0" t="shared">SUM(AW2,AY2,BA2,BC2)</f>
+        <f t="shared" ref="BD2:BD33" si="0">SUM(AW2,AY2,BA2,BC2)</f>
         <v>24</v>
       </c>
       <c r="BE2" s="53" t="s">
@@ -30004,7 +30041,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row customFormat="1" ht="25.5" r="3" s="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:59" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>58</v>
       </c>
@@ -30066,7 +30103,7 @@
         <v>24</v>
       </c>
       <c r="BD3" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE3" s="53" t="s">
@@ -30079,7 +30116,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row customFormat="1" ht="38.25" r="4" s="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:59" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>58</v>
       </c>
@@ -30129,7 +30166,7 @@
         <v>24</v>
       </c>
       <c r="BD4" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE4" s="53" t="s">
@@ -30140,7 +30177,7 @@
       </c>
       <c r="BG4" s="1"/>
     </row>
-    <row customFormat="1" ht="51" r="5" s="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>58</v>
       </c>
@@ -30202,7 +30239,7 @@
         <v>24</v>
       </c>
       <c r="BD5" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE5" s="53" t="s">
@@ -30215,7 +30252,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row customFormat="1" ht="63.75" r="6" s="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:59" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>58</v>
       </c>
@@ -30277,7 +30314,7 @@
         <v>24</v>
       </c>
       <c r="BD6" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE6" s="53" t="s">
@@ -30290,7 +30327,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row customFormat="1" ht="76.5" r="7" s="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:59" s="4" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>58</v>
       </c>
@@ -30352,7 +30389,7 @@
         <v>24</v>
       </c>
       <c r="BD7" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE7" s="53" t="s">
@@ -30365,7 +30402,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row customFormat="1" ht="63.75" r="8" s="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:59" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>58</v>
       </c>
@@ -30427,7 +30464,7 @@
         <v>24</v>
       </c>
       <c r="BD8" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE8" s="53" t="s">
@@ -30440,7 +30477,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row customFormat="1" ht="63.75" r="9" s="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:59" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>58</v>
       </c>
@@ -30490,7 +30527,7 @@
         <v>24</v>
       </c>
       <c r="BD9" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE9" s="53" t="s">
@@ -30503,7 +30540,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row customFormat="1" ht="63.75" r="10" s="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:59" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>58</v>
       </c>
@@ -30559,7 +30596,7 @@
         <v>24</v>
       </c>
       <c r="BD10" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE10" s="53" t="s">
@@ -30572,7 +30609,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row customFormat="1" ht="76.5" r="11" s="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:59" s="4" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>58</v>
       </c>
@@ -30646,7 +30683,7 @@
         <v>12</v>
       </c>
       <c r="BD11" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="BE11" s="53" t="s">
@@ -30659,7 +30696,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row customFormat="1" ht="89.25" r="12" s="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:59" s="4" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>58</v>
       </c>
@@ -30709,7 +30746,7 @@
         <v>24</v>
       </c>
       <c r="BD12" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE12" s="53" t="s">
@@ -30722,7 +30759,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row customFormat="1" ht="51" r="13" s="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>58</v>
       </c>
@@ -30772,7 +30809,7 @@
         <v>24</v>
       </c>
       <c r="BD13" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE13" s="53" t="s">
@@ -30785,7 +30822,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row customFormat="1" ht="51" r="14" s="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>58</v>
       </c>
@@ -30847,7 +30884,7 @@
         <v>48</v>
       </c>
       <c r="BD14" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="BE14" s="53" t="s">
@@ -30860,7 +30897,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row customFormat="1" ht="63.75" r="15" s="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:59" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>58</v>
       </c>
@@ -30928,7 +30965,7 @@
         <v>24</v>
       </c>
       <c r="BD15" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE15" s="53" t="s">
@@ -30941,7 +30978,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row customFormat="1" ht="25.5" r="16" s="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:59" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>58</v>
       </c>
@@ -31009,7 +31046,7 @@
         <v>4</v>
       </c>
       <c r="BD16" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="BE16" s="53" t="s">
@@ -31022,7 +31059,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row customFormat="1" ht="38.25" r="17" s="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:59" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>58</v>
       </c>
@@ -31072,7 +31109,7 @@
         <v>24</v>
       </c>
       <c r="BD17" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE17" s="53" t="s">
@@ -31085,7 +31122,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row customFormat="1" ht="38.25" r="18" s="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:59" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>58</v>
       </c>
@@ -31135,7 +31172,7 @@
         <v>24</v>
       </c>
       <c r="BD18" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE18" s="53" t="s">
@@ -31148,7 +31185,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row customFormat="1" ht="38.25" r="19" s="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:59" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>58</v>
       </c>
@@ -31198,7 +31235,7 @@
         <v>24</v>
       </c>
       <c r="BD19" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE19" s="53" t="s">
@@ -31211,7 +31248,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row customFormat="1" ht="38.25" r="20" s="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:59" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>58</v>
       </c>
@@ -31261,7 +31298,7 @@
         <v>24</v>
       </c>
       <c r="BD20" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE20" s="53" t="s">
@@ -31274,7 +31311,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row customFormat="1" ht="51" r="21" s="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
         <v>58</v>
       </c>
@@ -31336,7 +31373,7 @@
         <v>48</v>
       </c>
       <c r="BD21" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="BE21" s="53" t="s">
@@ -31349,7 +31386,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row customFormat="1" ht="38.25" r="22" s="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:59" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
         <v>58</v>
       </c>
@@ -31405,7 +31442,7 @@
         <v>24</v>
       </c>
       <c r="BD22" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE22" s="53" t="s">
@@ -31418,7 +31455,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row customFormat="1" ht="38.25" r="23" s="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:59" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
         <v>58</v>
       </c>
@@ -31480,7 +31517,7 @@
         <v>48</v>
       </c>
       <c r="BD23" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="BE23" s="53" t="s">
@@ -31493,7 +31530,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row customFormat="1" ht="51" r="24" s="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
         <v>58</v>
       </c>
@@ -31543,7 +31580,7 @@
         <v>24</v>
       </c>
       <c r="BD24" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE24" s="53" t="s">
@@ -31556,7 +31593,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row customFormat="1" ht="51" r="25" s="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
         <v>58</v>
       </c>
@@ -31618,7 +31655,7 @@
         <v>24</v>
       </c>
       <c r="BD25" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE25" s="53" t="s">
@@ -31631,7 +31668,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row customFormat="1" ht="51" r="26" s="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
         <v>58</v>
       </c>
@@ -31693,7 +31730,7 @@
         <v>24</v>
       </c>
       <c r="BD26" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE26" s="53" t="s">
@@ -31706,7 +31743,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row customFormat="1" ht="51" r="27" s="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
         <v>58</v>
       </c>
@@ -31756,7 +31793,7 @@
         <v>24</v>
       </c>
       <c r="BD27" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE27" s="53" t="s">
@@ -31769,7 +31806,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row customFormat="1" ht="51" r="28" s="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
         <v>58</v>
       </c>
@@ -31825,7 +31862,7 @@
         <v>48</v>
       </c>
       <c r="BD28" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="BE28" s="53" t="s">
@@ -31838,7 +31875,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row customFormat="1" ht="63.75" r="29" s="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:59" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
         <v>58</v>
       </c>
@@ -31894,7 +31931,7 @@
         <v>48</v>
       </c>
       <c r="BD29" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="BE29" s="53" t="s">
@@ -31907,7 +31944,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row customFormat="1" ht="63.75" r="30" s="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:59" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
         <v>58</v>
       </c>
@@ -31969,7 +32006,7 @@
         <v>48</v>
       </c>
       <c r="BD30" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="BE30" s="53" t="s">
@@ -31982,7 +32019,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row customFormat="1" ht="63.75" r="31" s="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:59" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
         <v>58</v>
       </c>
@@ -32044,7 +32081,7 @@
         <v>24</v>
       </c>
       <c r="BD31" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="BE31" s="53" t="s">
@@ -32057,7 +32094,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row customFormat="1" ht="51" r="32" s="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
         <v>58</v>
       </c>
@@ -32107,7 +32144,7 @@
         <v>48</v>
       </c>
       <c r="BD32" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="BE32" s="53" t="s">
@@ -32120,7 +32157,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row customFormat="1" ht="38.25" r="33" s="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:59" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
         <v>58</v>
       </c>
@@ -32170,7 +32207,7 @@
         <v>48</v>
       </c>
       <c r="BD33" s="4">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="BE33" s="53" t="s">
@@ -32183,7 +32220,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row customFormat="1" ht="51" r="34" s="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
         <v>58</v>
       </c>
@@ -32233,7 +32270,7 @@
         <v>48</v>
       </c>
       <c r="BD34" s="4">
-        <f ref="BD34:BD65" si="1" t="shared">SUM(AW34,AY34,BA34,BC34)</f>
+        <f t="shared" ref="BD34:BD65" si="1">SUM(AW34,AY34,BA34,BC34)</f>
         <v>48</v>
       </c>
       <c r="BE34" s="53" t="s">
@@ -32246,7 +32283,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row customFormat="1" ht="51" r="35" s="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="s">
         <v>58</v>
       </c>
@@ -32308,7 +32345,7 @@
         <v>48</v>
       </c>
       <c r="BD35" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="BE35" s="53" t="s">
@@ -32321,7 +32358,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row customFormat="1" ht="51" r="36" s="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
         <v>58</v>
       </c>
@@ -32371,7 +32408,7 @@
         <v>72</v>
       </c>
       <c r="BD36" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="BE36" s="55" t="s">
@@ -32384,7 +32421,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row customFormat="1" ht="38.25" r="37" s="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:59" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
         <v>58</v>
       </c>
@@ -32440,7 +32477,7 @@
         <v>24</v>
       </c>
       <c r="BD37" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="BE37" s="4" t="s">
@@ -32453,7 +32490,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row customFormat="1" r="38" s="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>222</v>
       </c>
@@ -32539,7 +32576,7 @@
         <v>72</v>
       </c>
       <c r="BD38" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="BE38" s="53" t="s">
@@ -32552,7 +32589,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row customFormat="1" r="39" s="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>222</v>
       </c>
@@ -32638,7 +32675,7 @@
         <v>72</v>
       </c>
       <c r="BD39" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="BE39" s="53" t="s">
@@ -32651,7 +32688,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row customFormat="1" ht="38.25" r="40" s="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:59" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
         <v>58</v>
       </c>
@@ -32701,7 +32738,7 @@
         <v>72</v>
       </c>
       <c r="BD40" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="BE40" s="53" t="s">
@@ -32714,7 +32751,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row customFormat="1" r="41" s="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>222</v>
       </c>
@@ -32794,7 +32831,7 @@
         <v>72</v>
       </c>
       <c r="BD41" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="BE41" s="53" t="s">
@@ -32807,7 +32844,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row customFormat="1" r="42" s="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>222</v>
       </c>
@@ -32887,7 +32924,7 @@
         <v>72</v>
       </c>
       <c r="BD42" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="BE42" s="53" t="s">
@@ -32900,7 +32937,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row customFormat="1" r="43" s="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>222</v>
       </c>
@@ -32986,7 +33023,7 @@
         <v>24</v>
       </c>
       <c r="BD43" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="BE43" s="53" t="s">
@@ -32999,7 +33036,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row customFormat="1" r="44" s="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>222</v>
       </c>
@@ -33079,7 +33116,7 @@
         <v>72</v>
       </c>
       <c r="BD44" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="BE44" s="53" t="s">
@@ -33092,7 +33129,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row customFormat="1" r="45" s="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>222</v>
       </c>
@@ -33178,7 +33215,7 @@
         <v>72</v>
       </c>
       <c r="BD45" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="BE45" s="53" t="s">
@@ -33191,7 +33228,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row customFormat="1" ht="38.25" r="46" s="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:59" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
         <v>58</v>
       </c>
@@ -33271,7 +33308,7 @@
         <v>48</v>
       </c>
       <c r="BD46" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="BE46" s="53" t="s">
@@ -33284,7 +33321,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row customFormat="1" ht="38.25" r="47" s="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:59" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
         <v>58</v>
       </c>
@@ -33346,7 +33383,7 @@
         <v>48</v>
       </c>
       <c r="BD47" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="BE47" s="53" t="s">
@@ -33359,7 +33396,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row customFormat="1" r="48" s="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
         <v>58</v>
       </c>
@@ -33421,7 +33458,7 @@
         <v>48</v>
       </c>
       <c r="BD48" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="BE48" s="55" t="s">
@@ -33434,7 +33471,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row customFormat="1" r="49" s="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
         <v>58</v>
       </c>
@@ -33496,7 +33533,7 @@
         <v>48</v>
       </c>
       <c r="BD49" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="BE49" s="55" t="s">
@@ -33509,7 +33546,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row customFormat="1" ht="51" r="50" s="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A50" s="22" t="s">
         <v>58</v>
       </c>
@@ -33559,7 +33596,7 @@
         <v>2</v>
       </c>
       <c r="BD50" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="BE50" s="53" t="s">
@@ -33572,7 +33609,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row customFormat="1" ht="51" r="51" s="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A51" s="22" t="s">
         <v>58</v>
       </c>
@@ -33622,7 +33659,7 @@
         <v>2</v>
       </c>
       <c r="BD51" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="BE51" s="53" t="s">
@@ -33635,7 +33672,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row customFormat="1" ht="51" r="52" s="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="s">
         <v>58</v>
       </c>
@@ -33685,7 +33722,7 @@
         <v>2</v>
       </c>
       <c r="BD52" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="BE52" s="53" t="s">
@@ -33698,7 +33735,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row customFormat="1" ht="51" r="53" s="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
         <v>58</v>
       </c>
@@ -33748,7 +33785,7 @@
         <v>2</v>
       </c>
       <c r="BD53" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="BE53" s="53" t="s">
@@ -33761,7 +33798,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row customFormat="1" ht="51" r="54" s="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A54" s="22" t="s">
         <v>58</v>
       </c>
@@ -33811,7 +33848,7 @@
         <v>24</v>
       </c>
       <c r="BD54" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="BE54" s="53" t="s">
@@ -33824,7 +33861,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row customFormat="1" ht="102" r="55" s="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:59" s="4" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A55" s="22" t="s">
         <v>58</v>
       </c>
@@ -33874,7 +33911,7 @@
         <v>24</v>
       </c>
       <c r="BD55" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="BE55" s="53" t="s">
@@ -33887,7 +33924,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row customFormat="1" ht="38.25" r="56" s="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:59" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A56" s="23" t="s">
         <v>58</v>
       </c>
@@ -33949,7 +33986,7 @@
         <v>48</v>
       </c>
       <c r="BD56" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="BE56" s="53" t="s">
@@ -33962,7 +33999,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row customFormat="1" ht="38.25" r="57" s="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:59" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A57" s="23" t="s">
         <v>58</v>
       </c>
@@ -34024,7 +34061,7 @@
         <v>48</v>
       </c>
       <c r="BD57" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="BE57" s="53" t="s">
@@ -34037,7 +34074,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row customFormat="1" ht="63.75" r="58" s="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:59" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A58" s="23" t="s">
         <v>58</v>
       </c>
@@ -34099,7 +34136,7 @@
         <v>48</v>
       </c>
       <c r="BD58" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="BE58" s="53" t="s">
@@ -34112,7 +34149,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row customFormat="1" ht="38.25" r="59" s="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:59" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A59" s="23" t="s">
         <v>248</v>
       </c>
@@ -34186,7 +34223,7 @@
         <v>24</v>
       </c>
       <c r="BD59" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="BE59" s="53" t="s">
@@ -34199,7 +34236,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row customFormat="1" r="60" s="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="22" t="s">
         <v>248</v>
       </c>
@@ -34267,7 +34304,7 @@
         <v>4</v>
       </c>
       <c r="BD60" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="BE60" s="53" t="s">
@@ -34280,7 +34317,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row customFormat="1" ht="63.75" r="61" s="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:59" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A61" s="22" t="s">
         <v>248</v>
       </c>
@@ -34342,7 +34379,7 @@
         <v>24</v>
       </c>
       <c r="BD61" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="BE61" s="53" t="s">
@@ -34355,7 +34392,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row customFormat="1" ht="51" r="62" s="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A62" s="22" t="s">
         <v>248</v>
       </c>
@@ -34417,7 +34454,7 @@
         <v>24</v>
       </c>
       <c r="BD62" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="BE62" s="53" t="s">
@@ -34430,7 +34467,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row customFormat="1" ht="51" r="63" s="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A63" s="22" t="s">
         <v>248</v>
       </c>
@@ -34492,7 +34529,7 @@
         <v>24</v>
       </c>
       <c r="BD63" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="BE63" s="53" t="s">
@@ -34505,7 +34542,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row customFormat="1" ht="63.75" r="64" s="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:59" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A64" s="22" t="s">
         <v>248</v>
       </c>
@@ -34567,7 +34604,7 @@
         <v>24</v>
       </c>
       <c r="BD64" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="BE64" s="53" t="s">
@@ -34580,7 +34617,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row customFormat="1" ht="51" r="65" s="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A65" s="22" t="s">
         <v>248</v>
       </c>
@@ -34642,7 +34679,7 @@
         <v>24</v>
       </c>
       <c r="BD65" s="4">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="BE65" s="53" t="s">
@@ -34655,7 +34692,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row customFormat="1" ht="63.75" r="66" s="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:59" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A66" s="22" t="s">
         <v>248</v>
       </c>
@@ -34717,7 +34754,7 @@
         <v>24</v>
       </c>
       <c r="BD66" s="4">
-        <f ref="BD66:BD86" si="2" t="shared">SUM(AW66,AY66,BA66,BC66)</f>
+        <f t="shared" ref="BD66:BD86" si="2">SUM(AW66,AY66,BA66,BC66)</f>
         <v>24</v>
       </c>
       <c r="BE66" s="53" t="s">
@@ -34730,7 +34767,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row customFormat="1" ht="76.5" r="67" s="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:59" s="4" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A67" s="22" t="s">
         <v>248</v>
       </c>
@@ -34798,7 +34835,7 @@
         <v>24</v>
       </c>
       <c r="BD67" s="4">
-        <f si="2" t="shared"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="BE67" s="53" t="s">
@@ -34811,7 +34848,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row customFormat="1" ht="38.25" r="68" s="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:59" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A68" s="22" t="s">
         <v>248</v>
       </c>
@@ -34891,7 +34928,7 @@
         <v>8</v>
       </c>
       <c r="BD68" s="4">
-        <f si="2" t="shared"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="BE68" s="53" t="s">
@@ -34904,7 +34941,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row customFormat="1" ht="38.25" r="69" s="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:59" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A69" s="22" t="s">
         <v>248</v>
       </c>
@@ -34978,7 +35015,7 @@
         <v>8</v>
       </c>
       <c r="BD69" s="4">
-        <f si="2" t="shared"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="BE69" s="53" t="s">
@@ -34991,7 +35028,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row customFormat="1" ht="38.25" r="70" s="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:59" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A70" s="22" t="s">
         <v>248</v>
       </c>
@@ -35047,7 +35084,7 @@
         <v>4</v>
       </c>
       <c r="BD70" s="4">
-        <f si="2" t="shared"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="BE70" s="53" t="s">
@@ -35060,7 +35097,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row customFormat="1" ht="38.25" r="71" s="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:59" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A71" s="22" t="s">
         <v>248</v>
       </c>
@@ -35140,7 +35177,7 @@
         <v>720</v>
       </c>
       <c r="BD71" s="4">
-        <f si="2" t="shared"/>
+        <f t="shared" si="2"/>
         <v>720</v>
       </c>
       <c r="BE71" s="53" t="s">
@@ -35153,7 +35190,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row customFormat="1" ht="51" r="72" s="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A72" s="22" t="s">
         <v>248</v>
       </c>
@@ -35233,7 +35270,7 @@
         <v>720</v>
       </c>
       <c r="BD72" s="4">
-        <f si="2" t="shared"/>
+        <f t="shared" si="2"/>
         <v>720</v>
       </c>
       <c r="BE72" s="53" t="s">
@@ -35246,7 +35283,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row customFormat="1" ht="63.75" r="73" s="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:59" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A73" s="22" t="s">
         <v>248</v>
       </c>
@@ -35326,7 +35363,7 @@
         <v>8</v>
       </c>
       <c r="BD73" s="4">
-        <f si="2" t="shared"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="BE73" s="53" t="s">
@@ -35339,7 +35376,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row customFormat="1" ht="89.25" r="74" s="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:59" s="4" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A74" s="22" t="s">
         <v>248</v>
       </c>
@@ -35389,7 +35426,7 @@
         <v>24</v>
       </c>
       <c r="BD74" s="4">
-        <f si="2" t="shared"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="BE74" s="53" t="s">
@@ -35402,7 +35439,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row customFormat="1" ht="76.5" r="75" s="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:59" s="4" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A75" s="22" t="s">
         <v>248</v>
       </c>
@@ -35470,7 +35507,7 @@
         <v>24</v>
       </c>
       <c r="BD75" s="4">
-        <f si="2" t="shared"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="BE75" s="53" t="s">
@@ -35483,7 +35520,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row customFormat="1" ht="89.25" r="76" s="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:59" s="4" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A76" s="22" t="s">
         <v>248</v>
       </c>
@@ -35557,7 +35594,7 @@
         <v>24</v>
       </c>
       <c r="BD76" s="4">
-        <f si="2" t="shared"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="BE76" s="53" t="s">
@@ -35570,7 +35607,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row customFormat="1" ht="63.75" r="77" s="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:59" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A77" s="22" t="s">
         <v>248</v>
       </c>
@@ -35644,7 +35681,7 @@
         <v>48</v>
       </c>
       <c r="BD77" s="4">
-        <f si="2" t="shared"/>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="BE77" s="53" t="s">
@@ -35657,7 +35694,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row customFormat="1" ht="51" r="78" s="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A78" s="22" t="s">
         <v>248</v>
       </c>
@@ -35707,7 +35744,7 @@
         <v>24</v>
       </c>
       <c r="BD78" s="4">
-        <f si="2" t="shared"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="BE78" s="53" t="s">
@@ -35720,7 +35757,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row customFormat="1" ht="38.25" r="79" s="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:59" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A79" s="22" t="s">
         <v>248</v>
       </c>
@@ -35770,7 +35807,7 @@
         <v>24</v>
       </c>
       <c r="BD79" s="4">
-        <f si="2" t="shared"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="BE79" s="53" t="s">
@@ -35783,7 +35820,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row customFormat="1" ht="127.5" r="80" s="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:59" s="4" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A80" s="22" t="s">
         <v>248</v>
       </c>
@@ -35833,7 +35870,7 @@
         <v>24</v>
       </c>
       <c r="BD80" s="4">
-        <f si="2" t="shared"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="BE80" s="53" t="s">
@@ -35846,7 +35883,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row customFormat="1" ht="51" r="81" s="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A81" s="22" t="s">
         <v>248</v>
       </c>
@@ -35920,7 +35957,7 @@
         <v>24</v>
       </c>
       <c r="BD81" s="4">
-        <f si="2" t="shared"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="BE81" s="53" t="s">
@@ -35933,7 +35970,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row customFormat="1" ht="38.25" r="82" s="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:59" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A82" s="22" t="s">
         <v>248</v>
       </c>
@@ -36007,7 +36044,7 @@
         <v>720</v>
       </c>
       <c r="BD82" s="4">
-        <f si="2" t="shared"/>
+        <f t="shared" si="2"/>
         <v>720</v>
       </c>
       <c r="BE82" s="56" t="s">
@@ -36020,7 +36057,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row customFormat="1" ht="63.75" r="83" s="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:59" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A83" s="22" t="s">
         <v>248</v>
       </c>
@@ -36082,7 +36119,7 @@
         <v>2</v>
       </c>
       <c r="BD83" s="4">
-        <f si="2" t="shared"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="BE83" s="53" t="s">
@@ -36093,7 +36130,7 @@
       </c>
       <c r="BG83" s="1"/>
     </row>
-    <row customFormat="1" ht="63.75" r="84" s="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:59" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A84" s="22" t="s">
         <v>248</v>
       </c>
@@ -36167,7 +36204,7 @@
         <v>4</v>
       </c>
       <c r="BD84" s="4">
-        <f si="2" t="shared"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="BE84" s="53" t="s">
@@ -36178,7 +36215,7 @@
       </c>
       <c r="BG84" s="1"/>
     </row>
-    <row customFormat="1" ht="89.25" r="85" s="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:59" s="4" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A85" s="22" t="s">
         <v>248</v>
       </c>
@@ -36252,7 +36289,7 @@
         <v>3</v>
       </c>
       <c r="BD85" s="4">
-        <f si="2" t="shared"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="BE85" s="53" t="s">
@@ -36265,7 +36302,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row customFormat="1" ht="51" r="86" s="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A86" s="22" t="s">
         <v>248</v>
       </c>
@@ -36327,7 +36364,7 @@
         <v>24</v>
       </c>
       <c r="BD86" s="4">
-        <f si="2" t="shared"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="BE86" s="53" t="s">
@@ -36347,17 +36384,17 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="E67:E68">
-    <cfRule dxfId="7" priority="4" type="duplicateValues"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69:E73">
-    <cfRule dxfId="6" priority="3" type="duplicateValues"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74:E80">
-    <cfRule dxfId="5" priority="2" type="duplicateValues"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81:E86">
-    <cfRule dxfId="4" priority="1" type="duplicateValues"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/resources/excels/KE.xlsx
+++ b/resources/excels/KE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="34080" windowHeight="10080" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="34080" windowHeight="10080" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
     <sheet name="Transfer To Queue" sheetId="24" r:id="rId21"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'NFTRTickets-Reg'!$A$1:$BG$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'NFTRTickets-Reg'!$A$1:$BF$45</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'NFTRTickets-Reg1'!$A$1:$BG$86</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -363,7 +363,41 @@
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0" shapeId="0">
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Rahul Gupta</author>
+  </authors>
+  <commentList>
+    <comment ref="AV1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Rahul Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+This column represent the customer VIP or not. For which customer ticket is created that customer VIP status will store.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AW1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -387,12 +421,85 @@
         </r>
       </text>
     </comment>
+    <comment ref="AX1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Rahul Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Rahul Gupta:
+This column represent the customer Type</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AY1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Rahul Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+This column represent customer service category</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AZ1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Rahul Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+This column represent customer segment</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7909" uniqueCount="1370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8656" uniqueCount="1242">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -3497,9 +3604,6 @@
     <t>Transferred to IT_AirtelKE</t>
   </si>
   <si>
-    <t>111220001504</t>
-  </si>
-  <si>
     <t>111220001539</t>
   </si>
   <si>
@@ -3747,378 +3851,6 @@
   </si>
   <si>
     <t>Airtel Money_Agent</t>
-  </si>
-  <si>
-    <t>110221003574</t>
-  </si>
-  <si>
-    <t>110221003575</t>
-  </si>
-  <si>
-    <t>110221003576</t>
-  </si>
-  <si>
-    <t>110221003577</t>
-  </si>
-  <si>
-    <t>110221003578</t>
-  </si>
-  <si>
-    <t>110221003579</t>
-  </si>
-  <si>
-    <t>110221003580</t>
-  </si>
-  <si>
-    <t>110221003581</t>
-  </si>
-  <si>
-    <t>110221003582</t>
-  </si>
-  <si>
-    <t>110221003583</t>
-  </si>
-  <si>
-    <t>110221003584</t>
-  </si>
-  <si>
-    <t>110221003585</t>
-  </si>
-  <si>
-    <t>110221003586</t>
-  </si>
-  <si>
-    <t>110221003587</t>
-  </si>
-  <si>
-    <t>110221003588</t>
-  </si>
-  <si>
-    <t>110221003589</t>
-  </si>
-  <si>
-    <t>110221003590</t>
-  </si>
-  <si>
-    <t>110221003591</t>
-  </si>
-  <si>
-    <t>110221003592</t>
-  </si>
-  <si>
-    <t>110221003593</t>
-  </si>
-  <si>
-    <t>110221003594</t>
-  </si>
-  <si>
-    <t>110221003595</t>
-  </si>
-  <si>
-    <t>110221003596</t>
-  </si>
-  <si>
-    <t>110221003597</t>
-  </si>
-  <si>
-    <t>110221003598</t>
-  </si>
-  <si>
-    <t>110221003599</t>
-  </si>
-  <si>
-    <t>110221003600</t>
-  </si>
-  <si>
-    <t>110221003601</t>
-  </si>
-  <si>
-    <t>110221003602</t>
-  </si>
-  <si>
-    <t>110221003603</t>
-  </si>
-  <si>
-    <t>110221003604</t>
-  </si>
-  <si>
-    <t>110221003605</t>
-  </si>
-  <si>
-    <t>110221003606</t>
-  </si>
-  <si>
-    <t>110221003607</t>
-  </si>
-  <si>
-    <t>110221003608</t>
-  </si>
-  <si>
-    <t>110221003609</t>
-  </si>
-  <si>
-    <t>110221003610</t>
-  </si>
-  <si>
-    <t>110221003611</t>
-  </si>
-  <si>
-    <t>110221003612</t>
-  </si>
-  <si>
-    <t>110221003613</t>
-  </si>
-  <si>
-    <t>110221003614</t>
-  </si>
-  <si>
-    <t>110221003615</t>
-  </si>
-  <si>
-    <t>110221003616</t>
-  </si>
-  <si>
-    <t>110221003617</t>
-  </si>
-  <si>
-    <t>110221003618</t>
-  </si>
-  <si>
-    <t>110221003619</t>
-  </si>
-  <si>
-    <t>110221003620</t>
-  </si>
-  <si>
-    <t>110221003621</t>
-  </si>
-  <si>
-    <t>110221003622</t>
-  </si>
-  <si>
-    <t>110221003623</t>
-  </si>
-  <si>
-    <t>110221003624</t>
-  </si>
-  <si>
-    <t>110221003625</t>
-  </si>
-  <si>
-    <t>110221003626</t>
-  </si>
-  <si>
-    <t>110221003627</t>
-  </si>
-  <si>
-    <t>110221003628</t>
-  </si>
-  <si>
-    <t>110221003629</t>
-  </si>
-  <si>
-    <t>110221003630</t>
-  </si>
-  <si>
-    <t>110221003631</t>
-  </si>
-  <si>
-    <t>110221003632</t>
-  </si>
-  <si>
-    <t>110221003633</t>
-  </si>
-  <si>
-    <t>110221003634</t>
-  </si>
-  <si>
-    <t>110221003635</t>
-  </si>
-  <si>
-    <t>110221003636</t>
-  </si>
-  <si>
-    <t>110221003637</t>
-  </si>
-  <si>
-    <t>110221003638</t>
-  </si>
-  <si>
-    <t>110221003639</t>
-  </si>
-  <si>
-    <t>110221003640</t>
-  </si>
-  <si>
-    <t>110221003641</t>
-  </si>
-  <si>
-    <t>110221003642</t>
-  </si>
-  <si>
-    <t>110221003643</t>
-  </si>
-  <si>
-    <t>110221003644</t>
-  </si>
-  <si>
-    <t>110221003645</t>
-  </si>
-  <si>
-    <t>110221003646</t>
-  </si>
-  <si>
-    <t>110221003647</t>
-  </si>
-  <si>
-    <t>110221003648</t>
-  </si>
-  <si>
-    <t>110221003649</t>
-  </si>
-  <si>
-    <t>110221003650</t>
-  </si>
-  <si>
-    <t>110221003651</t>
-  </si>
-  <si>
-    <t>110221003652</t>
-  </si>
-  <si>
-    <t>110221003653</t>
-  </si>
-  <si>
-    <t>110221003654</t>
-  </si>
-  <si>
-    <t>110221003655</t>
-  </si>
-  <si>
-    <t>110221003656</t>
-  </si>
-  <si>
-    <t>110221003657</t>
-  </si>
-  <si>
-    <t>110221003658</t>
-  </si>
-  <si>
-    <t>110221003659</t>
-  </si>
-  <si>
-    <t>110221003660</t>
-  </si>
-  <si>
-    <t>110221003661</t>
-  </si>
-  <si>
-    <t>110221003662</t>
-  </si>
-  <si>
-    <t>110221003663</t>
-  </si>
-  <si>
-    <t>110221003664</t>
-  </si>
-  <si>
-    <t>110221003665</t>
-  </si>
-  <si>
-    <t>110221003666</t>
-  </si>
-  <si>
-    <t>110221003667</t>
-  </si>
-  <si>
-    <t>110221003668</t>
-  </si>
-  <si>
-    <t>110221003669</t>
-  </si>
-  <si>
-    <t>110221003670</t>
-  </si>
-  <si>
-    <t>110221003671</t>
-  </si>
-  <si>
-    <t>110221003672</t>
-  </si>
-  <si>
-    <t>110221003673</t>
-  </si>
-  <si>
-    <t>110221003674</t>
-  </si>
-  <si>
-    <t>110221003675</t>
-  </si>
-  <si>
-    <t>110221003676</t>
-  </si>
-  <si>
-    <t>110221003677</t>
-  </si>
-  <si>
-    <t>110221003678</t>
-  </si>
-  <si>
-    <t>110221003679</t>
-  </si>
-  <si>
-    <t>110221003680</t>
-  </si>
-  <si>
-    <t>110221003681</t>
-  </si>
-  <si>
-    <t>110221003682</t>
-  </si>
-  <si>
-    <t>110221003683</t>
-  </si>
-  <si>
-    <t>110221003684</t>
-  </si>
-  <si>
-    <t>110221003685</t>
-  </si>
-  <si>
-    <t>110221003686</t>
-  </si>
-  <si>
-    <t>110221003687</t>
-  </si>
-  <si>
-    <t>110221003688</t>
-  </si>
-  <si>
-    <t>110221003689</t>
-  </si>
-  <si>
-    <t>110221003690</t>
-  </si>
-  <si>
-    <t>110221003691</t>
-  </si>
-  <si>
-    <t>110221003692</t>
-  </si>
-  <si>
-    <t>110221003693</t>
-  </si>
-  <si>
-    <t>110221003694</t>
-  </si>
-  <si>
-    <t>110221003695</t>
-  </si>
-  <si>
-    <t>110221003696</t>
-  </si>
-  <si>
-    <t>110221003697</t>
   </si>
   <si>
     <t>Service Profile</t>
@@ -4459,12 +4191,6 @@
     <t>Rule Priority</t>
   </si>
   <si>
-    <t>Prepaid</t>
-  </si>
-  <si>
-    <t>Silver</t>
-  </si>
-  <si>
     <t>Attribute name</t>
   </si>
   <si>
@@ -4475,9 +4201,6 @@
   </si>
   <si>
     <t>customerVip</t>
-  </si>
-  <si>
-    <t>SKIP</t>
   </si>
   <si>
     <t>Default SLA</t>
@@ -5008,7 +4731,167 @@
     <cellStyle name="Normal 90 3 2 3" xfId="6"/>
     <cellStyle name="Normal 90 3 2 3 2" xfId="7"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="28">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -5162,7 +5045,7 @@
         <xdr:cNvPr id="9217" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000001240000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001240000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5210,7 +5093,7 @@
         <xdr:cNvPr id="3" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5258,7 +5141,7 @@
         <xdr:cNvPr id="4" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EF08D5FD-92C7-4540-AF22-FEEA19CA4C87}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF08D5FD-92C7-4540-AF22-FEEA19CA4C87}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5306,7 +5189,7 @@
         <xdr:cNvPr id="5" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{14EBD159-F09F-5A4A-BACB-F932EFB20343}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14EBD159-F09F-5A4A-BACB-F932EFB20343}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5700,10 +5583,10 @@
         <v>172</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>1247</v>
+        <v>1122</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>1248</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -5711,7 +5594,7 @@
         <v>2394650</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1267</v>
+        <v>1142</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>124</v>
@@ -5756,7 +5639,7 @@
         <v>789474747</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>1249</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -5764,7 +5647,7 @@
         <v>2388192</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1265</v>
+        <v>1140</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>123</v>
@@ -5813,7 +5696,7 @@
         <v>2394650</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1267</v>
+        <v>1142</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>131</v>
@@ -5836,7 +5719,7 @@
         <v>789474747</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>1249</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -5844,7 +5727,7 @@
         <v>2388008</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1268</v>
+        <v>1143</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>175</v>
@@ -5873,10 +5756,10 @@
         <v>13221514</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1266</v>
+        <v>1141</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1264</v>
+        <v>1139</v>
       </c>
       <c r="D6" s="98">
         <v>767240995</v>
@@ -8088,16 +7971,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E117">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118:E119">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E120">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E121">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8375,7 +8258,7 @@
         <v>113</v>
       </c>
       <c r="E1" s="98" t="s">
-        <v>1247</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -9634,7 +9517,7 @@
         <v>1019</v>
       </c>
       <c r="D53" s="89" t="s">
-        <v>1237</v>
+        <v>1112</v>
       </c>
       <c r="E53" s="90" t="s">
         <v>84</v>
@@ -17365,7 +17248,7 @@
         <v>895</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>1250</v>
+        <v>1125</v>
       </c>
       <c r="C2" s="4">
         <v>4</v>
@@ -17380,7 +17263,7 @@
         <v>898</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>1251</v>
+        <v>1126</v>
       </c>
       <c r="H2" s="29" t="s">
         <v>899</v>
@@ -17433,13 +17316,13 @@
         <v>911</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1254</v>
+        <v>1129</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1255</v>
+        <v>1130</v>
       </c>
       <c r="J1" s="99" t="s">
-        <v>1277</v>
+        <v>1152</v>
       </c>
       <c r="K1" s="4"/>
     </row>
@@ -17466,7 +17349,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1252</v>
+        <v>1127</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -17475,10 +17358,10 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>1253</v>
+        <v>1128</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>1253</v>
+        <v>1128</v>
       </c>
       <c r="J3" s="100" t="b">
         <v>0</v>
@@ -17487,7 +17370,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="100" t="s">
-        <v>1278</v>
+        <v>1153</v>
       </c>
       <c r="B4" s="100"/>
       <c r="C4" s="100"/>
@@ -17504,7 +17387,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="100" t="s">
-        <v>1279</v>
+        <v>1154</v>
       </c>
       <c r="B5" s="100"/>
       <c r="C5" s="100"/>
@@ -17521,7 +17404,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="100" t="s">
-        <v>1280</v>
+        <v>1155</v>
       </c>
       <c r="B6" s="100"/>
       <c r="C6" s="100"/>
@@ -17538,7 +17421,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="100" t="s">
-        <v>1281</v>
+        <v>1156</v>
       </c>
       <c r="B7" s="100"/>
       <c r="C7" s="100"/>
@@ -17555,7 +17438,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="100" t="s">
-        <v>1282</v>
+        <v>1157</v>
       </c>
       <c r="B8" s="100"/>
       <c r="C8" s="100"/>
@@ -17572,7 +17455,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="100" t="s">
-        <v>1283</v>
+        <v>1158</v>
       </c>
       <c r="B9" s="100"/>
       <c r="C9" s="100"/>
@@ -17589,7 +17472,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="100" t="s">
-        <v>1284</v>
+        <v>1159</v>
       </c>
       <c r="B10" s="100"/>
       <c r="C10" s="100"/>
@@ -17606,7 +17489,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="100" t="s">
-        <v>1285</v>
+        <v>1160</v>
       </c>
       <c r="B11" s="100"/>
       <c r="C11" s="100"/>
@@ -17623,7 +17506,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="100" t="s">
-        <v>1286</v>
+        <v>1161</v>
       </c>
       <c r="B12" s="100"/>
       <c r="C12" s="100"/>
@@ -17640,7 +17523,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="100" t="s">
-        <v>1287</v>
+        <v>1162</v>
       </c>
       <c r="B13" s="100"/>
       <c r="C13" s="100"/>
@@ -17679,35 +17562,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
-        <v>1288</v>
+        <v>1163</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>1289</v>
+        <v>1164</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>1290</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
-        <v>1291</v>
+        <v>1166</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>1292</v>
+        <v>1167</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>1293</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
-        <v>1294</v>
+        <v>1169</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>1295</v>
+        <v>1170</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>1296</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -17715,125 +17598,125 @@
         <v>994</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>1297</v>
+        <v>1172</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>1298</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
-        <v>1299</v>
+        <v>1174</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>1300</v>
+        <v>1175</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>1301</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
-        <v>1302</v>
+        <v>1177</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>1303</v>
+        <v>1178</v>
       </c>
       <c r="C6" s="101"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
-        <v>1304</v>
+        <v>1179</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>1305</v>
+        <v>1180</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>1306</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="39" t="s">
-        <v>1307</v>
+        <v>1182</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>1308</v>
+        <v>1183</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>1309</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="39" t="s">
-        <v>1310</v>
+        <v>1185</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>1311</v>
+        <v>1186</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>1312</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="39" t="s">
-        <v>1313</v>
+        <v>1188</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>1314</v>
+        <v>1189</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>1315</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="39" t="s">
-        <v>1316</v>
+        <v>1191</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>1317</v>
+        <v>1192</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>1318</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="39" t="s">
-        <v>1319</v>
+        <v>1194</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>1320</v>
+        <v>1195</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>1321</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="39" t="s">
-        <v>1322</v>
+        <v>1197</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>1323</v>
+        <v>1198</v>
       </c>
       <c r="C13" s="101"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="39" t="s">
-        <v>1324</v>
+        <v>1199</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>1325</v>
+        <v>1200</v>
       </c>
       <c r="C14" s="101"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="39" t="s">
-        <v>1326</v>
+        <v>1201</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>1327</v>
+        <v>1202</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>1328</v>
+        <v>1203</v>
       </c>
     </row>
   </sheetData>
@@ -18402,7 +18285,7 @@
         <v>876</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1246</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -18437,7 +18320,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -18492,10 +18375,10 @@
         <v>980</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>1243</v>
+        <v>1118</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>1244</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
@@ -18503,7 +18386,7 @@
         <v>77</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>1269</v>
+        <v>1144</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>142</v>
@@ -18557,7 +18440,7 @@
         <v>151</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1270</v>
+        <v>1145</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>148</v>
@@ -18605,7 +18488,7 @@
         <v>156</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>1271</v>
+        <v>1146</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -18724,7 +18607,7 @@
         <v>950</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1272</v>
+        <v>1147</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>951</v>
@@ -18831,7 +18714,7 @@
         <v>975</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1270</v>
+        <v>1145</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>148</v>
@@ -18946,19 +18829,19 @@
     </row>
     <row r="18" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="38" t="s">
-        <v>1234</v>
+        <v>1109</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>1235</v>
+        <v>1110</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>1256</v>
+        <v>1131</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>1236</v>
+        <v>1111</v>
       </c>
       <c r="E18" s="38" t="s">
-        <v>1257</v>
+        <v>1132</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>902</v>
@@ -18973,67 +18856,67 @@
     </row>
     <row r="19" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" s="38" t="s">
-        <v>1245</v>
+        <v>1120</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>1273</v>
+        <v>1148</v>
       </c>
       <c r="C19" s="38" t="s">
         <v>143</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>1238</v>
+        <v>1113</v>
       </c>
       <c r="E19" s="38" t="s">
-        <v>1239</v>
+        <v>1114</v>
       </c>
       <c r="F19" s="38" t="s">
-        <v>1240</v>
+        <v>1115</v>
       </c>
       <c r="G19" s="38" t="s">
-        <v>1241</v>
+        <v>1116</v>
       </c>
       <c r="H19" s="38" t="s">
         <v>144</v>
       </c>
       <c r="I19" s="95" t="s">
-        <v>1274</v>
+        <v>1149</v>
       </c>
       <c r="J19" s="95" t="s">
-        <v>1275</v>
+        <v>1150</v>
       </c>
       <c r="K19" s="95" t="s">
-        <v>1276</v>
+        <v>1151</v>
       </c>
       <c r="L19" s="38" t="s">
         <v>145</v>
       </c>
       <c r="M19" s="38" t="s">
-        <v>1242</v>
+        <v>1117</v>
       </c>
       <c r="N19" s="94"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="38" t="s">
-        <v>1258</v>
+        <v>1133</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1259</v>
+        <v>1134</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>148</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>1260</v>
+        <v>1135</v>
       </c>
       <c r="E20" s="38" t="s">
-        <v>1261</v>
+        <v>1136</v>
       </c>
       <c r="F20" s="38" t="s">
-        <v>1262</v>
+        <v>1137</v>
       </c>
       <c r="G20" s="38" t="s">
-        <v>1263</v>
+        <v>1138</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -19044,16 +18927,16 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>1329</v>
+        <v>1204</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1330</v>
+        <v>1205</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1331</v>
+        <v>1206</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1332</v>
+        <v>1207</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>992</v>
@@ -19062,16 +18945,16 @@
         <v>166</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>1333</v>
+        <v>1208</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>1334</v>
+        <v>1209</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>1335</v>
+        <v>1210</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>1336</v>
+        <v>1211</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -19079,13 +18962,13 @@
     </row>
     <row r="22" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>1366</v>
+        <v>1238</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1367</v>
+        <v>1239</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1368</v>
+        <v>1240</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>992</v>
@@ -19094,7 +18977,7 @@
         <v>166</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>1369</v>
+        <v>1241</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>902</v>
@@ -19118,8 +19001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC2"/>
   <sheetViews>
-    <sheetView topLeftCell="AP1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AV2" sqref="AV2"/>
+    <sheetView topLeftCell="AR1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AV1" sqref="AV1:BC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -19294,28 +19177,28 @@
         <v>43</v>
       </c>
       <c r="AV1" s="4" t="s">
-        <v>1350</v>
+        <v>1223</v>
       </c>
       <c r="AW1" s="4" t="s">
-        <v>1349</v>
+        <v>1222</v>
       </c>
       <c r="AX1" s="4" t="s">
-        <v>1359</v>
+        <v>1231</v>
       </c>
       <c r="AY1" s="4" t="s">
-        <v>1360</v>
+        <v>1232</v>
       </c>
       <c r="AZ1" s="4" t="s">
-        <v>1353</v>
+        <v>1225</v>
       </c>
       <c r="BA1" s="4" t="s">
-        <v>1361</v>
+        <v>1233</v>
       </c>
       <c r="BB1" s="4" t="s">
-        <v>1362</v>
+        <v>1234</v>
       </c>
       <c r="BC1" s="4" t="s">
-        <v>1363</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="2" spans="1:55" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19381,26 +19264,26 @@
       </c>
       <c r="AI2" s="4"/>
       <c r="AV2" s="4" t="s">
-        <v>1364</v>
+        <v>1236</v>
       </c>
       <c r="AW2" s="4" t="s">
-        <v>1357</v>
+        <v>1229</v>
       </c>
       <c r="AX2" t="s">
-        <v>1354</v>
+        <v>1226</v>
       </c>
       <c r="AY2" t="s">
-        <v>1358</v>
+        <v>1230</v>
       </c>
       <c r="AZ2" s="4" t="s">
-        <v>1355</v>
+        <v>1227</v>
       </c>
       <c r="BA2" t="s">
-        <v>1356</v>
+        <v>1228</v>
       </c>
       <c r="BB2"/>
       <c r="BC2" s="2" t="s">
-        <v>1365</v>
+        <v>1237</v>
       </c>
     </row>
   </sheetData>
@@ -19412,10 +19295,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R130"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -19426,28 +19309,28 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1337</v>
+        <v>1212</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>1350</v>
+        <v>1223</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>1349</v>
+        <v>1222</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>1338</v>
+        <v>1213</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>1339</v>
+        <v>1214</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>1353</v>
+        <v>1225</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>1340</v>
+        <v>1215</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>1341</v>
+        <v>1216</v>
       </c>
       <c r="I1" t="s">
         <v>74</v>
@@ -19477,135 +19360,2219 @@
         <v>940</v>
       </c>
       <c r="R1" t="s">
-        <v>1352</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="I2" t="s">
-        <v>1351</v>
-      </c>
-      <c r="J2">
+      <c r="I2" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J2" s="54">
         <v>3</v>
       </c>
-      <c r="Q2">
-        <v>4</v>
+      <c r="Q2" s="54">
+        <v>3</v>
+      </c>
+      <c r="R2" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I3" t="s">
-        <v>1004</v>
-      </c>
-      <c r="J3">
-        <v>3</v>
-      </c>
-      <c r="Q3">
-        <v>3</v>
+      <c r="A3" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J3" s="54">
+        <v>8</v>
+      </c>
+      <c r="Q3" s="54">
+        <v>8</v>
       </c>
       <c r="R3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I4" t="s">
-        <v>1004</v>
-      </c>
-      <c r="J4">
+      <c r="A4" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J4" s="54">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="54">
+        <v>4</v>
+      </c>
+      <c r="R4" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="I5" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J5" s="54">
+        <v>8</v>
+      </c>
+      <c r="Q5" s="54">
+        <v>8</v>
+      </c>
+      <c r="R5" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>595</v>
+      </c>
+      <c r="I6" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J6" s="54">
+        <v>24</v>
+      </c>
+      <c r="Q6" s="54">
+        <v>24</v>
+      </c>
+      <c r="R6" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>598</v>
+      </c>
+      <c r="I7" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J7" s="54">
+        <v>24</v>
+      </c>
+      <c r="Q7" s="54">
+        <v>24</v>
+      </c>
+      <c r="R7" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>795</v>
+      </c>
+      <c r="I8" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" s="54">
+        <v>24</v>
+      </c>
+      <c r="Q8" s="54">
+        <v>24</v>
+      </c>
+      <c r="R8" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>797</v>
+      </c>
+      <c r="I9" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="J9" s="54">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="54">
+        <v>2</v>
+      </c>
+      <c r="R9" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>799</v>
+      </c>
+      <c r="I10" s="53" t="s">
+        <v>1005</v>
+      </c>
+      <c r="J10" s="54">
+        <v>24</v>
+      </c>
+      <c r="Q10" s="54">
+        <v>24</v>
+      </c>
+      <c r="R10" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>801</v>
+      </c>
+      <c r="I11" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="J11" s="54">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="54">
+        <v>2</v>
+      </c>
+      <c r="R11" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>803</v>
+      </c>
+      <c r="I12" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J12" s="54">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="54">
+        <v>2</v>
+      </c>
+      <c r="R12" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>805</v>
+      </c>
+      <c r="I13" s="53" t="s">
+        <v>1006</v>
+      </c>
+      <c r="J13" s="54">
+        <v>48</v>
+      </c>
+      <c r="Q13" s="54">
+        <v>48</v>
+      </c>
+      <c r="R13" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>807</v>
+      </c>
+      <c r="I14" s="53" t="s">
+        <v>1006</v>
+      </c>
+      <c r="J14" s="54">
+        <v>48</v>
+      </c>
+      <c r="Q14" s="54">
+        <v>48</v>
+      </c>
+      <c r="R14" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>809</v>
+      </c>
+      <c r="I15" s="53" t="s">
+        <v>1006</v>
+      </c>
+      <c r="J15" s="54">
+        <v>48</v>
+      </c>
+      <c r="Q15" s="54">
+        <v>48</v>
+      </c>
+      <c r="R15" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
+        <v>812</v>
+      </c>
+      <c r="I16" s="53" t="s">
+        <v>1006</v>
+      </c>
+      <c r="J16" s="54">
+        <v>48</v>
+      </c>
+      <c r="Q16" s="54">
+        <v>48</v>
+      </c>
+      <c r="R16" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>815</v>
+      </c>
+      <c r="I17" s="53" t="s">
+        <v>1006</v>
+      </c>
+      <c r="J17" s="54">
+        <v>48</v>
+      </c>
+      <c r="Q17" s="54">
+        <v>48</v>
+      </c>
+      <c r="R17" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
+        <v>606</v>
+      </c>
+      <c r="I18" s="53" t="s">
+        <v>1007</v>
+      </c>
+      <c r="J18" s="54">
+        <v>24</v>
+      </c>
+      <c r="Q18" s="54">
+        <v>24</v>
+      </c>
+      <c r="R18" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>817</v>
+      </c>
+      <c r="I19" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="J19" s="54">
+        <v>24</v>
+      </c>
+      <c r="Q19" s="54">
+        <v>24</v>
+      </c>
+      <c r="R19" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>843</v>
+      </c>
+      <c r="I20" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="J20" s="54">
+        <v>72</v>
+      </c>
+      <c r="Q20" s="54">
+        <v>72</v>
+      </c>
+      <c r="R20" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="I21" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="J21" s="54">
+        <v>24</v>
+      </c>
+      <c r="Q21" s="54">
+        <v>24</v>
+      </c>
+      <c r="R21" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>845</v>
+      </c>
+      <c r="I22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="J22" s="54">
+        <v>24</v>
+      </c>
+      <c r="Q22" s="54">
+        <v>24</v>
+      </c>
+      <c r="R22" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>847</v>
+      </c>
+      <c r="I23" s="53" t="s">
+        <v>1008</v>
+      </c>
+      <c r="J23" s="54">
+        <v>48</v>
+      </c>
+      <c r="Q23" s="54">
+        <v>48</v>
+      </c>
+      <c r="R23" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="I24" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J24" s="54">
+        <v>24</v>
+      </c>
+      <c r="Q24" s="54">
+        <v>24</v>
+      </c>
+      <c r="R24" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="I25" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="J25" s="54">
+        <v>24</v>
+      </c>
+      <c r="Q25" s="54">
+        <v>24</v>
+      </c>
+      <c r="R25" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="I26" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="J26" s="54">
+        <v>24</v>
+      </c>
+      <c r="Q26" s="54">
+        <v>24</v>
+      </c>
+      <c r="R26" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="22" t="s">
+        <v>608</v>
+      </c>
+      <c r="I27" s="53" t="s">
+        <v>1007</v>
+      </c>
+      <c r="J27" s="54">
+        <v>24</v>
+      </c>
+      <c r="Q27" s="54">
+        <v>24</v>
+      </c>
+      <c r="R27" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="I28" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J28" s="54">
+        <v>48</v>
+      </c>
+      <c r="Q28" s="54">
+        <v>48</v>
+      </c>
+      <c r="R28" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="I29" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J29" s="54">
+        <v>48</v>
+      </c>
+      <c r="Q29" s="54">
+        <v>48</v>
+      </c>
+      <c r="R29" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>849</v>
+      </c>
+      <c r="I30" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J30" s="54">
+        <v>48</v>
+      </c>
+      <c r="Q30" s="54">
+        <v>48</v>
+      </c>
+      <c r="R30" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>852</v>
+      </c>
+      <c r="I31" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J31" s="54">
+        <v>48</v>
+      </c>
+      <c r="Q31" s="54">
+        <v>48</v>
+      </c>
+      <c r="R31" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="I32" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J32" s="54">
+        <v>6</v>
+      </c>
+      <c r="Q32" s="54">
+        <v>6</v>
+      </c>
+      <c r="R32" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="I33" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J33" s="54">
+        <v>6</v>
+      </c>
+      <c r="Q33" s="54">
+        <v>6</v>
+      </c>
+      <c r="R33" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="22" t="s">
+        <v>611</v>
+      </c>
+      <c r="I34" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="J34" s="54">
+        <v>24</v>
+      </c>
+      <c r="Q34" s="54">
+        <v>24</v>
+      </c>
+      <c r="R34" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="22" t="s">
+        <v>614</v>
+      </c>
+      <c r="I35" s="53" t="s">
+        <v>1108</v>
+      </c>
+      <c r="J35" s="54">
+        <v>48</v>
+      </c>
+      <c r="Q35" s="54">
+        <v>48</v>
+      </c>
+      <c r="R35" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="22" t="s">
+        <v>617</v>
+      </c>
+      <c r="I36" s="53" t="s">
+        <v>1009</v>
+      </c>
+      <c r="J36" s="54">
+        <v>24</v>
+      </c>
+      <c r="Q36" s="54">
+        <v>24</v>
+      </c>
+      <c r="R36" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="22" t="s">
+        <v>620</v>
+      </c>
+      <c r="I37" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="J37" s="54">
+        <v>24</v>
+      </c>
+      <c r="Q37" s="54">
+        <v>24</v>
+      </c>
+      <c r="R37" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="22" t="s">
+        <v>623</v>
+      </c>
+      <c r="I38" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J38" s="54">
+        <v>48</v>
+      </c>
+      <c r="Q38" s="54">
+        <v>48</v>
+      </c>
+      <c r="R38" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="22" t="s">
+        <v>625</v>
+      </c>
+      <c r="I39" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J39" s="54">
+        <v>24</v>
+      </c>
+      <c r="Q39" s="54">
+        <v>24</v>
+      </c>
+      <c r="R39" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="22" t="s">
+        <v>628</v>
+      </c>
+      <c r="I40" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="J40" s="54">
+        <v>72</v>
+      </c>
+      <c r="Q40" s="54">
+        <v>72</v>
+      </c>
+      <c r="R40" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" s="22" t="s">
+        <v>631</v>
+      </c>
+      <c r="I41" s="53" t="s">
+        <v>1009</v>
+      </c>
+      <c r="J41" s="54">
+        <v>24</v>
+      </c>
+      <c r="Q41" s="54">
+        <v>24</v>
+      </c>
+      <c r="R41" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="22" t="s">
+        <v>634</v>
+      </c>
+      <c r="I42" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J42" s="54">
+        <v>24</v>
+      </c>
+      <c r="Q42" s="54">
+        <v>24</v>
+      </c>
+      <c r="R42" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="22" t="s">
+        <v>639</v>
+      </c>
+      <c r="I43" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J43" s="54">
+        <v>24</v>
+      </c>
+      <c r="Q43" s="54">
+        <v>24</v>
+      </c>
+      <c r="R43" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" s="22" t="s">
+        <v>644</v>
+      </c>
+      <c r="I44" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J44" s="54">
+        <v>24</v>
+      </c>
+      <c r="Q44" s="54">
+        <v>24</v>
+      </c>
+      <c r="R44" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" s="22" t="s">
+        <v>650</v>
+      </c>
+      <c r="I45" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J45" s="54">
+        <v>24</v>
+      </c>
+      <c r="Q45" s="54">
+        <v>24</v>
+      </c>
+      <c r="R45" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" s="22" t="s">
+        <v>653</v>
+      </c>
+      <c r="I46" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J46" s="54">
+        <v>24</v>
+      </c>
+      <c r="Q46" s="54">
+        <v>24</v>
+      </c>
+      <c r="R46" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47" s="22" t="s">
+        <v>655</v>
+      </c>
+      <c r="I47" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J47" s="54">
+        <v>24</v>
+      </c>
+      <c r="Q47" s="54">
+        <v>24</v>
+      </c>
+      <c r="R47" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48" s="22" t="s">
+        <v>658</v>
+      </c>
+      <c r="I48" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J48" s="54">
+        <v>24</v>
+      </c>
+      <c r="Q48" s="54">
+        <v>24</v>
+      </c>
+      <c r="R48" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A49" s="22" t="s">
+        <v>660</v>
+      </c>
+      <c r="I49" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J49" s="54">
+        <v>24</v>
+      </c>
+      <c r="Q49" s="54">
+        <v>24</v>
+      </c>
+      <c r="R49" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A50" s="22" t="s">
+        <v>663</v>
+      </c>
+      <c r="I50" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J50" s="54">
+        <v>24</v>
+      </c>
+      <c r="Q50" s="54">
+        <v>24</v>
+      </c>
+      <c r="R50" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A51" s="22" t="s">
+        <v>666</v>
+      </c>
+      <c r="I51" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="J51" s="54">
+        <v>24</v>
+      </c>
+      <c r="Q51" s="54">
+        <v>24</v>
+      </c>
+      <c r="R51" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A52" s="22" t="s">
+        <v>669</v>
+      </c>
+      <c r="I52" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="J52" s="54">
+        <v>24</v>
+      </c>
+      <c r="Q52" s="54">
+        <v>24</v>
+      </c>
+      <c r="R52" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A53" s="22" t="s">
+        <v>671</v>
+      </c>
+      <c r="I53" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="J53" s="54">
+        <v>24</v>
+      </c>
+      <c r="Q53" s="54">
+        <v>24</v>
+      </c>
+      <c r="R53" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A54" s="22" t="s">
+        <v>673</v>
+      </c>
+      <c r="I54" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="J54" s="54">
+        <v>24</v>
+      </c>
+      <c r="Q54" s="54">
+        <v>24</v>
+      </c>
+      <c r="R54" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A55" s="22" t="s">
+        <v>676</v>
+      </c>
+      <c r="I55" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J55" s="54">
+        <v>12</v>
+      </c>
+      <c r="Q55" s="54">
+        <v>12</v>
+      </c>
+      <c r="R55" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A56" s="22" t="s">
+        <v>682</v>
+      </c>
+      <c r="I56" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J56" s="54">
+        <v>24</v>
+      </c>
+      <c r="Q56" s="54">
+        <v>24</v>
+      </c>
+      <c r="R56" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A57" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="I57" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J57" s="54">
+        <v>24</v>
+      </c>
+      <c r="Q57" s="54">
+        <v>24</v>
+      </c>
+      <c r="R57" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A58" s="22" t="s">
+        <v>689</v>
+      </c>
+      <c r="I58" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="J58" s="54">
+        <v>48</v>
+      </c>
+      <c r="Q58" s="54">
+        <v>48</v>
+      </c>
+      <c r="R58" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A59" s="22" t="s">
+        <v>692</v>
+      </c>
+      <c r="I59" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J59" s="54">
+        <v>24</v>
+      </c>
+      <c r="Q59" s="54">
+        <v>24</v>
+      </c>
+      <c r="R59" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A60" s="22" t="s">
+        <v>695</v>
+      </c>
+      <c r="I60" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J60" s="54">
+        <v>4</v>
+      </c>
+      <c r="Q60" s="54">
+        <v>4</v>
+      </c>
+      <c r="R60" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A61" s="22" t="s">
+        <v>698</v>
+      </c>
+      <c r="I61" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J61" s="54">
+        <v>24</v>
+      </c>
+      <c r="Q61" s="54">
+        <v>24</v>
+      </c>
+      <c r="R61" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A62" s="22" t="s">
+        <v>701</v>
+      </c>
+      <c r="I62" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J62" s="54">
+        <v>24</v>
+      </c>
+      <c r="Q62" s="54">
+        <v>24</v>
+      </c>
+      <c r="R62" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A63" s="22" t="s">
+        <v>704</v>
+      </c>
+      <c r="I63" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J63" s="54">
+        <v>24</v>
+      </c>
+      <c r="Q63" s="54">
+        <v>24</v>
+      </c>
+      <c r="R63" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A64" s="22" t="s">
+        <v>707</v>
+      </c>
+      <c r="I64" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J64" s="54">
+        <v>24</v>
+      </c>
+      <c r="Q64" s="54">
+        <v>24</v>
+      </c>
+      <c r="R64" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A65" s="22" t="s">
+        <v>709</v>
+      </c>
+      <c r="I65" s="53" t="s">
+        <v>1006</v>
+      </c>
+      <c r="J65" s="54">
+        <v>48</v>
+      </c>
+      <c r="Q65" s="54">
+        <v>48</v>
+      </c>
+      <c r="R65" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A66" s="22" t="s">
+        <v>712</v>
+      </c>
+      <c r="I66" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J66" s="54">
+        <v>24</v>
+      </c>
+      <c r="Q66" s="54">
+        <v>24</v>
+      </c>
+      <c r="R66" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A67" s="22" t="s">
+        <v>715</v>
+      </c>
+      <c r="I67" s="53" t="s">
+        <v>1006</v>
+      </c>
+      <c r="J67" s="54">
+        <v>48</v>
+      </c>
+      <c r="Q67" s="54">
+        <v>48</v>
+      </c>
+      <c r="R67" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A68" s="22" t="s">
+        <v>718</v>
+      </c>
+      <c r="I68" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J68" s="54">
+        <v>24</v>
+      </c>
+      <c r="Q68" s="54">
+        <v>24</v>
+      </c>
+      <c r="R68" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A69" s="22" t="s">
+        <v>721</v>
+      </c>
+      <c r="I69" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J69" s="54">
+        <v>24</v>
+      </c>
+      <c r="Q69" s="54">
+        <v>24</v>
+      </c>
+      <c r="R69" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A70" s="22" t="s">
+        <v>724</v>
+      </c>
+      <c r="I70" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J70" s="54">
+        <v>24</v>
+      </c>
+      <c r="Q70" s="54">
+        <v>24</v>
+      </c>
+      <c r="R70" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A71" s="22" t="s">
+        <v>727</v>
+      </c>
+      <c r="I71" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J71" s="54">
+        <v>24</v>
+      </c>
+      <c r="Q71" s="54">
+        <v>24</v>
+      </c>
+      <c r="R71" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A72" s="22" t="s">
+        <v>730</v>
+      </c>
+      <c r="I72" s="53" t="s">
+        <v>1006</v>
+      </c>
+      <c r="J72" s="54">
+        <v>48</v>
+      </c>
+      <c r="Q72" s="54">
+        <v>48</v>
+      </c>
+      <c r="R72" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A73" s="22" t="s">
+        <v>732</v>
+      </c>
+      <c r="I73" s="53" t="s">
+        <v>1006</v>
+      </c>
+      <c r="J73" s="54">
+        <v>48</v>
+      </c>
+      <c r="Q73" s="54">
+        <v>48</v>
+      </c>
+      <c r="R73" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A74" s="22" t="s">
+        <v>734</v>
+      </c>
+      <c r="I74" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="J74" s="54">
+        <v>48</v>
+      </c>
+      <c r="Q74" s="54">
+        <v>48</v>
+      </c>
+      <c r="R74" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A75" s="22" t="s">
+        <v>737</v>
+      </c>
+      <c r="I75" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="J75" s="54">
+        <v>24</v>
+      </c>
+      <c r="Q75" s="54">
+        <v>24</v>
+      </c>
+      <c r="R75" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A76" s="22" t="s">
+        <v>740</v>
+      </c>
+      <c r="I76" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J76" s="54">
+        <v>48</v>
+      </c>
+      <c r="Q76" s="54">
+        <v>48</v>
+      </c>
+      <c r="R76" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A77" s="22" t="s">
+        <v>743</v>
+      </c>
+      <c r="I77" s="53" t="s">
+        <v>1010</v>
+      </c>
+      <c r="J77" s="54">
+        <v>48</v>
+      </c>
+      <c r="Q77" s="54">
+        <v>48</v>
+      </c>
+      <c r="R77" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A78" s="22" t="s">
+        <v>746</v>
+      </c>
+      <c r="I78" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="J78" s="54">
+        <v>48</v>
+      </c>
+      <c r="Q78" s="54">
+        <v>48</v>
+      </c>
+      <c r="R78" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A79" s="22" t="s">
+        <v>749</v>
+      </c>
+      <c r="I79" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="J79" s="54">
+        <v>48</v>
+      </c>
+      <c r="Q79" s="54">
+        <v>48</v>
+      </c>
+      <c r="R79" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A80" s="22" t="s">
+        <v>755</v>
+      </c>
+      <c r="I80" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="J80" s="54">
+        <v>72</v>
+      </c>
+      <c r="Q80" s="54">
+        <v>72</v>
+      </c>
+      <c r="R80" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A81" s="22" t="s">
+        <v>758</v>
+      </c>
+      <c r="I81" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J81" s="54">
+        <v>24</v>
+      </c>
+      <c r="Q81" s="54">
+        <v>24</v>
+      </c>
+      <c r="R81" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A82" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="I82" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="J82" s="54">
+        <v>72</v>
+      </c>
+      <c r="Q82" s="54">
+        <v>72</v>
+      </c>
+      <c r="R82" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A83" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="I83" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="J83" s="54">
+        <v>72</v>
+      </c>
+      <c r="Q83" s="54">
+        <v>72</v>
+      </c>
+      <c r="R83" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A84" s="22" t="s">
+        <v>761</v>
+      </c>
+      <c r="I84" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="J84" s="54">
+        <v>72</v>
+      </c>
+      <c r="Q84" s="54">
+        <v>72</v>
+      </c>
+      <c r="R84" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A85" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="I85" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="J85" s="54">
+        <v>72</v>
+      </c>
+      <c r="Q85" s="54">
+        <v>72</v>
+      </c>
+      <c r="R85" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A86" s="6" t="s">
+        <v>833</v>
+      </c>
+      <c r="I86" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="J86" s="54">
+        <v>72</v>
+      </c>
+      <c r="Q86" s="54">
+        <v>72</v>
+      </c>
+      <c r="R86" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A87" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="I87" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="J87" s="54">
+        <v>24</v>
+      </c>
+      <c r="Q87" s="54">
+        <v>24</v>
+      </c>
+      <c r="R87" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A88" s="6" t="s">
+        <v>839</v>
+      </c>
+      <c r="I88" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="J88" s="54">
+        <v>72</v>
+      </c>
+      <c r="Q88" s="54">
+        <v>72</v>
+      </c>
+      <c r="R88" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A89" s="6" t="s">
+        <v>841</v>
+      </c>
+      <c r="I89" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="J89" s="54">
+        <v>72</v>
+      </c>
+      <c r="Q89" s="54">
+        <v>72</v>
+      </c>
+      <c r="R89" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A90" s="22" t="s">
+        <v>764</v>
+      </c>
+      <c r="I90" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="J90" s="54">
+        <v>48</v>
+      </c>
+      <c r="Q90" s="54">
+        <v>48</v>
+      </c>
+      <c r="R90" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A91" s="22" t="s">
+        <v>686</v>
+      </c>
+      <c r="I91" s="53" t="s">
+        <v>1006</v>
+      </c>
+      <c r="J91" s="54">
+        <v>48</v>
+      </c>
+      <c r="Q91" s="54">
+        <v>48</v>
+      </c>
+      <c r="R91" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A92" s="22" t="s">
+        <v>771</v>
+      </c>
+      <c r="I92" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="J92" s="54">
+        <v>48</v>
+      </c>
+      <c r="Q92" s="54">
+        <v>48</v>
+      </c>
+      <c r="R92" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A93" s="22" t="s">
+        <v>772</v>
+      </c>
+      <c r="I93" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="J93" s="54">
+        <v>48</v>
+      </c>
+      <c r="Q93" s="54">
+        <v>48</v>
+      </c>
+      <c r="R93" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A94" s="22" t="s">
+        <v>776</v>
+      </c>
+      <c r="I94" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J94" s="54">
+        <v>2</v>
+      </c>
+      <c r="Q94" s="54">
+        <v>2</v>
+      </c>
+      <c r="R94" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A95" s="22" t="s">
+        <v>777</v>
+      </c>
+      <c r="I95" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J95" s="54">
+        <v>2</v>
+      </c>
+      <c r="Q95" s="54">
+        <v>2</v>
+      </c>
+      <c r="R95" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A96" s="22" t="s">
+        <v>780</v>
+      </c>
+      <c r="I96" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J96" s="54">
+        <v>2</v>
+      </c>
+      <c r="Q96" s="54">
+        <v>2</v>
+      </c>
+      <c r="R96" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A97" s="22" t="s">
+        <v>779</v>
+      </c>
+      <c r="I97" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J97" s="54">
+        <v>2</v>
+      </c>
+      <c r="Q97" s="54">
+        <v>2</v>
+      </c>
+      <c r="R97" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A98" s="22" t="s">
+        <v>783</v>
+      </c>
+      <c r="I98" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J98" s="54">
+        <v>24</v>
+      </c>
+      <c r="Q98" s="54">
+        <v>24</v>
+      </c>
+      <c r="R98" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A99" s="22" t="s">
+        <v>786</v>
+      </c>
+      <c r="I99" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J99" s="54">
+        <v>24</v>
+      </c>
+      <c r="Q99" s="54">
+        <v>24</v>
+      </c>
+      <c r="R99" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A100" s="22" t="s">
+        <v>789</v>
+      </c>
+      <c r="I100" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J100" s="54">
+        <v>48</v>
+      </c>
+      <c r="Q100" s="54">
+        <v>48</v>
+      </c>
+      <c r="R100" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A101" s="22" t="s">
+        <v>791</v>
+      </c>
+      <c r="I101" s="53" t="s">
+        <v>1006</v>
+      </c>
+      <c r="J101" s="54">
+        <v>48</v>
+      </c>
+      <c r="Q101" s="54">
+        <v>48</v>
+      </c>
+      <c r="R101" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A102" s="22" t="s">
+        <v>793</v>
+      </c>
+      <c r="I102" s="53" t="s">
+        <v>1006</v>
+      </c>
+      <c r="J102" s="54">
+        <v>48</v>
+      </c>
+      <c r="Q102" s="54">
+        <v>48</v>
+      </c>
+      <c r="R102" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A103" s="22" t="s">
+        <v>547</v>
+      </c>
+      <c r="I103" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="J103" s="54">
+        <v>24</v>
+      </c>
+      <c r="Q103" s="54">
+        <v>24</v>
+      </c>
+      <c r="R103" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A104" s="22" t="s">
+        <v>550</v>
+      </c>
+      <c r="I104" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J104" s="54">
+        <v>4</v>
+      </c>
+      <c r="Q104" s="54">
+        <v>4</v>
+      </c>
+      <c r="R104" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A105" s="22" t="s">
+        <v>553</v>
+      </c>
+      <c r="I105" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J105" s="54">
+        <v>24</v>
+      </c>
+      <c r="Q105" s="54">
+        <v>24</v>
+      </c>
+      <c r="R105" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A106" s="22" t="s">
+        <v>556</v>
+      </c>
+      <c r="I106" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J106" s="54">
+        <v>24</v>
+      </c>
+      <c r="Q106" s="54">
+        <v>24</v>
+      </c>
+      <c r="R106" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A107" s="22" t="s">
+        <v>559</v>
+      </c>
+      <c r="I107" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J107" s="54">
+        <v>24</v>
+      </c>
+      <c r="Q107" s="54">
+        <v>24</v>
+      </c>
+      <c r="R107" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A108" s="22" t="s">
+        <v>562</v>
+      </c>
+      <c r="I108" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J108" s="54">
+        <v>24</v>
+      </c>
+      <c r="Q108" s="54">
+        <v>24</v>
+      </c>
+      <c r="R108" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A109" s="22" t="s">
+        <v>565</v>
+      </c>
+      <c r="I109" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J109" s="54">
+        <v>24</v>
+      </c>
+      <c r="Q109" s="54">
+        <v>24</v>
+      </c>
+      <c r="R109" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A110" s="22" t="s">
+        <v>568</v>
+      </c>
+      <c r="I110" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J110" s="54">
+        <v>24</v>
+      </c>
+      <c r="Q110" s="54">
+        <v>24</v>
+      </c>
+      <c r="R110" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A111" s="22" t="s">
+        <v>574</v>
+      </c>
+      <c r="I111" s="53" t="s">
+        <v>1009</v>
+      </c>
+      <c r="J111" s="54">
+        <v>24</v>
+      </c>
+      <c r="Q111" s="54">
+        <v>24</v>
+      </c>
+      <c r="R111" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A112" s="22" t="s">
+        <v>576</v>
+      </c>
+      <c r="I112" s="53" t="s">
+        <v>1010</v>
+      </c>
+      <c r="J112" s="54">
+        <v>8</v>
+      </c>
+      <c r="Q112" s="54">
+        <v>8</v>
+      </c>
+      <c r="R112" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A113" s="22" t="s">
+        <v>578</v>
+      </c>
+      <c r="I113" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J113" s="54">
+        <v>8</v>
+      </c>
+      <c r="Q113" s="54">
+        <v>8</v>
+      </c>
+      <c r="R113" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A114" s="22" t="s">
+        <v>580</v>
+      </c>
+      <c r="I114" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J114" s="54">
+        <v>4</v>
+      </c>
+      <c r="Q114" s="54">
+        <v>4</v>
+      </c>
+      <c r="R114" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A115" s="22" t="s">
+        <v>583</v>
+      </c>
+      <c r="I115" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J115" s="54">
+        <v>720</v>
+      </c>
+      <c r="Q115" s="54">
+        <v>720</v>
+      </c>
+      <c r="R115" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A116" s="22" t="s">
+        <v>586</v>
+      </c>
+      <c r="I116" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J116" s="54">
+        <v>720</v>
+      </c>
+      <c r="Q116" s="54">
+        <v>720</v>
+      </c>
+      <c r="R116" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A117" s="22" t="s">
+        <v>589</v>
+      </c>
+      <c r="I117" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J117" s="54">
+        <v>8</v>
+      </c>
+      <c r="Q117" s="54">
+        <v>8</v>
+      </c>
+      <c r="R117" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A118" s="22" t="s">
+        <v>592</v>
+      </c>
+      <c r="I118" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="J118" s="54">
+        <v>24</v>
+      </c>
+      <c r="Q118" s="54">
+        <v>24</v>
+      </c>
+      <c r="R118" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A119" s="22" t="s">
+        <v>544</v>
+      </c>
+      <c r="I119" s="53" t="s">
+        <v>1009</v>
+      </c>
+      <c r="J119" s="54">
+        <v>24</v>
+      </c>
+      <c r="Q119" s="54">
+        <v>24</v>
+      </c>
+      <c r="R119" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A120" s="22" t="s">
+        <v>601</v>
+      </c>
+      <c r="I120" s="53" t="s">
+        <v>1007</v>
+      </c>
+      <c r="J120" s="54">
+        <v>24</v>
+      </c>
+      <c r="Q120" s="54">
+        <v>24</v>
+      </c>
+      <c r="R120" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A121" s="22" t="s">
+        <v>603</v>
+      </c>
+      <c r="I121" s="53" t="s">
+        <v>1009</v>
+      </c>
+      <c r="J121" s="54">
+        <v>48</v>
+      </c>
+      <c r="Q121" s="54">
+        <v>48</v>
+      </c>
+      <c r="R121" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A122" s="22" t="s">
+        <v>636</v>
+      </c>
+      <c r="I122" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J122" s="54">
+        <v>24</v>
+      </c>
+      <c r="Q122" s="54">
+        <v>24</v>
+      </c>
+      <c r="R122" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A123" s="22" t="s">
+        <v>642</v>
+      </c>
+      <c r="I123" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J123" s="54">
+        <v>24</v>
+      </c>
+      <c r="Q123" s="54">
+        <v>24</v>
+      </c>
+      <c r="R123" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A124" s="22" t="s">
+        <v>647</v>
+      </c>
+      <c r="I124" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J124" s="54">
+        <v>24</v>
+      </c>
+      <c r="Q124" s="54">
+        <v>24</v>
+      </c>
+      <c r="R124" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A125" s="22" t="s">
+        <v>679</v>
+      </c>
+      <c r="I125" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J125" s="54">
+        <v>24</v>
+      </c>
+      <c r="Q125" s="54">
+        <v>24</v>
+      </c>
+      <c r="R125" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A126" s="22" t="s">
+        <v>752</v>
+      </c>
+      <c r="I126" s="53" t="s">
+        <v>1011</v>
+      </c>
+      <c r="J126" s="54">
+        <v>720</v>
+      </c>
+      <c r="Q126" s="54">
+        <v>720</v>
+      </c>
+      <c r="R126" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A127" s="22" t="s">
+        <v>767</v>
+      </c>
+      <c r="I127" s="53" t="s">
+        <v>1009</v>
+      </c>
+      <c r="J127" s="54">
+        <v>2</v>
+      </c>
+      <c r="Q127" s="54">
+        <v>2</v>
+      </c>
+      <c r="R127" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A128" s="22" t="s">
+        <v>770</v>
+      </c>
+      <c r="I128" s="53" t="s">
+        <v>1009</v>
+      </c>
+      <c r="J128" s="54">
+        <v>4</v>
+      </c>
+      <c r="Q128" s="54">
+        <v>4</v>
+      </c>
+      <c r="R128" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A129" s="22" t="s">
+        <v>774</v>
+      </c>
+      <c r="I129" s="53" t="s">
+        <v>1007</v>
+      </c>
+      <c r="J129" s="54">
         <v>3</v>
       </c>
-      <c r="Q4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="4" t="b">
+      <c r="Q129" s="54">
+        <v>3</v>
+      </c>
+      <c r="R129" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>1345</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="F5" s="4" t="s">
-        <v>1346</v>
-      </c>
-      <c r="I5" t="s">
-        <v>1004</v>
-      </c>
-      <c r="J5">
-        <v>3</v>
-      </c>
-      <c r="Q5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>63</v>
-      </c>
-      <c r="I6" t="s">
-        <v>1004</v>
-      </c>
-      <c r="J6">
-        <v>3</v>
-      </c>
-      <c r="Q6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>63</v>
-      </c>
-      <c r="I7" t="s">
-        <v>1004</v>
-      </c>
-      <c r="J7">
-        <v>3</v>
-      </c>
-      <c r="Q7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>63</v>
-      </c>
-      <c r="I8" t="s">
-        <v>1004</v>
-      </c>
-      <c r="J8">
-        <v>3</v>
-      </c>
-      <c r="Q8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>63</v>
-      </c>
-      <c r="I9" t="s">
-        <v>1004</v>
-      </c>
-      <c r="J9">
-        <v>3</v>
-      </c>
-      <c r="Q9">
-        <v>4</v>
+    </row>
+    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A130" s="22" t="s">
+        <v>571</v>
+      </c>
+      <c r="I130" s="53" t="s">
+        <v>1007</v>
+      </c>
+      <c r="J130" s="54">
+        <v>24</v>
+      </c>
+      <c r="Q130" s="54">
+        <v>24</v>
+      </c>
+      <c r="R130" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A111:A112">
+    <cfRule type="duplicateValues" dxfId="15" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A113:A117">
+    <cfRule type="duplicateValues" dxfId="13" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A118:A124">
+    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A125:A130">
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -19614,10 +21581,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H130"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -19629,16 +21596,16 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1337</v>
+        <v>1212</v>
       </c>
       <c r="B1" t="s">
-        <v>1347</v>
+        <v>1220</v>
       </c>
       <c r="C1" t="s">
-        <v>1348</v>
+        <v>1221</v>
       </c>
       <c r="D1" t="s">
-        <v>1343</v>
+        <v>1218</v>
       </c>
       <c r="E1" t="s">
         <v>86</v>
@@ -19647,26 +21614,20 @@
         <v>87</v>
       </c>
       <c r="G1" t="s">
-        <v>1342</v>
+        <v>1217</v>
       </c>
       <c r="H1" t="s">
-        <v>1344</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="B2" t="s">
-        <v>1350</v>
-      </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1004</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E2" s="53" t="s">
         <v>1004</v>
       </c>
       <c r="F2" t="s">
@@ -19676,24 +21637,2582 @@
         <v>114</v>
       </c>
       <c r="H2">
-        <v>9</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>1349</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1345</v>
-      </c>
-      <c r="H3">
+      <c r="A3" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E3" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H3" s="4">
         <v>-1</v>
       </c>
     </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H4" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E5" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H5" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>595</v>
+      </c>
+      <c r="D6" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E6" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H6" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>598</v>
+      </c>
+      <c r="D7" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E7" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H7" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>795</v>
+      </c>
+      <c r="D8" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H8" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>797</v>
+      </c>
+      <c r="D9" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H9" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>799</v>
+      </c>
+      <c r="D10" s="53" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E10" s="53" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H10" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>801</v>
+      </c>
+      <c r="D11" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H11" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>803</v>
+      </c>
+      <c r="D12" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E12" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H12" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>805</v>
+      </c>
+      <c r="D13" s="53" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E13" s="53" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H13" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>807</v>
+      </c>
+      <c r="D14" s="53" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E14" s="53" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H14" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>809</v>
+      </c>
+      <c r="D15" s="53" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E15" s="53" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H15" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
+        <v>812</v>
+      </c>
+      <c r="D16" s="53" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E16" s="53" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H16" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>815</v>
+      </c>
+      <c r="D17" s="53" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E17" s="53" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H17" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
+        <v>606</v>
+      </c>
+      <c r="D18" s="53" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E18" s="53" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H18" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>817</v>
+      </c>
+      <c r="D19" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H19" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>843</v>
+      </c>
+      <c r="D20" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H20" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="D21" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H21" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>845</v>
+      </c>
+      <c r="D22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H22" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>847</v>
+      </c>
+      <c r="D23" s="53" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E23" s="53" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H23" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D24" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E24" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H24" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="D25" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H25" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D26" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H26" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="22" t="s">
+        <v>608</v>
+      </c>
+      <c r="D27" s="53" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E27" s="53" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H27" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="D28" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E28" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H28" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="D29" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E29" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H29" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>849</v>
+      </c>
+      <c r="D30" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E30" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H30" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>852</v>
+      </c>
+      <c r="D31" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E31" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H31" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="D32" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E32" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H32" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="D33" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E33" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H33" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="22" t="s">
+        <v>611</v>
+      </c>
+      <c r="D34" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="E34" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H34" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="22" t="s">
+        <v>614</v>
+      </c>
+      <c r="D35" s="53" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E35" s="53" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H35" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="22" t="s">
+        <v>617</v>
+      </c>
+      <c r="D36" s="53" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E36" s="53" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H36" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="22" t="s">
+        <v>620</v>
+      </c>
+      <c r="D37" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="E37" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H37" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="22" t="s">
+        <v>623</v>
+      </c>
+      <c r="D38" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E38" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H38" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="22" t="s">
+        <v>625</v>
+      </c>
+      <c r="D39" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E39" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H39" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="22" t="s">
+        <v>628</v>
+      </c>
+      <c r="D40" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="E40" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H40" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="22" t="s">
+        <v>631</v>
+      </c>
+      <c r="D41" s="53" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E41" s="53" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H41" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="22" t="s">
+        <v>634</v>
+      </c>
+      <c r="D42" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E42" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H42" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="22" t="s">
+        <v>639</v>
+      </c>
+      <c r="D43" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E43" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H43" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="22" t="s">
+        <v>644</v>
+      </c>
+      <c r="D44" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E44" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H44" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="22" t="s">
+        <v>650</v>
+      </c>
+      <c r="D45" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E45" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H45" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="22" t="s">
+        <v>653</v>
+      </c>
+      <c r="D46" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E46" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H46" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="22" t="s">
+        <v>655</v>
+      </c>
+      <c r="D47" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E47" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H47" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="22" t="s">
+        <v>658</v>
+      </c>
+      <c r="D48" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E48" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H48" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="22" t="s">
+        <v>660</v>
+      </c>
+      <c r="D49" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E49" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H49" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="22" t="s">
+        <v>663</v>
+      </c>
+      <c r="D50" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E50" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H50" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="22" t="s">
+        <v>666</v>
+      </c>
+      <c r="D51" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="E51" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H51" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="22" t="s">
+        <v>669</v>
+      </c>
+      <c r="D52" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="E52" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H52" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="22" t="s">
+        <v>671</v>
+      </c>
+      <c r="D53" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="E53" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H53" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="22" t="s">
+        <v>673</v>
+      </c>
+      <c r="D54" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="E54" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H54" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="22" t="s">
+        <v>676</v>
+      </c>
+      <c r="D55" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E55" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H55" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="22" t="s">
+        <v>682</v>
+      </c>
+      <c r="D56" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E56" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H56" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="D57" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E57" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H57" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="22" t="s">
+        <v>689</v>
+      </c>
+      <c r="D58" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="E58" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H58" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="22" t="s">
+        <v>692</v>
+      </c>
+      <c r="D59" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E59" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H59" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="22" t="s">
+        <v>695</v>
+      </c>
+      <c r="D60" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E60" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H60" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="22" t="s">
+        <v>698</v>
+      </c>
+      <c r="D61" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E61" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H61" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="22" t="s">
+        <v>701</v>
+      </c>
+      <c r="D62" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E62" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H62" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="22" t="s">
+        <v>704</v>
+      </c>
+      <c r="D63" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E63" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H63" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="22" t="s">
+        <v>707</v>
+      </c>
+      <c r="D64" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E64" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H64" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="22" t="s">
+        <v>709</v>
+      </c>
+      <c r="D65" s="53" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E65" s="53" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H65" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="22" t="s">
+        <v>712</v>
+      </c>
+      <c r="D66" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E66" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H66" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="22" t="s">
+        <v>715</v>
+      </c>
+      <c r="D67" s="53" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E67" s="53" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H67" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="22" t="s">
+        <v>718</v>
+      </c>
+      <c r="D68" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E68" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H68" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="22" t="s">
+        <v>721</v>
+      </c>
+      <c r="D69" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E69" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H69" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="22" t="s">
+        <v>724</v>
+      </c>
+      <c r="D70" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E70" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H70" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="22" t="s">
+        <v>727</v>
+      </c>
+      <c r="D71" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E71" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H71" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="22" t="s">
+        <v>730</v>
+      </c>
+      <c r="D72" s="53" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E72" s="53" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H72" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="22" t="s">
+        <v>732</v>
+      </c>
+      <c r="D73" s="53" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E73" s="53" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H73" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="22" t="s">
+        <v>734</v>
+      </c>
+      <c r="D74" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="E74" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H74" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="22" t="s">
+        <v>737</v>
+      </c>
+      <c r="D75" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="E75" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H75" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="22" t="s">
+        <v>740</v>
+      </c>
+      <c r="D76" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E76" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H76" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="22" t="s">
+        <v>743</v>
+      </c>
+      <c r="D77" s="53" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E77" s="53" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H77" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="22" t="s">
+        <v>746</v>
+      </c>
+      <c r="D78" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="E78" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H78" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="22" t="s">
+        <v>749</v>
+      </c>
+      <c r="D79" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="E79" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H79" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="22" t="s">
+        <v>755</v>
+      </c>
+      <c r="D80" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="E80" s="55" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H80" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="22" t="s">
+        <v>758</v>
+      </c>
+      <c r="D81" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H81" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D82" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="E82" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H82" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D83" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="E83" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H83" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="22" t="s">
+        <v>761</v>
+      </c>
+      <c r="D84" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="E84" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H84" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D85" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="E85" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H85" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="6" t="s">
+        <v>833</v>
+      </c>
+      <c r="D86" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="E86" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H86" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="D87" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="E87" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H87" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="6" t="s">
+        <v>839</v>
+      </c>
+      <c r="D88" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="E88" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H88" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="6" t="s">
+        <v>841</v>
+      </c>
+      <c r="D89" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="E89" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H89" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="22" t="s">
+        <v>764</v>
+      </c>
+      <c r="D90" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="E90" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H90" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="22" t="s">
+        <v>686</v>
+      </c>
+      <c r="D91" s="53" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E91" s="53" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H91" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="22" t="s">
+        <v>771</v>
+      </c>
+      <c r="D92" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="E92" s="55" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H92" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="22" t="s">
+        <v>772</v>
+      </c>
+      <c r="D93" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="E93" s="55" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H93" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="22" t="s">
+        <v>776</v>
+      </c>
+      <c r="D94" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E94" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H94" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="22" t="s">
+        <v>777</v>
+      </c>
+      <c r="D95" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E95" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H95" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="22" t="s">
+        <v>780</v>
+      </c>
+      <c r="D96" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E96" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H96" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="22" t="s">
+        <v>779</v>
+      </c>
+      <c r="D97" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E97" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H97" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="22" t="s">
+        <v>783</v>
+      </c>
+      <c r="D98" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E98" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H98" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="22" t="s">
+        <v>786</v>
+      </c>
+      <c r="D99" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E99" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H99" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="22" t="s">
+        <v>789</v>
+      </c>
+      <c r="D100" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E100" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H100" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="22" t="s">
+        <v>791</v>
+      </c>
+      <c r="D101" s="53" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E101" s="53" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H101" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="22" t="s">
+        <v>793</v>
+      </c>
+      <c r="D102" s="53" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E102" s="53" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H102" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="22" t="s">
+        <v>547</v>
+      </c>
+      <c r="D103" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="E103" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H103" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="22" t="s">
+        <v>550</v>
+      </c>
+      <c r="D104" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E104" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H104" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="22" t="s">
+        <v>553</v>
+      </c>
+      <c r="D105" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E105" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H105" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="22" t="s">
+        <v>556</v>
+      </c>
+      <c r="D106" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E106" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H106" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="22" t="s">
+        <v>559</v>
+      </c>
+      <c r="D107" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E107" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H107" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="22" t="s">
+        <v>562</v>
+      </c>
+      <c r="D108" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E108" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H108" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="22" t="s">
+        <v>565</v>
+      </c>
+      <c r="D109" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E109" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H109" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="22" t="s">
+        <v>568</v>
+      </c>
+      <c r="D110" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E110" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H110" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="22" t="s">
+        <v>574</v>
+      </c>
+      <c r="D111" s="53" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E111" s="53" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H111" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="22" t="s">
+        <v>576</v>
+      </c>
+      <c r="D112" s="53" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E112" s="53" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H112" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="22" t="s">
+        <v>578</v>
+      </c>
+      <c r="D113" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E113" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H113" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="22" t="s">
+        <v>580</v>
+      </c>
+      <c r="D114" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E114" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H114" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="22" t="s">
+        <v>583</v>
+      </c>
+      <c r="D115" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E115" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H115" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="22" t="s">
+        <v>586</v>
+      </c>
+      <c r="D116" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E116" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H116" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="22" t="s">
+        <v>589</v>
+      </c>
+      <c r="D117" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E117" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H117" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="22" t="s">
+        <v>592</v>
+      </c>
+      <c r="D118" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="E118" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H118" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="22" t="s">
+        <v>544</v>
+      </c>
+      <c r="D119" s="53" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E119" s="53" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H119" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="22" t="s">
+        <v>601</v>
+      </c>
+      <c r="D120" s="53" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E120" s="53" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H120" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="22" t="s">
+        <v>603</v>
+      </c>
+      <c r="D121" s="53" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E121" s="53" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H121" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="22" t="s">
+        <v>636</v>
+      </c>
+      <c r="D122" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E122" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G122" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H122" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="22" t="s">
+        <v>642</v>
+      </c>
+      <c r="D123" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E123" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H123" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="22" t="s">
+        <v>647</v>
+      </c>
+      <c r="D124" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E124" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G124" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H124" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="22" t="s">
+        <v>679</v>
+      </c>
+      <c r="D125" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E125" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H125" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="22" t="s">
+        <v>752</v>
+      </c>
+      <c r="D126" s="53" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E126" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G126" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H126" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="22" t="s">
+        <v>767</v>
+      </c>
+      <c r="D127" s="53" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E127" s="53" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G127" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H127" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="22" t="s">
+        <v>770</v>
+      </c>
+      <c r="D128" s="53" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E128" s="53" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G128" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H128" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="22" t="s">
+        <v>774</v>
+      </c>
+      <c r="D129" s="53" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E129" s="53" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G129" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H129" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="22" t="s">
+        <v>571</v>
+      </c>
+      <c r="D130" s="53" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E130" s="53" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G130" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H130" s="4">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="A111:A112">
+    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A113:A117">
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A118:A124">
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A125:A130">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -19758,11 +24277,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BG130"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BH130"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="AU129" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AW2" sqref="AW2:AW130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -19770,12 +24289,12 @@
     <col min="1" max="5" width="9" style="4" collapsed="1"/>
     <col min="6" max="46" width="9" style="4" customWidth="1" collapsed="1"/>
     <col min="47" max="47" width="3.125" style="4" customWidth="1" collapsed="1"/>
-    <col min="48" max="58" width="9" style="4" collapsed="1"/>
-    <col min="59" max="59" width="10.875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="60" max="16384" width="9" style="4" collapsed="1"/>
+    <col min="48" max="59" width="9" style="4" collapsed="1"/>
+    <col min="60" max="60" width="9" style="4"/>
+    <col min="61" max="16384" width="9" style="4" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>36</v>
       </c>
@@ -19918,43 +24437,32 @@
         <v>43</v>
       </c>
       <c r="AV1" s="4" t="s">
-        <v>74</v>
+        <v>1223</v>
       </c>
       <c r="AW1" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AX1" s="20" t="s">
-        <v>934</v>
-      </c>
-      <c r="AY1" s="20" t="s">
-        <v>935</v>
-      </c>
-      <c r="AZ1" s="20" t="s">
-        <v>936</v>
-      </c>
-      <c r="BA1" s="20" t="s">
-        <v>937</v>
-      </c>
-      <c r="BB1" s="20" t="s">
-        <v>938</v>
-      </c>
-      <c r="BC1" s="20" t="s">
-        <v>939</v>
-      </c>
-      <c r="BD1" s="37" t="s">
-        <v>940</v>
-      </c>
-      <c r="BE1" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="BF1" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="BG1" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
+        <v>1222</v>
+      </c>
+      <c r="AX1" s="4" t="s">
+        <v>1231</v>
+      </c>
+      <c r="AY1" s="4" t="s">
+        <v>1232</v>
+      </c>
+      <c r="AZ1" s="4" t="s">
+        <v>1225</v>
+      </c>
+      <c r="BA1" s="4" t="s">
+        <v>1233</v>
+      </c>
+      <c r="BB1" s="4" t="s">
+        <v>1234</v>
+      </c>
+      <c r="BC1" s="4" t="s">
+        <v>1235</v>
+      </c>
+      <c r="BD1" s="37"/>
+    </row>
+    <row r="2" spans="1:58" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>58</v>
       </c>
@@ -20037,11 +24545,8 @@
       <c r="BF2" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG2" s="1" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:58" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>58</v>
       </c>
@@ -20124,11 +24629,8 @@
       <c r="BF3" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG3" s="1" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:58" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>58</v>
       </c>
@@ -20205,11 +24707,8 @@
       <c r="BF4" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG4" s="1" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:58" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>58</v>
       </c>
@@ -20292,11 +24791,8 @@
       <c r="BF5" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG5" s="1" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:59" ht="51" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:58" ht="51" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>58</v>
       </c>
@@ -20367,11 +24863,8 @@
       <c r="BF6" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG6" s="1" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:58" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>58</v>
       </c>
@@ -20442,11 +24935,8 @@
       <c r="BF7" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG7" s="1" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="8" spans="1:59" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:58" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>58</v>
       </c>
@@ -20517,11 +25007,8 @@
       <c r="BF8" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG8" s="1" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="9" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:58" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>58</v>
       </c>
@@ -20592,11 +25079,8 @@
       <c r="BF9" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG9" s="1" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="10" spans="1:59" ht="89.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:58" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>58</v>
       </c>
@@ -20679,11 +25163,8 @@
       <c r="BF10" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG10" s="1" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="11" spans="1:59" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:58" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>58</v>
       </c>
@@ -20742,11 +25223,8 @@
       <c r="BF11" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG11" s="1" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="12" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:58" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>58</v>
       </c>
@@ -20817,11 +25295,8 @@
       <c r="BF12" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG12" s="1" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="13" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:58" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>58</v>
       </c>
@@ -20892,11 +25367,8 @@
       <c r="BF13" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG13" s="1" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="14" spans="1:59" ht="51" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:58" ht="51" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
         <v>58</v>
       </c>
@@ -20967,11 +25439,8 @@
       <c r="BF14" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG14" s="1" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="15" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:58" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
         <v>58</v>
       </c>
@@ -21048,11 +25517,8 @@
       <c r="BF15" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG15" s="1" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="16" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:58" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
         <v>58</v>
       </c>
@@ -21111,11 +25577,8 @@
       <c r="BF16" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG16" s="1" t="s">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="17" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:58" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
         <v>58</v>
       </c>
@@ -21174,11 +25637,8 @@
       <c r="BF17" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG17" s="1" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="18" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:58" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>58</v>
       </c>
@@ -21261,9 +25721,8 @@
       <c r="BF18" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG18" s="1"/>
-    </row>
-    <row r="19" spans="1:59" ht="51" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:58" ht="51" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
         <v>58</v>
       </c>
@@ -21322,11 +25781,8 @@
       <c r="BF19" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG19" s="1" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="20" spans="1:59" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>222</v>
       </c>
@@ -21415,11 +25871,8 @@
       <c r="BF20" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="BG20" s="1" t="s">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="21" spans="1:59" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>222</v>
       </c>
@@ -21508,11 +25961,8 @@
       <c r="BF21" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="BG21" s="1" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="22" spans="1:59" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>222</v>
       </c>
@@ -21601,11 +26051,8 @@
       <c r="BF22" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="BG22" s="1" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="23" spans="1:59" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>222</v>
       </c>
@@ -21694,11 +26141,8 @@
       <c r="BF23" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="BG23" s="1" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="24" spans="1:59" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>222</v>
       </c>
@@ -21787,11 +26231,8 @@
       <c r="BF24" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="BG24" s="1" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="25" spans="1:59" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>222</v>
       </c>
@@ -21880,11 +26321,8 @@
       <c r="BF25" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="BG25" s="1" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="26" spans="1:59" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>222</v>
       </c>
@@ -21979,11 +26417,8 @@
       <c r="BF26" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="BG26" s="1" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="27" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:58" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
         <v>58</v>
       </c>
@@ -22066,9 +26501,8 @@
       <c r="BF27" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG27" s="1"/>
-    </row>
-    <row r="28" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:58" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>58</v>
       </c>
@@ -22127,11 +26561,8 @@
       <c r="BF28" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="BG28" s="1" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="29" spans="1:59" ht="51" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:58" ht="51" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>58</v>
       </c>
@@ -22190,11 +26621,8 @@
       <c r="BF29" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="BG29" s="1" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="30" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:58" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>58</v>
       </c>
@@ -22253,11 +26681,8 @@
       <c r="BF30" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="BG30" s="1" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="31" spans="1:59" ht="51" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:58" ht="51" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>58</v>
       </c>
@@ -22316,11 +26741,8 @@
       <c r="BF31" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="BG31" s="1" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="32" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:58" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>58</v>
       </c>
@@ -22379,11 +26801,8 @@
       <c r="BF32" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="BG32" s="1" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="33" spans="1:59" ht="51" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:58" ht="51" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>58</v>
       </c>
@@ -22442,11 +26861,8 @@
       <c r="BF33" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="BG33" s="1" t="s">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="34" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:58" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
         <v>58</v>
       </c>
@@ -22529,11 +26945,8 @@
       <c r="BF34" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG34" s="1" t="s">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="35" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:58" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
         <v>58</v>
       </c>
@@ -22607,7 +27020,7 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
       <c r="AV35" s="53" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="AW35" s="54">
         <v>48</v>
@@ -22622,11 +27035,8 @@
       <c r="BF35" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG35" s="1" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="36" spans="1:59" ht="51" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:58" ht="51" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
         <v>58</v>
       </c>
@@ -22703,11 +27113,8 @@
       <c r="BF36" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG36" s="1" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="37" spans="1:59" ht="51" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:58" ht="51" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
         <v>58</v>
       </c>
@@ -22778,11 +27185,8 @@
       <c r="BF37" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG37" s="1" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="38" spans="1:59" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:58" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
         <v>58</v>
       </c>
@@ -22853,11 +27257,8 @@
       <c r="BF38" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG38" s="1" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="39" spans="1:59" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:58" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
         <v>58</v>
       </c>
@@ -22928,11 +27329,8 @@
       <c r="BF39" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG39" s="1" t="s">
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="40" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:58" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
         <v>58</v>
       </c>
@@ -23015,11 +27413,8 @@
       <c r="BF40" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG40" s="1" t="s">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="41" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:58" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
         <v>58</v>
       </c>
@@ -23102,11 +27497,8 @@
       <c r="BF41" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG41" s="1" t="s">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="42" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:58" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
         <v>58</v>
       </c>
@@ -23165,11 +27557,8 @@
       <c r="BF42" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG42" s="1" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="43" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:58" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
         <v>58</v>
       </c>
@@ -23234,11 +27623,8 @@
       <c r="BF43" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG43" s="1" t="s">
-        <v>1148</v>
-      </c>
-    </row>
-    <row r="44" spans="1:59" ht="51" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:58" ht="51" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
         <v>58</v>
       </c>
@@ -23297,11 +27683,8 @@
       <c r="BF44" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG44" s="1" t="s">
-        <v>1149</v>
-      </c>
-    </row>
-    <row r="45" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:58" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
         <v>58</v>
       </c>
@@ -23360,11 +27743,8 @@
       <c r="BF45" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG45" s="1" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="46" spans="1:59" ht="102" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:58" ht="102" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
         <v>58</v>
       </c>
@@ -23421,11 +27801,8 @@
       <c r="BF46" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG46" s="1" t="s">
-        <v>1151</v>
-      </c>
-    </row>
-    <row r="47" spans="1:59" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:58" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
         <v>58</v>
       </c>
@@ -23496,11 +27873,8 @@
       <c r="BF47" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG47" s="1" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="48" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:58" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
         <v>58</v>
       </c>
@@ -23559,11 +27933,8 @@
       <c r="BF48" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG48" s="1" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="49" spans="1:59" ht="51" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:58" ht="51" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
         <v>58</v>
       </c>
@@ -23634,11 +28005,8 @@
       <c r="BF49" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG49" s="1" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="50" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:58" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A50" s="22" t="s">
         <v>58</v>
       </c>
@@ -23709,11 +28077,8 @@
       <c r="BF50" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG50" s="1" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="51" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:58" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A51" s="22" t="s">
         <v>58</v>
       </c>
@@ -23784,11 +28149,8 @@
       <c r="BF51" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG51" s="1" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="52" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:58" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="s">
         <v>58</v>
       </c>
@@ -23859,11 +28221,8 @@
       <c r="BF52" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG52" s="1" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="53" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:58" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
         <v>58</v>
       </c>
@@ -23922,11 +28281,8 @@
       <c r="BF53" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG53" s="1" t="s">
-        <v>1158</v>
-      </c>
-    </row>
-    <row r="54" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:58" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A54" s="22" t="s">
         <v>58</v>
       </c>
@@ -23991,11 +28347,8 @@
       <c r="BF54" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG54" s="1" t="s">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="55" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:58" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A55" s="22" t="s">
         <v>58</v>
       </c>
@@ -24078,11 +28431,8 @@
       <c r="BF55" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG55" s="1" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="56" spans="1:59" ht="89.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:58" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A56" s="22" t="s">
         <v>58</v>
       </c>
@@ -24141,11 +28491,8 @@
       <c r="BF56" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG56" s="1" t="s">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="57" spans="1:59" ht="51" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:58" ht="51" x14ac:dyDescent="0.25">
       <c r="A57" s="22" t="s">
         <v>58</v>
       </c>
@@ -24204,11 +28551,8 @@
       <c r="BF57" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG57" s="1" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="58" spans="1:59" ht="51" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:58" ht="51" x14ac:dyDescent="0.25">
       <c r="A58" s="22" t="s">
         <v>58</v>
       </c>
@@ -24279,11 +28623,8 @@
       <c r="BF58" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG58" s="1" t="s">
-        <v>1163</v>
-      </c>
-    </row>
-    <row r="59" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:58" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A59" s="22" t="s">
         <v>58</v>
       </c>
@@ -24360,11 +28701,8 @@
       <c r="BF59" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG59" s="1" t="s">
-        <v>1164</v>
-      </c>
-    </row>
-    <row r="60" spans="1:59" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:58" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A60" s="22" t="s">
         <v>58</v>
       </c>
@@ -24441,11 +28779,8 @@
       <c r="BF60" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG60" s="1" t="s">
-        <v>1165</v>
-      </c>
-    </row>
-    <row r="61" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:58" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A61" s="22" t="s">
         <v>58</v>
       </c>
@@ -24504,11 +28839,8 @@
       <c r="BF61" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG61" s="1" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="62" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:58" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A62" s="22" t="s">
         <v>58</v>
       </c>
@@ -24567,11 +28899,8 @@
       <c r="BF62" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG62" s="1" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="63" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:58" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A63" s="22" t="s">
         <v>58</v>
       </c>
@@ -24630,11 +28959,8 @@
       <c r="BF63" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG63" s="1" t="s">
-        <v>1168</v>
-      </c>
-    </row>
-    <row r="64" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:58" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A64" s="22" t="s">
         <v>58</v>
       </c>
@@ -24693,11 +29019,8 @@
       <c r="BF64" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG64" s="1" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="65" spans="1:59" ht="51" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:58" ht="51" x14ac:dyDescent="0.25">
       <c r="A65" s="23" t="s">
         <v>58</v>
       </c>
@@ -24768,11 +29091,8 @@
       <c r="BF65" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG65" s="1" t="s">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="66" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:58" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A66" s="23" t="s">
         <v>58</v>
       </c>
@@ -24837,11 +29157,8 @@
       <c r="BF66" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG66" s="1" t="s">
-        <v>1171</v>
-      </c>
-    </row>
-    <row r="67" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:58" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A67" s="23" t="s">
         <v>58</v>
       </c>
@@ -24912,11 +29229,8 @@
       <c r="BF67" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG67" s="1" t="s">
-        <v>1172</v>
-      </c>
-    </row>
-    <row r="68" spans="1:59" ht="51" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:58" ht="51" x14ac:dyDescent="0.25">
       <c r="A68" s="23" t="s">
         <v>58</v>
       </c>
@@ -24975,11 +29289,8 @@
       <c r="BF68" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG68" s="1" t="s">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="69" spans="1:59" ht="51" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:58" ht="51" x14ac:dyDescent="0.25">
       <c r="A69" s="23" t="s">
         <v>58</v>
       </c>
@@ -25050,11 +29361,8 @@
       <c r="BF69" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG69" s="1" t="s">
-        <v>1174</v>
-      </c>
-    </row>
-    <row r="70" spans="1:59" ht="51" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:58" ht="51" x14ac:dyDescent="0.25">
       <c r="A70" s="23" t="s">
         <v>58</v>
       </c>
@@ -25125,11 +29433,8 @@
       <c r="BF70" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG70" s="1" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="71" spans="1:59" ht="51" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:58" ht="51" x14ac:dyDescent="0.25">
       <c r="A71" s="23" t="s">
         <v>58</v>
       </c>
@@ -25188,11 +29493,8 @@
       <c r="BF71" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG71" s="1" t="s">
-        <v>1176</v>
-      </c>
-    </row>
-    <row r="72" spans="1:59" ht="51" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:58" ht="51" x14ac:dyDescent="0.25">
       <c r="A72" s="23" t="s">
         <v>58</v>
       </c>
@@ -25257,11 +29559,8 @@
       <c r="BF72" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG72" s="1" t="s">
-        <v>1177</v>
-      </c>
-    </row>
-    <row r="73" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:58" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A73" s="23" t="s">
         <v>58</v>
       </c>
@@ -25326,11 +29625,8 @@
       <c r="BF73" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG73" s="1" t="s">
-        <v>1178</v>
-      </c>
-    </row>
-    <row r="74" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:58" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A74" s="22" t="s">
         <v>58</v>
       </c>
@@ -25401,11 +29697,8 @@
       <c r="BF74" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG74" s="1" t="s">
-        <v>1179</v>
-      </c>
-    </row>
-    <row r="75" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:58" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A75" s="22" t="s">
         <v>58</v>
       </c>
@@ -25476,11 +29769,8 @@
       <c r="BF75" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG75" s="1" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="76" spans="1:59" ht="51" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:58" ht="51" x14ac:dyDescent="0.25">
       <c r="A76" s="22" t="s">
         <v>58</v>
       </c>
@@ -25539,11 +29829,8 @@
       <c r="BF76" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG76" s="1" t="s">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="77" spans="1:59" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:58" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A77" s="22" t="s">
         <v>58</v>
       </c>
@@ -25602,11 +29889,8 @@
       <c r="BF77" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG77" s="1" t="s">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="78" spans="1:59" ht="51" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:58" ht="51" x14ac:dyDescent="0.25">
       <c r="A78" s="22" t="s">
         <v>58</v>
       </c>
@@ -25665,11 +29949,8 @@
       <c r="BF78" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG78" s="1" t="s">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="79" spans="1:59" ht="51" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:58" ht="51" x14ac:dyDescent="0.25">
       <c r="A79" s="23" t="s">
         <v>58</v>
       </c>
@@ -25740,11 +30021,8 @@
       <c r="BF79" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG79" s="1" t="s">
-        <v>1184</v>
-      </c>
-    </row>
-    <row r="80" spans="1:59" ht="51" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:58" ht="51" x14ac:dyDescent="0.25">
       <c r="A80" s="22" t="s">
         <v>58</v>
       </c>
@@ -25803,11 +30081,8 @@
       <c r="BF80" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG80" s="1" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="81" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:58" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A81" s="22" t="s">
         <v>58</v>
       </c>
@@ -25872,11 +30147,8 @@
       <c r="BF81" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG81" s="1" t="s">
-        <v>1186</v>
-      </c>
-    </row>
-    <row r="82" spans="1:59" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>222</v>
       </c>
@@ -25971,11 +30243,8 @@
       <c r="BF82" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="BG82" s="1" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="83" spans="1:59" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>222</v>
       </c>
@@ -26070,11 +30339,8 @@
       <c r="BF83" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="BG83" s="1" t="s">
-        <v>1188</v>
-      </c>
-    </row>
-    <row r="84" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:58" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A84" s="22" t="s">
         <v>58</v>
       </c>
@@ -26133,11 +30399,8 @@
       <c r="BF84" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG84" s="1" t="s">
-        <v>1189</v>
-      </c>
-    </row>
-    <row r="85" spans="1:59" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>222</v>
       </c>
@@ -26226,11 +30489,8 @@
       <c r="BF85" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="BG85" s="1" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="86" spans="1:59" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>222</v>
       </c>
@@ -26319,11 +30579,8 @@
       <c r="BF86" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="BG86" s="1" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="87" spans="1:59" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>222</v>
       </c>
@@ -26418,11 +30675,8 @@
       <c r="BF87" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="BG87" s="1" t="s">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="88" spans="1:59" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>222</v>
       </c>
@@ -26511,11 +30765,8 @@
       <c r="BF88" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="BG88" s="1" t="s">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="89" spans="1:59" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>222</v>
       </c>
@@ -26610,11 +30861,8 @@
       <c r="BF89" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="BG89" s="1" t="s">
-        <v>1194</v>
-      </c>
-    </row>
-    <row r="90" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:58" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A90" s="22" t="s">
         <v>58</v>
       </c>
@@ -26703,11 +30951,8 @@
       <c r="BF90" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG90" s="1" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="91" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:58" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A91" s="22" t="s">
         <v>58</v>
       </c>
@@ -26778,11 +31023,8 @@
       <c r="BF91" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG91" s="1" t="s">
-        <v>1196</v>
-      </c>
-    </row>
-    <row r="92" spans="1:59" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A92" s="22" t="s">
         <v>58</v>
       </c>
@@ -26853,11 +31095,8 @@
       <c r="BF92" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG92" s="1" t="s">
-        <v>1197</v>
-      </c>
-    </row>
-    <row r="93" spans="1:59" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A93" s="22" t="s">
         <v>58</v>
       </c>
@@ -26928,11 +31167,8 @@
       <c r="BF93" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG93" s="1" t="s">
-        <v>1198</v>
-      </c>
-    </row>
-    <row r="94" spans="1:59" ht="51" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:58" ht="51" x14ac:dyDescent="0.25">
       <c r="A94" s="22" t="s">
         <v>58</v>
       </c>
@@ -26991,11 +31227,8 @@
       <c r="BF94" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG94" s="1" t="s">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="95" spans="1:59" ht="51" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:58" ht="51" x14ac:dyDescent="0.25">
       <c r="A95" s="22" t="s">
         <v>58</v>
       </c>
@@ -27054,11 +31287,8 @@
       <c r="BF95" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG95" s="1" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="96" spans="1:59" ht="51" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:58" ht="51" x14ac:dyDescent="0.25">
       <c r="A96" s="22" t="s">
         <v>58</v>
       </c>
@@ -27117,11 +31347,8 @@
       <c r="BF96" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG96" s="1" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="97" spans="1:59" ht="51" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:58" ht="51" x14ac:dyDescent="0.25">
       <c r="A97" s="22" t="s">
         <v>58</v>
       </c>
@@ -27180,11 +31407,8 @@
       <c r="BF97" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG97" s="1" t="s">
-        <v>1202</v>
-      </c>
-    </row>
-    <row r="98" spans="1:59" ht="51" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:58" ht="51" x14ac:dyDescent="0.25">
       <c r="A98" s="22" t="s">
         <v>58</v>
       </c>
@@ -27243,11 +31467,8 @@
       <c r="BF98" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG98" s="1" t="s">
-        <v>1203</v>
-      </c>
-    </row>
-    <row r="99" spans="1:59" ht="102" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:58" ht="102" x14ac:dyDescent="0.25">
       <c r="A99" s="22" t="s">
         <v>58</v>
       </c>
@@ -27306,11 +31527,8 @@
       <c r="BF99" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG99" s="1" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="100" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:58" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A100" s="23" t="s">
         <v>58</v>
       </c>
@@ -27381,11 +31599,8 @@
       <c r="BF100" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG100" s="1" t="s">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="101" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:58" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A101" s="23" t="s">
         <v>58</v>
       </c>
@@ -27456,11 +31671,8 @@
       <c r="BF101" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG101" s="1" t="s">
-        <v>1206</v>
-      </c>
-    </row>
-    <row r="102" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:58" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A102" s="23" t="s">
         <v>58</v>
       </c>
@@ -27531,11 +31743,8 @@
       <c r="BF102" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG102" s="1" t="s">
-        <v>1207</v>
-      </c>
-    </row>
-    <row r="103" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:58" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A103" s="23" t="s">
         <v>248</v>
       </c>
@@ -27618,11 +31827,8 @@
       <c r="BF103" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG103" s="1" t="s">
-        <v>1208</v>
-      </c>
-    </row>
-    <row r="104" spans="1:59" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A104" s="22" t="s">
         <v>248</v>
       </c>
@@ -27699,11 +31905,8 @@
       <c r="BF104" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG104" s="40" t="s">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="105" spans="1:59" ht="51" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:58" ht="51" x14ac:dyDescent="0.25">
       <c r="A105" s="22" t="s">
         <v>248</v>
       </c>
@@ -27774,11 +31977,8 @@
       <c r="BF105" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG105" s="1" t="s">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="106" spans="1:59" ht="51" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:58" ht="51" x14ac:dyDescent="0.25">
       <c r="A106" s="22" t="s">
         <v>248</v>
       </c>
@@ -27849,11 +32049,8 @@
       <c r="BF106" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG106" s="1" t="s">
-        <v>1211</v>
-      </c>
-    </row>
-    <row r="107" spans="1:59" ht="51" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:58" ht="51" x14ac:dyDescent="0.25">
       <c r="A107" s="22" t="s">
         <v>248</v>
       </c>
@@ -27924,11 +32121,8 @@
       <c r="BF107" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG107" s="1" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="108" spans="1:59" ht="51" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:58" ht="51" x14ac:dyDescent="0.25">
       <c r="A108" s="22" t="s">
         <v>248</v>
       </c>
@@ -27999,11 +32193,8 @@
       <c r="BF108" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG108" s="1" t="s">
-        <v>1213</v>
-      </c>
-    </row>
-    <row r="109" spans="1:59" ht="51" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:58" ht="51" x14ac:dyDescent="0.25">
       <c r="A109" s="22" t="s">
         <v>248</v>
       </c>
@@ -28074,11 +32265,8 @@
       <c r="BF109" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG109" s="1" t="s">
-        <v>1214</v>
-      </c>
-    </row>
-    <row r="110" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:58" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A110" s="22" t="s">
         <v>248</v>
       </c>
@@ -28149,11 +32337,8 @@
       <c r="BF110" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG110" s="1" t="s">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="111" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:58" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A111" s="22" t="s">
         <v>248</v>
       </c>
@@ -28230,11 +32415,8 @@
       <c r="BF111" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG111" s="1" t="s">
-        <v>1216</v>
-      </c>
-    </row>
-    <row r="112" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:58" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A112" s="22" t="s">
         <v>248</v>
       </c>
@@ -28323,11 +32505,8 @@
       <c r="BF112" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG112" s="1" t="s">
-        <v>1217</v>
-      </c>
-    </row>
-    <row r="113" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:58" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A113" s="22" t="s">
         <v>248</v>
       </c>
@@ -28410,11 +32589,8 @@
       <c r="BF113" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG113" s="1" t="s">
-        <v>1218</v>
-      </c>
-    </row>
-    <row r="114" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:58" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A114" s="22" t="s">
         <v>248</v>
       </c>
@@ -28479,11 +32655,8 @@
       <c r="BF114" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG114" s="1" t="s">
-        <v>1219</v>
-      </c>
-    </row>
-    <row r="115" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:58" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A115" s="22" t="s">
         <v>248</v>
       </c>
@@ -28572,11 +32745,8 @@
       <c r="BF115" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG115" s="1" t="s">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="116" spans="1:59" ht="51" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:58" ht="51" x14ac:dyDescent="0.25">
       <c r="A116" s="22" t="s">
         <v>248</v>
       </c>
@@ -28665,11 +32835,8 @@
       <c r="BF116" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG116" s="1" t="s">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="117" spans="1:59" ht="51" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:58" ht="51" x14ac:dyDescent="0.25">
       <c r="A117" s="22" t="s">
         <v>248</v>
       </c>
@@ -28758,11 +32925,8 @@
       <c r="BF117" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG117" s="1" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="118" spans="1:59" ht="89.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:58" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A118" s="22" t="s">
         <v>248</v>
       </c>
@@ -28821,11 +32985,8 @@
       <c r="BF118" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG118" s="1" t="s">
-        <v>1223</v>
-      </c>
-    </row>
-    <row r="119" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:58" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A119" s="22" t="s">
         <v>248</v>
       </c>
@@ -28902,11 +33063,8 @@
       <c r="BF119" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG119" s="1" t="s">
-        <v>1224</v>
-      </c>
-    </row>
-    <row r="120" spans="1:59" ht="89.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:58" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A120" s="22" t="s">
         <v>248</v>
       </c>
@@ -28989,11 +33147,8 @@
       <c r="BF120" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG120" s="1" t="s">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="121" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:58" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A121" s="22" t="s">
         <v>248</v>
       </c>
@@ -29076,11 +33231,8 @@
       <c r="BF121" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG121" s="1" t="s">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="122" spans="1:59" ht="51" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:58" ht="51" x14ac:dyDescent="0.25">
       <c r="A122" s="22" t="s">
         <v>248</v>
       </c>
@@ -29139,11 +33291,8 @@
       <c r="BF122" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG122" s="1" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="123" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:58" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A123" s="22" t="s">
         <v>248</v>
       </c>
@@ -29202,11 +33351,8 @@
       <c r="BF123" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG123" s="1" t="s">
-        <v>1228</v>
-      </c>
-    </row>
-    <row r="124" spans="1:59" ht="127.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:58" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A124" s="22" t="s">
         <v>248</v>
       </c>
@@ -29265,11 +33411,8 @@
       <c r="BF124" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG124" s="1" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="125" spans="1:59" ht="51" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:58" ht="51" x14ac:dyDescent="0.25">
       <c r="A125" s="22" t="s">
         <v>248</v>
       </c>
@@ -29352,11 +33495,8 @@
       <c r="BF125" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG125" s="1" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="126" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:58" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A126" s="22" t="s">
         <v>248</v>
       </c>
@@ -29439,11 +33579,8 @@
       <c r="BF126" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG126" s="1" t="s">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="127" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:58" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A127" s="22" t="s">
         <v>248</v>
       </c>
@@ -29514,9 +33651,8 @@
       <c r="BF127" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG127" s="1"/>
-    </row>
-    <row r="128" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:58" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A128" s="22" t="s">
         <v>248</v>
       </c>
@@ -29599,9 +33735,8 @@
       <c r="BF128" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG128" s="1"/>
-    </row>
-    <row r="129" spans="1:59" ht="89.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:58" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A129" s="22" t="s">
         <v>248</v>
       </c>
@@ -29679,16 +33814,13 @@
         <v>3</v>
       </c>
       <c r="BE129" s="53" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="BF129" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG129" s="1" t="s">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="130" spans="1:59" ht="51" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:58" ht="51" x14ac:dyDescent="0.25">
       <c r="A130" s="22" t="s">
         <v>248</v>
       </c>
@@ -29754,34 +33886,32 @@
         <v>24</v>
       </c>
       <c r="BE130" s="53" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="BF130" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG130" s="1" t="s">
-        <v>1233</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BG130">
+  <autoFilter ref="A1:BF130">
     <sortState ref="A2:BG130">
       <sortCondition ref="E1:E130"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="E111:E112">
-    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E113:E117">
-    <cfRule type="duplicateValues" dxfId="10" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118:E124">
-    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E125:E130">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -30038,7 +34168,7 @@
         <v>89</v>
       </c>
       <c r="BG2" s="1" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="3" spans="1:59" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
@@ -30113,7 +34243,7 @@
         <v>89</v>
       </c>
       <c r="BG3" s="1" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="4" spans="1:59" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -30249,7 +34379,7 @@
         <v>89</v>
       </c>
       <c r="BG5" s="1" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="6" spans="1:59" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
@@ -30324,7 +34454,7 @@
         <v>89</v>
       </c>
       <c r="BG6" s="1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="7" spans="1:59" s="4" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
@@ -30399,7 +34529,7 @@
         <v>89</v>
       </c>
       <c r="BG7" s="1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="8" spans="1:59" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
@@ -30474,7 +34604,7 @@
         <v>89</v>
       </c>
       <c r="BG8" s="1" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="9" spans="1:59" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
@@ -30537,7 +34667,7 @@
         <v>89</v>
       </c>
       <c r="BG9" s="1" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="10" spans="1:59" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
@@ -30606,7 +34736,7 @@
         <v>89</v>
       </c>
       <c r="BG10" s="1" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="11" spans="1:59" s="4" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
@@ -30693,7 +34823,7 @@
         <v>89</v>
       </c>
       <c r="BG11" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="12" spans="1:59" s="4" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
@@ -30756,7 +34886,7 @@
         <v>89</v>
       </c>
       <c r="BG12" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="13" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -30819,7 +34949,7 @@
         <v>89</v>
       </c>
       <c r="BG13" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="14" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -30894,7 +35024,7 @@
         <v>89</v>
       </c>
       <c r="BG14" s="1" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="15" spans="1:59" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
@@ -30975,7 +35105,7 @@
         <v>89</v>
       </c>
       <c r="BG15" s="1" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="16" spans="1:59" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
@@ -31056,7 +35186,7 @@
         <v>89</v>
       </c>
       <c r="BG16" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="17" spans="1:59" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -31119,7 +35249,7 @@
         <v>89</v>
       </c>
       <c r="BG17" s="1" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="18" spans="1:59" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -31182,7 +35312,7 @@
         <v>89</v>
       </c>
       <c r="BG18" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="19" spans="1:59" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -31245,7 +35375,7 @@
         <v>89</v>
       </c>
       <c r="BG19" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="20" spans="1:59" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -31308,7 +35438,7 @@
         <v>89</v>
       </c>
       <c r="BG20" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="21" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -31383,7 +35513,7 @@
         <v>89</v>
       </c>
       <c r="BG21" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="22" spans="1:59" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -31452,7 +35582,7 @@
         <v>89</v>
       </c>
       <c r="BG22" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="23" spans="1:59" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -31527,7 +35657,7 @@
         <v>89</v>
       </c>
       <c r="BG23" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="24" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -31590,7 +35720,7 @@
         <v>89</v>
       </c>
       <c r="BG24" s="1" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="25" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -31665,7 +35795,7 @@
         <v>89</v>
       </c>
       <c r="BG25" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="26" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -31740,7 +35870,7 @@
         <v>89</v>
       </c>
       <c r="BG26" s="1" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="27" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -31803,7 +35933,7 @@
         <v>89</v>
       </c>
       <c r="BG27" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="28" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -31872,7 +36002,7 @@
         <v>89</v>
       </c>
       <c r="BG28" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="29" spans="1:59" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
@@ -31941,7 +36071,7 @@
         <v>89</v>
       </c>
       <c r="BG29" s="1" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="30" spans="1:59" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
@@ -32016,7 +36146,7 @@
         <v>89</v>
       </c>
       <c r="BG30" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="31" spans="1:59" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
@@ -32091,7 +36221,7 @@
         <v>89</v>
       </c>
       <c r="BG31" s="1" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="32" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -32154,7 +36284,7 @@
         <v>89</v>
       </c>
       <c r="BG32" s="1" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="33" spans="1:59" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -32217,7 +36347,7 @@
         <v>89</v>
       </c>
       <c r="BG33" s="1" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="34" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -32280,7 +36410,7 @@
         <v>89</v>
       </c>
       <c r="BG34" s="1" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="35" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -32355,7 +36485,7 @@
         <v>89</v>
       </c>
       <c r="BG35" s="1" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="36" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -32418,7 +36548,7 @@
         <v>89</v>
       </c>
       <c r="BG36" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="37" spans="1:59" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -32487,7 +36617,7 @@
         <v>89</v>
       </c>
       <c r="BG37" s="1" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="38" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -32586,7 +36716,7 @@
         <v>89</v>
       </c>
       <c r="BG38" s="1" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="39" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -32685,7 +36815,7 @@
         <v>89</v>
       </c>
       <c r="BG39" s="1" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="40" spans="1:59" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -32748,7 +36878,7 @@
         <v>89</v>
       </c>
       <c r="BG40" s="1" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="41" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -32841,7 +36971,7 @@
         <v>89</v>
       </c>
       <c r="BG41" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="42" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -32934,7 +37064,7 @@
         <v>89</v>
       </c>
       <c r="BG42" s="1" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="43" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -33033,7 +37163,7 @@
         <v>89</v>
       </c>
       <c r="BG43" s="1" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="44" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -33126,7 +37256,7 @@
         <v>89</v>
       </c>
       <c r="BG44" s="1" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="45" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -33225,7 +37355,7 @@
         <v>89</v>
       </c>
       <c r="BG45" s="1" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="46" spans="1:59" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -33318,7 +37448,7 @@
         <v>89</v>
       </c>
       <c r="BG46" s="1" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="47" spans="1:59" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -33393,7 +37523,7 @@
         <v>89</v>
       </c>
       <c r="BG47" s="1" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="48" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -33468,7 +37598,7 @@
         <v>89</v>
       </c>
       <c r="BG48" s="1" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="49" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -33543,7 +37673,7 @@
         <v>89</v>
       </c>
       <c r="BG49" s="1" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="50" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -33606,7 +37736,7 @@
         <v>89</v>
       </c>
       <c r="BG50" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="51" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -33669,7 +37799,7 @@
         <v>89</v>
       </c>
       <c r="BG51" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="52" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -33732,7 +37862,7 @@
         <v>89</v>
       </c>
       <c r="BG52" s="1" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="53" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -33795,7 +37925,7 @@
         <v>89</v>
       </c>
       <c r="BG53" s="1" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="54" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -33858,7 +37988,7 @@
         <v>89</v>
       </c>
       <c r="BG54" s="1" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="55" spans="1:59" s="4" customFormat="1" ht="102" x14ac:dyDescent="0.25">
@@ -33921,7 +38051,7 @@
         <v>89</v>
       </c>
       <c r="BG55" s="1" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="56" spans="1:59" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -33996,7 +38126,7 @@
         <v>89</v>
       </c>
       <c r="BG56" s="1" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="57" spans="1:59" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -34071,7 +38201,7 @@
         <v>89</v>
       </c>
       <c r="BG57" s="1" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="58" spans="1:59" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
@@ -34146,7 +38276,7 @@
         <v>89</v>
       </c>
       <c r="BG58" s="1" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="59" spans="1:59" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -34233,7 +38363,7 @@
         <v>89</v>
       </c>
       <c r="BG59" s="1" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="60" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -34314,7 +38444,7 @@
         <v>89</v>
       </c>
       <c r="BG60" s="40" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="61" spans="1:59" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
@@ -34389,7 +38519,7 @@
         <v>89</v>
       </c>
       <c r="BG61" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="62" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -34464,7 +38594,7 @@
         <v>89</v>
       </c>
       <c r="BG62" s="1" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="63" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -34539,7 +38669,7 @@
         <v>89</v>
       </c>
       <c r="BG63" s="1" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="64" spans="1:59" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
@@ -34614,7 +38744,7 @@
         <v>89</v>
       </c>
       <c r="BG64" s="1" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="65" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -34689,7 +38819,7 @@
         <v>89</v>
       </c>
       <c r="BG65" s="1" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="66" spans="1:59" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
@@ -34764,7 +38894,7 @@
         <v>89</v>
       </c>
       <c r="BG66" s="1" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="67" spans="1:59" s="4" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
@@ -34845,7 +38975,7 @@
         <v>89</v>
       </c>
       <c r="BG67" s="1" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="68" spans="1:59" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -34938,7 +39068,7 @@
         <v>89</v>
       </c>
       <c r="BG68" s="1" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="69" spans="1:59" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -35025,7 +39155,7 @@
         <v>89</v>
       </c>
       <c r="BG69" s="1" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="70" spans="1:59" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -35094,7 +39224,7 @@
         <v>89</v>
       </c>
       <c r="BG70" s="1" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="71" spans="1:59" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -35187,7 +39317,7 @@
         <v>89</v>
       </c>
       <c r="BG71" s="1" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="72" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -35280,7 +39410,7 @@
         <v>89</v>
       </c>
       <c r="BG72" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="73" spans="1:59" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
@@ -35373,7 +39503,7 @@
         <v>89</v>
       </c>
       <c r="BG73" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="74" spans="1:59" s="4" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
@@ -35436,7 +39566,7 @@
         <v>89</v>
       </c>
       <c r="BG74" s="1" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="75" spans="1:59" s="4" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
@@ -35517,7 +39647,7 @@
         <v>89</v>
       </c>
       <c r="BG75" s="1" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="76" spans="1:59" s="4" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
@@ -35604,7 +39734,7 @@
         <v>89</v>
       </c>
       <c r="BG76" s="1" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="77" spans="1:59" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
@@ -35691,7 +39821,7 @@
         <v>89</v>
       </c>
       <c r="BG77" s="1" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="78" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -35754,7 +39884,7 @@
         <v>89</v>
       </c>
       <c r="BG78" s="1" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="79" spans="1:59" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -35817,7 +39947,7 @@
         <v>89</v>
       </c>
       <c r="BG79" s="1" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="80" spans="1:59" s="4" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
@@ -35880,7 +40010,7 @@
         <v>89</v>
       </c>
       <c r="BG80" s="1" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="81" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -35967,7 +40097,7 @@
         <v>89</v>
       </c>
       <c r="BG81" s="1" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="82" spans="1:59" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -36054,7 +40184,7 @@
         <v>89</v>
       </c>
       <c r="BG82" s="1" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="83" spans="1:59" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
@@ -36299,7 +40429,7 @@
         <v>89</v>
       </c>
       <c r="BG85" s="1" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="86" spans="1:59" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -36374,7 +40504,7 @@
         <v>89</v>
       </c>
       <c r="BG86" s="1" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
   </sheetData>
@@ -36384,16 +40514,16 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="E67:E68">
-    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69:E73">
-    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74:E80">
-    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81:E86">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/resources/excels/KE.xlsx
+++ b/resources/excels/KE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lt13221390/Documents/Customer-portal/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFD3052-E0B5-3A4B-805E-1BF096935E35}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75EA96D9-37DB-F54B-A9EA-6F619230FCF6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="34080" windowHeight="10080" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -500,7 +500,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8670" uniqueCount="1253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8682" uniqueCount="1263">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -4289,6 +4289,36 @@
   </si>
   <si>
     <t>Actions</t>
+  </si>
+  <si>
+    <t>LINKED MSISDN</t>
+  </si>
+  <si>
+    <t>MSISDN</t>
+  </si>
+  <si>
+    <t>SIM Number</t>
+  </si>
+  <si>
+    <t>GSM Service Activation Date</t>
+  </si>
+  <si>
+    <t>Line Type</t>
+  </si>
+  <si>
+    <t>Payment Level</t>
+  </si>
+  <si>
+    <t>GSM Status</t>
+  </si>
+  <si>
+    <t>Current Usage Limit</t>
+  </si>
+  <si>
+    <t>CUG</t>
+  </si>
+  <si>
+    <t>Security Deposit</t>
   </si>
 </sst>
 </file>
@@ -4491,7 +4521,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -4586,6 +4616,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4603,7 +4642,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -4770,6 +4809,7 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -18288,10 +18328,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -19003,6 +19043,44 @@
       </c>
       <c r="H24" s="98" t="s">
         <v>1252</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="103" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B25" s="98" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C25" s="98" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D25" s="98" t="s">
+        <v>1256</v>
+      </c>
+      <c r="E25" s="98" t="s">
+        <v>1257</v>
+      </c>
+      <c r="F25" s="98" t="s">
+        <v>1258</v>
+      </c>
+      <c r="G25" s="104" t="s">
+        <v>1259</v>
+      </c>
+      <c r="H25" s="104" t="s">
+        <v>1260</v>
+      </c>
+      <c r="I25" s="104" t="s">
+        <v>1230</v>
+      </c>
+      <c r="J25" s="104" t="s">
+        <v>1261</v>
+      </c>
+      <c r="K25" s="104" t="s">
+        <v>99</v>
+      </c>
+      <c r="L25" s="104" t="s">
+        <v>1262</v>
       </c>
     </row>
   </sheetData>

--- a/resources/excels/KE.xlsx
+++ b/resources/excels/KE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="34080" windowHeight="10080" firstSheet="17" activeTab="19"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="34080" windowHeight="10080" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -500,7 +500,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6466" uniqueCount="1251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6478" uniqueCount="1261">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -4283,6 +4283,36 @@
   </si>
   <si>
     <t>Actions</t>
+  </si>
+  <si>
+    <t>LINKED MSISDN</t>
+  </si>
+  <si>
+    <t>MSISDN</t>
+  </si>
+  <si>
+    <t>SIM Number</t>
+  </si>
+  <si>
+    <t>GSM Service Activation Date</t>
+  </si>
+  <si>
+    <t>Line Type</t>
+  </si>
+  <si>
+    <t>Payment Level</t>
+  </si>
+  <si>
+    <t>GSM Status</t>
+  </si>
+  <si>
+    <t>Current Usage Limit</t>
+  </si>
+  <si>
+    <t>CUG</t>
+  </si>
+  <si>
+    <t>Security Deposit</t>
   </si>
 </sst>
 </file>
@@ -4475,7 +4505,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -4557,6 +4587,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4574,7 +4613,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -4726,6 +4765,7 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4971,7 +5011,7 @@
         <xdr:cNvPr id="9217" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000001240000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001240000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5019,7 +5059,7 @@
         <xdr:cNvPr id="3" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5067,7 +5107,7 @@
         <xdr:cNvPr id="4" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EF08D5FD-92C7-4540-AF22-FEEA19CA4C87}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF08D5FD-92C7-4540-AF22-FEEA19CA4C87}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5115,7 +5155,7 @@
         <xdr:cNvPr id="5" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{14EBD159-F09F-5A4A-BACB-F932EFB20343}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14EBD159-F09F-5A4A-BACB-F932EFB20343}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10176,7 +10216,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
@@ -10899,10 +10939,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -11614,6 +11654,44 @@
       </c>
       <c r="H24" s="93" t="s">
         <v>1250</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" s="4" customFormat="1">
+      <c r="A25" s="98" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B25" s="93" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C25" s="93" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D25" s="93" t="s">
+        <v>1254</v>
+      </c>
+      <c r="E25" s="93" t="s">
+        <v>1255</v>
+      </c>
+      <c r="F25" s="93" t="s">
+        <v>1256</v>
+      </c>
+      <c r="G25" s="99" t="s">
+        <v>1257</v>
+      </c>
+      <c r="H25" s="99" t="s">
+        <v>1258</v>
+      </c>
+      <c r="I25" s="99" t="s">
+        <v>1228</v>
+      </c>
+      <c r="J25" s="99" t="s">
+        <v>1259</v>
+      </c>
+      <c r="K25" s="99" t="s">
+        <v>99</v>
+      </c>
+      <c r="L25" s="99" t="s">
+        <v>1260</v>
       </c>
     </row>
   </sheetData>

--- a/resources/excels/KE.xlsx
+++ b/resources/excels/KE.xlsx
@@ -1,47 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2394650\IdeaProjects\cs-portal-automation_selenium1\resources\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="34080" windowHeight="10080" firstSheet="2" activeTab="3"/>
+    <workbookView activeTab="3" firstSheet="2" windowHeight="10080" windowWidth="34080" xWindow="0" yWindow="495"/>
   </bookViews>
   <sheets>
-    <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
-    <sheet name="Priority" sheetId="10" r:id="rId2"/>
-    <sheet name="Headers" sheetId="9" r:id="rId3"/>
-    <sheet name="NFTRTickets-San" sheetId="3" r:id="rId4"/>
-    <sheet name="SLA Configuration" sheetId="29" r:id="rId5"/>
-    <sheet name="Assignment Rule" sheetId="28" r:id="rId6"/>
-    <sheet name="FTRTickets-San" sheetId="2" r:id="rId7"/>
-    <sheet name="NFTRTickets-Reg" sheetId="25" r:id="rId8"/>
-    <sheet name="NFTRTickets-Reg1" sheetId="11" r:id="rId9"/>
-    <sheet name="FTRTickets-Reg" sheetId="12" r:id="rId10"/>
-    <sheet name="UserManagement" sheetId="19" r:id="rId11"/>
-    <sheet name="PinnedTags" sheetId="5" r:id="rId12"/>
-    <sheet name="Ticket State" sheetId="6" r:id="rId13"/>
-    <sheet name="TemplateManagement" sheetId="20" r:id="rId14"/>
-    <sheet name="Ticket Transfer Rules" sheetId="15" r:id="rId15"/>
-    <sheet name="Ticket Transfer Rules Config" sheetId="30" r:id="rId16"/>
-    <sheet name="Authentication Policy" sheetId="17" r:id="rId17"/>
-    <sheet name="Action Tagging" sheetId="18" r:id="rId18"/>
-    <sheet name="QuestionAnswerKey" sheetId="27" r:id="rId19"/>
-    <sheet name="State Queue Mapping" sheetId="21" r:id="rId20"/>
-    <sheet name="State Queue Mapping Config" sheetId="31" r:id="rId21"/>
-    <sheet name="Transfer To Queue" sheetId="24" r:id="rId22"/>
+    <sheet name="LoginCredentials" r:id="rId1" sheetId="1"/>
+    <sheet name="Priority" r:id="rId2" sheetId="10"/>
+    <sheet name="Headers" r:id="rId3" sheetId="9"/>
+    <sheet name="NFTRTickets-San" r:id="rId4" sheetId="3"/>
+    <sheet name="SLA Configuration" r:id="rId5" sheetId="29"/>
+    <sheet name="Assignment Rule" r:id="rId6" sheetId="28"/>
+    <sheet name="FTRTickets-San" r:id="rId7" sheetId="2"/>
+    <sheet name="NFTRTickets-Reg" r:id="rId8" sheetId="25"/>
+    <sheet name="NFTRTickets-Reg1" r:id="rId9" sheetId="11"/>
+    <sheet name="FTRTickets-Reg" r:id="rId10" sheetId="12"/>
+    <sheet name="UserManagement" r:id="rId11" sheetId="19"/>
+    <sheet name="PinnedTags" r:id="rId12" sheetId="5"/>
+    <sheet name="Ticket State" r:id="rId13" sheetId="6"/>
+    <sheet name="TemplateManagement" r:id="rId14" sheetId="20"/>
+    <sheet name="Ticket Transfer Rules" r:id="rId15" sheetId="15"/>
+    <sheet name="Ticket Transfer Rules Config" r:id="rId16" sheetId="30"/>
+    <sheet name="Authentication Policy" r:id="rId17" sheetId="17"/>
+    <sheet name="Action Tagging" r:id="rId18" sheetId="18"/>
+    <sheet name="QuestionAnswerKey" r:id="rId19" sheetId="27"/>
+    <sheet name="State Queue Mapping" r:id="rId20" sheetId="21"/>
+    <sheet name="State Queue Mapping Config" r:id="rId21" sheetId="31"/>
+    <sheet name="Transfer To Queue" r:id="rId22" sheetId="24"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'NFTRTickets-Reg'!$A$1:$BF$45</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'NFTRTickets-Reg1'!$A$1:$BG$86</definedName>
+    <definedName hidden="1" localSheetId="7" name="_xlnm._FilterDatabase">'NFTRTickets-Reg'!$A$1:$BF$45</definedName>
+    <definedName hidden="1" localSheetId="8" name="_xlnm._FilterDatabase">'NFTRTickets-Reg1'!$A$1:$BG$86</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -54,7 +54,7 @@
     <author>Rahul Gupta</author>
   </authors>
   <commentList>
-    <comment ref="AV1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AV1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AW1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AW1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -102,7 +102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AX1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AX1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -127,7 +127,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AY1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AY1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -151,7 +151,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AZ1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AZ1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -185,7 +185,7 @@
     <author>Rahul Gupta</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="B1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -209,7 +209,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -233,7 +233,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="D1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -258,7 +258,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="E1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -282,7 +282,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="F1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -316,7 +316,7 @@
     <author>Rahul Gupta</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="B1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -340,7 +340,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="C1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -374,7 +374,7 @@
     <author>Rahul Gupta</author>
   </authors>
   <commentList>
-    <comment ref="AV1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AV1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -398,7 +398,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AW1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AW1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -422,7 +422,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AX1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AX1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -447,7 +447,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AY1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AY1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -471,7 +471,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AZ1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="AZ1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -500,7 +500,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8385" uniqueCount="1253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8393" uniqueCount="1254">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -4290,11 +4290,15 @@
   <si>
     <t>Actions</t>
   </si>
+  <si>
+    <t>050821003306</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="22">
     <font>
       <sz val="12"/>
@@ -4588,161 +4592,161 @@
     </border>
   </borders>
   <cellStyleXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0"/>
+    <xf applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="12" numFmtId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="15" numFmtId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="12" numFmtId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="76">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="8" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="8" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="8" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="10" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="10" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="7" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="8" fontId="11" numFmtId="0" xfId="1"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="3"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="3"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="2"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="7" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="1"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="4" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="0" fontId="13" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="0" fontId="13" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="3" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="5" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" borderId="4" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="9" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="9" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="16" numFmtId="0" xfId="4"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="16" numFmtId="0" xfId="4">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="16" numFmtId="0" xfId="4">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="4"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="14" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="0" fontId="14" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="17" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="18" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="0" fontId="18" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="18" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="15" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="18" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="6" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="7" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal 2 2" xfId="5"/>
     <cellStyle name="Normal 3" xfId="2"/>
@@ -4953,7 +4957,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -4966,7 +4970,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -4985,12 +4989,12 @@
         <xdr:cNvPr id="9217" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001240000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001240000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:spLocks noChangeArrowheads="1" noChangeAspect="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -5033,12 +5037,12 @@
         <xdr:cNvPr id="3" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:spLocks noChangeArrowheads="1" noChangeAspect="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -5081,12 +5085,12 @@
         <xdr:cNvPr id="4" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF08D5FD-92C7-4540-AF22-FEEA19CA4C87}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF08D5FD-92C7-4540-AF22-FEEA19CA4C87}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:spLocks noChangeArrowheads="1" noChangeAspect="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -5129,12 +5133,12 @@
         <xdr:cNvPr id="5" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14EBD159-F09F-5A4A-BACB-F932EFB20343}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14EBD159-F09F-5A4A-BACB-F932EFB20343}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:spLocks noChangeArrowheads="1" noChangeAspect="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -5167,10 +5171,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -5205,7 +5209,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -5257,7 +5261,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -5368,21 +5372,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -5399,7 +5403,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -5451,14 +5455,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5467,13 +5471,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="17.375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="17.375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.5" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.125" collapsed="true"/>
+    <col min="7" max="8" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -5712,19 +5716,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" display="July@123$"/>
-    <hyperlink ref="B2" r:id="rId2" display="July@123$"/>
+    <hyperlink display="July@123$" r:id="rId1" ref="B4"/>
+    <hyperlink display="July@123$" r:id="rId2" ref="B2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId3" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F128"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A112" workbookViewId="0" zoomScale="110" zoomScaleNormal="110">
       <selection activeCell="I115" sqref="I115"/>
     </sheetView>
   </sheetViews>
@@ -5750,7 +5754,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="76.5">
+    <row ht="76.5" r="2" spans="1:6">
       <c r="A2" s="16" t="s">
         <v>18</v>
       </c>
@@ -5801,7 +5805,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="51">
+    <row ht="51" r="5" spans="1:6">
       <c r="A5" s="16" t="s">
         <v>18</v>
       </c>
@@ -5818,7 +5822,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="38.25">
+    <row ht="38.25" r="6" spans="1:6">
       <c r="A6" s="16" t="s">
         <v>24</v>
       </c>
@@ -5835,7 +5839,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="51">
+    <row ht="51" r="7" spans="1:6">
       <c r="A7" s="16" t="s">
         <v>18</v>
       </c>
@@ -5852,7 +5856,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="51">
+    <row ht="51" r="8" spans="1:6">
       <c r="A8" s="16" t="s">
         <v>24</v>
       </c>
@@ -5869,7 +5873,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="63.75">
+    <row ht="63.75" r="9" spans="1:6">
       <c r="A9" s="16" t="s">
         <v>24</v>
       </c>
@@ -5886,7 +5890,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="38.25">
+    <row ht="38.25" r="10" spans="1:6">
       <c r="A10" s="16" t="s">
         <v>18</v>
       </c>
@@ -5903,7 +5907,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="51">
+    <row ht="51" r="11" spans="1:6">
       <c r="A11" s="16" t="s">
         <v>18</v>
       </c>
@@ -5937,7 +5941,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="38.25">
+    <row ht="38.25" r="13" spans="1:6">
       <c r="A13" s="16" t="s">
         <v>18</v>
       </c>
@@ -5954,7 +5958,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="51">
+    <row ht="51" r="14" spans="1:6">
       <c r="A14" s="16" t="s">
         <v>18</v>
       </c>
@@ -5971,7 +5975,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="38.25">
+    <row ht="38.25" r="15" spans="1:6">
       <c r="A15" s="16" t="s">
         <v>18</v>
       </c>
@@ -5988,7 +5992,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="38.25">
+    <row ht="38.25" r="16" spans="1:6">
       <c r="A16" s="16" t="s">
         <v>24</v>
       </c>
@@ -6005,7 +6009,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="38.25">
+    <row ht="38.25" r="17" spans="1:5">
       <c r="A17" s="16" t="s">
         <v>18</v>
       </c>
@@ -6022,7 +6026,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="38.25">
+    <row ht="38.25" r="18" spans="1:5">
       <c r="A18" s="16" t="s">
         <v>24</v>
       </c>
@@ -6039,7 +6043,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="51">
+    <row ht="51" r="19" spans="1:5">
       <c r="A19" s="16" t="s">
         <v>18</v>
       </c>
@@ -6056,7 +6060,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="63.75">
+    <row ht="63.75" r="20" spans="1:5">
       <c r="A20" s="16" t="s">
         <v>18</v>
       </c>
@@ -6073,7 +6077,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="51">
+    <row ht="51" r="21" spans="1:5">
       <c r="A21" s="16" t="s">
         <v>18</v>
       </c>
@@ -6090,7 +6094,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="63.75">
+    <row ht="63.75" r="22" spans="1:5">
       <c r="A22" s="16" t="s">
         <v>18</v>
       </c>
@@ -6124,7 +6128,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="63.75">
+    <row ht="63.75" r="24" spans="1:5">
       <c r="A24" s="16" t="s">
         <v>18</v>
       </c>
@@ -6141,7 +6145,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="63.75">
+    <row ht="63.75" r="25" spans="1:5">
       <c r="A25" s="16" t="s">
         <v>18</v>
       </c>
@@ -6158,7 +6162,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="63.75">
+    <row ht="63.75" r="26" spans="1:5">
       <c r="A26" s="16" t="s">
         <v>18</v>
       </c>
@@ -6175,7 +6179,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="63.75">
+    <row ht="63.75" r="27" spans="1:5">
       <c r="A27" s="16" t="s">
         <v>18</v>
       </c>
@@ -6192,7 +6196,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="51">
+    <row ht="51" r="28" spans="1:5">
       <c r="A28" s="16" t="s">
         <v>18</v>
       </c>
@@ -6209,7 +6213,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="63.75">
+    <row ht="63.75" r="29" spans="1:5">
       <c r="A29" s="16" t="s">
         <v>24</v>
       </c>
@@ -6243,7 +6247,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="76.5">
+    <row ht="76.5" r="31" spans="1:5">
       <c r="A31" s="16" t="s">
         <v>24</v>
       </c>
@@ -6260,7 +6264,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="89.25">
+    <row ht="89.25" r="32" spans="1:5">
       <c r="A32" s="16" t="s">
         <v>24</v>
       </c>
@@ -6277,7 +6281,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="76.5">
+    <row ht="76.5" r="33" spans="1:5">
       <c r="A33" s="16" t="s">
         <v>18</v>
       </c>
@@ -6294,7 +6298,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="76.5">
+    <row ht="76.5" r="34" spans="1:5">
       <c r="A34" s="16" t="s">
         <v>18</v>
       </c>
@@ -6311,7 +6315,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="51">
+    <row ht="51" r="35" spans="1:5">
       <c r="A35" s="16" t="s">
         <v>18</v>
       </c>
@@ -6328,7 +6332,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="63.75">
+    <row ht="63.75" r="36" spans="1:5">
       <c r="A36" s="16" t="s">
         <v>18</v>
       </c>
@@ -6345,7 +6349,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="76.5">
+    <row ht="76.5" r="37" spans="1:5">
       <c r="A37" s="16" t="s">
         <v>18</v>
       </c>
@@ -6396,7 +6400,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="76.5">
+    <row ht="76.5" r="40" spans="1:5">
       <c r="A40" s="16" t="s">
         <v>18</v>
       </c>
@@ -6413,7 +6417,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="63.75">
+    <row ht="63.75" r="41" spans="1:5">
       <c r="A41" s="16" t="s">
         <v>18</v>
       </c>
@@ -6430,7 +6434,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="38.25">
+    <row ht="38.25" r="42" spans="1:5">
       <c r="A42" s="16" t="s">
         <v>18</v>
       </c>
@@ -6447,7 +6451,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="51">
+    <row ht="51" r="43" spans="1:5">
       <c r="A43" s="16" t="s">
         <v>18</v>
       </c>
@@ -6464,7 +6468,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="89.25">
+    <row ht="89.25" r="44" spans="1:5">
       <c r="A44" s="16" t="s">
         <v>18</v>
       </c>
@@ -6481,7 +6485,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="76.5">
+    <row ht="76.5" r="45" spans="1:5">
       <c r="A45" s="16" t="s">
         <v>18</v>
       </c>
@@ -6498,7 +6502,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="63.75">
+    <row ht="63.75" r="46" spans="1:5">
       <c r="A46" s="16" t="s">
         <v>24</v>
       </c>
@@ -6515,7 +6519,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="63.75">
+    <row ht="63.75" r="47" spans="1:5">
       <c r="A47" s="16" t="s">
         <v>18</v>
       </c>
@@ -6532,7 +6536,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="51">
+    <row ht="51" r="48" spans="1:5">
       <c r="A48" s="16" t="s">
         <v>18</v>
       </c>
@@ -6549,7 +6553,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="63.75">
+    <row ht="63.75" r="49" spans="1:5">
       <c r="A49" s="16" t="s">
         <v>18</v>
       </c>
@@ -6583,7 +6587,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="63.75">
+    <row ht="63.75" r="51" spans="1:5">
       <c r="A51" s="16" t="s">
         <v>18</v>
       </c>
@@ -6600,7 +6604,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="51">
+    <row ht="51" r="52" spans="1:5">
       <c r="A52" s="16" t="s">
         <v>24</v>
       </c>
@@ -6617,7 +6621,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="51">
+    <row ht="51" r="53" spans="1:5">
       <c r="A53" s="16" t="s">
         <v>18</v>
       </c>
@@ -6634,7 +6638,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="63.75">
+    <row ht="63.75" r="54" spans="1:5">
       <c r="A54" s="16" t="s">
         <v>18</v>
       </c>
@@ -6651,7 +6655,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="25.5">
+    <row ht="25.5" r="55" spans="1:5">
       <c r="A55" s="16" t="s">
         <v>18</v>
       </c>
@@ -6668,7 +6672,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="38.25">
+    <row ht="38.25" r="56" spans="1:5">
       <c r="A56" s="16" t="s">
         <v>18</v>
       </c>
@@ -6685,7 +6689,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="76.5">
+    <row ht="76.5" r="57" spans="1:5">
       <c r="A57" s="16" t="s">
         <v>18</v>
       </c>
@@ -6702,7 +6706,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="63.75">
+    <row ht="63.75" r="58" spans="1:5">
       <c r="A58" s="16" t="s">
         <v>18</v>
       </c>
@@ -6719,7 +6723,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="102">
+    <row ht="102" r="59" spans="1:5">
       <c r="A59" s="16" t="s">
         <v>18</v>
       </c>
@@ -6736,7 +6740,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="38.25">
+    <row ht="38.25" r="60" spans="1:5">
       <c r="A60" s="16" t="s">
         <v>18</v>
       </c>
@@ -6753,7 +6757,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="38.25">
+    <row ht="38.25" r="61" spans="1:5">
       <c r="A61" s="16" t="s">
         <v>18</v>
       </c>
@@ -6770,7 +6774,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="63.75">
+    <row ht="63.75" r="62" spans="1:5">
       <c r="A62" s="16" t="s">
         <v>18</v>
       </c>
@@ -6787,7 +6791,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="51">
+    <row ht="51" r="63" spans="1:5">
       <c r="A63" s="16" t="s">
         <v>18</v>
       </c>
@@ -6804,7 +6808,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="89.25">
+    <row ht="89.25" r="64" spans="1:5">
       <c r="A64" s="16" t="s">
         <v>18</v>
       </c>
@@ -6821,7 +6825,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="76.5">
+    <row ht="76.5" r="65" spans="1:5">
       <c r="A65" s="16" t="s">
         <v>18</v>
       </c>
@@ -6838,7 +6842,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="76.5">
+    <row ht="76.5" r="66" spans="1:5">
       <c r="A66" s="16" t="s">
         <v>24</v>
       </c>
@@ -6906,7 +6910,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="51">
+    <row ht="51" r="70" spans="1:5">
       <c r="A70" s="17" t="s">
         <v>18</v>
       </c>
@@ -6923,7 +6927,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="76.5">
+    <row ht="76.5" r="71" spans="1:5">
       <c r="A71" s="17" t="s">
         <v>18</v>
       </c>
@@ -6940,7 +6944,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="25.5">
+    <row ht="25.5" r="72" spans="1:5">
       <c r="A72" s="17" t="s">
         <v>18</v>
       </c>
@@ -6957,7 +6961,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="63.75">
+    <row ht="63.75" r="73" spans="1:5">
       <c r="A73" s="16" t="s">
         <v>24</v>
       </c>
@@ -6974,7 +6978,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="63.75">
+    <row ht="63.75" r="74" spans="1:5">
       <c r="A74" s="16" t="s">
         <v>203</v>
       </c>
@@ -6991,7 +6995,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="51">
+    <row ht="51" r="75" spans="1:5">
       <c r="A75" s="16" t="s">
         <v>18</v>
       </c>
@@ -7008,7 +7012,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="51">
+    <row ht="51" r="76" spans="1:5">
       <c r="A76" s="16" t="s">
         <v>18</v>
       </c>
@@ -7025,7 +7029,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="51">
+    <row ht="51" r="77" spans="1:5">
       <c r="A77" s="16" t="s">
         <v>18</v>
       </c>
@@ -7042,7 +7046,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="76.5">
+    <row ht="76.5" r="78" spans="1:5">
       <c r="A78" s="16" t="s">
         <v>203</v>
       </c>
@@ -7161,7 +7165,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="63.75">
+    <row ht="63.75" r="85" spans="1:5">
       <c r="A85" s="16" t="s">
         <v>24</v>
       </c>
@@ -7212,7 +7216,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="76.5">
+    <row ht="76.5" r="88" spans="1:5">
       <c r="A88" s="16" t="s">
         <v>24</v>
       </c>
@@ -7280,7 +7284,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="51">
+    <row ht="51" r="92" spans="1:5">
       <c r="A92" s="18" t="s">
         <v>24</v>
       </c>
@@ -7297,7 +7301,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="63.75">
+    <row ht="63.75" r="93" spans="1:5">
       <c r="A93" s="18" t="s">
         <v>24</v>
       </c>
@@ -7314,7 +7318,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="51">
+    <row ht="51" r="94" spans="1:5">
       <c r="A94" s="18" t="s">
         <v>24</v>
       </c>
@@ -7331,7 +7335,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="25.5">
+    <row ht="25.5" r="95" spans="1:5">
       <c r="A95" s="18" t="s">
         <v>24</v>
       </c>
@@ -7348,7 +7352,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="25.5">
+    <row ht="25.5" r="96" spans="1:5">
       <c r="A96" s="18" t="s">
         <v>24</v>
       </c>
@@ -7365,7 +7369,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="25.5">
+    <row ht="25.5" r="97" spans="1:5">
       <c r="A97" s="18" t="s">
         <v>24</v>
       </c>
@@ -7382,7 +7386,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="51">
+    <row ht="51" r="98" spans="1:5">
       <c r="A98" s="16" t="s">
         <v>18</v>
       </c>
@@ -7416,7 +7420,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="51">
+    <row ht="51" r="100" spans="1:5">
       <c r="A100" s="16" t="s">
         <v>203</v>
       </c>
@@ -7433,7 +7437,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="76.5">
+    <row ht="76.5" r="101" spans="1:5">
       <c r="A101" s="16" t="s">
         <v>203</v>
       </c>
@@ -7450,7 +7454,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="38.25">
+    <row ht="38.25" r="102" spans="1:5">
       <c r="A102" s="16" t="s">
         <v>203</v>
       </c>
@@ -7467,7 +7471,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="76.5">
+    <row ht="76.5" r="103" spans="1:5">
       <c r="A103" s="16" t="s">
         <v>203</v>
       </c>
@@ -7518,7 +7522,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="38.25">
+    <row ht="38.25" r="106" spans="1:5">
       <c r="A106" s="16" t="s">
         <v>18</v>
       </c>
@@ -7535,7 +7539,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="38.25">
+    <row ht="38.25" r="107" spans="1:5">
       <c r="A107" s="16" t="s">
         <v>18</v>
       </c>
@@ -7552,7 +7556,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="51">
+    <row ht="51" r="108" spans="1:5">
       <c r="A108" s="16" t="s">
         <v>18</v>
       </c>
@@ -7586,7 +7590,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="63.75">
+    <row ht="63.75" r="110" spans="1:5">
       <c r="A110" s="16" t="s">
         <v>18</v>
       </c>
@@ -7603,7 +7607,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="76.5">
+    <row ht="76.5" r="111" spans="1:5">
       <c r="A111" s="16" t="s">
         <v>18</v>
       </c>
@@ -7620,7 +7624,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="51">
+    <row ht="51" r="112" spans="1:5">
       <c r="A112" s="16" t="s">
         <v>18</v>
       </c>
@@ -7637,7 +7641,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="76.5">
+    <row ht="76.5" r="113" spans="1:5">
       <c r="A113" s="16" t="s">
         <v>203</v>
       </c>
@@ -7654,7 +7658,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="25.5">
+    <row ht="25.5" r="114" spans="1:5">
       <c r="A114" s="18" t="s">
         <v>24</v>
       </c>
@@ -7671,7 +7675,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="63.75">
+    <row ht="63.75" r="115" spans="1:5">
       <c r="A115" s="16" t="s">
         <v>18</v>
       </c>
@@ -7688,7 +7692,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="63.75">
+    <row ht="63.75" r="116" spans="1:5">
       <c r="A116" s="18" t="s">
         <v>24</v>
       </c>
@@ -7756,7 +7760,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="63.75">
+    <row ht="63.75" r="120" spans="1:5">
       <c r="A120" s="10" t="s">
         <v>18</v>
       </c>
@@ -7773,7 +7777,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="76.5">
+    <row ht="76.5" r="121" spans="1:5">
       <c r="A121" s="11" t="s">
         <v>18</v>
       </c>
@@ -7790,7 +7794,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="63.75">
+    <row ht="63.75" r="122" spans="1:5">
       <c r="A122" s="11" t="s">
         <v>248</v>
       </c>
@@ -7807,7 +7811,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="30">
+    <row ht="30" r="123" spans="1:5">
       <c r="A123" s="43" t="s">
         <v>58</v>
       </c>
@@ -7824,7 +7828,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="30">
+    <row ht="30" r="124" spans="1:5">
       <c r="A124" s="43" t="s">
         <v>58</v>
       </c>
@@ -7841,7 +7845,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="30">
+    <row ht="30" r="125" spans="1:5">
       <c r="A125" s="43" t="s">
         <v>58</v>
       </c>
@@ -7858,7 +7862,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="30">
+    <row ht="30" r="126" spans="1:5">
       <c r="A126" s="43" t="s">
         <v>58</v>
       </c>
@@ -7875,7 +7879,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="30">
+    <row ht="30" r="127" spans="1:5">
       <c r="A127" s="43" t="s">
         <v>58</v>
       </c>
@@ -7892,7 +7896,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="30">
+    <row ht="30" r="128" spans="1:5">
       <c r="A128" s="43" t="s">
         <v>58</v>
       </c>
@@ -7911,23 +7915,23 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E117">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule dxfId="3" priority="4" type="duplicateValues"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118:E119">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule dxfId="2" priority="3" type="duplicateValues"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E120">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule dxfId="1" priority="2" type="duplicateValues"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E121">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule dxfId="0" priority="1" type="duplicateValues"/>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -7936,8 +7940,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="17.125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="22.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.125" collapsed="true"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" width="22.625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -8170,12 +8174,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8253,27 +8257,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="24" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -8475,13 +8479,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8490,8 +8494,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="30.875" style="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="16384" width="9" style="31" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="31" width="30.875" collapsed="true"/>
+    <col min="2" max="16384" style="31" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -8542,24 +8546,24 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="13.375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="37.125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27.625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="13.375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="37.125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="20.125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="27.625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -8580,12 +8584,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E444"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8594,10 +8598,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="13.375" customWidth="1"/>
-    <col min="3" max="3" width="37.125" customWidth="1"/>
-    <col min="4" max="4" width="20.125" customWidth="1"/>
-    <col min="5" max="5" width="27.625" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="13.375" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="37.125" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="20.125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="27.625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -16149,12 +16153,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16163,18 +16167,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.875" style="4" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.625" style="4" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.875" style="29" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.5" style="29" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.125" style="29" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10" style="29" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11" style="29" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="10.125" style="29" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.5" style="29" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.625" style="29" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="11.875" style="29" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="15.875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="4" width="19.625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="29" width="10.875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="29" width="11.5" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="29" width="10.125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="29" width="10.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="29" width="11.0" collapsed="true"/>
+    <col min="9" max="10" customWidth="true" style="29" width="10.125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="29" width="10.5" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="29" width="11.625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="29" width="11.875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -16220,7 +16224,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" ht="141.75">
+    <row ht="141.75" r="2" spans="1:15">
       <c r="A2" t="s">
         <v>895</v>
       </c>
@@ -16250,13 +16254,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16265,9 +16269,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="13.375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="13.375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -16516,13 +16520,13 @@
       <c r="K13" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16531,10 +16535,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="35.125" style="29" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="42.125" style="29" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="54.875" style="29" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="10.875" style="29" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="29" width="35.125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="29" width="42.125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="29" width="54.875" collapsed="true"/>
+    <col min="4" max="16384" style="29" width="10.875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -16559,7 +16563,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="31.5">
+    <row ht="31.5" r="3" spans="1:3">
       <c r="A3" s="39" t="s">
         <v>1169</v>
       </c>
@@ -16697,12 +16701,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16711,7 +16715,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="16.625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -16750,12 +16754,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16764,11 +16768,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.125" style="34" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9" style="34" collapsed="1"/>
-    <col min="3" max="3" width="13.875" style="34" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.5" style="34" customWidth="1" collapsed="1"/>
-    <col min="5" max="16384" width="9" style="34" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="34" width="19.125" collapsed="true"/>
+    <col min="2" max="2" style="34" width="9.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="34" width="13.875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="34" width="11.5" collapsed="true"/>
+    <col min="5" max="16384" style="34" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -16807,13 +16811,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16822,7 +16826,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:11" s="34" customFormat="1">
+    <row customFormat="1" r="1" s="34" spans="1:11">
       <c r="A1" s="57" t="s">
         <v>97</v>
       </c>
@@ -16843,7 +16847,7 @@
       <c r="J1" s="33"/>
       <c r="K1" s="33"/>
     </row>
-    <row r="2" spans="1:11" s="34" customFormat="1">
+    <row customFormat="1" r="2" s="34" spans="1:11">
       <c r="A2" s="57" t="s">
         <v>98</v>
       </c>
@@ -16864,7 +16868,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="1:11" s="34" customFormat="1">
+    <row customFormat="1" r="3" s="34" spans="1:11">
       <c r="A3" s="57" t="s">
         <v>99</v>
       </c>
@@ -16885,7 +16889,7 @@
       <c r="J3" s="33"/>
       <c r="K3" s="33"/>
     </row>
-    <row r="4" spans="1:11" s="34" customFormat="1">
+    <row customFormat="1" r="4" s="34" spans="1:11">
       <c r="A4" s="57" t="s">
         <v>84</v>
       </c>
@@ -16914,7 +16918,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="34" customFormat="1">
+    <row customFormat="1" r="5" s="34" spans="1:11">
       <c r="A5" s="57" t="s">
         <v>82</v>
       </c>
@@ -16937,7 +16941,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="34" customFormat="1">
+    <row customFormat="1" r="6" s="34" spans="1:11">
       <c r="A6" s="57" t="s">
         <v>93</v>
       </c>
@@ -16951,7 +16955,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="34" customFormat="1">
+    <row customFormat="1" r="7" s="34" spans="1:11">
       <c r="A7" s="57" t="s">
         <v>100</v>
       </c>
@@ -16965,7 +16969,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="34" customFormat="1">
+    <row customFormat="1" r="8" s="34" spans="1:11">
       <c r="A8" s="57" t="s">
         <v>77</v>
       </c>
@@ -16979,7 +16983,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="34" customFormat="1">
+    <row customFormat="1" r="9" s="34" spans="1:11">
       <c r="A9" s="57" t="s">
         <v>77</v>
       </c>
@@ -16993,7 +16997,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="34" customFormat="1">
+    <row customFormat="1" r="10" s="34" spans="1:11">
       <c r="A10" s="57" t="s">
         <v>1010</v>
       </c>
@@ -17016,7 +17020,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="34" customFormat="1">
+    <row customFormat="1" r="11" s="34" spans="1:11">
       <c r="A11" s="57" t="s">
         <v>101</v>
       </c>
@@ -17030,7 +17034,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="34" customFormat="1">
+    <row customFormat="1" r="12" s="34" spans="1:11">
       <c r="A12" s="57" t="s">
         <v>102</v>
       </c>
@@ -17044,7 +17048,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="34" customFormat="1">
+    <row customFormat="1" r="13" s="34" spans="1:11">
       <c r="A13" s="57" t="s">
         <v>103</v>
       </c>
@@ -17058,7 +17062,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="34" customFormat="1">
+    <row customFormat="1" r="14" s="34" spans="1:11">
       <c r="A14" s="57" t="s">
         <v>104</v>
       </c>
@@ -17072,7 +17076,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="34" customFormat="1">
+    <row customFormat="1" r="15" s="34" spans="1:11">
       <c r="A15" s="57" t="s">
         <v>79</v>
       </c>
@@ -17089,7 +17093,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="34" customFormat="1">
+    <row customFormat="1" r="16" s="34" spans="1:11">
       <c r="A16" s="57" t="s">
         <v>85</v>
       </c>
@@ -17103,7 +17107,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="34" customFormat="1">
+    <row customFormat="1" r="17" s="34" spans="1:12">
       <c r="A17" s="57" t="s">
         <v>1006</v>
       </c>
@@ -17126,7 +17130,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="34" customFormat="1">
+    <row customFormat="1" r="18" s="34" spans="1:12">
       <c r="A18" s="57" t="s">
         <v>1008</v>
       </c>
@@ -17146,7 +17150,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="34" customFormat="1">
+    <row customFormat="1" r="19" s="34" spans="1:12">
       <c r="A19" s="58" t="s">
         <v>1004</v>
       </c>
@@ -17184,7 +17188,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="34" customFormat="1">
+    <row customFormat="1" r="20" s="34" spans="1:12">
       <c r="A20" s="57" t="s">
         <v>195</v>
       </c>
@@ -17201,7 +17205,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="34" customFormat="1">
+    <row customFormat="1" r="21" s="34" spans="1:12">
       <c r="A21" s="59" t="s">
         <v>1012</v>
       </c>
@@ -17218,7 +17222,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="34" customFormat="1">
+    <row customFormat="1" r="22" s="34" spans="1:12">
       <c r="A22" s="57" t="s">
         <v>1013</v>
       </c>
@@ -17232,7 +17236,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="34" customFormat="1" ht="28.5">
+    <row customFormat="1" ht="28.5" r="23" s="34" spans="1:12">
       <c r="A23" s="59" t="s">
         <v>1005</v>
       </c>
@@ -17250,12 +17254,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17264,9 +17268,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="23.125" style="4" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.125" style="4" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9" style="4" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="4" width="23.125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="24.125" collapsed="true"/>
+    <col min="3" max="16384" style="4" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -17303,13 +17307,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -17318,18 +17322,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="29" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.5" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="21.5" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="22.375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="9.625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="12.375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -17373,7 +17377,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="31.5">
+    <row ht="31.5" r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>77</v>
       </c>
@@ -17819,7 +17823,7 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:14" s="4" customFormat="1">
+    <row customFormat="1" r="18" s="4" spans="1:14">
       <c r="A18" s="38" t="s">
         <v>1109</v>
       </c>
@@ -17846,7 +17850,7 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:14" ht="47.25">
+    <row ht="47.25" r="19" spans="1:14">
       <c r="A19" s="38" t="s">
         <v>1120</v>
       </c>
@@ -17952,7 +17956,7 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="1:14" s="4" customFormat="1">
+    <row customFormat="1" r="22" s="4" spans="1:14">
       <c r="A22" s="1" t="s">
         <v>1238</v>
       </c>
@@ -17981,7 +17985,7 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="1:14" ht="16.5">
+    <row ht="16.5" r="23" spans="1:14">
       <c r="A23" s="74" t="s">
         <v>1246</v>
       </c>
@@ -18029,50 +18033,50 @@
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
   <dimension ref="A1:BC2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="AZ7" sqref="AZ7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="26" width="23.875" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="9.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="54" width="11" style="4" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="18.625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
+    <col min="24" max="26" customWidth="true" width="23.875" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="9.875" collapsed="true"/>
+    <col min="48" max="54" style="4" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" ht="18.95" customHeight="1">
+    <row customHeight="1" ht="18.95" r="1" spans="1:55">
       <c r="A1" s="36" t="s">
         <v>36</v>
       </c>
@@ -18239,7 +18243,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="2" spans="1:55" ht="18.95" customHeight="1">
+    <row customHeight="1" ht="18.95" r="2" spans="1:55">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -18319,30 +18323,32 @@
       <c r="BA2" t="s">
         <v>1228</v>
       </c>
-      <c r="BB2"/>
+      <c r="BB2" t="s">
+        <v>106</v>
+      </c>
       <c r="BC2" s="2" t="s">
-        <v>1237</v>
+        <v>1253</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
   <dimension ref="A1:R130"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
       <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="9" max="9" width="23.875" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="10.125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" customWidth="true" width="23.875" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="10.125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -20600,25 +20606,25 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A111:A112">
-    <cfRule type="duplicateValues" dxfId="19" priority="4"/>
+    <cfRule dxfId="19" priority="4" type="duplicateValues"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A113:A117">
-    <cfRule type="duplicateValues" dxfId="18" priority="3"/>
+    <cfRule dxfId="18" priority="3" type="duplicateValues"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A118:A124">
-    <cfRule type="duplicateValues" dxfId="17" priority="2"/>
+    <cfRule dxfId="17" priority="2" type="duplicateValues"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A125:A130">
-    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
+    <cfRule dxfId="16" priority="1" type="duplicateValues"/>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
   <dimension ref="A1:H130"/>
   <sheetViews>
     <sheetView topLeftCell="A61" workbookViewId="0">
@@ -20627,9 +20633,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="4" max="4" width="19.125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" customWidth="true" width="19.125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="17.375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="9.125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -23240,36 +23246,36 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A111:A112">
-    <cfRule type="duplicateValues" dxfId="15" priority="4"/>
+    <cfRule dxfId="15" priority="4" type="duplicateValues"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A113:A117">
-    <cfRule type="duplicateValues" dxfId="14" priority="3"/>
+    <cfRule dxfId="14" priority="3" type="duplicateValues"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A118:A124">
-    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
+    <cfRule dxfId="13" priority="2" type="duplicateValues"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A125:A130">
-    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
+    <cfRule dxfId="12" priority="1" type="duplicateValues"/>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="24.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="28.625" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="24.5" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="18.625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -23310,26 +23316,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
   <dimension ref="A1:BH130"/>
   <sheetViews>
-    <sheetView topLeftCell="AU129" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="AU129" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="AW2" sqref="AW2:AW130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="5" width="9" style="4" collapsed="1"/>
-    <col min="6" max="46" width="9" style="4" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="3.125" style="4" customWidth="1" collapsed="1"/>
-    <col min="48" max="59" width="9" style="4" collapsed="1"/>
-    <col min="60" max="60" width="9" style="4"/>
-    <col min="61" max="16384" width="9" style="4" collapsed="1"/>
+    <col min="1" max="5" style="4" width="9.0" collapsed="true"/>
+    <col min="6" max="46" customWidth="true" style="4" width="9.0" collapsed="true"/>
+    <col min="47" max="47" customWidth="true" style="4" width="3.125" collapsed="true"/>
+    <col min="48" max="59" style="4" width="9.0" collapsed="true"/>
+    <col min="60" max="60" style="4" width="9.0" collapsed="false"/>
+    <col min="61" max="16384" style="4" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:58">
@@ -23500,7 +23506,7 @@
       </c>
       <c r="BD1" s="37"/>
     </row>
-    <row r="2" spans="1:58" ht="63.75">
+    <row ht="63.75" r="2" spans="1:58">
       <c r="A2" s="22" t="s">
         <v>58</v>
       </c>
@@ -23574,7 +23580,7 @@
         <v>3</v>
       </c>
       <c r="BD2" s="4">
-        <f t="shared" ref="BD2:BD65" si="0">SUM(AW2,AY2,BA2,BC2)</f>
+        <f ref="BD2:BD65" si="0" t="shared">SUM(AW2,AY2,BA2,BC2)</f>
         <v>3</v>
       </c>
       <c r="BE2" s="53" t="s">
@@ -23584,7 +23590,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:58" ht="38.25">
+    <row ht="38.25" r="3" spans="1:58">
       <c r="A3" s="22" t="s">
         <v>58</v>
       </c>
@@ -23658,7 +23664,7 @@
         <v>8</v>
       </c>
       <c r="BD3" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>8</v>
       </c>
       <c r="BE3" s="53" t="s">
@@ -23668,7 +23674,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:58" ht="38.25">
+    <row ht="38.25" r="4" spans="1:58">
       <c r="A4" s="22" t="s">
         <v>58</v>
       </c>
@@ -23736,7 +23742,7 @@
         <v>4</v>
       </c>
       <c r="BD4" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>4</v>
       </c>
       <c r="BE4" s="53" t="s">
@@ -23746,7 +23752,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:58" ht="38.25">
+    <row ht="38.25" r="5" spans="1:58">
       <c r="A5" s="22" t="s">
         <v>58</v>
       </c>
@@ -23820,7 +23826,7 @@
         <v>8</v>
       </c>
       <c r="BD5" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>8</v>
       </c>
       <c r="BE5" s="53" t="s">
@@ -23830,7 +23836,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:58" ht="51">
+    <row ht="51" r="6" spans="1:58">
       <c r="A6" s="22" t="s">
         <v>58</v>
       </c>
@@ -23892,7 +23898,7 @@
         <v>24</v>
       </c>
       <c r="BD6" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE6" s="53" t="s">
@@ -23902,7 +23908,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:58" ht="38.25">
+    <row ht="38.25" r="7" spans="1:58">
       <c r="A7" s="22" t="s">
         <v>58</v>
       </c>
@@ -23964,7 +23970,7 @@
         <v>24</v>
       </c>
       <c r="BD7" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE7" s="53" t="s">
@@ -23974,7 +23980,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:58" ht="25.5">
+    <row ht="25.5" r="8" spans="1:58">
       <c r="A8" s="23" t="s">
         <v>58</v>
       </c>
@@ -24036,7 +24042,7 @@
         <v>24</v>
       </c>
       <c r="BD8" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE8" s="53" t="s">
@@ -24046,7 +24052,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:58" ht="63.75">
+    <row ht="63.75" r="9" spans="1:58">
       <c r="A9" s="23" t="s">
         <v>58</v>
       </c>
@@ -24108,7 +24114,7 @@
         <v>2</v>
       </c>
       <c r="BD9" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>2</v>
       </c>
       <c r="BE9" s="53" t="s">
@@ -24118,7 +24124,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:58" ht="89.25">
+    <row ht="89.25" r="10" spans="1:58">
       <c r="A10" s="22" t="s">
         <v>58</v>
       </c>
@@ -24192,7 +24198,7 @@
         <v>24</v>
       </c>
       <c r="BD10" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE10" s="53" t="s">
@@ -24202,7 +24208,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:58" ht="25.5">
+    <row ht="25.5" r="11" spans="1:58">
       <c r="A11" s="23" t="s">
         <v>58</v>
       </c>
@@ -24252,7 +24258,7 @@
         <v>2</v>
       </c>
       <c r="BD11" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>2</v>
       </c>
       <c r="BE11" s="53" t="s">
@@ -24262,7 +24268,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:58" ht="63.75">
+    <row ht="63.75" r="12" spans="1:58">
       <c r="A12" s="23" t="s">
         <v>58</v>
       </c>
@@ -24324,7 +24330,7 @@
         <v>2</v>
       </c>
       <c r="BD12" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>2</v>
       </c>
       <c r="BE12" s="53" t="s">
@@ -24334,7 +24340,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:58" ht="63.75">
+    <row ht="63.75" r="13" spans="1:58">
       <c r="A13" s="23" t="s">
         <v>58</v>
       </c>
@@ -24396,7 +24402,7 @@
         <v>48</v>
       </c>
       <c r="BD13" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE13" s="53" t="s">
@@ -24406,7 +24412,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:58" ht="51">
+    <row ht="51" r="14" spans="1:58">
       <c r="A14" s="23" t="s">
         <v>58</v>
       </c>
@@ -24468,7 +24474,7 @@
         <v>48</v>
       </c>
       <c r="BD14" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE14" s="53" t="s">
@@ -24478,7 +24484,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:58" ht="38.25">
+    <row ht="38.25" r="15" spans="1:58">
       <c r="A15" s="23" t="s">
         <v>58</v>
       </c>
@@ -24546,7 +24552,7 @@
         <v>48</v>
       </c>
       <c r="BD15" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE15" s="53" t="s">
@@ -24556,7 +24562,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:58" ht="63.75">
+    <row ht="63.75" r="16" spans="1:58">
       <c r="A16" s="23" t="s">
         <v>58</v>
       </c>
@@ -24606,7 +24612,7 @@
         <v>48</v>
       </c>
       <c r="BD16" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE16" s="53" t="s">
@@ -24616,7 +24622,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:58" ht="76.5">
+    <row ht="76.5" r="17" spans="1:58">
       <c r="A17" s="23" t="s">
         <v>58</v>
       </c>
@@ -24666,7 +24672,7 @@
         <v>48</v>
       </c>
       <c r="BD17" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE17" s="53" t="s">
@@ -24676,7 +24682,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:58" ht="76.5">
+    <row ht="76.5" r="18" spans="1:58">
       <c r="A18" s="22" t="s">
         <v>58</v>
       </c>
@@ -24750,7 +24756,7 @@
         <v>24</v>
       </c>
       <c r="BD18" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE18" s="53" t="s">
@@ -24760,7 +24766,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:58" ht="51">
+    <row ht="51" r="19" spans="1:58">
       <c r="A19" s="23" t="s">
         <v>58</v>
       </c>
@@ -24810,7 +24816,7 @@
         <v>24</v>
       </c>
       <c r="BD19" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE19" s="53" t="s">
@@ -24900,7 +24906,7 @@
         <v>72</v>
       </c>
       <c r="BD20" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>72</v>
       </c>
       <c r="BE20" s="53" t="s">
@@ -24990,7 +24996,7 @@
         <v>24</v>
       </c>
       <c r="BD21" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE21" s="53" t="s">
@@ -25080,7 +25086,7 @@
         <v>24</v>
       </c>
       <c r="BD22" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE22" s="53" t="s">
@@ -25170,7 +25176,7 @@
         <v>48</v>
       </c>
       <c r="BD23" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE23" s="53" t="s">
@@ -25260,7 +25266,7 @@
         <v>24</v>
       </c>
       <c r="BD24" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE24" s="53" t="s">
@@ -25350,7 +25356,7 @@
         <v>24</v>
       </c>
       <c r="BD25" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE25" s="53" t="s">
@@ -25446,7 +25452,7 @@
         <v>24</v>
       </c>
       <c r="BD26" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE26" s="53" t="s">
@@ -25456,7 +25462,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:58" ht="76.5">
+    <row ht="76.5" r="27" spans="1:58">
       <c r="A27" s="22" t="s">
         <v>58</v>
       </c>
@@ -25530,7 +25536,7 @@
         <v>24</v>
       </c>
       <c r="BD27" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE27" s="53" t="s">
@@ -25540,7 +25546,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:58" ht="63.75">
+    <row ht="63.75" r="28" spans="1:58">
       <c r="A28" s="11" t="s">
         <v>58</v>
       </c>
@@ -25590,7 +25596,7 @@
         <v>48</v>
       </c>
       <c r="BD28" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE28" s="53" t="s">
@@ -25600,7 +25606,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:58" ht="51">
+    <row ht="51" r="29" spans="1:58">
       <c r="A29" s="11" t="s">
         <v>58</v>
       </c>
@@ -25650,7 +25656,7 @@
         <v>48</v>
       </c>
       <c r="BD29" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE29" s="53" t="s">
@@ -25660,7 +25666,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:58" ht="63.75">
+    <row ht="63.75" r="30" spans="1:58">
       <c r="A30" s="11" t="s">
         <v>58</v>
       </c>
@@ -25710,7 +25716,7 @@
         <v>48</v>
       </c>
       <c r="BD30" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE30" s="53" t="s">
@@ -25720,7 +25726,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:58" ht="51">
+    <row ht="51" r="31" spans="1:58">
       <c r="A31" s="11" t="s">
         <v>58</v>
       </c>
@@ -25770,7 +25776,7 @@
         <v>48</v>
       </c>
       <c r="BD31" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE31" s="53" t="s">
@@ -25780,7 +25786,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:58" ht="76.5">
+    <row ht="76.5" r="32" spans="1:58">
       <c r="A32" s="11" t="s">
         <v>58</v>
       </c>
@@ -25830,7 +25836,7 @@
         <v>6</v>
       </c>
       <c r="BD32" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>6</v>
       </c>
       <c r="BE32" s="53" t="s">
@@ -25840,7 +25846,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:58" ht="51">
+    <row ht="51" r="33" spans="1:58">
       <c r="A33" s="11" t="s">
         <v>58</v>
       </c>
@@ -25890,7 +25896,7 @@
         <v>6</v>
       </c>
       <c r="BD33" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>6</v>
       </c>
       <c r="BE33" s="53" t="s">
@@ -25900,7 +25906,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:58" ht="63.75">
+    <row ht="63.75" r="34" spans="1:58">
       <c r="A34" s="22" t="s">
         <v>58</v>
       </c>
@@ -25974,7 +25980,7 @@
         <v>24</v>
       </c>
       <c r="BD34" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE34" s="53" t="s">
@@ -25984,7 +25990,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:58" ht="76.5">
+    <row ht="76.5" r="35" spans="1:58">
       <c r="A35" s="22" t="s">
         <v>58</v>
       </c>
@@ -26064,7 +26070,7 @@
         <v>48</v>
       </c>
       <c r="BD35" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE35" s="53" t="s">
@@ -26074,7 +26080,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="36" spans="1:58" ht="51">
+    <row ht="51" r="36" spans="1:58">
       <c r="A36" s="22" t="s">
         <v>58</v>
       </c>
@@ -26142,7 +26148,7 @@
         <v>24</v>
       </c>
       <c r="BD36" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE36" s="53" t="s">
@@ -26152,7 +26158,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="1:58" ht="51">
+    <row ht="51" r="37" spans="1:58">
       <c r="A37" s="22" t="s">
         <v>58</v>
       </c>
@@ -26214,7 +26220,7 @@
         <v>24</v>
       </c>
       <c r="BD37" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE37" s="53" t="s">
@@ -26224,7 +26230,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:58" ht="25.5">
+    <row ht="25.5" r="38" spans="1:58">
       <c r="A38" s="22" t="s">
         <v>58</v>
       </c>
@@ -26286,7 +26292,7 @@
         <v>48</v>
       </c>
       <c r="BD38" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE38" s="53" t="s">
@@ -26296,7 +26302,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:58" ht="25.5">
+    <row ht="25.5" r="39" spans="1:58">
       <c r="A39" s="22" t="s">
         <v>58</v>
       </c>
@@ -26358,7 +26364,7 @@
         <v>24</v>
       </c>
       <c r="BD39" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE39" s="53" t="s">
@@ -26368,7 +26374,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:58" ht="38.25">
+    <row ht="38.25" r="40" spans="1:58">
       <c r="A40" s="22" t="s">
         <v>58</v>
       </c>
@@ -26442,7 +26448,7 @@
         <v>72</v>
       </c>
       <c r="BD40" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>72</v>
       </c>
       <c r="BE40" s="53" t="s">
@@ -26452,7 +26458,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="1:58" ht="63.75">
+    <row ht="63.75" r="41" spans="1:58">
       <c r="A41" s="22" t="s">
         <v>58</v>
       </c>
@@ -26526,7 +26532,7 @@
         <v>24</v>
       </c>
       <c r="BD41" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE41" s="53" t="s">
@@ -26536,7 +26542,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="1:58" ht="38.25">
+    <row ht="38.25" r="42" spans="1:58">
       <c r="A42" s="22" t="s">
         <v>58</v>
       </c>
@@ -26586,7 +26592,7 @@
         <v>24</v>
       </c>
       <c r="BD42" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE42" s="53" t="s">
@@ -26596,7 +26602,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="1:58" ht="76.5">
+    <row ht="76.5" r="43" spans="1:58">
       <c r="A43" s="22" t="s">
         <v>58</v>
       </c>
@@ -26652,7 +26658,7 @@
         <v>24</v>
       </c>
       <c r="BD43" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE43" s="53" t="s">
@@ -26662,7 +26668,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="44" spans="1:58" ht="51">
+    <row ht="51" r="44" spans="1:58">
       <c r="A44" s="22" t="s">
         <v>58</v>
       </c>
@@ -26712,7 +26718,7 @@
         <v>24</v>
       </c>
       <c r="BD44" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE44" s="53" t="s">
@@ -26722,7 +26728,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="45" spans="1:58" ht="76.5">
+    <row ht="76.5" r="45" spans="1:58">
       <c r="A45" s="22" t="s">
         <v>58</v>
       </c>
@@ -26772,7 +26778,7 @@
         <v>24</v>
       </c>
       <c r="BD45" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE45" s="53" t="s">
@@ -26782,7 +26788,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:58" ht="102">
+    <row ht="102" r="46" spans="1:58">
       <c r="A46" s="22" t="s">
         <v>58</v>
       </c>
@@ -26830,7 +26836,7 @@
         <v>24</v>
       </c>
       <c r="BD46" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE46" s="53" t="s">
@@ -26840,7 +26846,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:58" ht="25.5">
+    <row ht="25.5" r="47" spans="1:58">
       <c r="A47" s="22" t="s">
         <v>58</v>
       </c>
@@ -26902,7 +26908,7 @@
         <v>24</v>
       </c>
       <c r="BD47" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE47" s="53" t="s">
@@ -26912,7 +26918,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="48" spans="1:58" ht="38.25">
+    <row ht="38.25" r="48" spans="1:58">
       <c r="A48" s="22" t="s">
         <v>58</v>
       </c>
@@ -26962,7 +26968,7 @@
         <v>24</v>
       </c>
       <c r="BD48" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE48" s="53" t="s">
@@ -26972,7 +26978,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="49" spans="1:58" ht="51">
+    <row ht="51" r="49" spans="1:58">
       <c r="A49" s="22" t="s">
         <v>58</v>
       </c>
@@ -27034,7 +27040,7 @@
         <v>24</v>
       </c>
       <c r="BD49" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE49" s="53" t="s">
@@ -27044,7 +27050,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="50" spans="1:58" ht="63.75">
+    <row ht="63.75" r="50" spans="1:58">
       <c r="A50" s="22" t="s">
         <v>58</v>
       </c>
@@ -27106,7 +27112,7 @@
         <v>24</v>
       </c>
       <c r="BD50" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE50" s="53" t="s">
@@ -27116,7 +27122,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:58" ht="76.5">
+    <row ht="76.5" r="51" spans="1:58">
       <c r="A51" s="22" t="s">
         <v>58</v>
       </c>
@@ -27178,7 +27184,7 @@
         <v>24</v>
       </c>
       <c r="BD51" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE51" s="53" t="s">
@@ -27188,7 +27194,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="52" spans="1:58" ht="63.75">
+    <row ht="63.75" r="52" spans="1:58">
       <c r="A52" s="22" t="s">
         <v>58</v>
       </c>
@@ -27250,7 +27256,7 @@
         <v>24</v>
       </c>
       <c r="BD52" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE52" s="53" t="s">
@@ -27260,7 +27266,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="53" spans="1:58" ht="63.75">
+    <row ht="63.75" r="53" spans="1:58">
       <c r="A53" s="22" t="s">
         <v>58</v>
       </c>
@@ -27310,7 +27316,7 @@
         <v>24</v>
       </c>
       <c r="BD53" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE53" s="53" t="s">
@@ -27320,7 +27326,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="54" spans="1:58" ht="63.75">
+    <row ht="63.75" r="54" spans="1:58">
       <c r="A54" s="22" t="s">
         <v>58</v>
       </c>
@@ -27376,7 +27382,7 @@
         <v>24</v>
       </c>
       <c r="BD54" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE54" s="53" t="s">
@@ -27386,7 +27392,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="55" spans="1:58" ht="76.5">
+    <row ht="76.5" r="55" spans="1:58">
       <c r="A55" s="22" t="s">
         <v>58</v>
       </c>
@@ -27460,7 +27466,7 @@
         <v>12</v>
       </c>
       <c r="BD55" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>12</v>
       </c>
       <c r="BE55" s="53" t="s">
@@ -27470,7 +27476,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="56" spans="1:58" ht="89.25">
+    <row ht="89.25" r="56" spans="1:58">
       <c r="A56" s="22" t="s">
         <v>58</v>
       </c>
@@ -27520,7 +27526,7 @@
         <v>24</v>
       </c>
       <c r="BD56" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE56" s="53" t="s">
@@ -27530,7 +27536,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="57" spans="1:58" ht="51">
+    <row ht="51" r="57" spans="1:58">
       <c r="A57" s="22" t="s">
         <v>58</v>
       </c>
@@ -27580,7 +27586,7 @@
         <v>24</v>
       </c>
       <c r="BD57" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE57" s="53" t="s">
@@ -27590,7 +27596,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:58" ht="51">
+    <row ht="51" r="58" spans="1:58">
       <c r="A58" s="22" t="s">
         <v>58</v>
       </c>
@@ -27652,7 +27658,7 @@
         <v>48</v>
       </c>
       <c r="BD58" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE58" s="53" t="s">
@@ -27662,7 +27668,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="59" spans="1:58" ht="63.75">
+    <row ht="63.75" r="59" spans="1:58">
       <c r="A59" s="22" t="s">
         <v>58</v>
       </c>
@@ -27730,7 +27736,7 @@
         <v>24</v>
       </c>
       <c r="BD59" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE59" s="53" t="s">
@@ -27740,7 +27746,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="60" spans="1:58" ht="25.5">
+    <row ht="25.5" r="60" spans="1:58">
       <c r="A60" s="22" t="s">
         <v>58</v>
       </c>
@@ -27808,7 +27814,7 @@
         <v>4</v>
       </c>
       <c r="BD60" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>4</v>
       </c>
       <c r="BE60" s="53" t="s">
@@ -27818,7 +27824,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="61" spans="1:58" ht="38.25">
+    <row ht="38.25" r="61" spans="1:58">
       <c r="A61" s="22" t="s">
         <v>58</v>
       </c>
@@ -27868,7 +27874,7 @@
         <v>24</v>
       </c>
       <c r="BD61" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE61" s="53" t="s">
@@ -27878,7 +27884,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="62" spans="1:58" ht="38.25">
+    <row ht="38.25" r="62" spans="1:58">
       <c r="A62" s="22" t="s">
         <v>58</v>
       </c>
@@ -27928,7 +27934,7 @@
         <v>24</v>
       </c>
       <c r="BD62" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE62" s="53" t="s">
@@ -27938,7 +27944,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="63" spans="1:58" ht="38.25">
+    <row ht="38.25" r="63" spans="1:58">
       <c r="A63" s="22" t="s">
         <v>58</v>
       </c>
@@ -27988,7 +27994,7 @@
         <v>24</v>
       </c>
       <c r="BD63" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE63" s="53" t="s">
@@ -27998,7 +28004,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="64" spans="1:58" ht="38.25">
+    <row ht="38.25" r="64" spans="1:58">
       <c r="A64" s="22" t="s">
         <v>58</v>
       </c>
@@ -28048,7 +28054,7 @@
         <v>24</v>
       </c>
       <c r="BD64" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE64" s="53" t="s">
@@ -28058,7 +28064,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="65" spans="1:58" ht="51">
+    <row ht="51" r="65" spans="1:58">
       <c r="A65" s="23" t="s">
         <v>58</v>
       </c>
@@ -28120,7 +28126,7 @@
         <v>48</v>
       </c>
       <c r="BD65" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE65" s="53" t="s">
@@ -28130,7 +28136,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="66" spans="1:58" ht="38.25">
+    <row ht="38.25" r="66" spans="1:58">
       <c r="A66" s="23" t="s">
         <v>58</v>
       </c>
@@ -28186,7 +28192,7 @@
         <v>24</v>
       </c>
       <c r="BD66" s="4">
-        <f t="shared" ref="BD66:BD129" si="1">SUM(AW66,AY66,BA66,BC66)</f>
+        <f ref="BD66:BD129" si="1" t="shared">SUM(AW66,AY66,BA66,BC66)</f>
         <v>24</v>
       </c>
       <c r="BE66" s="53" t="s">
@@ -28196,7 +28202,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="67" spans="1:58" ht="38.25">
+    <row ht="38.25" r="67" spans="1:58">
       <c r="A67" s="23" t="s">
         <v>58</v>
       </c>
@@ -28258,7 +28264,7 @@
         <v>48</v>
       </c>
       <c r="BD67" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE67" s="53" t="s">
@@ -28268,7 +28274,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="68" spans="1:58" ht="51">
+    <row ht="51" r="68" spans="1:58">
       <c r="A68" s="23" t="s">
         <v>58</v>
       </c>
@@ -28318,7 +28324,7 @@
         <v>24</v>
       </c>
       <c r="BD68" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE68" s="53" t="s">
@@ -28328,7 +28334,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="69" spans="1:58" ht="51">
+    <row ht="51" r="69" spans="1:58">
       <c r="A69" s="23" t="s">
         <v>58</v>
       </c>
@@ -28390,7 +28396,7 @@
         <v>24</v>
       </c>
       <c r="BD69" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE69" s="53" t="s">
@@ -28400,7 +28406,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="70" spans="1:58" ht="51">
+    <row ht="51" r="70" spans="1:58">
       <c r="A70" s="23" t="s">
         <v>58</v>
       </c>
@@ -28462,7 +28468,7 @@
         <v>24</v>
       </c>
       <c r="BD70" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE70" s="53" t="s">
@@ -28472,7 +28478,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="71" spans="1:58" ht="51">
+    <row ht="51" r="71" spans="1:58">
       <c r="A71" s="23" t="s">
         <v>58</v>
       </c>
@@ -28522,7 +28528,7 @@
         <v>24</v>
       </c>
       <c r="BD71" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE71" s="53" t="s">
@@ -28532,7 +28538,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="72" spans="1:58" ht="51">
+    <row ht="51" r="72" spans="1:58">
       <c r="A72" s="23" t="s">
         <v>58</v>
       </c>
@@ -28588,7 +28594,7 @@
         <v>48</v>
       </c>
       <c r="BD72" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE72" s="53" t="s">
@@ -28598,7 +28604,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="73" spans="1:58" ht="63.75">
+    <row ht="63.75" r="73" spans="1:58">
       <c r="A73" s="23" t="s">
         <v>58</v>
       </c>
@@ -28654,7 +28660,7 @@
         <v>48</v>
       </c>
       <c r="BD73" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE73" s="53" t="s">
@@ -28664,7 +28670,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="74" spans="1:58" ht="63.75">
+    <row ht="63.75" r="74" spans="1:58">
       <c r="A74" s="22" t="s">
         <v>58</v>
       </c>
@@ -28726,7 +28732,7 @@
         <v>48</v>
       </c>
       <c r="BD74" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE74" s="53" t="s">
@@ -28736,7 +28742,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="75" spans="1:58" ht="63.75">
+    <row ht="63.75" r="75" spans="1:58">
       <c r="A75" s="22" t="s">
         <v>58</v>
       </c>
@@ -28798,7 +28804,7 @@
         <v>24</v>
       </c>
       <c r="BD75" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE75" s="53" t="s">
@@ -28808,7 +28814,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="76" spans="1:58" ht="51">
+    <row ht="51" r="76" spans="1:58">
       <c r="A76" s="22" t="s">
         <v>58</v>
       </c>
@@ -28858,7 +28864,7 @@
         <v>48</v>
       </c>
       <c r="BD76" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE76" s="53" t="s">
@@ -28868,7 +28874,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="77" spans="1:58" ht="25.5">
+    <row ht="25.5" r="77" spans="1:58">
       <c r="A77" s="22" t="s">
         <v>58</v>
       </c>
@@ -28918,7 +28924,7 @@
         <v>48</v>
       </c>
       <c r="BD77" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE77" s="53" t="s">
@@ -28928,7 +28934,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="78" spans="1:58" ht="51">
+    <row ht="51" r="78" spans="1:58">
       <c r="A78" s="22" t="s">
         <v>58</v>
       </c>
@@ -28978,7 +28984,7 @@
         <v>48</v>
       </c>
       <c r="BD78" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE78" s="53" t="s">
@@ -28988,7 +28994,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="79" spans="1:58" ht="51">
+    <row ht="51" r="79" spans="1:58">
       <c r="A79" s="23" t="s">
         <v>58</v>
       </c>
@@ -29050,7 +29056,7 @@
         <v>48</v>
       </c>
       <c r="BD79" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE79" s="53" t="s">
@@ -29060,7 +29066,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="80" spans="1:58" ht="51">
+    <row ht="51" r="80" spans="1:58">
       <c r="A80" s="22" t="s">
         <v>58</v>
       </c>
@@ -29110,7 +29116,7 @@
         <v>72</v>
       </c>
       <c r="BD80" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>72</v>
       </c>
       <c r="BE80" s="55" t="s">
@@ -29120,7 +29126,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="81" spans="1:58" ht="38.25">
+    <row ht="38.25" r="81" spans="1:58">
       <c r="A81" s="22" t="s">
         <v>58</v>
       </c>
@@ -29176,7 +29182,7 @@
         <v>24</v>
       </c>
       <c r="BD81" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE81" s="4" t="s">
@@ -29272,7 +29278,7 @@
         <v>72</v>
       </c>
       <c r="BD82" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>72</v>
       </c>
       <c r="BE82" s="53" t="s">
@@ -29368,7 +29374,7 @@
         <v>72</v>
       </c>
       <c r="BD83" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>72</v>
       </c>
       <c r="BE83" s="53" t="s">
@@ -29378,7 +29384,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="84" spans="1:58" ht="38.25">
+    <row ht="38.25" r="84" spans="1:58">
       <c r="A84" s="22" t="s">
         <v>58</v>
       </c>
@@ -29428,7 +29434,7 @@
         <v>72</v>
       </c>
       <c r="BD84" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>72</v>
       </c>
       <c r="BE84" s="53" t="s">
@@ -29518,7 +29524,7 @@
         <v>72</v>
       </c>
       <c r="BD85" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>72</v>
       </c>
       <c r="BE85" s="53" t="s">
@@ -29608,7 +29614,7 @@
         <v>72</v>
       </c>
       <c r="BD86" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>72</v>
       </c>
       <c r="BE86" s="53" t="s">
@@ -29704,7 +29710,7 @@
         <v>24</v>
       </c>
       <c r="BD87" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE87" s="53" t="s">
@@ -29794,7 +29800,7 @@
         <v>72</v>
       </c>
       <c r="BD88" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>72</v>
       </c>
       <c r="BE88" s="53" t="s">
@@ -29890,7 +29896,7 @@
         <v>72</v>
       </c>
       <c r="BD89" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>72</v>
       </c>
       <c r="BE89" s="53" t="s">
@@ -29900,7 +29906,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="90" spans="1:58" ht="38.25">
+    <row ht="38.25" r="90" spans="1:58">
       <c r="A90" s="22" t="s">
         <v>58</v>
       </c>
@@ -29980,7 +29986,7 @@
         <v>48</v>
       </c>
       <c r="BD90" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE90" s="53" t="s">
@@ -29990,7 +29996,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:58" ht="38.25">
+    <row ht="38.25" r="91" spans="1:58">
       <c r="A91" s="22" t="s">
         <v>58</v>
       </c>
@@ -30052,7 +30058,7 @@
         <v>48</v>
       </c>
       <c r="BD91" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE91" s="53" t="s">
@@ -30124,7 +30130,7 @@
         <v>48</v>
       </c>
       <c r="BD92" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE92" s="55" t="s">
@@ -30196,7 +30202,7 @@
         <v>48</v>
       </c>
       <c r="BD93" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE93" s="55" t="s">
@@ -30206,7 +30212,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="94" spans="1:58" ht="51">
+    <row ht="51" r="94" spans="1:58">
       <c r="A94" s="22" t="s">
         <v>58</v>
       </c>
@@ -30256,7 +30262,7 @@
         <v>2</v>
       </c>
       <c r="BD94" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>2</v>
       </c>
       <c r="BE94" s="53" t="s">
@@ -30266,7 +30272,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="95" spans="1:58" ht="51">
+    <row ht="51" r="95" spans="1:58">
       <c r="A95" s="22" t="s">
         <v>58</v>
       </c>
@@ -30316,7 +30322,7 @@
         <v>2</v>
       </c>
       <c r="BD95" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>2</v>
       </c>
       <c r="BE95" s="53" t="s">
@@ -30326,7 +30332,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="96" spans="1:58" ht="51">
+    <row ht="51" r="96" spans="1:58">
       <c r="A96" s="22" t="s">
         <v>58</v>
       </c>
@@ -30376,7 +30382,7 @@
         <v>2</v>
       </c>
       <c r="BD96" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>2</v>
       </c>
       <c r="BE96" s="53" t="s">
@@ -30386,7 +30392,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="97" spans="1:58" ht="51">
+    <row ht="51" r="97" spans="1:58">
       <c r="A97" s="22" t="s">
         <v>58</v>
       </c>
@@ -30436,7 +30442,7 @@
         <v>2</v>
       </c>
       <c r="BD97" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>2</v>
       </c>
       <c r="BE97" s="53" t="s">
@@ -30446,7 +30452,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="98" spans="1:58" ht="51">
+    <row ht="51" r="98" spans="1:58">
       <c r="A98" s="22" t="s">
         <v>58</v>
       </c>
@@ -30496,7 +30502,7 @@
         <v>24</v>
       </c>
       <c r="BD98" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE98" s="53" t="s">
@@ -30506,7 +30512,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="99" spans="1:58" ht="102">
+    <row ht="102" r="99" spans="1:58">
       <c r="A99" s="22" t="s">
         <v>58</v>
       </c>
@@ -30556,7 +30562,7 @@
         <v>24</v>
       </c>
       <c r="BD99" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE99" s="53" t="s">
@@ -30566,7 +30572,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="100" spans="1:58" ht="38.25">
+    <row ht="38.25" r="100" spans="1:58">
       <c r="A100" s="23" t="s">
         <v>58</v>
       </c>
@@ -30628,7 +30634,7 @@
         <v>48</v>
       </c>
       <c r="BD100" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE100" s="53" t="s">
@@ -30638,7 +30644,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="101" spans="1:58" ht="38.25">
+    <row ht="38.25" r="101" spans="1:58">
       <c r="A101" s="23" t="s">
         <v>58</v>
       </c>
@@ -30700,7 +30706,7 @@
         <v>48</v>
       </c>
       <c r="BD101" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE101" s="53" t="s">
@@ -30710,7 +30716,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="102" spans="1:58" ht="63.75">
+    <row ht="63.75" r="102" spans="1:58">
       <c r="A102" s="23" t="s">
         <v>58</v>
       </c>
@@ -30772,7 +30778,7 @@
         <v>48</v>
       </c>
       <c r="BD102" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE102" s="53" t="s">
@@ -30782,7 +30788,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="103" spans="1:58" ht="38.25">
+    <row ht="38.25" r="103" spans="1:58">
       <c r="A103" s="23" t="s">
         <v>248</v>
       </c>
@@ -30856,7 +30862,7 @@
         <v>24</v>
       </c>
       <c r="BD103" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE103" s="53" t="s">
@@ -30934,7 +30940,7 @@
         <v>4</v>
       </c>
       <c r="BD104" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>4</v>
       </c>
       <c r="BE104" s="53" t="s">
@@ -30944,7 +30950,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="105" spans="1:58" ht="51">
+    <row ht="51" r="105" spans="1:58">
       <c r="A105" s="22" t="s">
         <v>248</v>
       </c>
@@ -31006,7 +31012,7 @@
         <v>24</v>
       </c>
       <c r="BD105" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE105" s="53" t="s">
@@ -31016,7 +31022,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="106" spans="1:58" ht="51">
+    <row ht="51" r="106" spans="1:58">
       <c r="A106" s="22" t="s">
         <v>248</v>
       </c>
@@ -31078,7 +31084,7 @@
         <v>24</v>
       </c>
       <c r="BD106" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE106" s="53" t="s">
@@ -31088,7 +31094,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="107" spans="1:58" ht="51">
+    <row ht="51" r="107" spans="1:58">
       <c r="A107" s="22" t="s">
         <v>248</v>
       </c>
@@ -31150,7 +31156,7 @@
         <v>24</v>
       </c>
       <c r="BD107" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE107" s="53" t="s">
@@ -31160,7 +31166,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="108" spans="1:58" ht="51">
+    <row ht="51" r="108" spans="1:58">
       <c r="A108" s="22" t="s">
         <v>248</v>
       </c>
@@ -31222,7 +31228,7 @@
         <v>24</v>
       </c>
       <c r="BD108" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE108" s="53" t="s">
@@ -31232,7 +31238,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="109" spans="1:58" ht="51">
+    <row ht="51" r="109" spans="1:58">
       <c r="A109" s="22" t="s">
         <v>248</v>
       </c>
@@ -31294,7 +31300,7 @@
         <v>24</v>
       </c>
       <c r="BD109" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE109" s="53" t="s">
@@ -31304,7 +31310,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="110" spans="1:58" ht="63.75">
+    <row ht="63.75" r="110" spans="1:58">
       <c r="A110" s="22" t="s">
         <v>248</v>
       </c>
@@ -31366,7 +31372,7 @@
         <v>24</v>
       </c>
       <c r="BD110" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE110" s="53" t="s">
@@ -31376,7 +31382,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="111" spans="1:58" ht="63.75">
+    <row ht="63.75" r="111" spans="1:58">
       <c r="A111" s="22" t="s">
         <v>248</v>
       </c>
@@ -31444,7 +31450,7 @@
         <v>24</v>
       </c>
       <c r="BD111" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE111" s="53" t="s">
@@ -31454,7 +31460,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="112" spans="1:58" ht="38.25">
+    <row ht="38.25" r="112" spans="1:58">
       <c r="A112" s="22" t="s">
         <v>248</v>
       </c>
@@ -31534,7 +31540,7 @@
         <v>8</v>
       </c>
       <c r="BD112" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>8</v>
       </c>
       <c r="BE112" s="53" t="s">
@@ -31544,7 +31550,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="113" spans="1:58" ht="38.25">
+    <row ht="38.25" r="113" spans="1:58">
       <c r="A113" s="22" t="s">
         <v>248</v>
       </c>
@@ -31618,7 +31624,7 @@
         <v>8</v>
       </c>
       <c r="BD113" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>8</v>
       </c>
       <c r="BE113" s="53" t="s">
@@ -31628,7 +31634,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="114" spans="1:58" ht="38.25">
+    <row ht="38.25" r="114" spans="1:58">
       <c r="A114" s="22" t="s">
         <v>248</v>
       </c>
@@ -31684,7 +31690,7 @@
         <v>4</v>
       </c>
       <c r="BD114" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>4</v>
       </c>
       <c r="BE114" s="53" t="s">
@@ -31694,7 +31700,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="115" spans="1:58" ht="38.25">
+    <row ht="38.25" r="115" spans="1:58">
       <c r="A115" s="22" t="s">
         <v>248</v>
       </c>
@@ -31774,7 +31780,7 @@
         <v>720</v>
       </c>
       <c r="BD115" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>720</v>
       </c>
       <c r="BE115" s="53" t="s">
@@ -31784,7 +31790,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="116" spans="1:58" ht="51">
+    <row ht="51" r="116" spans="1:58">
       <c r="A116" s="22" t="s">
         <v>248</v>
       </c>
@@ -31864,7 +31870,7 @@
         <v>720</v>
       </c>
       <c r="BD116" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>720</v>
       </c>
       <c r="BE116" s="53" t="s">
@@ -31874,7 +31880,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="117" spans="1:58" ht="51">
+    <row ht="51" r="117" spans="1:58">
       <c r="A117" s="22" t="s">
         <v>248</v>
       </c>
@@ -31954,7 +31960,7 @@
         <v>8</v>
       </c>
       <c r="BD117" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>8</v>
       </c>
       <c r="BE117" s="53" t="s">
@@ -31964,7 +31970,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="118" spans="1:58" ht="89.25">
+    <row ht="89.25" r="118" spans="1:58">
       <c r="A118" s="22" t="s">
         <v>248</v>
       </c>
@@ -32014,7 +32020,7 @@
         <v>24</v>
       </c>
       <c r="BD118" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE118" s="53" t="s">
@@ -32024,7 +32030,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="119" spans="1:58" ht="76.5">
+    <row ht="76.5" r="119" spans="1:58">
       <c r="A119" s="22" t="s">
         <v>248</v>
       </c>
@@ -32092,7 +32098,7 @@
         <v>24</v>
       </c>
       <c r="BD119" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE119" s="53" t="s">
@@ -32102,7 +32108,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="120" spans="1:58" ht="89.25">
+    <row ht="89.25" r="120" spans="1:58">
       <c r="A120" s="22" t="s">
         <v>248</v>
       </c>
@@ -32176,7 +32182,7 @@
         <v>24</v>
       </c>
       <c r="BD120" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE120" s="53" t="s">
@@ -32186,7 +32192,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="121" spans="1:58" ht="63.75">
+    <row ht="63.75" r="121" spans="1:58">
       <c r="A121" s="22" t="s">
         <v>248</v>
       </c>
@@ -32260,7 +32266,7 @@
         <v>48</v>
       </c>
       <c r="BD121" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE121" s="53" t="s">
@@ -32270,7 +32276,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="122" spans="1:58" ht="51">
+    <row ht="51" r="122" spans="1:58">
       <c r="A122" s="22" t="s">
         <v>248</v>
       </c>
@@ -32320,7 +32326,7 @@
         <v>24</v>
       </c>
       <c r="BD122" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE122" s="53" t="s">
@@ -32330,7 +32336,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="123" spans="1:58" ht="38.25">
+    <row ht="38.25" r="123" spans="1:58">
       <c r="A123" s="22" t="s">
         <v>248</v>
       </c>
@@ -32380,7 +32386,7 @@
         <v>24</v>
       </c>
       <c r="BD123" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE123" s="53" t="s">
@@ -32390,7 +32396,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="124" spans="1:58" ht="127.5">
+    <row ht="127.5" r="124" spans="1:58">
       <c r="A124" s="22" t="s">
         <v>248</v>
       </c>
@@ -32440,7 +32446,7 @@
         <v>24</v>
       </c>
       <c r="BD124" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE124" s="53" t="s">
@@ -32450,7 +32456,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="125" spans="1:58" ht="51">
+    <row ht="51" r="125" spans="1:58">
       <c r="A125" s="22" t="s">
         <v>248</v>
       </c>
@@ -32524,7 +32530,7 @@
         <v>24</v>
       </c>
       <c r="BD125" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE125" s="53" t="s">
@@ -32534,7 +32540,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="126" spans="1:58" ht="38.25">
+    <row ht="38.25" r="126" spans="1:58">
       <c r="A126" s="22" t="s">
         <v>248</v>
       </c>
@@ -32608,7 +32614,7 @@
         <v>720</v>
       </c>
       <c r="BD126" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>720</v>
       </c>
       <c r="BE126" s="56" t="s">
@@ -32618,7 +32624,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="127" spans="1:58" ht="63.75">
+    <row ht="63.75" r="127" spans="1:58">
       <c r="A127" s="22" t="s">
         <v>248</v>
       </c>
@@ -32680,7 +32686,7 @@
         <v>2</v>
       </c>
       <c r="BD127" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>2</v>
       </c>
       <c r="BE127" s="53" t="s">
@@ -32690,7 +32696,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="128" spans="1:58" ht="63.75">
+    <row ht="63.75" r="128" spans="1:58">
       <c r="A128" s="22" t="s">
         <v>248</v>
       </c>
@@ -32764,7 +32770,7 @@
         <v>4</v>
       </c>
       <c r="BD128" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>4</v>
       </c>
       <c r="BE128" s="53" t="s">
@@ -32774,7 +32780,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="129" spans="1:58" ht="89.25">
+    <row ht="89.25" r="129" spans="1:58">
       <c r="A129" s="22" t="s">
         <v>248</v>
       </c>
@@ -32848,7 +32854,7 @@
         <v>3</v>
       </c>
       <c r="BD129" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>3</v>
       </c>
       <c r="BE129" s="53" t="s">
@@ -32858,7 +32864,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="130" spans="1:58" ht="51">
+    <row ht="51" r="130" spans="1:58">
       <c r="A130" s="22" t="s">
         <v>248</v>
       </c>
@@ -32920,7 +32926,7 @@
         <v>24</v>
       </c>
       <c r="BD130" s="4">
-        <f t="shared" ref="BD130" si="2">SUM(AW130,AY130,BA130,BC130)</f>
+        <f ref="BD130" si="2" t="shared">SUM(AW130,AY130,BA130,BC130)</f>
         <v>24</v>
       </c>
       <c r="BE130" s="53" t="s">
@@ -32937,36 +32943,36 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="E111:E112">
-    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
+    <cfRule dxfId="11" priority="4" type="duplicateValues"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E113:E117">
-    <cfRule type="duplicateValues" dxfId="10" priority="3"/>
+    <cfRule dxfId="10" priority="3" type="duplicateValues"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118:E124">
-    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
+    <cfRule dxfId="9" priority="2" type="duplicateValues"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E125:E130">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+    <cfRule dxfId="8" priority="1" type="duplicateValues"/>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG86"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="BC6" sqref="BC6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="6" max="20" width="0" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="26" width="0" style="4" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="47" width="0" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="59" max="59" width="10.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="20" customWidth="true" hidden="true" width="0.0" collapsed="true"/>
+    <col min="21" max="26" customWidth="true" hidden="true" style="4" width="0.0" collapsed="true"/>
+    <col min="27" max="47" customWidth="true" hidden="true" width="0.0" collapsed="true"/>
+    <col min="59" max="59" bestFit="true" customWidth="true" width="10.875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:59">
@@ -33148,7 +33154,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:59" s="4" customFormat="1" ht="102">
+    <row customFormat="1" ht="102" r="2" s="4" spans="1:59">
       <c r="A2" s="22" t="s">
         <v>58</v>
       </c>
@@ -33196,7 +33202,7 @@
         <v>24</v>
       </c>
       <c r="BD2" s="4">
-        <f t="shared" ref="BD2:BD33" si="0">SUM(AW2,AY2,BA2,BC2)</f>
+        <f ref="BD2:BD33" si="0" t="shared">SUM(AW2,AY2,BA2,BC2)</f>
         <v>24</v>
       </c>
       <c r="BE2" s="53" t="s">
@@ -33209,7 +33215,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="3" spans="1:59" s="4" customFormat="1" ht="25.5">
+    <row customFormat="1" ht="25.5" r="3" s="4" spans="1:59">
       <c r="A3" s="22" t="s">
         <v>58</v>
       </c>
@@ -33271,7 +33277,7 @@
         <v>24</v>
       </c>
       <c r="BD3" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE3" s="53" t="s">
@@ -33284,7 +33290,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="4" spans="1:59" s="4" customFormat="1" ht="38.25">
+    <row customFormat="1" ht="38.25" r="4" s="4" spans="1:59">
       <c r="A4" s="22" t="s">
         <v>58</v>
       </c>
@@ -33334,7 +33340,7 @@
         <v>24</v>
       </c>
       <c r="BD4" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE4" s="53" t="s">
@@ -33345,7 +33351,7 @@
       </c>
       <c r="BG4" s="1"/>
     </row>
-    <row r="5" spans="1:59" s="4" customFormat="1" ht="51">
+    <row customFormat="1" ht="51" r="5" s="4" spans="1:59">
       <c r="A5" s="22" t="s">
         <v>58</v>
       </c>
@@ -33407,7 +33413,7 @@
         <v>24</v>
       </c>
       <c r="BD5" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE5" s="53" t="s">
@@ -33420,7 +33426,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="6" spans="1:59" s="4" customFormat="1" ht="63.75">
+    <row customFormat="1" ht="63.75" r="6" s="4" spans="1:59">
       <c r="A6" s="22" t="s">
         <v>58</v>
       </c>
@@ -33482,7 +33488,7 @@
         <v>24</v>
       </c>
       <c r="BD6" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE6" s="53" t="s">
@@ -33495,7 +33501,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="7" spans="1:59" s="4" customFormat="1" ht="76.5">
+    <row customFormat="1" ht="76.5" r="7" s="4" spans="1:59">
       <c r="A7" s="22" t="s">
         <v>58</v>
       </c>
@@ -33557,7 +33563,7 @@
         <v>24</v>
       </c>
       <c r="BD7" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE7" s="53" t="s">
@@ -33570,7 +33576,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="8" spans="1:59" s="4" customFormat="1" ht="63.75">
+    <row customFormat="1" ht="63.75" r="8" s="4" spans="1:59">
       <c r="A8" s="22" t="s">
         <v>58</v>
       </c>
@@ -33632,7 +33638,7 @@
         <v>24</v>
       </c>
       <c r="BD8" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE8" s="53" t="s">
@@ -33645,7 +33651,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="9" spans="1:59" s="4" customFormat="1" ht="63.75">
+    <row customFormat="1" ht="63.75" r="9" s="4" spans="1:59">
       <c r="A9" s="22" t="s">
         <v>58</v>
       </c>
@@ -33695,7 +33701,7 @@
         <v>24</v>
       </c>
       <c r="BD9" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE9" s="53" t="s">
@@ -33708,7 +33714,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="10" spans="1:59" s="4" customFormat="1" ht="63.75">
+    <row customFormat="1" ht="63.75" r="10" s="4" spans="1:59">
       <c r="A10" s="22" t="s">
         <v>58</v>
       </c>
@@ -33764,7 +33770,7 @@
         <v>24</v>
       </c>
       <c r="BD10" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE10" s="53" t="s">
@@ -33777,7 +33783,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="11" spans="1:59" s="4" customFormat="1" ht="76.5">
+    <row customFormat="1" ht="76.5" r="11" s="4" spans="1:59">
       <c r="A11" s="22" t="s">
         <v>58</v>
       </c>
@@ -33851,7 +33857,7 @@
         <v>12</v>
       </c>
       <c r="BD11" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>12</v>
       </c>
       <c r="BE11" s="53" t="s">
@@ -33864,7 +33870,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="12" spans="1:59" s="4" customFormat="1" ht="89.25">
+    <row customFormat="1" ht="89.25" r="12" s="4" spans="1:59">
       <c r="A12" s="22" t="s">
         <v>58</v>
       </c>
@@ -33914,7 +33920,7 @@
         <v>24</v>
       </c>
       <c r="BD12" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE12" s="53" t="s">
@@ -33927,7 +33933,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="13" spans="1:59" s="4" customFormat="1" ht="51">
+    <row customFormat="1" ht="51" r="13" s="4" spans="1:59">
       <c r="A13" s="22" t="s">
         <v>58</v>
       </c>
@@ -33977,7 +33983,7 @@
         <v>24</v>
       </c>
       <c r="BD13" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE13" s="53" t="s">
@@ -33990,7 +33996,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="14" spans="1:59" s="4" customFormat="1" ht="51">
+    <row customFormat="1" ht="51" r="14" s="4" spans="1:59">
       <c r="A14" s="22" t="s">
         <v>58</v>
       </c>
@@ -34052,7 +34058,7 @@
         <v>48</v>
       </c>
       <c r="BD14" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE14" s="53" t="s">
@@ -34065,7 +34071,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="15" spans="1:59" s="4" customFormat="1" ht="63.75">
+    <row customFormat="1" ht="63.75" r="15" s="4" spans="1:59">
       <c r="A15" s="22" t="s">
         <v>58</v>
       </c>
@@ -34133,7 +34139,7 @@
         <v>24</v>
       </c>
       <c r="BD15" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE15" s="53" t="s">
@@ -34146,7 +34152,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="16" spans="1:59" s="4" customFormat="1" ht="25.5">
+    <row customFormat="1" ht="25.5" r="16" s="4" spans="1:59">
       <c r="A16" s="22" t="s">
         <v>58</v>
       </c>
@@ -34214,7 +34220,7 @@
         <v>4</v>
       </c>
       <c r="BD16" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>4</v>
       </c>
       <c r="BE16" s="53" t="s">
@@ -34227,7 +34233,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="17" spans="1:59" s="4" customFormat="1" ht="38.25">
+    <row customFormat="1" ht="38.25" r="17" s="4" spans="1:59">
       <c r="A17" s="22" t="s">
         <v>58</v>
       </c>
@@ -34277,7 +34283,7 @@
         <v>24</v>
       </c>
       <c r="BD17" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE17" s="53" t="s">
@@ -34290,7 +34296,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="18" spans="1:59" s="4" customFormat="1" ht="38.25">
+    <row customFormat="1" ht="38.25" r="18" s="4" spans="1:59">
       <c r="A18" s="22" t="s">
         <v>58</v>
       </c>
@@ -34340,7 +34346,7 @@
         <v>24</v>
       </c>
       <c r="BD18" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE18" s="53" t="s">
@@ -34353,7 +34359,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="19" spans="1:59" s="4" customFormat="1" ht="38.25">
+    <row customFormat="1" ht="38.25" r="19" s="4" spans="1:59">
       <c r="A19" s="22" t="s">
         <v>58</v>
       </c>
@@ -34403,7 +34409,7 @@
         <v>24</v>
       </c>
       <c r="BD19" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE19" s="53" t="s">
@@ -34416,7 +34422,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="20" spans="1:59" s="4" customFormat="1" ht="38.25">
+    <row customFormat="1" ht="38.25" r="20" s="4" spans="1:59">
       <c r="A20" s="22" t="s">
         <v>58</v>
       </c>
@@ -34466,7 +34472,7 @@
         <v>24</v>
       </c>
       <c r="BD20" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE20" s="53" t="s">
@@ -34479,7 +34485,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="21" spans="1:59" s="4" customFormat="1" ht="51">
+    <row customFormat="1" ht="51" r="21" s="4" spans="1:59">
       <c r="A21" s="23" t="s">
         <v>58</v>
       </c>
@@ -34541,7 +34547,7 @@
         <v>48</v>
       </c>
       <c r="BD21" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE21" s="53" t="s">
@@ -34554,7 +34560,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="22" spans="1:59" s="4" customFormat="1" ht="38.25">
+    <row customFormat="1" ht="38.25" r="22" s="4" spans="1:59">
       <c r="A22" s="23" t="s">
         <v>58</v>
       </c>
@@ -34610,7 +34616,7 @@
         <v>24</v>
       </c>
       <c r="BD22" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE22" s="53" t="s">
@@ -34623,7 +34629,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="23" spans="1:59" s="4" customFormat="1" ht="38.25">
+    <row customFormat="1" ht="38.25" r="23" s="4" spans="1:59">
       <c r="A23" s="23" t="s">
         <v>58</v>
       </c>
@@ -34685,7 +34691,7 @@
         <v>48</v>
       </c>
       <c r="BD23" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE23" s="53" t="s">
@@ -34698,7 +34704,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="24" spans="1:59" s="4" customFormat="1" ht="51">
+    <row customFormat="1" ht="51" r="24" s="4" spans="1:59">
       <c r="A24" s="23" t="s">
         <v>58</v>
       </c>
@@ -34748,7 +34754,7 @@
         <v>24</v>
       </c>
       <c r="BD24" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE24" s="53" t="s">
@@ -34761,7 +34767,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="25" spans="1:59" s="4" customFormat="1" ht="51">
+    <row customFormat="1" ht="51" r="25" s="4" spans="1:59">
       <c r="A25" s="23" t="s">
         <v>58</v>
       </c>
@@ -34823,7 +34829,7 @@
         <v>24</v>
       </c>
       <c r="BD25" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE25" s="53" t="s">
@@ -34836,7 +34842,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="26" spans="1:59" s="4" customFormat="1" ht="51">
+    <row customFormat="1" ht="51" r="26" s="4" spans="1:59">
       <c r="A26" s="23" t="s">
         <v>58</v>
       </c>
@@ -34898,7 +34904,7 @@
         <v>24</v>
       </c>
       <c r="BD26" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE26" s="53" t="s">
@@ -34911,7 +34917,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="27" spans="1:59" s="4" customFormat="1" ht="51">
+    <row customFormat="1" ht="51" r="27" s="4" spans="1:59">
       <c r="A27" s="23" t="s">
         <v>58</v>
       </c>
@@ -34961,7 +34967,7 @@
         <v>24</v>
       </c>
       <c r="BD27" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE27" s="53" t="s">
@@ -34974,7 +34980,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="28" spans="1:59" s="4" customFormat="1" ht="51">
+    <row customFormat="1" ht="51" r="28" s="4" spans="1:59">
       <c r="A28" s="23" t="s">
         <v>58</v>
       </c>
@@ -35030,7 +35036,7 @@
         <v>48</v>
       </c>
       <c r="BD28" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE28" s="53" t="s">
@@ -35043,7 +35049,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="29" spans="1:59" s="4" customFormat="1" ht="63.75">
+    <row customFormat="1" ht="63.75" r="29" s="4" spans="1:59">
       <c r="A29" s="23" t="s">
         <v>58</v>
       </c>
@@ -35099,7 +35105,7 @@
         <v>48</v>
       </c>
       <c r="BD29" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE29" s="53" t="s">
@@ -35112,7 +35118,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="30" spans="1:59" s="4" customFormat="1" ht="63.75">
+    <row customFormat="1" ht="63.75" r="30" s="4" spans="1:59">
       <c r="A30" s="22" t="s">
         <v>58</v>
       </c>
@@ -35174,7 +35180,7 @@
         <v>48</v>
       </c>
       <c r="BD30" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE30" s="53" t="s">
@@ -35187,7 +35193,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="31" spans="1:59" s="4" customFormat="1" ht="63.75">
+    <row customFormat="1" ht="63.75" r="31" s="4" spans="1:59">
       <c r="A31" s="22" t="s">
         <v>58</v>
       </c>
@@ -35249,7 +35255,7 @@
         <v>24</v>
       </c>
       <c r="BD31" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE31" s="53" t="s">
@@ -35262,7 +35268,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="32" spans="1:59" s="4" customFormat="1" ht="51">
+    <row customFormat="1" ht="51" r="32" s="4" spans="1:59">
       <c r="A32" s="22" t="s">
         <v>58</v>
       </c>
@@ -35312,7 +35318,7 @@
         <v>48</v>
       </c>
       <c r="BD32" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE32" s="53" t="s">
@@ -35325,7 +35331,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="33" spans="1:59" s="4" customFormat="1" ht="38.25">
+    <row customFormat="1" ht="38.25" r="33" s="4" spans="1:59">
       <c r="A33" s="22" t="s">
         <v>58</v>
       </c>
@@ -35375,7 +35381,7 @@
         <v>48</v>
       </c>
       <c r="BD33" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE33" s="53" t="s">
@@ -35388,7 +35394,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="34" spans="1:59" s="4" customFormat="1" ht="51">
+    <row customFormat="1" ht="51" r="34" s="4" spans="1:59">
       <c r="A34" s="22" t="s">
         <v>58</v>
       </c>
@@ -35438,7 +35444,7 @@
         <v>48</v>
       </c>
       <c r="BD34" s="4">
-        <f t="shared" ref="BD34:BD65" si="1">SUM(AW34,AY34,BA34,BC34)</f>
+        <f ref="BD34:BD65" si="1" t="shared">SUM(AW34,AY34,BA34,BC34)</f>
         <v>48</v>
       </c>
       <c r="BE34" s="53" t="s">
@@ -35451,7 +35457,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="35" spans="1:59" s="4" customFormat="1" ht="51">
+    <row customFormat="1" ht="51" r="35" s="4" spans="1:59">
       <c r="A35" s="23" t="s">
         <v>58</v>
       </c>
@@ -35513,7 +35519,7 @@
         <v>48</v>
       </c>
       <c r="BD35" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE35" s="53" t="s">
@@ -35526,7 +35532,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="36" spans="1:59" s="4" customFormat="1" ht="51">
+    <row customFormat="1" ht="51" r="36" s="4" spans="1:59">
       <c r="A36" s="22" t="s">
         <v>58</v>
       </c>
@@ -35576,7 +35582,7 @@
         <v>72</v>
       </c>
       <c r="BD36" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>72</v>
       </c>
       <c r="BE36" s="55" t="s">
@@ -35589,7 +35595,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="37" spans="1:59" s="4" customFormat="1" ht="38.25">
+    <row customFormat="1" ht="38.25" r="37" s="4" spans="1:59">
       <c r="A37" s="22" t="s">
         <v>58</v>
       </c>
@@ -35645,7 +35651,7 @@
         <v>24</v>
       </c>
       <c r="BD37" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE37" s="4" t="s">
@@ -35658,7 +35664,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="38" spans="1:59" s="4" customFormat="1">
+    <row customFormat="1" r="38" s="4" spans="1:59">
       <c r="A38" s="5" t="s">
         <v>222</v>
       </c>
@@ -35744,7 +35750,7 @@
         <v>72</v>
       </c>
       <c r="BD38" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>72</v>
       </c>
       <c r="BE38" s="53" t="s">
@@ -35757,7 +35763,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="39" spans="1:59" s="4" customFormat="1">
+    <row customFormat="1" r="39" s="4" spans="1:59">
       <c r="A39" s="5" t="s">
         <v>222</v>
       </c>
@@ -35843,7 +35849,7 @@
         <v>72</v>
       </c>
       <c r="BD39" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>72</v>
       </c>
       <c r="BE39" s="53" t="s">
@@ -35856,7 +35862,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="40" spans="1:59" s="4" customFormat="1" ht="38.25">
+    <row customFormat="1" ht="38.25" r="40" s="4" spans="1:59">
       <c r="A40" s="22" t="s">
         <v>58</v>
       </c>
@@ -35906,7 +35912,7 @@
         <v>72</v>
       </c>
       <c r="BD40" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>72</v>
       </c>
       <c r="BE40" s="53" t="s">
@@ -35919,7 +35925,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="41" spans="1:59" s="4" customFormat="1">
+    <row customFormat="1" r="41" s="4" spans="1:59">
       <c r="A41" s="5" t="s">
         <v>222</v>
       </c>
@@ -35999,7 +36005,7 @@
         <v>72</v>
       </c>
       <c r="BD41" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>72</v>
       </c>
       <c r="BE41" s="53" t="s">
@@ -36012,7 +36018,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="42" spans="1:59" s="4" customFormat="1">
+    <row customFormat="1" r="42" s="4" spans="1:59">
       <c r="A42" s="5" t="s">
         <v>222</v>
       </c>
@@ -36092,7 +36098,7 @@
         <v>72</v>
       </c>
       <c r="BD42" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>72</v>
       </c>
       <c r="BE42" s="53" t="s">
@@ -36105,7 +36111,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="43" spans="1:59" s="4" customFormat="1">
+    <row customFormat="1" r="43" s="4" spans="1:59">
       <c r="A43" s="5" t="s">
         <v>222</v>
       </c>
@@ -36191,7 +36197,7 @@
         <v>24</v>
       </c>
       <c r="BD43" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE43" s="53" t="s">
@@ -36204,7 +36210,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="44" spans="1:59" s="4" customFormat="1">
+    <row customFormat="1" r="44" s="4" spans="1:59">
       <c r="A44" s="5" t="s">
         <v>222</v>
       </c>
@@ -36284,7 +36290,7 @@
         <v>72</v>
       </c>
       <c r="BD44" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>72</v>
       </c>
       <c r="BE44" s="53" t="s">
@@ -36297,7 +36303,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="45" spans="1:59" s="4" customFormat="1">
+    <row customFormat="1" r="45" s="4" spans="1:59">
       <c r="A45" s="5" t="s">
         <v>222</v>
       </c>
@@ -36383,7 +36389,7 @@
         <v>72</v>
       </c>
       <c r="BD45" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>72</v>
       </c>
       <c r="BE45" s="53" t="s">
@@ -36396,7 +36402,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="46" spans="1:59" s="4" customFormat="1" ht="38.25">
+    <row customFormat="1" ht="38.25" r="46" s="4" spans="1:59">
       <c r="A46" s="22" t="s">
         <v>58</v>
       </c>
@@ -36476,7 +36482,7 @@
         <v>48</v>
       </c>
       <c r="BD46" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE46" s="53" t="s">
@@ -36489,7 +36495,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="47" spans="1:59" s="4" customFormat="1" ht="38.25">
+    <row customFormat="1" ht="38.25" r="47" s="4" spans="1:59">
       <c r="A47" s="22" t="s">
         <v>58</v>
       </c>
@@ -36551,7 +36557,7 @@
         <v>48</v>
       </c>
       <c r="BD47" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE47" s="53" t="s">
@@ -36564,7 +36570,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="48" spans="1:59" s="4" customFormat="1">
+    <row customFormat="1" r="48" s="4" spans="1:59">
       <c r="A48" s="22" t="s">
         <v>58</v>
       </c>
@@ -36626,7 +36632,7 @@
         <v>48</v>
       </c>
       <c r="BD48" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE48" s="55" t="s">
@@ -36639,7 +36645,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="49" spans="1:59" s="4" customFormat="1">
+    <row customFormat="1" r="49" s="4" spans="1:59">
       <c r="A49" s="22" t="s">
         <v>58</v>
       </c>
@@ -36701,7 +36707,7 @@
         <v>48</v>
       </c>
       <c r="BD49" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE49" s="55" t="s">
@@ -36714,7 +36720,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="50" spans="1:59" s="4" customFormat="1" ht="51">
+    <row customFormat="1" ht="51" r="50" s="4" spans="1:59">
       <c r="A50" s="22" t="s">
         <v>58</v>
       </c>
@@ -36764,7 +36770,7 @@
         <v>2</v>
       </c>
       <c r="BD50" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>2</v>
       </c>
       <c r="BE50" s="53" t="s">
@@ -36777,7 +36783,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="51" spans="1:59" s="4" customFormat="1" ht="51">
+    <row customFormat="1" ht="51" r="51" s="4" spans="1:59">
       <c r="A51" s="22" t="s">
         <v>58</v>
       </c>
@@ -36827,7 +36833,7 @@
         <v>2</v>
       </c>
       <c r="BD51" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>2</v>
       </c>
       <c r="BE51" s="53" t="s">
@@ -36840,7 +36846,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="52" spans="1:59" s="4" customFormat="1" ht="51">
+    <row customFormat="1" ht="51" r="52" s="4" spans="1:59">
       <c r="A52" s="22" t="s">
         <v>58</v>
       </c>
@@ -36890,7 +36896,7 @@
         <v>2</v>
       </c>
       <c r="BD52" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>2</v>
       </c>
       <c r="BE52" s="53" t="s">
@@ -36903,7 +36909,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="53" spans="1:59" s="4" customFormat="1" ht="51">
+    <row customFormat="1" ht="51" r="53" s="4" spans="1:59">
       <c r="A53" s="22" t="s">
         <v>58</v>
       </c>
@@ -36953,7 +36959,7 @@
         <v>2</v>
       </c>
       <c r="BD53" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>2</v>
       </c>
       <c r="BE53" s="53" t="s">
@@ -36966,7 +36972,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="54" spans="1:59" s="4" customFormat="1" ht="51">
+    <row customFormat="1" ht="51" r="54" s="4" spans="1:59">
       <c r="A54" s="22" t="s">
         <v>58</v>
       </c>
@@ -37016,7 +37022,7 @@
         <v>24</v>
       </c>
       <c r="BD54" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE54" s="53" t="s">
@@ -37029,7 +37035,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="55" spans="1:59" s="4" customFormat="1" ht="102">
+    <row customFormat="1" ht="102" r="55" s="4" spans="1:59">
       <c r="A55" s="22" t="s">
         <v>58</v>
       </c>
@@ -37079,7 +37085,7 @@
         <v>24</v>
       </c>
       <c r="BD55" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE55" s="53" t="s">
@@ -37092,7 +37098,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="56" spans="1:59" s="4" customFormat="1" ht="38.25">
+    <row customFormat="1" ht="38.25" r="56" s="4" spans="1:59">
       <c r="A56" s="23" t="s">
         <v>58</v>
       </c>
@@ -37154,7 +37160,7 @@
         <v>48</v>
       </c>
       <c r="BD56" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE56" s="53" t="s">
@@ -37167,7 +37173,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="57" spans="1:59" s="4" customFormat="1" ht="38.25">
+    <row customFormat="1" ht="38.25" r="57" s="4" spans="1:59">
       <c r="A57" s="23" t="s">
         <v>58</v>
       </c>
@@ -37229,7 +37235,7 @@
         <v>48</v>
       </c>
       <c r="BD57" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE57" s="53" t="s">
@@ -37242,7 +37248,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="58" spans="1:59" s="4" customFormat="1" ht="63.75">
+    <row customFormat="1" ht="63.75" r="58" s="4" spans="1:59">
       <c r="A58" s="23" t="s">
         <v>58</v>
       </c>
@@ -37304,7 +37310,7 @@
         <v>48</v>
       </c>
       <c r="BD58" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE58" s="53" t="s">
@@ -37317,7 +37323,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="59" spans="1:59" s="4" customFormat="1" ht="38.25">
+    <row customFormat="1" ht="38.25" r="59" s="4" spans="1:59">
       <c r="A59" s="23" t="s">
         <v>248</v>
       </c>
@@ -37391,7 +37397,7 @@
         <v>24</v>
       </c>
       <c r="BD59" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE59" s="53" t="s">
@@ -37404,7 +37410,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="60" spans="1:59" s="4" customFormat="1">
+    <row customFormat="1" r="60" s="4" spans="1:59">
       <c r="A60" s="22" t="s">
         <v>248</v>
       </c>
@@ -37472,7 +37478,7 @@
         <v>4</v>
       </c>
       <c r="BD60" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>4</v>
       </c>
       <c r="BE60" s="53" t="s">
@@ -37485,7 +37491,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="61" spans="1:59" s="4" customFormat="1" ht="63.75">
+    <row customFormat="1" ht="63.75" r="61" s="4" spans="1:59">
       <c r="A61" s="22" t="s">
         <v>248</v>
       </c>
@@ -37547,7 +37553,7 @@
         <v>24</v>
       </c>
       <c r="BD61" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE61" s="53" t="s">
@@ -37560,7 +37566,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="62" spans="1:59" s="4" customFormat="1" ht="51">
+    <row customFormat="1" ht="51" r="62" s="4" spans="1:59">
       <c r="A62" s="22" t="s">
         <v>248</v>
       </c>
@@ -37622,7 +37628,7 @@
         <v>24</v>
       </c>
       <c r="BD62" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE62" s="53" t="s">
@@ -37635,7 +37641,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="63" spans="1:59" s="4" customFormat="1" ht="51">
+    <row customFormat="1" ht="51" r="63" s="4" spans="1:59">
       <c r="A63" s="22" t="s">
         <v>248</v>
       </c>
@@ -37697,7 +37703,7 @@
         <v>24</v>
       </c>
       <c r="BD63" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE63" s="53" t="s">
@@ -37710,7 +37716,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="64" spans="1:59" s="4" customFormat="1" ht="63.75">
+    <row customFormat="1" ht="63.75" r="64" s="4" spans="1:59">
       <c r="A64" s="22" t="s">
         <v>248</v>
       </c>
@@ -37772,7 +37778,7 @@
         <v>24</v>
       </c>
       <c r="BD64" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE64" s="53" t="s">
@@ -37785,7 +37791,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="65" spans="1:59" s="4" customFormat="1" ht="51">
+    <row customFormat="1" ht="51" r="65" s="4" spans="1:59">
       <c r="A65" s="22" t="s">
         <v>248</v>
       </c>
@@ -37847,7 +37853,7 @@
         <v>24</v>
       </c>
       <c r="BD65" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE65" s="53" t="s">
@@ -37860,7 +37866,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="66" spans="1:59" s="4" customFormat="1" ht="63.75">
+    <row customFormat="1" ht="63.75" r="66" s="4" spans="1:59">
       <c r="A66" s="22" t="s">
         <v>248</v>
       </c>
@@ -37922,7 +37928,7 @@
         <v>24</v>
       </c>
       <c r="BD66" s="4">
-        <f t="shared" ref="BD66:BD86" si="2">SUM(AW66,AY66,BA66,BC66)</f>
+        <f ref="BD66:BD86" si="2" t="shared">SUM(AW66,AY66,BA66,BC66)</f>
         <v>24</v>
       </c>
       <c r="BE66" s="53" t="s">
@@ -37935,7 +37941,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="67" spans="1:59" s="4" customFormat="1" ht="76.5">
+    <row customFormat="1" ht="76.5" r="67" s="4" spans="1:59">
       <c r="A67" s="22" t="s">
         <v>248</v>
       </c>
@@ -38003,7 +38009,7 @@
         <v>24</v>
       </c>
       <c r="BD67" s="4">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE67" s="53" t="s">
@@ -38016,7 +38022,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="68" spans="1:59" s="4" customFormat="1" ht="38.25">
+    <row customFormat="1" ht="38.25" r="68" s="4" spans="1:59">
       <c r="A68" s="22" t="s">
         <v>248</v>
       </c>
@@ -38096,7 +38102,7 @@
         <v>8</v>
       </c>
       <c r="BD68" s="4">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>8</v>
       </c>
       <c r="BE68" s="53" t="s">
@@ -38109,7 +38115,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="69" spans="1:59" s="4" customFormat="1" ht="38.25">
+    <row customFormat="1" ht="38.25" r="69" s="4" spans="1:59">
       <c r="A69" s="22" t="s">
         <v>248</v>
       </c>
@@ -38183,7 +38189,7 @@
         <v>8</v>
       </c>
       <c r="BD69" s="4">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>8</v>
       </c>
       <c r="BE69" s="53" t="s">
@@ -38196,7 +38202,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="70" spans="1:59" s="4" customFormat="1" ht="38.25">
+    <row customFormat="1" ht="38.25" r="70" s="4" spans="1:59">
       <c r="A70" s="22" t="s">
         <v>248</v>
       </c>
@@ -38252,7 +38258,7 @@
         <v>4</v>
       </c>
       <c r="BD70" s="4">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>4</v>
       </c>
       <c r="BE70" s="53" t="s">
@@ -38265,7 +38271,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="71" spans="1:59" s="4" customFormat="1" ht="38.25">
+    <row customFormat="1" ht="38.25" r="71" s="4" spans="1:59">
       <c r="A71" s="22" t="s">
         <v>248</v>
       </c>
@@ -38345,7 +38351,7 @@
         <v>720</v>
       </c>
       <c r="BD71" s="4">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>720</v>
       </c>
       <c r="BE71" s="53" t="s">
@@ -38358,7 +38364,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="72" spans="1:59" s="4" customFormat="1" ht="51">
+    <row customFormat="1" ht="51" r="72" s="4" spans="1:59">
       <c r="A72" s="22" t="s">
         <v>248</v>
       </c>
@@ -38438,7 +38444,7 @@
         <v>720</v>
       </c>
       <c r="BD72" s="4">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>720</v>
       </c>
       <c r="BE72" s="53" t="s">
@@ -38451,7 +38457,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="73" spans="1:59" s="4" customFormat="1" ht="63.75">
+    <row customFormat="1" ht="63.75" r="73" s="4" spans="1:59">
       <c r="A73" s="22" t="s">
         <v>248</v>
       </c>
@@ -38531,7 +38537,7 @@
         <v>8</v>
       </c>
       <c r="BD73" s="4">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>8</v>
       </c>
       <c r="BE73" s="53" t="s">
@@ -38544,7 +38550,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="74" spans="1:59" s="4" customFormat="1" ht="89.25">
+    <row customFormat="1" ht="89.25" r="74" s="4" spans="1:59">
       <c r="A74" s="22" t="s">
         <v>248</v>
       </c>
@@ -38594,7 +38600,7 @@
         <v>24</v>
       </c>
       <c r="BD74" s="4">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE74" s="53" t="s">
@@ -38607,7 +38613,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="75" spans="1:59" s="4" customFormat="1" ht="76.5">
+    <row customFormat="1" ht="76.5" r="75" s="4" spans="1:59">
       <c r="A75" s="22" t="s">
         <v>248</v>
       </c>
@@ -38675,7 +38681,7 @@
         <v>24</v>
       </c>
       <c r="BD75" s="4">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE75" s="53" t="s">
@@ -38688,7 +38694,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="76" spans="1:59" s="4" customFormat="1" ht="89.25">
+    <row customFormat="1" ht="89.25" r="76" s="4" spans="1:59">
       <c r="A76" s="22" t="s">
         <v>248</v>
       </c>
@@ -38762,7 +38768,7 @@
         <v>24</v>
       </c>
       <c r="BD76" s="4">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE76" s="53" t="s">
@@ -38775,7 +38781,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="77" spans="1:59" s="4" customFormat="1" ht="63.75">
+    <row customFormat="1" ht="63.75" r="77" s="4" spans="1:59">
       <c r="A77" s="22" t="s">
         <v>248</v>
       </c>
@@ -38849,7 +38855,7 @@
         <v>48</v>
       </c>
       <c r="BD77" s="4">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE77" s="53" t="s">
@@ -38862,7 +38868,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="78" spans="1:59" s="4" customFormat="1" ht="51">
+    <row customFormat="1" ht="51" r="78" s="4" spans="1:59">
       <c r="A78" s="22" t="s">
         <v>248</v>
       </c>
@@ -38912,7 +38918,7 @@
         <v>24</v>
       </c>
       <c r="BD78" s="4">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE78" s="53" t="s">
@@ -38925,7 +38931,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="79" spans="1:59" s="4" customFormat="1" ht="38.25">
+    <row customFormat="1" ht="38.25" r="79" s="4" spans="1:59">
       <c r="A79" s="22" t="s">
         <v>248</v>
       </c>
@@ -38975,7 +38981,7 @@
         <v>24</v>
       </c>
       <c r="BD79" s="4">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE79" s="53" t="s">
@@ -38988,7 +38994,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="80" spans="1:59" s="4" customFormat="1" ht="127.5">
+    <row customFormat="1" ht="127.5" r="80" s="4" spans="1:59">
       <c r="A80" s="22" t="s">
         <v>248</v>
       </c>
@@ -39038,7 +39044,7 @@
         <v>24</v>
       </c>
       <c r="BD80" s="4">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE80" s="53" t="s">
@@ -39051,7 +39057,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="81" spans="1:59" s="4" customFormat="1" ht="51">
+    <row customFormat="1" ht="51" r="81" s="4" spans="1:59">
       <c r="A81" s="22" t="s">
         <v>248</v>
       </c>
@@ -39125,7 +39131,7 @@
         <v>24</v>
       </c>
       <c r="BD81" s="4">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE81" s="53" t="s">
@@ -39138,7 +39144,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="82" spans="1:59" s="4" customFormat="1" ht="38.25">
+    <row customFormat="1" ht="38.25" r="82" s="4" spans="1:59">
       <c r="A82" s="22" t="s">
         <v>248</v>
       </c>
@@ -39212,7 +39218,7 @@
         <v>720</v>
       </c>
       <c r="BD82" s="4">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>720</v>
       </c>
       <c r="BE82" s="56" t="s">
@@ -39225,7 +39231,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="83" spans="1:59" s="4" customFormat="1" ht="63.75">
+    <row customFormat="1" ht="63.75" r="83" s="4" spans="1:59">
       <c r="A83" s="22" t="s">
         <v>248</v>
       </c>
@@ -39287,7 +39293,7 @@
         <v>2</v>
       </c>
       <c r="BD83" s="4">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>2</v>
       </c>
       <c r="BE83" s="53" t="s">
@@ -39298,7 +39304,7 @@
       </c>
       <c r="BG83" s="1"/>
     </row>
-    <row r="84" spans="1:59" s="4" customFormat="1" ht="63.75">
+    <row customFormat="1" ht="63.75" r="84" s="4" spans="1:59">
       <c r="A84" s="22" t="s">
         <v>248</v>
       </c>
@@ -39372,7 +39378,7 @@
         <v>4</v>
       </c>
       <c r="BD84" s="4">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>4</v>
       </c>
       <c r="BE84" s="53" t="s">
@@ -39383,7 +39389,7 @@
       </c>
       <c r="BG84" s="1"/>
     </row>
-    <row r="85" spans="1:59" s="4" customFormat="1" ht="89.25">
+    <row customFormat="1" ht="89.25" r="85" s="4" spans="1:59">
       <c r="A85" s="22" t="s">
         <v>248</v>
       </c>
@@ -39457,7 +39463,7 @@
         <v>3</v>
       </c>
       <c r="BD85" s="4">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>3</v>
       </c>
       <c r="BE85" s="53" t="s">
@@ -39470,7 +39476,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="86" spans="1:59" s="4" customFormat="1" ht="51">
+    <row customFormat="1" ht="51" r="86" s="4" spans="1:59">
       <c r="A86" s="22" t="s">
         <v>248</v>
       </c>
@@ -39532,7 +39538,7 @@
         <v>24</v>
       </c>
       <c r="BD86" s="4">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE86" s="53" t="s">
@@ -39552,17 +39558,17 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="E67:E68">
-    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
+    <cfRule dxfId="7" priority="4" type="duplicateValues"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69:E73">
-    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
+    <cfRule dxfId="6" priority="3" type="duplicateValues"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74:E80">
-    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+    <cfRule dxfId="5" priority="2" type="duplicateValues"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81:E86">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule dxfId="4" priority="1" type="duplicateValues"/>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/resources/excels/KE.xlsx
+++ b/resources/excels/KE.xlsx
@@ -500,7 +500,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8393" uniqueCount="1254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8401" uniqueCount="1255">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -4292,6 +4292,9 @@
   </si>
   <si>
     <t>050821003306</t>
+  </si>
+  <si>
+    <t>090821003319</t>
   </si>
 </sst>
 </file>
@@ -8598,10 +8601,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="13.375" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="37.125" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="20.125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="27.625" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="13.375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="37.125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="20.125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="27.625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -18327,7 +18330,7 @@
         <v>106</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
     </row>
   </sheetData>
@@ -23334,7 +23337,7 @@
     <col min="6" max="46" customWidth="true" style="4" width="9.0" collapsed="true"/>
     <col min="47" max="47" customWidth="true" style="4" width="3.125" collapsed="true"/>
     <col min="48" max="59" style="4" width="9.0" collapsed="true"/>
-    <col min="60" max="60" style="4" width="9.0" collapsed="false"/>
+    <col min="60" max="60" style="4" width="9.0" collapsed="true"/>
     <col min="61" max="16384" style="4" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>

--- a/resources/excels/KE.xlsx
+++ b/resources/excels/KE.xlsx
@@ -1,48 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lt13221390/Documents/Customer-portal/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FDB60C-CF62-D949-8D94-ACFC57D184A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{19FDB60C-CF62-D949-8D94-ACFC57D184A8}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="34080" windowHeight="10080" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="2" firstSheet="1" windowHeight="10080" windowWidth="34080" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="500"/>
   </bookViews>
   <sheets>
-    <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
-    <sheet name="Priority" sheetId="10" r:id="rId2"/>
-    <sheet name="Headers" sheetId="9" r:id="rId3"/>
-    <sheet name="NFTRTickets-San" sheetId="3" r:id="rId4"/>
-    <sheet name="SLA Configuration" sheetId="29" r:id="rId5"/>
-    <sheet name="Assignment Rule" sheetId="28" r:id="rId6"/>
-    <sheet name="FTRTickets-San" sheetId="2" r:id="rId7"/>
-    <sheet name="NFTRTickets-Reg" sheetId="25" r:id="rId8"/>
-    <sheet name="NFTRTickets-Reg1" sheetId="11" r:id="rId9"/>
-    <sheet name="FTRTickets-Reg" sheetId="12" r:id="rId10"/>
-    <sheet name="UserManagement" sheetId="19" r:id="rId11"/>
-    <sheet name="PinnedTags" sheetId="5" r:id="rId12"/>
-    <sheet name="Ticket State" sheetId="6" r:id="rId13"/>
-    <sheet name="TemplateManagement" sheetId="20" r:id="rId14"/>
-    <sheet name="Ticket Transfer Rules" sheetId="15" r:id="rId15"/>
-    <sheet name="Ticket Transfer Rules Config" sheetId="30" r:id="rId16"/>
-    <sheet name="Authentication Policy" sheetId="17" r:id="rId17"/>
-    <sheet name="Action Tagging" sheetId="18" r:id="rId18"/>
-    <sheet name="QuestionAnswerKey" sheetId="27" r:id="rId19"/>
-    <sheet name="State Queue Mapping" sheetId="21" r:id="rId20"/>
-    <sheet name="State Queue Mapping Config" sheetId="31" r:id="rId21"/>
-    <sheet name="Transfer To Queue" sheetId="24" r:id="rId22"/>
+    <sheet name="LoginCredentials" r:id="rId1" sheetId="1"/>
+    <sheet name="Priority" r:id="rId2" sheetId="10"/>
+    <sheet name="Headers" r:id="rId3" sheetId="9"/>
+    <sheet name="NFTRTickets-San" r:id="rId4" sheetId="3"/>
+    <sheet name="SLA Configuration" r:id="rId5" sheetId="29"/>
+    <sheet name="Assignment Rule" r:id="rId6" sheetId="28"/>
+    <sheet name="FTRTickets-San" r:id="rId7" sheetId="2"/>
+    <sheet name="NFTRTickets-Reg" r:id="rId8" sheetId="25"/>
+    <sheet name="NFTRTickets-Reg1" r:id="rId9" sheetId="11"/>
+    <sheet name="FTRTickets-Reg" r:id="rId10" sheetId="12"/>
+    <sheet name="UserManagement" r:id="rId11" sheetId="19"/>
+    <sheet name="PinnedTags" r:id="rId12" sheetId="5"/>
+    <sheet name="Ticket State" r:id="rId13" sheetId="6"/>
+    <sheet name="TemplateManagement" r:id="rId14" sheetId="20"/>
+    <sheet name="Ticket Transfer Rules" r:id="rId15" sheetId="15"/>
+    <sheet name="Ticket Transfer Rules Config" r:id="rId16" sheetId="30"/>
+    <sheet name="Authentication Policy" r:id="rId17" sheetId="17"/>
+    <sheet name="Action Tagging" r:id="rId18" sheetId="18"/>
+    <sheet name="QuestionAnswerKey" r:id="rId19" sheetId="27"/>
+    <sheet name="State Queue Mapping" r:id="rId20" sheetId="21"/>
+    <sheet name="State Queue Mapping Config" r:id="rId21" sheetId="31"/>
+    <sheet name="Transfer To Queue" r:id="rId22" sheetId="24"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'NFTRTickets-Reg'!$A$1:$BF$45</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'NFTRTickets-Reg1'!$A$1:$BG$86</definedName>
+    <definedName hidden="1" localSheetId="7" name="_xlnm._FilterDatabase">'NFTRTickets-Reg'!$A$1:$BF$45</definedName>
+    <definedName hidden="1" localSheetId="8" name="_xlnm._FilterDatabase">'NFTRTickets-Reg1'!$A$1:$BG$86</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -55,7 +55,7 @@
     <author>Rahul Gupta</author>
   </authors>
   <commentList>
-    <comment ref="AV1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment authorId="0" ref="AV1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -79,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AW1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment authorId="0" ref="AW1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -103,7 +103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AX1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
+    <comment authorId="0" ref="AX1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -128,7 +128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AY1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
+    <comment authorId="0" ref="AY1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -152,7 +152,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AZ1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
+    <comment authorId="0" ref="AZ1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
       <text>
         <r>
           <rPr>
@@ -186,7 +186,7 @@
     <author>Rahul Gupta</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+    <comment authorId="0" ref="B1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -210,7 +210,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
+    <comment authorId="0" ref="C1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -234,7 +234,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
+    <comment authorId="0" ref="D1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
         <r>
           <rPr>
@@ -259,7 +259,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
+    <comment authorId="0" ref="E1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
       <text>
         <r>
           <rPr>
@@ -283,7 +283,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
+    <comment authorId="0" ref="F1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
       <text>
         <r>
           <rPr>
@@ -317,7 +317,7 @@
     <author>Rahul Gupta</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+    <comment authorId="0" ref="B1" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -341,7 +341,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
+    <comment authorId="0" ref="C1" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -375,7 +375,7 @@
     <author>Rahul Gupta</author>
   </authors>
   <commentList>
-    <comment ref="AV1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
+    <comment authorId="0" ref="AV1" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
       <text>
         <r>
           <rPr>
@@ -399,7 +399,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AW1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
+    <comment authorId="0" ref="AW1" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
       <text>
         <r>
           <rPr>
@@ -423,7 +423,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AX1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000003000000}">
+    <comment authorId="0" ref="AX1" shapeId="0" xr:uid="{00000000-0006-0000-0700-000003000000}">
       <text>
         <r>
           <rPr>
@@ -448,7 +448,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AY1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000004000000}">
+    <comment authorId="0" ref="AY1" shapeId="0" xr:uid="{00000000-0006-0000-0700-000004000000}">
       <text>
         <r>
           <rPr>
@@ -472,7 +472,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AZ1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000005000000}">
+    <comment authorId="0" ref="AZ1" shapeId="0" xr:uid="{00000000-0006-0000-0700-000005000000}">
       <text>
         <r>
           <rPr>
@@ -501,7 +501,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8386" uniqueCount="1253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8402" uniqueCount="1255">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -4291,11 +4291,18 @@
   <si>
     <t>090821003319</t>
   </si>
+  <si>
+    <t>240921003590</t>
+  </si>
+  <si>
+    <t>240921003591</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="22">
     <font>
       <sz val="12"/>
@@ -4589,161 +4596,161 @@
     </border>
   </borders>
   <cellStyleXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0"/>
+    <xf applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="12" numFmtId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="15" numFmtId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="12" numFmtId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="76">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="8" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="8" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="8" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="10" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="10" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="7" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="8" fontId="11" numFmtId="0" xfId="1"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="3"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="3"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="2"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="7" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="1"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="4" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="0" fontId="13" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="0" fontId="13" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="3" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="5" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" borderId="4" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="9" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="9" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="16" numFmtId="0" xfId="4"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="16" numFmtId="0" xfId="4">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="16" numFmtId="0" xfId="4">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="4"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="14" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="0" fontId="14" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="17" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="18" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="0" fontId="18" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="18" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="15" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="18" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="6" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="7" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
@@ -4954,7 +4961,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -4967,7 +4974,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -4991,7 +4998,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:spLocks noChangeArrowheads="1" noChangeAspect="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -5039,7 +5046,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:spLocks noChangeArrowheads="1" noChangeAspect="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -5087,7 +5094,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:spLocks noChangeArrowheads="1" noChangeAspect="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -5135,7 +5142,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:spLocks noChangeArrowheads="1" noChangeAspect="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -5168,10 +5175,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -5206,7 +5213,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -5258,7 +5265,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -5369,21 +5376,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -5400,7 +5407,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -5452,14 +5459,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5468,13 +5475,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.83203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.83203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.1640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.5" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.1640625" collapsed="true"/>
+    <col min="7" max="8" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -5713,19 +5720,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" display="July@123$" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B2" r:id="rId2" display="July@123$" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink display="July@123$" r:id="rId1" ref="B4" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink display="July@123$" r:id="rId2" ref="B2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId3" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:F128"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A112" workbookViewId="0" zoomScale="110" zoomScaleNormal="110">
       <selection activeCell="I115" sqref="I115"/>
     </sheetView>
   </sheetViews>
@@ -5751,7 +5758,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="75">
+    <row ht="75" r="2" spans="1:6">
       <c r="A2" s="16" t="s">
         <v>18</v>
       </c>
@@ -5802,7 +5809,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="60">
+    <row ht="60" r="5" spans="1:6">
       <c r="A5" s="16" t="s">
         <v>18</v>
       </c>
@@ -5819,7 +5826,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="45">
+    <row ht="45" r="6" spans="1:6">
       <c r="A6" s="16" t="s">
         <v>24</v>
       </c>
@@ -5836,7 +5843,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="60">
+    <row ht="60" r="7" spans="1:6">
       <c r="A7" s="16" t="s">
         <v>18</v>
       </c>
@@ -5853,7 +5860,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="60">
+    <row ht="60" r="8" spans="1:6">
       <c r="A8" s="16" t="s">
         <v>24</v>
       </c>
@@ -5870,7 +5877,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="75">
+    <row ht="75" r="9" spans="1:6">
       <c r="A9" s="16" t="s">
         <v>24</v>
       </c>
@@ -5887,7 +5894,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="45">
+    <row ht="45" r="10" spans="1:6">
       <c r="A10" s="16" t="s">
         <v>18</v>
       </c>
@@ -5904,7 +5911,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="60">
+    <row ht="60" r="11" spans="1:6">
       <c r="A11" s="16" t="s">
         <v>18</v>
       </c>
@@ -5938,7 +5945,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="45">
+    <row ht="45" r="13" spans="1:6">
       <c r="A13" s="16" t="s">
         <v>18</v>
       </c>
@@ -5955,7 +5962,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="60">
+    <row ht="60" r="14" spans="1:6">
       <c r="A14" s="16" t="s">
         <v>18</v>
       </c>
@@ -5972,7 +5979,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="45">
+    <row ht="45" r="15" spans="1:6">
       <c r="A15" s="16" t="s">
         <v>18</v>
       </c>
@@ -5989,7 +5996,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="45">
+    <row ht="45" r="16" spans="1:6">
       <c r="A16" s="16" t="s">
         <v>24</v>
       </c>
@@ -6006,7 +6013,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="45">
+    <row ht="45" r="17" spans="1:5">
       <c r="A17" s="16" t="s">
         <v>18</v>
       </c>
@@ -6023,7 +6030,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="45">
+    <row ht="45" r="18" spans="1:5">
       <c r="A18" s="16" t="s">
         <v>24</v>
       </c>
@@ -6040,7 +6047,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="60">
+    <row ht="60" r="19" spans="1:5">
       <c r="A19" s="16" t="s">
         <v>18</v>
       </c>
@@ -6057,7 +6064,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="75">
+    <row ht="75" r="20" spans="1:5">
       <c r="A20" s="16" t="s">
         <v>18</v>
       </c>
@@ -6074,7 +6081,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="60">
+    <row ht="60" r="21" spans="1:5">
       <c r="A21" s="16" t="s">
         <v>18</v>
       </c>
@@ -6091,7 +6098,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="75">
+    <row ht="75" r="22" spans="1:5">
       <c r="A22" s="16" t="s">
         <v>18</v>
       </c>
@@ -6125,7 +6132,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="60">
+    <row ht="60" r="24" spans="1:5">
       <c r="A24" s="16" t="s">
         <v>18</v>
       </c>
@@ -6142,7 +6149,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="75">
+    <row ht="75" r="25" spans="1:5">
       <c r="A25" s="16" t="s">
         <v>18</v>
       </c>
@@ -6159,7 +6166,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="75">
+    <row ht="75" r="26" spans="1:5">
       <c r="A26" s="16" t="s">
         <v>18</v>
       </c>
@@ -6176,7 +6183,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="75">
+    <row ht="75" r="27" spans="1:5">
       <c r="A27" s="16" t="s">
         <v>18</v>
       </c>
@@ -6193,7 +6200,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="60">
+    <row ht="60" r="28" spans="1:5">
       <c r="A28" s="16" t="s">
         <v>18</v>
       </c>
@@ -6210,7 +6217,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="75">
+    <row ht="75" r="29" spans="1:5">
       <c r="A29" s="16" t="s">
         <v>24</v>
       </c>
@@ -6244,7 +6251,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="90">
+    <row ht="90" r="31" spans="1:5">
       <c r="A31" s="16" t="s">
         <v>24</v>
       </c>
@@ -6261,7 +6268,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="105">
+    <row ht="105" r="32" spans="1:5">
       <c r="A32" s="16" t="s">
         <v>24</v>
       </c>
@@ -6278,7 +6285,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="90">
+    <row ht="90" r="33" spans="1:5">
       <c r="A33" s="16" t="s">
         <v>18</v>
       </c>
@@ -6295,7 +6302,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="90">
+    <row ht="90" r="34" spans="1:5">
       <c r="A34" s="16" t="s">
         <v>18</v>
       </c>
@@ -6312,7 +6319,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="75">
+    <row ht="75" r="35" spans="1:5">
       <c r="A35" s="16" t="s">
         <v>18</v>
       </c>
@@ -6329,7 +6336,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="90">
+    <row ht="90" r="36" spans="1:5">
       <c r="A36" s="16" t="s">
         <v>18</v>
       </c>
@@ -6346,7 +6353,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="90">
+    <row ht="90" r="37" spans="1:5">
       <c r="A37" s="16" t="s">
         <v>18</v>
       </c>
@@ -6397,7 +6404,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="90">
+    <row ht="90" r="40" spans="1:5">
       <c r="A40" s="16" t="s">
         <v>18</v>
       </c>
@@ -6414,7 +6421,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="75">
+    <row ht="75" r="41" spans="1:5">
       <c r="A41" s="16" t="s">
         <v>18</v>
       </c>
@@ -6431,7 +6438,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="45">
+    <row ht="45" r="42" spans="1:5">
       <c r="A42" s="16" t="s">
         <v>18</v>
       </c>
@@ -6448,7 +6455,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="60">
+    <row ht="60" r="43" spans="1:5">
       <c r="A43" s="16" t="s">
         <v>18</v>
       </c>
@@ -6465,7 +6472,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="90">
+    <row ht="90" r="44" spans="1:5">
       <c r="A44" s="16" t="s">
         <v>18</v>
       </c>
@@ -6482,7 +6489,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="90">
+    <row ht="90" r="45" spans="1:5">
       <c r="A45" s="16" t="s">
         <v>18</v>
       </c>
@@ -6499,7 +6506,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="75">
+    <row ht="75" r="46" spans="1:5">
       <c r="A46" s="16" t="s">
         <v>24</v>
       </c>
@@ -6516,7 +6523,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="75">
+    <row ht="75" r="47" spans="1:5">
       <c r="A47" s="16" t="s">
         <v>18</v>
       </c>
@@ -6533,7 +6540,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="60">
+    <row ht="60" r="48" spans="1:5">
       <c r="A48" s="16" t="s">
         <v>18</v>
       </c>
@@ -6550,7 +6557,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="75">
+    <row ht="75" r="49" spans="1:5">
       <c r="A49" s="16" t="s">
         <v>18</v>
       </c>
@@ -6584,7 +6591,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="75">
+    <row ht="75" r="51" spans="1:5">
       <c r="A51" s="16" t="s">
         <v>18</v>
       </c>
@@ -6601,7 +6608,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="60">
+    <row ht="60" r="52" spans="1:5">
       <c r="A52" s="16" t="s">
         <v>24</v>
       </c>
@@ -6618,7 +6625,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="60">
+    <row ht="60" r="53" spans="1:5">
       <c r="A53" s="16" t="s">
         <v>18</v>
       </c>
@@ -6635,7 +6642,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="75">
+    <row ht="75" r="54" spans="1:5">
       <c r="A54" s="16" t="s">
         <v>18</v>
       </c>
@@ -6652,7 +6659,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="30">
+    <row ht="30" r="55" spans="1:5">
       <c r="A55" s="16" t="s">
         <v>18</v>
       </c>
@@ -6669,7 +6676,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="45">
+    <row ht="45" r="56" spans="1:5">
       <c r="A56" s="16" t="s">
         <v>18</v>
       </c>
@@ -6686,7 +6693,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="90">
+    <row ht="90" r="57" spans="1:5">
       <c r="A57" s="16" t="s">
         <v>18</v>
       </c>
@@ -6703,7 +6710,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="75">
+    <row ht="75" r="58" spans="1:5">
       <c r="A58" s="16" t="s">
         <v>18</v>
       </c>
@@ -6720,7 +6727,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="120">
+    <row ht="120" r="59" spans="1:5">
       <c r="A59" s="16" t="s">
         <v>18</v>
       </c>
@@ -6737,7 +6744,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="45">
+    <row ht="45" r="60" spans="1:5">
       <c r="A60" s="16" t="s">
         <v>18</v>
       </c>
@@ -6754,7 +6761,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="45">
+    <row ht="45" r="61" spans="1:5">
       <c r="A61" s="16" t="s">
         <v>18</v>
       </c>
@@ -6771,7 +6778,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="60">
+    <row ht="60" r="62" spans="1:5">
       <c r="A62" s="16" t="s">
         <v>18</v>
       </c>
@@ -6788,7 +6795,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="60">
+    <row ht="60" r="63" spans="1:5">
       <c r="A63" s="16" t="s">
         <v>18</v>
       </c>
@@ -6805,7 +6812,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="105">
+    <row ht="105" r="64" spans="1:5">
       <c r="A64" s="16" t="s">
         <v>18</v>
       </c>
@@ -6822,7 +6829,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="90">
+    <row ht="90" r="65" spans="1:5">
       <c r="A65" s="16" t="s">
         <v>18</v>
       </c>
@@ -6839,7 +6846,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="90">
+    <row ht="90" r="66" spans="1:5">
       <c r="A66" s="16" t="s">
         <v>24</v>
       </c>
@@ -6907,7 +6914,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="60">
+    <row ht="60" r="70" spans="1:5">
       <c r="A70" s="17" t="s">
         <v>18</v>
       </c>
@@ -6924,7 +6931,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="90">
+    <row ht="90" r="71" spans="1:5">
       <c r="A71" s="17" t="s">
         <v>18</v>
       </c>
@@ -6941,7 +6948,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="30">
+    <row ht="30" r="72" spans="1:5">
       <c r="A72" s="17" t="s">
         <v>18</v>
       </c>
@@ -6958,7 +6965,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="75">
+    <row ht="75" r="73" spans="1:5">
       <c r="A73" s="16" t="s">
         <v>24</v>
       </c>
@@ -6975,7 +6982,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="75">
+    <row ht="75" r="74" spans="1:5">
       <c r="A74" s="16" t="s">
         <v>203</v>
       </c>
@@ -6992,7 +6999,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="60">
+    <row ht="60" r="75" spans="1:5">
       <c r="A75" s="16" t="s">
         <v>18</v>
       </c>
@@ -7009,7 +7016,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="60">
+    <row ht="60" r="76" spans="1:5">
       <c r="A76" s="16" t="s">
         <v>18</v>
       </c>
@@ -7026,7 +7033,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="60">
+    <row ht="60" r="77" spans="1:5">
       <c r="A77" s="16" t="s">
         <v>18</v>
       </c>
@@ -7043,7 +7050,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="90">
+    <row ht="90" r="78" spans="1:5">
       <c r="A78" s="16" t="s">
         <v>203</v>
       </c>
@@ -7162,7 +7169,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="75">
+    <row ht="75" r="85" spans="1:5">
       <c r="A85" s="16" t="s">
         <v>24</v>
       </c>
@@ -7213,7 +7220,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="90">
+    <row ht="90" r="88" spans="1:5">
       <c r="A88" s="16" t="s">
         <v>24</v>
       </c>
@@ -7281,7 +7288,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="60">
+    <row ht="60" r="92" spans="1:5">
       <c r="A92" s="18" t="s">
         <v>24</v>
       </c>
@@ -7298,7 +7305,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="60">
+    <row ht="60" r="93" spans="1:5">
       <c r="A93" s="18" t="s">
         <v>24</v>
       </c>
@@ -7315,7 +7322,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="60">
+    <row ht="60" r="94" spans="1:5">
       <c r="A94" s="18" t="s">
         <v>24</v>
       </c>
@@ -7332,7 +7339,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="30">
+    <row ht="30" r="95" spans="1:5">
       <c r="A95" s="18" t="s">
         <v>24</v>
       </c>
@@ -7349,7 +7356,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="30">
+    <row ht="30" r="96" spans="1:5">
       <c r="A96" s="18" t="s">
         <v>24</v>
       </c>
@@ -7366,7 +7373,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="45">
+    <row ht="45" r="97" spans="1:5">
       <c r="A97" s="18" t="s">
         <v>24</v>
       </c>
@@ -7383,7 +7390,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="60">
+    <row ht="60" r="98" spans="1:5">
       <c r="A98" s="16" t="s">
         <v>18</v>
       </c>
@@ -7417,7 +7424,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="60">
+    <row ht="60" r="100" spans="1:5">
       <c r="A100" s="16" t="s">
         <v>203</v>
       </c>
@@ -7434,7 +7441,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="90">
+    <row ht="90" r="101" spans="1:5">
       <c r="A101" s="16" t="s">
         <v>203</v>
       </c>
@@ -7451,7 +7458,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="45">
+    <row ht="45" r="102" spans="1:5">
       <c r="A102" s="16" t="s">
         <v>203</v>
       </c>
@@ -7468,7 +7475,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="90">
+    <row ht="90" r="103" spans="1:5">
       <c r="A103" s="16" t="s">
         <v>203</v>
       </c>
@@ -7519,7 +7526,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="45">
+    <row ht="45" r="106" spans="1:5">
       <c r="A106" s="16" t="s">
         <v>18</v>
       </c>
@@ -7536,7 +7543,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="60">
+    <row ht="60" r="107" spans="1:5">
       <c r="A107" s="16" t="s">
         <v>18</v>
       </c>
@@ -7553,7 +7560,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="60">
+    <row ht="60" r="108" spans="1:5">
       <c r="A108" s="16" t="s">
         <v>18</v>
       </c>
@@ -7587,7 +7594,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="75">
+    <row ht="75" r="110" spans="1:5">
       <c r="A110" s="16" t="s">
         <v>18</v>
       </c>
@@ -7604,7 +7611,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="90">
+    <row ht="90" r="111" spans="1:5">
       <c r="A111" s="16" t="s">
         <v>18</v>
       </c>
@@ -7621,7 +7628,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="75">
+    <row ht="75" r="112" spans="1:5">
       <c r="A112" s="16" t="s">
         <v>18</v>
       </c>
@@ -7638,7 +7645,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="90">
+    <row ht="90" r="113" spans="1:5">
       <c r="A113" s="16" t="s">
         <v>203</v>
       </c>
@@ -7655,7 +7662,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="30">
+    <row ht="30" r="114" spans="1:5">
       <c r="A114" s="18" t="s">
         <v>24</v>
       </c>
@@ -7672,7 +7679,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="75">
+    <row ht="75" r="115" spans="1:5">
       <c r="A115" s="16" t="s">
         <v>18</v>
       </c>
@@ -7689,7 +7696,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="75">
+    <row ht="75" r="116" spans="1:5">
       <c r="A116" s="18" t="s">
         <v>24</v>
       </c>
@@ -7757,7 +7764,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="75">
+    <row ht="75" r="120" spans="1:5">
       <c r="A120" s="10" t="s">
         <v>18</v>
       </c>
@@ -7774,7 +7781,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="75">
+    <row ht="75" r="121" spans="1:5">
       <c r="A121" s="11" t="s">
         <v>18</v>
       </c>
@@ -7791,7 +7798,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="75">
+    <row ht="75" r="122" spans="1:5">
       <c r="A122" s="11" t="s">
         <v>248</v>
       </c>
@@ -7808,7 +7815,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="48">
+    <row ht="48" r="123" spans="1:5">
       <c r="A123" s="43" t="s">
         <v>58</v>
       </c>
@@ -7825,7 +7832,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="48">
+    <row ht="48" r="124" spans="1:5">
       <c r="A124" s="43" t="s">
         <v>58</v>
       </c>
@@ -7842,7 +7849,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="48">
+    <row ht="48" r="125" spans="1:5">
       <c r="A125" s="43" t="s">
         <v>58</v>
       </c>
@@ -7859,7 +7866,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="48">
+    <row ht="48" r="126" spans="1:5">
       <c r="A126" s="43" t="s">
         <v>58</v>
       </c>
@@ -7876,7 +7883,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="48">
+    <row ht="48" r="127" spans="1:5">
       <c r="A127" s="43" t="s">
         <v>58</v>
       </c>
@@ -7893,7 +7900,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="48">
+    <row ht="48" r="128" spans="1:5">
       <c r="A128" s="43" t="s">
         <v>58</v>
       </c>
@@ -7912,23 +7919,23 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E117">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule dxfId="3" priority="4" type="duplicateValues"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118:E119">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule dxfId="2" priority="3" type="duplicateValues"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E120">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule dxfId="1" priority="2" type="duplicateValues"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E121">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule dxfId="0" priority="1" type="duplicateValues"/>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -7937,8 +7944,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="22.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.1640625" collapsed="true"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" width="22.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -8171,12 +8178,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8254,27 +8261,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="24" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.83203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.83203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -8476,13 +8483,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8491,8 +8498,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="30.83203125" style="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="16384" width="9" style="31" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="31" width="30.83203125" collapsed="true"/>
+    <col min="2" max="16384" style="31" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -8543,24 +8550,24 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="37.1640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.1640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="37.1640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="20.1640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="27.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -8581,12 +8588,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:E444"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8595,10 +8602,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="37.1640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.1640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="37.1640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="20.1640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="27.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -16150,12 +16157,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16164,21 +16171,21 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.83203125" style="4" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.6640625" style="4" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.83203125" style="29" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.5" style="29" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.1640625" style="29" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10" style="29" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11" style="29" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="10.1640625" style="29" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.5" style="29" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.6640625" style="29" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="11.83203125" style="29" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="15.83203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="4" width="19.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="29" width="10.83203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="29" width="11.5" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="29" width="10.1640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="29" width="10.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="29" width="11.0" collapsed="true"/>
+    <col min="9" max="10" customWidth="true" style="29" width="10.1640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="29" width="10.5" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="29" width="11.6640625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="29" width="11.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="17">
+    <row ht="17" r="1" spans="1:15">
       <c r="A1" t="s">
         <v>883</v>
       </c>
@@ -16221,7 +16228,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" ht="170">
+    <row ht="170" r="2" spans="1:15">
       <c r="A2" t="s">
         <v>895</v>
       </c>
@@ -16251,13 +16258,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16266,9 +16273,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -16517,13 +16524,13 @@
       <c r="K13" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16532,13 +16539,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="35.1640625" style="29" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="42.1640625" style="29" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="54.83203125" style="29" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="10.83203125" style="29" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="29" width="35.1640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="29" width="42.1640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="29" width="54.83203125" collapsed="true"/>
+    <col min="4" max="16384" style="29" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17">
+    <row ht="17" r="1" spans="1:3">
       <c r="A1" s="39" t="s">
         <v>1163</v>
       </c>
@@ -16549,7 +16556,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17">
+    <row ht="17" r="2" spans="1:3">
       <c r="A2" s="39" t="s">
         <v>1166</v>
       </c>
@@ -16560,7 +16567,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="34">
+    <row ht="34" r="3" spans="1:3">
       <c r="A3" s="39" t="s">
         <v>1169</v>
       </c>
@@ -16571,7 +16578,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17">
+    <row ht="17" r="4" spans="1:3">
       <c r="A4" s="39" t="s">
         <v>994</v>
       </c>
@@ -16582,7 +16589,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="17">
+    <row ht="17" r="5" spans="1:3">
       <c r="A5" s="39" t="s">
         <v>1174</v>
       </c>
@@ -16593,7 +16600,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17">
+    <row ht="17" r="6" spans="1:3">
       <c r="A6" s="39" t="s">
         <v>1177</v>
       </c>
@@ -16602,7 +16609,7 @@
       </c>
       <c r="C6" s="73"/>
     </row>
-    <row r="7" spans="1:3" ht="17">
+    <row ht="17" r="7" spans="1:3">
       <c r="A7" s="39" t="s">
         <v>1179</v>
       </c>
@@ -16613,7 +16620,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="17">
+    <row ht="17" r="8" spans="1:3">
       <c r="A8" s="39" t="s">
         <v>1182</v>
       </c>
@@ -16624,7 +16631,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17">
+    <row ht="17" r="9" spans="1:3">
       <c r="A9" s="39" t="s">
         <v>1185</v>
       </c>
@@ -16635,7 +16642,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="34">
+    <row ht="34" r="10" spans="1:3">
       <c r="A10" s="39" t="s">
         <v>1188</v>
       </c>
@@ -16646,7 +16653,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="17">
+    <row ht="17" r="11" spans="1:3">
       <c r="A11" s="39" t="s">
         <v>1191</v>
       </c>
@@ -16657,7 +16664,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17">
+    <row ht="17" r="12" spans="1:3">
       <c r="A12" s="39" t="s">
         <v>1194</v>
       </c>
@@ -16668,7 +16675,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17">
+    <row ht="17" r="13" spans="1:3">
       <c r="A13" s="39" t="s">
         <v>1197</v>
       </c>
@@ -16677,7 +16684,7 @@
       </c>
       <c r="C13" s="73"/>
     </row>
-    <row r="14" spans="1:3" ht="17">
+    <row ht="17" r="14" spans="1:3">
       <c r="A14" s="39" t="s">
         <v>1199</v>
       </c>
@@ -16686,7 +16693,7 @@
       </c>
       <c r="C14" s="73"/>
     </row>
-    <row r="15" spans="1:3" ht="17">
+    <row ht="17" r="15" spans="1:3">
       <c r="A15" s="39" t="s">
         <v>1201</v>
       </c>
@@ -16698,12 +16705,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16712,7 +16719,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -16751,12 +16758,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16765,11 +16772,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" style="34" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9" style="34" collapsed="1"/>
-    <col min="3" max="3" width="13.83203125" style="34" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.5" style="34" customWidth="1" collapsed="1"/>
-    <col min="5" max="16384" width="9" style="34" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="34" width="19.1640625" collapsed="true"/>
+    <col min="2" max="2" style="34" width="9.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="34" width="13.83203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="34" width="11.5" collapsed="true"/>
+    <col min="5" max="16384" style="34" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -16808,13 +16815,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16823,7 +16830,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:11" s="34" customFormat="1">
+    <row customFormat="1" r="1" s="34" spans="1:11">
       <c r="A1" s="57" t="s">
         <v>97</v>
       </c>
@@ -16844,7 +16851,7 @@
       <c r="J1" s="33"/>
       <c r="K1" s="33"/>
     </row>
-    <row r="2" spans="1:11" s="34" customFormat="1">
+    <row customFormat="1" r="2" s="34" spans="1:11">
       <c r="A2" s="57" t="s">
         <v>98</v>
       </c>
@@ -16865,7 +16872,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="1:11" s="34" customFormat="1">
+    <row customFormat="1" r="3" s="34" spans="1:11">
       <c r="A3" s="57" t="s">
         <v>99</v>
       </c>
@@ -16886,7 +16893,7 @@
       <c r="J3" s="33"/>
       <c r="K3" s="33"/>
     </row>
-    <row r="4" spans="1:11" s="34" customFormat="1">
+    <row customFormat="1" r="4" s="34" spans="1:11">
       <c r="A4" s="57" t="s">
         <v>84</v>
       </c>
@@ -16915,7 +16922,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="34" customFormat="1">
+    <row customFormat="1" r="5" s="34" spans="1:11">
       <c r="A5" s="57" t="s">
         <v>82</v>
       </c>
@@ -16938,7 +16945,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="34" customFormat="1">
+    <row customFormat="1" r="6" s="34" spans="1:11">
       <c r="A6" s="57" t="s">
         <v>93</v>
       </c>
@@ -16952,7 +16959,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="34" customFormat="1">
+    <row customFormat="1" r="7" s="34" spans="1:11">
       <c r="A7" s="57" t="s">
         <v>100</v>
       </c>
@@ -16966,7 +16973,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="34" customFormat="1">
+    <row customFormat="1" r="8" s="34" spans="1:11">
       <c r="A8" s="57" t="s">
         <v>77</v>
       </c>
@@ -16980,7 +16987,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="34" customFormat="1">
+    <row customFormat="1" r="9" s="34" spans="1:11">
       <c r="A9" s="57" t="s">
         <v>77</v>
       </c>
@@ -16994,7 +17001,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="34" customFormat="1">
+    <row customFormat="1" r="10" s="34" spans="1:11">
       <c r="A10" s="57" t="s">
         <v>1010</v>
       </c>
@@ -17017,7 +17024,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="34" customFormat="1">
+    <row customFormat="1" r="11" s="34" spans="1:11">
       <c r="A11" s="57" t="s">
         <v>101</v>
       </c>
@@ -17031,7 +17038,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="34" customFormat="1">
+    <row customFormat="1" r="12" s="34" spans="1:11">
       <c r="A12" s="57" t="s">
         <v>102</v>
       </c>
@@ -17045,7 +17052,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="34" customFormat="1">
+    <row customFormat="1" r="13" s="34" spans="1:11">
       <c r="A13" s="57" t="s">
         <v>103</v>
       </c>
@@ -17059,7 +17066,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="34" customFormat="1">
+    <row customFormat="1" r="14" s="34" spans="1:11">
       <c r="A14" s="57" t="s">
         <v>104</v>
       </c>
@@ -17073,7 +17080,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="34" customFormat="1">
+    <row customFormat="1" r="15" s="34" spans="1:11">
       <c r="A15" s="57" t="s">
         <v>79</v>
       </c>
@@ -17090,7 +17097,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="34" customFormat="1">
+    <row customFormat="1" r="16" s="34" spans="1:11">
       <c r="A16" s="57" t="s">
         <v>85</v>
       </c>
@@ -17104,7 +17111,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="34" customFormat="1">
+    <row customFormat="1" r="17" s="34" spans="1:12">
       <c r="A17" s="57" t="s">
         <v>1006</v>
       </c>
@@ -17127,7 +17134,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="34" customFormat="1">
+    <row customFormat="1" r="18" s="34" spans="1:12">
       <c r="A18" s="57" t="s">
         <v>1008</v>
       </c>
@@ -17147,7 +17154,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="34" customFormat="1">
+    <row customFormat="1" r="19" s="34" spans="1:12">
       <c r="A19" s="58" t="s">
         <v>1004</v>
       </c>
@@ -17185,7 +17192,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="34" customFormat="1">
+    <row customFormat="1" r="20" s="34" spans="1:12">
       <c r="A20" s="57" t="s">
         <v>195</v>
       </c>
@@ -17202,7 +17209,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="34" customFormat="1">
+    <row customFormat="1" r="21" s="34" spans="1:12">
       <c r="A21" s="59" t="s">
         <v>1012</v>
       </c>
@@ -17219,7 +17226,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="34" customFormat="1">
+    <row customFormat="1" r="22" s="34" spans="1:12">
       <c r="A22" s="57" t="s">
         <v>1013</v>
       </c>
@@ -17233,7 +17240,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="34" customFormat="1" ht="45">
+    <row customFormat="1" ht="45" r="23" s="34" spans="1:12">
       <c r="A23" s="59" t="s">
         <v>1005</v>
       </c>
@@ -17251,12 +17258,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17265,9 +17272,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="23.1640625" style="4" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.1640625" style="4" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9" style="4" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="4" width="23.1640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="24.1640625" collapsed="true"/>
+    <col min="3" max="16384" style="4" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -17304,13 +17311,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
@@ -17319,18 +17326,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="29" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.6640625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.6640625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.5" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="21.5" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="22.33203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.83203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="9.6640625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="12.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -17374,7 +17381,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="34">
+    <row ht="34" r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>77</v>
       </c>
@@ -17428,7 +17435,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="17">
+    <row ht="17" r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>151</v>
       </c>
@@ -17702,7 +17709,7 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:13" ht="34">
+    <row ht="34" r="14" spans="1:13">
       <c r="A14" s="38" t="s">
         <v>975</v>
       </c>
@@ -17820,7 +17827,7 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:14" s="4" customFormat="1">
+    <row customFormat="1" r="18" s="4" spans="1:14">
       <c r="A18" s="38" t="s">
         <v>1109</v>
       </c>
@@ -17847,7 +17854,7 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:14" ht="51">
+    <row ht="51" r="19" spans="1:14">
       <c r="A19" s="38" t="s">
         <v>1120</v>
       </c>
@@ -17953,7 +17960,7 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="1:14" s="4" customFormat="1">
+    <row customFormat="1" r="22" s="4" spans="1:14">
       <c r="A22" s="1" t="s">
         <v>1237</v>
       </c>
@@ -17982,7 +17989,7 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="1:14" ht="17">
+    <row ht="17" r="23" spans="1:14">
       <c r="A23" s="74" t="s">
         <v>1245</v>
       </c>
@@ -18030,50 +18037,50 @@
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BC2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="AZ7" sqref="AZ7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="26" width="23.83203125" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="9.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="54" width="11" style="4" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.83203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="23.83203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="23.83203125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="23.83203125" collapsed="true"/>
+    <col min="24" max="26" customWidth="true" width="23.83203125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="9.83203125" collapsed="true"/>
+    <col min="48" max="54" style="4" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" ht="19" customHeight="1">
+    <row customHeight="1" ht="19" r="1" spans="1:55">
       <c r="A1" s="36" t="s">
         <v>36</v>
       </c>
@@ -18240,7 +18247,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="2" spans="1:55" ht="19" customHeight="1">
+    <row customHeight="1" ht="19" r="2" spans="1:55">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -18324,28 +18331,28 @@
         <v>106</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:R130"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
       <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="9" max="9" width="23.83203125" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="10.1640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" customWidth="true" width="23.83203125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="10.1640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -20603,25 +20610,25 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A111:A112">
-    <cfRule type="duplicateValues" dxfId="19" priority="4"/>
+    <cfRule dxfId="19" priority="4" type="duplicateValues"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A113:A117">
-    <cfRule type="duplicateValues" dxfId="18" priority="3"/>
+    <cfRule dxfId="18" priority="3" type="duplicateValues"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A118:A124">
-    <cfRule type="duplicateValues" dxfId="17" priority="2"/>
+    <cfRule dxfId="17" priority="2" type="duplicateValues"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A125:A130">
-    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
+    <cfRule dxfId="16" priority="1" type="duplicateValues"/>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H130"/>
   <sheetViews>
     <sheetView topLeftCell="A61" workbookViewId="0">
@@ -20630,9 +20637,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="4" max="4" width="19.1640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.1640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" customWidth="true" width="19.1640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="9.1640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -23243,36 +23250,36 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A111:A112">
-    <cfRule type="duplicateValues" dxfId="15" priority="4"/>
+    <cfRule dxfId="15" priority="4" type="duplicateValues"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A113:A117">
-    <cfRule type="duplicateValues" dxfId="14" priority="3"/>
+    <cfRule dxfId="14" priority="3" type="duplicateValues"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A118:A124">
-    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
+    <cfRule dxfId="13" priority="2" type="duplicateValues"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A125:A130">
-    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
+    <cfRule dxfId="12" priority="1" type="duplicateValues"/>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="24.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="28.6640625" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="24.5" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="18.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -23313,24 +23320,24 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:BF130"/>
   <sheetViews>
-    <sheetView topLeftCell="AU129" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="AU129" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="AW2" sqref="AW2:AW130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="5" width="9" style="4" collapsed="1"/>
-    <col min="6" max="46" width="9" style="4" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="3.1640625" style="4" customWidth="1" collapsed="1"/>
-    <col min="48" max="16384" width="9" style="4" collapsed="1"/>
+    <col min="1" max="5" style="4" width="9.0" collapsed="true"/>
+    <col min="6" max="46" customWidth="true" style="4" width="9.0" collapsed="true"/>
+    <col min="47" max="47" customWidth="true" style="4" width="3.1640625" collapsed="true"/>
+    <col min="48" max="16384" style="4" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:58">
@@ -23501,7 +23508,7 @@
       </c>
       <c r="BD1" s="37"/>
     </row>
-    <row r="2" spans="1:58" ht="75">
+    <row ht="75" r="2" spans="1:58">
       <c r="A2" s="22" t="s">
         <v>58</v>
       </c>
@@ -23575,7 +23582,7 @@
         <v>3</v>
       </c>
       <c r="BD2" s="4">
-        <f t="shared" ref="BD2:BD65" si="0">SUM(AW2,AY2,BA2,BC2)</f>
+        <f ref="BD2:BD65" si="0" t="shared">SUM(AW2,AY2,BA2,BC2)</f>
         <v>3</v>
       </c>
       <c r="BE2" s="53" t="s">
@@ -23585,7 +23592,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:58" ht="45">
+    <row ht="45" r="3" spans="1:58">
       <c r="A3" s="22" t="s">
         <v>58</v>
       </c>
@@ -23659,7 +23666,7 @@
         <v>8</v>
       </c>
       <c r="BD3" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>8</v>
       </c>
       <c r="BE3" s="53" t="s">
@@ -23669,7 +23676,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:58" ht="45">
+    <row ht="45" r="4" spans="1:58">
       <c r="A4" s="22" t="s">
         <v>58</v>
       </c>
@@ -23737,7 +23744,7 @@
         <v>4</v>
       </c>
       <c r="BD4" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>4</v>
       </c>
       <c r="BE4" s="53" t="s">
@@ -23747,7 +23754,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:58" ht="45">
+    <row ht="45" r="5" spans="1:58">
       <c r="A5" s="22" t="s">
         <v>58</v>
       </c>
@@ -23821,7 +23828,7 @@
         <v>8</v>
       </c>
       <c r="BD5" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>8</v>
       </c>
       <c r="BE5" s="53" t="s">
@@ -23831,7 +23838,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:58" ht="60">
+    <row ht="60" r="6" spans="1:58">
       <c r="A6" s="22" t="s">
         <v>58</v>
       </c>
@@ -23893,7 +23900,7 @@
         <v>24</v>
       </c>
       <c r="BD6" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE6" s="53" t="s">
@@ -23903,7 +23910,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:58" ht="45">
+    <row ht="45" r="7" spans="1:58">
       <c r="A7" s="22" t="s">
         <v>58</v>
       </c>
@@ -23965,7 +23972,7 @@
         <v>24</v>
       </c>
       <c r="BD7" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE7" s="53" t="s">
@@ -23975,7 +23982,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:58" ht="30">
+    <row ht="30" r="8" spans="1:58">
       <c r="A8" s="23" t="s">
         <v>58</v>
       </c>
@@ -24037,7 +24044,7 @@
         <v>24</v>
       </c>
       <c r="BD8" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE8" s="53" t="s">
@@ -24047,7 +24054,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:58" ht="75">
+    <row ht="75" r="9" spans="1:58">
       <c r="A9" s="23" t="s">
         <v>58</v>
       </c>
@@ -24109,7 +24116,7 @@
         <v>2</v>
       </c>
       <c r="BD9" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>2</v>
       </c>
       <c r="BE9" s="53" t="s">
@@ -24119,7 +24126,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:58" ht="105">
+    <row ht="105" r="10" spans="1:58">
       <c r="A10" s="22" t="s">
         <v>58</v>
       </c>
@@ -24193,7 +24200,7 @@
         <v>24</v>
       </c>
       <c r="BD10" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE10" s="53" t="s">
@@ -24203,7 +24210,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:58" ht="30">
+    <row ht="30" r="11" spans="1:58">
       <c r="A11" s="23" t="s">
         <v>58</v>
       </c>
@@ -24253,7 +24260,7 @@
         <v>2</v>
       </c>
       <c r="BD11" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>2</v>
       </c>
       <c r="BE11" s="53" t="s">
@@ -24263,7 +24270,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:58" ht="75">
+    <row ht="75" r="12" spans="1:58">
       <c r="A12" s="23" t="s">
         <v>58</v>
       </c>
@@ -24325,7 +24332,7 @@
         <v>2</v>
       </c>
       <c r="BD12" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>2</v>
       </c>
       <c r="BE12" s="53" t="s">
@@ -24335,7 +24342,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:58" ht="75">
+    <row ht="75" r="13" spans="1:58">
       <c r="A13" s="23" t="s">
         <v>58</v>
       </c>
@@ -24397,7 +24404,7 @@
         <v>48</v>
       </c>
       <c r="BD13" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE13" s="53" t="s">
@@ -24407,7 +24414,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:58" ht="60">
+    <row ht="60" r="14" spans="1:58">
       <c r="A14" s="23" t="s">
         <v>58</v>
       </c>
@@ -24469,7 +24476,7 @@
         <v>48</v>
       </c>
       <c r="BD14" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE14" s="53" t="s">
@@ -24479,7 +24486,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:58" ht="45">
+    <row ht="45" r="15" spans="1:58">
       <c r="A15" s="23" t="s">
         <v>58</v>
       </c>
@@ -24547,7 +24554,7 @@
         <v>48</v>
       </c>
       <c r="BD15" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE15" s="53" t="s">
@@ -24557,7 +24564,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:58" ht="75">
+    <row ht="75" r="16" spans="1:58">
       <c r="A16" s="23" t="s">
         <v>58</v>
       </c>
@@ -24607,7 +24614,7 @@
         <v>48</v>
       </c>
       <c r="BD16" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE16" s="53" t="s">
@@ -24617,7 +24624,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:58" ht="90">
+    <row ht="90" r="17" spans="1:58">
       <c r="A17" s="23" t="s">
         <v>58</v>
       </c>
@@ -24667,7 +24674,7 @@
         <v>48</v>
       </c>
       <c r="BD17" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE17" s="53" t="s">
@@ -24677,7 +24684,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:58" ht="75">
+    <row ht="75" r="18" spans="1:58">
       <c r="A18" s="22" t="s">
         <v>58</v>
       </c>
@@ -24751,7 +24758,7 @@
         <v>24</v>
       </c>
       <c r="BD18" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE18" s="53" t="s">
@@ -24761,7 +24768,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:58" ht="60">
+    <row ht="60" r="19" spans="1:58">
       <c r="A19" s="23" t="s">
         <v>58</v>
       </c>
@@ -24811,7 +24818,7 @@
         <v>24</v>
       </c>
       <c r="BD19" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE19" s="53" t="s">
@@ -24901,7 +24908,7 @@
         <v>72</v>
       </c>
       <c r="BD20" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>72</v>
       </c>
       <c r="BE20" s="53" t="s">
@@ -24991,7 +24998,7 @@
         <v>24</v>
       </c>
       <c r="BD21" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE21" s="53" t="s">
@@ -25081,7 +25088,7 @@
         <v>24</v>
       </c>
       <c r="BD22" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE22" s="53" t="s">
@@ -25171,7 +25178,7 @@
         <v>48</v>
       </c>
       <c r="BD23" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE23" s="53" t="s">
@@ -25261,7 +25268,7 @@
         <v>24</v>
       </c>
       <c r="BD24" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE24" s="53" t="s">
@@ -25351,7 +25358,7 @@
         <v>24</v>
       </c>
       <c r="BD25" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE25" s="53" t="s">
@@ -25447,7 +25454,7 @@
         <v>24</v>
       </c>
       <c r="BD26" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE26" s="53" t="s">
@@ -25457,7 +25464,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:58" ht="75">
+    <row ht="75" r="27" spans="1:58">
       <c r="A27" s="22" t="s">
         <v>58</v>
       </c>
@@ -25531,7 +25538,7 @@
         <v>24</v>
       </c>
       <c r="BD27" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE27" s="53" t="s">
@@ -25541,7 +25548,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:58" ht="75">
+    <row ht="75" r="28" spans="1:58">
       <c r="A28" s="11" t="s">
         <v>58</v>
       </c>
@@ -25591,7 +25598,7 @@
         <v>48</v>
       </c>
       <c r="BD28" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE28" s="53" t="s">
@@ -25601,7 +25608,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:58" ht="60">
+    <row ht="60" r="29" spans="1:58">
       <c r="A29" s="11" t="s">
         <v>58</v>
       </c>
@@ -25651,7 +25658,7 @@
         <v>48</v>
       </c>
       <c r="BD29" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE29" s="53" t="s">
@@ -25661,7 +25668,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:58" ht="75">
+    <row ht="75" r="30" spans="1:58">
       <c r="A30" s="11" t="s">
         <v>58</v>
       </c>
@@ -25711,7 +25718,7 @@
         <v>48</v>
       </c>
       <c r="BD30" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE30" s="53" t="s">
@@ -25721,7 +25728,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:58" ht="60">
+    <row ht="60" r="31" spans="1:58">
       <c r="A31" s="11" t="s">
         <v>58</v>
       </c>
@@ -25771,7 +25778,7 @@
         <v>48</v>
       </c>
       <c r="BD31" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE31" s="53" t="s">
@@ -25781,7 +25788,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:58" ht="75">
+    <row ht="75" r="32" spans="1:58">
       <c r="A32" s="11" t="s">
         <v>58</v>
       </c>
@@ -25831,7 +25838,7 @@
         <v>6</v>
       </c>
       <c r="BD32" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>6</v>
       </c>
       <c r="BE32" s="53" t="s">
@@ -25841,7 +25848,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:58" ht="45">
+    <row ht="45" r="33" spans="1:58">
       <c r="A33" s="11" t="s">
         <v>58</v>
       </c>
@@ -25891,7 +25898,7 @@
         <v>6</v>
       </c>
       <c r="BD33" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>6</v>
       </c>
       <c r="BE33" s="53" t="s">
@@ -25901,7 +25908,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:58" ht="60">
+    <row ht="60" r="34" spans="1:58">
       <c r="A34" s="22" t="s">
         <v>58</v>
       </c>
@@ -25975,7 +25982,7 @@
         <v>24</v>
       </c>
       <c r="BD34" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE34" s="53" t="s">
@@ -25985,7 +25992,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:58" ht="90">
+    <row ht="90" r="35" spans="1:58">
       <c r="A35" s="22" t="s">
         <v>58</v>
       </c>
@@ -26065,7 +26072,7 @@
         <v>48</v>
       </c>
       <c r="BD35" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE35" s="53" t="s">
@@ -26075,7 +26082,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="36" spans="1:58" ht="60">
+    <row ht="60" r="36" spans="1:58">
       <c r="A36" s="22" t="s">
         <v>58</v>
       </c>
@@ -26143,7 +26150,7 @@
         <v>24</v>
       </c>
       <c r="BD36" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE36" s="53" t="s">
@@ -26153,7 +26160,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="1:58" ht="60">
+    <row ht="60" r="37" spans="1:58">
       <c r="A37" s="22" t="s">
         <v>58</v>
       </c>
@@ -26215,7 +26222,7 @@
         <v>24</v>
       </c>
       <c r="BD37" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE37" s="53" t="s">
@@ -26225,7 +26232,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:58" ht="30">
+    <row ht="30" r="38" spans="1:58">
       <c r="A38" s="22" t="s">
         <v>58</v>
       </c>
@@ -26287,7 +26294,7 @@
         <v>48</v>
       </c>
       <c r="BD38" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE38" s="53" t="s">
@@ -26297,7 +26304,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:58" ht="30">
+    <row ht="30" r="39" spans="1:58">
       <c r="A39" s="22" t="s">
         <v>58</v>
       </c>
@@ -26359,7 +26366,7 @@
         <v>24</v>
       </c>
       <c r="BD39" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE39" s="53" t="s">
@@ -26369,7 +26376,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:58" ht="45">
+    <row ht="45" r="40" spans="1:58">
       <c r="A40" s="22" t="s">
         <v>58</v>
       </c>
@@ -26443,7 +26450,7 @@
         <v>72</v>
       </c>
       <c r="BD40" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>72</v>
       </c>
       <c r="BE40" s="53" t="s">
@@ -26453,7 +26460,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="1:58" ht="75">
+    <row ht="75" r="41" spans="1:58">
       <c r="A41" s="22" t="s">
         <v>58</v>
       </c>
@@ -26527,7 +26534,7 @@
         <v>24</v>
       </c>
       <c r="BD41" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE41" s="53" t="s">
@@ -26537,7 +26544,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="1:58" ht="60">
+    <row ht="60" r="42" spans="1:58">
       <c r="A42" s="22" t="s">
         <v>58</v>
       </c>
@@ -26587,7 +26594,7 @@
         <v>24</v>
       </c>
       <c r="BD42" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE42" s="53" t="s">
@@ -26597,7 +26604,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="1:58" ht="90">
+    <row ht="90" r="43" spans="1:58">
       <c r="A43" s="22" t="s">
         <v>58</v>
       </c>
@@ -26653,7 +26660,7 @@
         <v>24</v>
       </c>
       <c r="BD43" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE43" s="53" t="s">
@@ -26663,7 +26670,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="44" spans="1:58" ht="60">
+    <row ht="60" r="44" spans="1:58">
       <c r="A44" s="22" t="s">
         <v>58</v>
       </c>
@@ -26713,7 +26720,7 @@
         <v>24</v>
       </c>
       <c r="BD44" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE44" s="53" t="s">
@@ -26723,7 +26730,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="45" spans="1:58" ht="90">
+    <row ht="90" r="45" spans="1:58">
       <c r="A45" s="22" t="s">
         <v>58</v>
       </c>
@@ -26773,7 +26780,7 @@
         <v>24</v>
       </c>
       <c r="BD45" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE45" s="53" t="s">
@@ -26783,7 +26790,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:58" ht="120">
+    <row ht="120" r="46" spans="1:58">
       <c r="A46" s="22" t="s">
         <v>58</v>
       </c>
@@ -26831,7 +26838,7 @@
         <v>24</v>
       </c>
       <c r="BD46" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE46" s="53" t="s">
@@ -26841,7 +26848,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:58" ht="30">
+    <row ht="30" r="47" spans="1:58">
       <c r="A47" s="22" t="s">
         <v>58</v>
       </c>
@@ -26903,7 +26910,7 @@
         <v>24</v>
       </c>
       <c r="BD47" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE47" s="53" t="s">
@@ -26913,7 +26920,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="48" spans="1:58" ht="45">
+    <row ht="45" r="48" spans="1:58">
       <c r="A48" s="22" t="s">
         <v>58</v>
       </c>
@@ -26963,7 +26970,7 @@
         <v>24</v>
       </c>
       <c r="BD48" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE48" s="53" t="s">
@@ -26973,7 +26980,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="49" spans="1:58" ht="60">
+    <row ht="60" r="49" spans="1:58">
       <c r="A49" s="22" t="s">
         <v>58</v>
       </c>
@@ -27035,7 +27042,7 @@
         <v>24</v>
       </c>
       <c r="BD49" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE49" s="53" t="s">
@@ -27045,7 +27052,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="50" spans="1:58" ht="75">
+    <row ht="75" r="50" spans="1:58">
       <c r="A50" s="22" t="s">
         <v>58</v>
       </c>
@@ -27107,7 +27114,7 @@
         <v>24</v>
       </c>
       <c r="BD50" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE50" s="53" t="s">
@@ -27117,7 +27124,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:58" ht="90">
+    <row ht="90" r="51" spans="1:58">
       <c r="A51" s="22" t="s">
         <v>58</v>
       </c>
@@ -27179,7 +27186,7 @@
         <v>24</v>
       </c>
       <c r="BD51" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE51" s="53" t="s">
@@ -27189,7 +27196,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="52" spans="1:58" ht="75">
+    <row ht="75" r="52" spans="1:58">
       <c r="A52" s="22" t="s">
         <v>58</v>
       </c>
@@ -27251,7 +27258,7 @@
         <v>24</v>
       </c>
       <c r="BD52" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE52" s="53" t="s">
@@ -27261,7 +27268,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="53" spans="1:58" ht="75">
+    <row ht="75" r="53" spans="1:58">
       <c r="A53" s="22" t="s">
         <v>58</v>
       </c>
@@ -27311,7 +27318,7 @@
         <v>24</v>
       </c>
       <c r="BD53" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE53" s="53" t="s">
@@ -27321,7 +27328,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="54" spans="1:58" ht="75">
+    <row ht="75" r="54" spans="1:58">
       <c r="A54" s="22" t="s">
         <v>58</v>
       </c>
@@ -27377,7 +27384,7 @@
         <v>24</v>
       </c>
       <c r="BD54" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE54" s="53" t="s">
@@ -27387,7 +27394,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="55" spans="1:58" ht="90">
+    <row ht="90" r="55" spans="1:58">
       <c r="A55" s="22" t="s">
         <v>58</v>
       </c>
@@ -27461,7 +27468,7 @@
         <v>12</v>
       </c>
       <c r="BD55" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>12</v>
       </c>
       <c r="BE55" s="53" t="s">
@@ -27471,7 +27478,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="56" spans="1:58" ht="105">
+    <row ht="105" r="56" spans="1:58">
       <c r="A56" s="22" t="s">
         <v>58</v>
       </c>
@@ -27521,7 +27528,7 @@
         <v>24</v>
       </c>
       <c r="BD56" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE56" s="53" t="s">
@@ -27531,7 +27538,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="57" spans="1:58" ht="60">
+    <row ht="60" r="57" spans="1:58">
       <c r="A57" s="22" t="s">
         <v>58</v>
       </c>
@@ -27581,7 +27588,7 @@
         <v>24</v>
       </c>
       <c r="BD57" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE57" s="53" t="s">
@@ -27591,7 +27598,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:58" ht="60">
+    <row ht="60" r="58" spans="1:58">
       <c r="A58" s="22" t="s">
         <v>58</v>
       </c>
@@ -27653,7 +27660,7 @@
         <v>48</v>
       </c>
       <c r="BD58" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE58" s="53" t="s">
@@ -27663,7 +27670,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="59" spans="1:58" ht="75">
+    <row ht="75" r="59" spans="1:58">
       <c r="A59" s="22" t="s">
         <v>58</v>
       </c>
@@ -27731,7 +27738,7 @@
         <v>24</v>
       </c>
       <c r="BD59" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE59" s="53" t="s">
@@ -27741,7 +27748,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="60" spans="1:58" ht="30">
+    <row ht="30" r="60" spans="1:58">
       <c r="A60" s="22" t="s">
         <v>58</v>
       </c>
@@ -27809,7 +27816,7 @@
         <v>4</v>
       </c>
       <c r="BD60" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>4</v>
       </c>
       <c r="BE60" s="53" t="s">
@@ -27819,7 +27826,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="61" spans="1:58" ht="45">
+    <row ht="45" r="61" spans="1:58">
       <c r="A61" s="22" t="s">
         <v>58</v>
       </c>
@@ -27869,7 +27876,7 @@
         <v>24</v>
       </c>
       <c r="BD61" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE61" s="53" t="s">
@@ -27879,7 +27886,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="62" spans="1:58" ht="45">
+    <row ht="45" r="62" spans="1:58">
       <c r="A62" s="22" t="s">
         <v>58</v>
       </c>
@@ -27929,7 +27936,7 @@
         <v>24</v>
       </c>
       <c r="BD62" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE62" s="53" t="s">
@@ -27939,7 +27946,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="63" spans="1:58" ht="45">
+    <row ht="45" r="63" spans="1:58">
       <c r="A63" s="22" t="s">
         <v>58</v>
       </c>
@@ -27989,7 +27996,7 @@
         <v>24</v>
       </c>
       <c r="BD63" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE63" s="53" t="s">
@@ -27999,7 +28006,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="64" spans="1:58" ht="45">
+    <row ht="45" r="64" spans="1:58">
       <c r="A64" s="22" t="s">
         <v>58</v>
       </c>
@@ -28049,7 +28056,7 @@
         <v>24</v>
       </c>
       <c r="BD64" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE64" s="53" t="s">
@@ -28059,7 +28066,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="65" spans="1:58" ht="60">
+    <row ht="60" r="65" spans="1:58">
       <c r="A65" s="23" t="s">
         <v>58</v>
       </c>
@@ -28121,7 +28128,7 @@
         <v>48</v>
       </c>
       <c r="BD65" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE65" s="53" t="s">
@@ -28131,7 +28138,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="66" spans="1:58" ht="45">
+    <row ht="45" r="66" spans="1:58">
       <c r="A66" s="23" t="s">
         <v>58</v>
       </c>
@@ -28187,7 +28194,7 @@
         <v>24</v>
       </c>
       <c r="BD66" s="4">
-        <f t="shared" ref="BD66:BD129" si="1">SUM(AW66,AY66,BA66,BC66)</f>
+        <f ref="BD66:BD129" si="1" t="shared">SUM(AW66,AY66,BA66,BC66)</f>
         <v>24</v>
       </c>
       <c r="BE66" s="53" t="s">
@@ -28197,7 +28204,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="67" spans="1:58" ht="45">
+    <row ht="45" r="67" spans="1:58">
       <c r="A67" s="23" t="s">
         <v>58</v>
       </c>
@@ -28259,7 +28266,7 @@
         <v>48</v>
       </c>
       <c r="BD67" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE67" s="53" t="s">
@@ -28269,7 +28276,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="68" spans="1:58" ht="60">
+    <row ht="60" r="68" spans="1:58">
       <c r="A68" s="23" t="s">
         <v>58</v>
       </c>
@@ -28319,7 +28326,7 @@
         <v>24</v>
       </c>
       <c r="BD68" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE68" s="53" t="s">
@@ -28329,7 +28336,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="69" spans="1:58" ht="60">
+    <row ht="60" r="69" spans="1:58">
       <c r="A69" s="23" t="s">
         <v>58</v>
       </c>
@@ -28391,7 +28398,7 @@
         <v>24</v>
       </c>
       <c r="BD69" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE69" s="53" t="s">
@@ -28401,7 +28408,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="70" spans="1:58" ht="60">
+    <row ht="60" r="70" spans="1:58">
       <c r="A70" s="23" t="s">
         <v>58</v>
       </c>
@@ -28463,7 +28470,7 @@
         <v>24</v>
       </c>
       <c r="BD70" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE70" s="53" t="s">
@@ -28473,7 +28480,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="71" spans="1:58" ht="60">
+    <row ht="60" r="71" spans="1:58">
       <c r="A71" s="23" t="s">
         <v>58</v>
       </c>
@@ -28523,7 +28530,7 @@
         <v>24</v>
       </c>
       <c r="BD71" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE71" s="53" t="s">
@@ -28533,7 +28540,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="72" spans="1:58" ht="60">
+    <row ht="60" r="72" spans="1:58">
       <c r="A72" s="23" t="s">
         <v>58</v>
       </c>
@@ -28589,7 +28596,7 @@
         <v>48</v>
       </c>
       <c r="BD72" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE72" s="53" t="s">
@@ -28599,7 +28606,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="73" spans="1:58" ht="75">
+    <row ht="75" r="73" spans="1:58">
       <c r="A73" s="23" t="s">
         <v>58</v>
       </c>
@@ -28655,7 +28662,7 @@
         <v>48</v>
       </c>
       <c r="BD73" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE73" s="53" t="s">
@@ -28665,7 +28672,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="74" spans="1:58" ht="75">
+    <row ht="75" r="74" spans="1:58">
       <c r="A74" s="22" t="s">
         <v>58</v>
       </c>
@@ -28727,7 +28734,7 @@
         <v>48</v>
       </c>
       <c r="BD74" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE74" s="53" t="s">
@@ -28737,7 +28744,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="75" spans="1:58" ht="60">
+    <row ht="60" r="75" spans="1:58">
       <c r="A75" s="22" t="s">
         <v>58</v>
       </c>
@@ -28799,7 +28806,7 @@
         <v>24</v>
       </c>
       <c r="BD75" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE75" s="53" t="s">
@@ -28809,7 +28816,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="76" spans="1:58" ht="60">
+    <row ht="60" r="76" spans="1:58">
       <c r="A76" s="22" t="s">
         <v>58</v>
       </c>
@@ -28859,7 +28866,7 @@
         <v>48</v>
       </c>
       <c r="BD76" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE76" s="53" t="s">
@@ -28869,7 +28876,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="77" spans="1:58" ht="30">
+    <row ht="30" r="77" spans="1:58">
       <c r="A77" s="22" t="s">
         <v>58</v>
       </c>
@@ -28919,7 +28926,7 @@
         <v>48</v>
       </c>
       <c r="BD77" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE77" s="53" t="s">
@@ -28929,7 +28936,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="78" spans="1:58" ht="45">
+    <row ht="45" r="78" spans="1:58">
       <c r="A78" s="22" t="s">
         <v>58</v>
       </c>
@@ -28979,7 +28986,7 @@
         <v>48</v>
       </c>
       <c r="BD78" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE78" s="53" t="s">
@@ -28989,7 +28996,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="79" spans="1:58" ht="60">
+    <row ht="60" r="79" spans="1:58">
       <c r="A79" s="23" t="s">
         <v>58</v>
       </c>
@@ -29051,7 +29058,7 @@
         <v>48</v>
       </c>
       <c r="BD79" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE79" s="53" t="s">
@@ -29061,7 +29068,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="80" spans="1:58" ht="60">
+    <row ht="60" r="80" spans="1:58">
       <c r="A80" s="22" t="s">
         <v>58</v>
       </c>
@@ -29111,7 +29118,7 @@
         <v>72</v>
       </c>
       <c r="BD80" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>72</v>
       </c>
       <c r="BE80" s="55" t="s">
@@ -29121,7 +29128,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="81" spans="1:58" ht="45">
+    <row ht="45" r="81" spans="1:58">
       <c r="A81" s="22" t="s">
         <v>58</v>
       </c>
@@ -29177,7 +29184,7 @@
         <v>24</v>
       </c>
       <c r="BD81" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE81" s="4" t="s">
@@ -29273,7 +29280,7 @@
         <v>72</v>
       </c>
       <c r="BD82" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>72</v>
       </c>
       <c r="BE82" s="53" t="s">
@@ -29369,7 +29376,7 @@
         <v>72</v>
       </c>
       <c r="BD83" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>72</v>
       </c>
       <c r="BE83" s="53" t="s">
@@ -29379,7 +29386,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="84" spans="1:58" ht="45">
+    <row ht="45" r="84" spans="1:58">
       <c r="A84" s="22" t="s">
         <v>58</v>
       </c>
@@ -29429,7 +29436,7 @@
         <v>72</v>
       </c>
       <c r="BD84" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>72</v>
       </c>
       <c r="BE84" s="53" t="s">
@@ -29519,7 +29526,7 @@
         <v>72</v>
       </c>
       <c r="BD85" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>72</v>
       </c>
       <c r="BE85" s="53" t="s">
@@ -29609,7 +29616,7 @@
         <v>72</v>
       </c>
       <c r="BD86" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>72</v>
       </c>
       <c r="BE86" s="53" t="s">
@@ -29705,7 +29712,7 @@
         <v>24</v>
       </c>
       <c r="BD87" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE87" s="53" t="s">
@@ -29795,7 +29802,7 @@
         <v>72</v>
       </c>
       <c r="BD88" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>72</v>
       </c>
       <c r="BE88" s="53" t="s">
@@ -29891,7 +29898,7 @@
         <v>72</v>
       </c>
       <c r="BD89" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>72</v>
       </c>
       <c r="BE89" s="53" t="s">
@@ -29901,7 +29908,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="90" spans="1:58" ht="45">
+    <row ht="45" r="90" spans="1:58">
       <c r="A90" s="22" t="s">
         <v>58</v>
       </c>
@@ -29981,7 +29988,7 @@
         <v>48</v>
       </c>
       <c r="BD90" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE90" s="53" t="s">
@@ -29991,7 +29998,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:58" ht="45">
+    <row ht="45" r="91" spans="1:58">
       <c r="A91" s="22" t="s">
         <v>58</v>
       </c>
@@ -30053,7 +30060,7 @@
         <v>48</v>
       </c>
       <c r="BD91" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE91" s="53" t="s">
@@ -30125,7 +30132,7 @@
         <v>48</v>
       </c>
       <c r="BD92" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE92" s="55" t="s">
@@ -30197,7 +30204,7 @@
         <v>48</v>
       </c>
       <c r="BD93" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE93" s="55" t="s">
@@ -30207,7 +30214,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="94" spans="1:58" ht="60">
+    <row ht="60" r="94" spans="1:58">
       <c r="A94" s="22" t="s">
         <v>58</v>
       </c>
@@ -30257,7 +30264,7 @@
         <v>2</v>
       </c>
       <c r="BD94" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>2</v>
       </c>
       <c r="BE94" s="53" t="s">
@@ -30267,7 +30274,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="95" spans="1:58" ht="60">
+    <row ht="60" r="95" spans="1:58">
       <c r="A95" s="22" t="s">
         <v>58</v>
       </c>
@@ -30317,7 +30324,7 @@
         <v>2</v>
       </c>
       <c r="BD95" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>2</v>
       </c>
       <c r="BE95" s="53" t="s">
@@ -30327,7 +30334,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="96" spans="1:58" ht="60">
+    <row ht="60" r="96" spans="1:58">
       <c r="A96" s="22" t="s">
         <v>58</v>
       </c>
@@ -30377,7 +30384,7 @@
         <v>2</v>
       </c>
       <c r="BD96" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>2</v>
       </c>
       <c r="BE96" s="53" t="s">
@@ -30387,7 +30394,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="97" spans="1:58" ht="60">
+    <row ht="60" r="97" spans="1:58">
       <c r="A97" s="22" t="s">
         <v>58</v>
       </c>
@@ -30437,7 +30444,7 @@
         <v>2</v>
       </c>
       <c r="BD97" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>2</v>
       </c>
       <c r="BE97" s="53" t="s">
@@ -30447,7 +30454,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="98" spans="1:58" ht="60">
+    <row ht="60" r="98" spans="1:58">
       <c r="A98" s="22" t="s">
         <v>58</v>
       </c>
@@ -30497,7 +30504,7 @@
         <v>24</v>
       </c>
       <c r="BD98" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE98" s="53" t="s">
@@ -30507,7 +30514,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="99" spans="1:58" ht="105">
+    <row ht="105" r="99" spans="1:58">
       <c r="A99" s="22" t="s">
         <v>58</v>
       </c>
@@ -30557,7 +30564,7 @@
         <v>24</v>
       </c>
       <c r="BD99" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE99" s="53" t="s">
@@ -30567,7 +30574,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="100" spans="1:58" ht="45">
+    <row ht="45" r="100" spans="1:58">
       <c r="A100" s="23" t="s">
         <v>58</v>
       </c>
@@ -30629,7 +30636,7 @@
         <v>48</v>
       </c>
       <c r="BD100" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE100" s="53" t="s">
@@ -30639,7 +30646,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="101" spans="1:58" ht="45">
+    <row ht="45" r="101" spans="1:58">
       <c r="A101" s="23" t="s">
         <v>58</v>
       </c>
@@ -30701,7 +30708,7 @@
         <v>48</v>
       </c>
       <c r="BD101" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE101" s="53" t="s">
@@ -30711,7 +30718,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="102" spans="1:58" ht="75">
+    <row ht="75" r="102" spans="1:58">
       <c r="A102" s="23" t="s">
         <v>58</v>
       </c>
@@ -30773,7 +30780,7 @@
         <v>48</v>
       </c>
       <c r="BD102" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE102" s="53" t="s">
@@ -30783,7 +30790,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="103" spans="1:58" ht="45">
+    <row ht="45" r="103" spans="1:58">
       <c r="A103" s="23" t="s">
         <v>248</v>
       </c>
@@ -30857,7 +30864,7 @@
         <v>24</v>
       </c>
       <c r="BD103" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE103" s="53" t="s">
@@ -30935,7 +30942,7 @@
         <v>4</v>
       </c>
       <c r="BD104" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>4</v>
       </c>
       <c r="BE104" s="53" t="s">
@@ -30945,7 +30952,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="105" spans="1:58" ht="75">
+    <row ht="75" r="105" spans="1:58">
       <c r="A105" s="22" t="s">
         <v>248</v>
       </c>
@@ -31007,7 +31014,7 @@
         <v>24</v>
       </c>
       <c r="BD105" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE105" s="53" t="s">
@@ -31017,7 +31024,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="106" spans="1:58" ht="60">
+    <row ht="60" r="106" spans="1:58">
       <c r="A106" s="22" t="s">
         <v>248</v>
       </c>
@@ -31079,7 +31086,7 @@
         <v>24</v>
       </c>
       <c r="BD106" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE106" s="53" t="s">
@@ -31089,7 +31096,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="107" spans="1:58" ht="60">
+    <row ht="60" r="107" spans="1:58">
       <c r="A107" s="22" t="s">
         <v>248</v>
       </c>
@@ -31151,7 +31158,7 @@
         <v>24</v>
       </c>
       <c r="BD107" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE107" s="53" t="s">
@@ -31161,7 +31168,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="108" spans="1:58" ht="60">
+    <row ht="60" r="108" spans="1:58">
       <c r="A108" s="22" t="s">
         <v>248</v>
       </c>
@@ -31223,7 +31230,7 @@
         <v>24</v>
       </c>
       <c r="BD108" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE108" s="53" t="s">
@@ -31233,7 +31240,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="109" spans="1:58" ht="60">
+    <row ht="60" r="109" spans="1:58">
       <c r="A109" s="22" t="s">
         <v>248</v>
       </c>
@@ -31295,7 +31302,7 @@
         <v>24</v>
       </c>
       <c r="BD109" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE109" s="53" t="s">
@@ -31305,7 +31312,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="110" spans="1:58" ht="75">
+    <row ht="75" r="110" spans="1:58">
       <c r="A110" s="22" t="s">
         <v>248</v>
       </c>
@@ -31367,7 +31374,7 @@
         <v>24</v>
       </c>
       <c r="BD110" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE110" s="53" t="s">
@@ -31377,7 +31384,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="111" spans="1:58" ht="75">
+    <row ht="75" r="111" spans="1:58">
       <c r="A111" s="22" t="s">
         <v>248</v>
       </c>
@@ -31445,7 +31452,7 @@
         <v>24</v>
       </c>
       <c r="BD111" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE111" s="53" t="s">
@@ -31455,7 +31462,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="112" spans="1:58" ht="45">
+    <row ht="45" r="112" spans="1:58">
       <c r="A112" s="22" t="s">
         <v>248</v>
       </c>
@@ -31535,7 +31542,7 @@
         <v>8</v>
       </c>
       <c r="BD112" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>8</v>
       </c>
       <c r="BE112" s="53" t="s">
@@ -31545,7 +31552,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="113" spans="1:58" ht="45">
+    <row ht="45" r="113" spans="1:58">
       <c r="A113" s="22" t="s">
         <v>248</v>
       </c>
@@ -31619,7 +31626,7 @@
         <v>8</v>
       </c>
       <c r="BD113" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>8</v>
       </c>
       <c r="BE113" s="53" t="s">
@@ -31629,7 +31636,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="114" spans="1:58" ht="45">
+    <row ht="45" r="114" spans="1:58">
       <c r="A114" s="22" t="s">
         <v>248</v>
       </c>
@@ -31685,7 +31692,7 @@
         <v>4</v>
       </c>
       <c r="BD114" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>4</v>
       </c>
       <c r="BE114" s="53" t="s">
@@ -31695,7 +31702,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="115" spans="1:58" ht="45">
+    <row ht="45" r="115" spans="1:58">
       <c r="A115" s="22" t="s">
         <v>248</v>
       </c>
@@ -31775,7 +31782,7 @@
         <v>720</v>
       </c>
       <c r="BD115" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>720</v>
       </c>
       <c r="BE115" s="53" t="s">
@@ -31785,7 +31792,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="116" spans="1:58" ht="60">
+    <row ht="60" r="116" spans="1:58">
       <c r="A116" s="22" t="s">
         <v>248</v>
       </c>
@@ -31865,7 +31872,7 @@
         <v>720</v>
       </c>
       <c r="BD116" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>720</v>
       </c>
       <c r="BE116" s="53" t="s">
@@ -31875,7 +31882,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="117" spans="1:58" ht="60">
+    <row ht="60" r="117" spans="1:58">
       <c r="A117" s="22" t="s">
         <v>248</v>
       </c>
@@ -31955,7 +31962,7 @@
         <v>8</v>
       </c>
       <c r="BD117" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>8</v>
       </c>
       <c r="BE117" s="53" t="s">
@@ -31965,7 +31972,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="118" spans="1:58" ht="105">
+    <row ht="105" r="118" spans="1:58">
       <c r="A118" s="22" t="s">
         <v>248</v>
       </c>
@@ -32015,7 +32022,7 @@
         <v>24</v>
       </c>
       <c r="BD118" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE118" s="53" t="s">
@@ -32025,7 +32032,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="119" spans="1:58" ht="90">
+    <row ht="90" r="119" spans="1:58">
       <c r="A119" s="22" t="s">
         <v>248</v>
       </c>
@@ -32093,7 +32100,7 @@
         <v>24</v>
       </c>
       <c r="BD119" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE119" s="53" t="s">
@@ -32103,7 +32110,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="120" spans="1:58" ht="105">
+    <row ht="105" r="120" spans="1:58">
       <c r="A120" s="22" t="s">
         <v>248</v>
       </c>
@@ -32177,7 +32184,7 @@
         <v>24</v>
       </c>
       <c r="BD120" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE120" s="53" t="s">
@@ -32187,7 +32194,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="121" spans="1:58" ht="75">
+    <row ht="75" r="121" spans="1:58">
       <c r="A121" s="22" t="s">
         <v>248</v>
       </c>
@@ -32261,7 +32268,7 @@
         <v>48</v>
       </c>
       <c r="BD121" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE121" s="53" t="s">
@@ -32271,7 +32278,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="122" spans="1:58" ht="75">
+    <row ht="75" r="122" spans="1:58">
       <c r="A122" s="22" t="s">
         <v>248</v>
       </c>
@@ -32321,7 +32328,7 @@
         <v>24</v>
       </c>
       <c r="BD122" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE122" s="53" t="s">
@@ -32331,7 +32338,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="123" spans="1:58" ht="45">
+    <row ht="45" r="123" spans="1:58">
       <c r="A123" s="22" t="s">
         <v>248</v>
       </c>
@@ -32381,7 +32388,7 @@
         <v>24</v>
       </c>
       <c r="BD123" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE123" s="53" t="s">
@@ -32391,7 +32398,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="124" spans="1:58" ht="150">
+    <row ht="150" r="124" spans="1:58">
       <c r="A124" s="22" t="s">
         <v>248</v>
       </c>
@@ -32441,7 +32448,7 @@
         <v>24</v>
       </c>
       <c r="BD124" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE124" s="53" t="s">
@@ -32451,7 +32458,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="125" spans="1:58" ht="60">
+    <row ht="60" r="125" spans="1:58">
       <c r="A125" s="22" t="s">
         <v>248</v>
       </c>
@@ -32525,7 +32532,7 @@
         <v>24</v>
       </c>
       <c r="BD125" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE125" s="53" t="s">
@@ -32535,7 +32542,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="126" spans="1:58" ht="45">
+    <row ht="45" r="126" spans="1:58">
       <c r="A126" s="22" t="s">
         <v>248</v>
       </c>
@@ -32609,7 +32616,7 @@
         <v>720</v>
       </c>
       <c r="BD126" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>720</v>
       </c>
       <c r="BE126" s="56" t="s">
@@ -32619,7 +32626,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="127" spans="1:58" ht="75">
+    <row ht="75" r="127" spans="1:58">
       <c r="A127" s="22" t="s">
         <v>248</v>
       </c>
@@ -32681,7 +32688,7 @@
         <v>2</v>
       </c>
       <c r="BD127" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>2</v>
       </c>
       <c r="BE127" s="53" t="s">
@@ -32691,7 +32698,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="128" spans="1:58" ht="75">
+    <row ht="75" r="128" spans="1:58">
       <c r="A128" s="22" t="s">
         <v>248</v>
       </c>
@@ -32765,7 +32772,7 @@
         <v>4</v>
       </c>
       <c r="BD128" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>4</v>
       </c>
       <c r="BE128" s="53" t="s">
@@ -32775,7 +32782,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="129" spans="1:58" ht="105">
+    <row ht="105" r="129" spans="1:58">
       <c r="A129" s="22" t="s">
         <v>248</v>
       </c>
@@ -32849,7 +32856,7 @@
         <v>3</v>
       </c>
       <c r="BD129" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>3</v>
       </c>
       <c r="BE129" s="53" t="s">
@@ -32859,7 +32866,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="130" spans="1:58" ht="60">
+    <row ht="60" r="130" spans="1:58">
       <c r="A130" s="22" t="s">
         <v>248</v>
       </c>
@@ -32921,7 +32928,7 @@
         <v>24</v>
       </c>
       <c r="BD130" s="4">
-        <f t="shared" ref="BD130" si="2">SUM(AW130,AY130,BA130,BC130)</f>
+        <f ref="BD130" si="2" t="shared">SUM(AW130,AY130,BA130,BC130)</f>
         <v>24</v>
       </c>
       <c r="BE130" s="53" t="s">
@@ -32938,36 +32945,36 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="E111:E112">
-    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
+    <cfRule dxfId="11" priority="4" type="duplicateValues"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E113:E117">
-    <cfRule type="duplicateValues" dxfId="10" priority="3"/>
+    <cfRule dxfId="10" priority="3" type="duplicateValues"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118:E124">
-    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
+    <cfRule dxfId="9" priority="2" type="duplicateValues"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E125:E130">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+    <cfRule dxfId="8" priority="1" type="duplicateValues"/>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:BG86"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="BC6" sqref="BC6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="6" max="20" width="0" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="26" width="0" style="4" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="47" width="0" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="59" max="59" width="10.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="20" customWidth="true" hidden="true" width="0.0" collapsed="true"/>
+    <col min="21" max="26" customWidth="true" hidden="true" style="4" width="0.0" collapsed="true"/>
+    <col min="27" max="47" customWidth="true" hidden="true" width="0.0" collapsed="true"/>
+    <col min="59" max="59" bestFit="true" customWidth="true" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:59">
@@ -33149,7 +33156,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:59" s="4" customFormat="1" ht="120">
+    <row customFormat="1" ht="120" r="2" s="4" spans="1:59">
       <c r="A2" s="22" t="s">
         <v>58</v>
       </c>
@@ -33197,7 +33204,7 @@
         <v>24</v>
       </c>
       <c r="BD2" s="4">
-        <f t="shared" ref="BD2:BD33" si="0">SUM(AW2,AY2,BA2,BC2)</f>
+        <f ref="BD2:BD33" si="0" t="shared">SUM(AW2,AY2,BA2,BC2)</f>
         <v>24</v>
       </c>
       <c r="BE2" s="53" t="s">
@@ -33210,7 +33217,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="3" spans="1:59" s="4" customFormat="1" ht="30">
+    <row customFormat="1" ht="30" r="3" s="4" spans="1:59">
       <c r="A3" s="22" t="s">
         <v>58</v>
       </c>
@@ -33272,7 +33279,7 @@
         <v>24</v>
       </c>
       <c r="BD3" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE3" s="53" t="s">
@@ -33285,7 +33292,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="4" spans="1:59" s="4" customFormat="1" ht="45">
+    <row customFormat="1" ht="45" r="4" s="4" spans="1:59">
       <c r="A4" s="22" t="s">
         <v>58</v>
       </c>
@@ -33335,7 +33342,7 @@
         <v>24</v>
       </c>
       <c r="BD4" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE4" s="53" t="s">
@@ -33346,7 +33353,7 @@
       </c>
       <c r="BG4" s="1"/>
     </row>
-    <row r="5" spans="1:59" s="4" customFormat="1" ht="60">
+    <row customFormat="1" ht="60" r="5" s="4" spans="1:59">
       <c r="A5" s="22" t="s">
         <v>58</v>
       </c>
@@ -33408,7 +33415,7 @@
         <v>24</v>
       </c>
       <c r="BD5" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE5" s="53" t="s">
@@ -33421,7 +33428,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="6" spans="1:59" s="4" customFormat="1" ht="75">
+    <row customFormat="1" ht="75" r="6" s="4" spans="1:59">
       <c r="A6" s="22" t="s">
         <v>58</v>
       </c>
@@ -33483,7 +33490,7 @@
         <v>24</v>
       </c>
       <c r="BD6" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE6" s="53" t="s">
@@ -33496,7 +33503,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="7" spans="1:59" s="4" customFormat="1" ht="90">
+    <row customFormat="1" ht="90" r="7" s="4" spans="1:59">
       <c r="A7" s="22" t="s">
         <v>58</v>
       </c>
@@ -33558,7 +33565,7 @@
         <v>24</v>
       </c>
       <c r="BD7" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE7" s="53" t="s">
@@ -33571,7 +33578,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="8" spans="1:59" s="4" customFormat="1" ht="75">
+    <row customFormat="1" ht="75" r="8" s="4" spans="1:59">
       <c r="A8" s="22" t="s">
         <v>58</v>
       </c>
@@ -33633,7 +33640,7 @@
         <v>24</v>
       </c>
       <c r="BD8" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE8" s="53" t="s">
@@ -33646,7 +33653,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="9" spans="1:59" s="4" customFormat="1" ht="75">
+    <row customFormat="1" ht="75" r="9" s="4" spans="1:59">
       <c r="A9" s="22" t="s">
         <v>58</v>
       </c>
@@ -33696,7 +33703,7 @@
         <v>24</v>
       </c>
       <c r="BD9" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE9" s="53" t="s">
@@ -33709,7 +33716,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="10" spans="1:59" s="4" customFormat="1" ht="75">
+    <row customFormat="1" ht="75" r="10" s="4" spans="1:59">
       <c r="A10" s="22" t="s">
         <v>58</v>
       </c>
@@ -33765,7 +33772,7 @@
         <v>24</v>
       </c>
       <c r="BD10" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE10" s="53" t="s">
@@ -33778,7 +33785,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="11" spans="1:59" s="4" customFormat="1" ht="90">
+    <row customFormat="1" ht="90" r="11" s="4" spans="1:59">
       <c r="A11" s="22" t="s">
         <v>58</v>
       </c>
@@ -33852,7 +33859,7 @@
         <v>12</v>
       </c>
       <c r="BD11" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>12</v>
       </c>
       <c r="BE11" s="53" t="s">
@@ -33865,7 +33872,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="12" spans="1:59" s="4" customFormat="1" ht="105">
+    <row customFormat="1" ht="105" r="12" s="4" spans="1:59">
       <c r="A12" s="22" t="s">
         <v>58</v>
       </c>
@@ -33915,7 +33922,7 @@
         <v>24</v>
       </c>
       <c r="BD12" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE12" s="53" t="s">
@@ -33928,7 +33935,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="13" spans="1:59" s="4" customFormat="1" ht="60">
+    <row customFormat="1" ht="60" r="13" s="4" spans="1:59">
       <c r="A13" s="22" t="s">
         <v>58</v>
       </c>
@@ -33978,7 +33985,7 @@
         <v>24</v>
       </c>
       <c r="BD13" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE13" s="53" t="s">
@@ -33991,7 +33998,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="14" spans="1:59" s="4" customFormat="1" ht="60">
+    <row customFormat="1" ht="60" r="14" s="4" spans="1:59">
       <c r="A14" s="22" t="s">
         <v>58</v>
       </c>
@@ -34053,7 +34060,7 @@
         <v>48</v>
       </c>
       <c r="BD14" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE14" s="53" t="s">
@@ -34066,7 +34073,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="15" spans="1:59" s="4" customFormat="1" ht="75">
+    <row customFormat="1" ht="75" r="15" s="4" spans="1:59">
       <c r="A15" s="22" t="s">
         <v>58</v>
       </c>
@@ -34134,7 +34141,7 @@
         <v>24</v>
       </c>
       <c r="BD15" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE15" s="53" t="s">
@@ -34147,7 +34154,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="16" spans="1:59" s="4" customFormat="1" ht="30">
+    <row customFormat="1" ht="30" r="16" s="4" spans="1:59">
       <c r="A16" s="22" t="s">
         <v>58</v>
       </c>
@@ -34215,7 +34222,7 @@
         <v>4</v>
       </c>
       <c r="BD16" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>4</v>
       </c>
       <c r="BE16" s="53" t="s">
@@ -34228,7 +34235,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="17" spans="1:59" s="4" customFormat="1" ht="45">
+    <row customFormat="1" ht="45" r="17" s="4" spans="1:59">
       <c r="A17" s="22" t="s">
         <v>58</v>
       </c>
@@ -34278,7 +34285,7 @@
         <v>24</v>
       </c>
       <c r="BD17" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE17" s="53" t="s">
@@ -34291,7 +34298,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="18" spans="1:59" s="4" customFormat="1" ht="45">
+    <row customFormat="1" ht="45" r="18" s="4" spans="1:59">
       <c r="A18" s="22" t="s">
         <v>58</v>
       </c>
@@ -34341,7 +34348,7 @@
         <v>24</v>
       </c>
       <c r="BD18" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE18" s="53" t="s">
@@ -34354,7 +34361,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="19" spans="1:59" s="4" customFormat="1" ht="45">
+    <row customFormat="1" ht="45" r="19" s="4" spans="1:59">
       <c r="A19" s="22" t="s">
         <v>58</v>
       </c>
@@ -34404,7 +34411,7 @@
         <v>24</v>
       </c>
       <c r="BD19" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE19" s="53" t="s">
@@ -34417,7 +34424,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="20" spans="1:59" s="4" customFormat="1" ht="45">
+    <row customFormat="1" ht="45" r="20" s="4" spans="1:59">
       <c r="A20" s="22" t="s">
         <v>58</v>
       </c>
@@ -34467,7 +34474,7 @@
         <v>24</v>
       </c>
       <c r="BD20" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE20" s="53" t="s">
@@ -34480,7 +34487,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="21" spans="1:59" s="4" customFormat="1" ht="60">
+    <row customFormat="1" ht="60" r="21" s="4" spans="1:59">
       <c r="A21" s="23" t="s">
         <v>58</v>
       </c>
@@ -34542,7 +34549,7 @@
         <v>48</v>
       </c>
       <c r="BD21" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE21" s="53" t="s">
@@ -34555,7 +34562,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="22" spans="1:59" s="4" customFormat="1" ht="45">
+    <row customFormat="1" ht="45" r="22" s="4" spans="1:59">
       <c r="A22" s="23" t="s">
         <v>58</v>
       </c>
@@ -34611,7 +34618,7 @@
         <v>24</v>
       </c>
       <c r="BD22" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE22" s="53" t="s">
@@ -34624,7 +34631,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="23" spans="1:59" s="4" customFormat="1" ht="45">
+    <row customFormat="1" ht="45" r="23" s="4" spans="1:59">
       <c r="A23" s="23" t="s">
         <v>58</v>
       </c>
@@ -34686,7 +34693,7 @@
         <v>48</v>
       </c>
       <c r="BD23" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE23" s="53" t="s">
@@ -34699,7 +34706,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="24" spans="1:59" s="4" customFormat="1" ht="60">
+    <row customFormat="1" ht="60" r="24" s="4" spans="1:59">
       <c r="A24" s="23" t="s">
         <v>58</v>
       </c>
@@ -34749,7 +34756,7 @@
         <v>24</v>
       </c>
       <c r="BD24" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE24" s="53" t="s">
@@ -34762,7 +34769,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="25" spans="1:59" s="4" customFormat="1" ht="60">
+    <row customFormat="1" ht="60" r="25" s="4" spans="1:59">
       <c r="A25" s="23" t="s">
         <v>58</v>
       </c>
@@ -34824,7 +34831,7 @@
         <v>24</v>
       </c>
       <c r="BD25" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE25" s="53" t="s">
@@ -34837,7 +34844,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="26" spans="1:59" s="4" customFormat="1" ht="60">
+    <row customFormat="1" ht="60" r="26" s="4" spans="1:59">
       <c r="A26" s="23" t="s">
         <v>58</v>
       </c>
@@ -34899,7 +34906,7 @@
         <v>24</v>
       </c>
       <c r="BD26" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE26" s="53" t="s">
@@ -34912,7 +34919,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="27" spans="1:59" s="4" customFormat="1" ht="60">
+    <row customFormat="1" ht="60" r="27" s="4" spans="1:59">
       <c r="A27" s="23" t="s">
         <v>58</v>
       </c>
@@ -34962,7 +34969,7 @@
         <v>24</v>
       </c>
       <c r="BD27" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE27" s="53" t="s">
@@ -34975,7 +34982,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="28" spans="1:59" s="4" customFormat="1" ht="60">
+    <row customFormat="1" ht="60" r="28" s="4" spans="1:59">
       <c r="A28" s="23" t="s">
         <v>58</v>
       </c>
@@ -35031,7 +35038,7 @@
         <v>48</v>
       </c>
       <c r="BD28" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE28" s="53" t="s">
@@ -35044,7 +35051,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="29" spans="1:59" s="4" customFormat="1" ht="75">
+    <row customFormat="1" ht="75" r="29" s="4" spans="1:59">
       <c r="A29" s="23" t="s">
         <v>58</v>
       </c>
@@ -35100,7 +35107,7 @@
         <v>48</v>
       </c>
       <c r="BD29" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE29" s="53" t="s">
@@ -35113,7 +35120,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="30" spans="1:59" s="4" customFormat="1" ht="75">
+    <row customFormat="1" ht="75" r="30" s="4" spans="1:59">
       <c r="A30" s="22" t="s">
         <v>58</v>
       </c>
@@ -35175,7 +35182,7 @@
         <v>48</v>
       </c>
       <c r="BD30" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE30" s="53" t="s">
@@ -35188,7 +35195,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="31" spans="1:59" s="4" customFormat="1" ht="60">
+    <row customFormat="1" ht="60" r="31" s="4" spans="1:59">
       <c r="A31" s="22" t="s">
         <v>58</v>
       </c>
@@ -35250,7 +35257,7 @@
         <v>24</v>
       </c>
       <c r="BD31" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE31" s="53" t="s">
@@ -35263,7 +35270,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="32" spans="1:59" s="4" customFormat="1" ht="60">
+    <row customFormat="1" ht="60" r="32" s="4" spans="1:59">
       <c r="A32" s="22" t="s">
         <v>58</v>
       </c>
@@ -35313,7 +35320,7 @@
         <v>48</v>
       </c>
       <c r="BD32" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE32" s="53" t="s">
@@ -35326,7 +35333,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="33" spans="1:59" s="4" customFormat="1" ht="30">
+    <row customFormat="1" ht="30" r="33" s="4" spans="1:59">
       <c r="A33" s="22" t="s">
         <v>58</v>
       </c>
@@ -35376,7 +35383,7 @@
         <v>48</v>
       </c>
       <c r="BD33" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE33" s="53" t="s">
@@ -35389,7 +35396,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="34" spans="1:59" s="4" customFormat="1" ht="45">
+    <row customFormat="1" ht="45" r="34" s="4" spans="1:59">
       <c r="A34" s="22" t="s">
         <v>58</v>
       </c>
@@ -35439,7 +35446,7 @@
         <v>48</v>
       </c>
       <c r="BD34" s="4">
-        <f t="shared" ref="BD34:BD65" si="1">SUM(AW34,AY34,BA34,BC34)</f>
+        <f ref="BD34:BD65" si="1" t="shared">SUM(AW34,AY34,BA34,BC34)</f>
         <v>48</v>
       </c>
       <c r="BE34" s="53" t="s">
@@ -35452,7 +35459,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="35" spans="1:59" s="4" customFormat="1" ht="60">
+    <row customFormat="1" ht="60" r="35" s="4" spans="1:59">
       <c r="A35" s="23" t="s">
         <v>58</v>
       </c>
@@ -35514,7 +35521,7 @@
         <v>48</v>
       </c>
       <c r="BD35" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE35" s="53" t="s">
@@ -35527,7 +35534,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="36" spans="1:59" s="4" customFormat="1" ht="60">
+    <row customFormat="1" ht="60" r="36" s="4" spans="1:59">
       <c r="A36" s="22" t="s">
         <v>58</v>
       </c>
@@ -35577,7 +35584,7 @@
         <v>72</v>
       </c>
       <c r="BD36" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>72</v>
       </c>
       <c r="BE36" s="55" t="s">
@@ -35590,7 +35597,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="37" spans="1:59" s="4" customFormat="1" ht="45">
+    <row customFormat="1" ht="45" r="37" s="4" spans="1:59">
       <c r="A37" s="22" t="s">
         <v>58</v>
       </c>
@@ -35646,7 +35653,7 @@
         <v>24</v>
       </c>
       <c r="BD37" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE37" s="4" t="s">
@@ -35659,7 +35666,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="38" spans="1:59" s="4" customFormat="1">
+    <row customFormat="1" r="38" s="4" spans="1:59">
       <c r="A38" s="5" t="s">
         <v>222</v>
       </c>
@@ -35745,7 +35752,7 @@
         <v>72</v>
       </c>
       <c r="BD38" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>72</v>
       </c>
       <c r="BE38" s="53" t="s">
@@ -35758,7 +35765,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="39" spans="1:59" s="4" customFormat="1">
+    <row customFormat="1" r="39" s="4" spans="1:59">
       <c r="A39" s="5" t="s">
         <v>222</v>
       </c>
@@ -35844,7 +35851,7 @@
         <v>72</v>
       </c>
       <c r="BD39" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>72</v>
       </c>
       <c r="BE39" s="53" t="s">
@@ -35857,7 +35864,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="40" spans="1:59" s="4" customFormat="1" ht="45">
+    <row customFormat="1" ht="45" r="40" s="4" spans="1:59">
       <c r="A40" s="22" t="s">
         <v>58</v>
       </c>
@@ -35907,7 +35914,7 @@
         <v>72</v>
       </c>
       <c r="BD40" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>72</v>
       </c>
       <c r="BE40" s="53" t="s">
@@ -35920,7 +35927,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="41" spans="1:59" s="4" customFormat="1">
+    <row customFormat="1" r="41" s="4" spans="1:59">
       <c r="A41" s="5" t="s">
         <v>222</v>
       </c>
@@ -36000,7 +36007,7 @@
         <v>72</v>
       </c>
       <c r="BD41" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>72</v>
       </c>
       <c r="BE41" s="53" t="s">
@@ -36013,7 +36020,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="42" spans="1:59" s="4" customFormat="1">
+    <row customFormat="1" r="42" s="4" spans="1:59">
       <c r="A42" s="5" t="s">
         <v>222</v>
       </c>
@@ -36093,7 +36100,7 @@
         <v>72</v>
       </c>
       <c r="BD42" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>72</v>
       </c>
       <c r="BE42" s="53" t="s">
@@ -36106,7 +36113,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="43" spans="1:59" s="4" customFormat="1">
+    <row customFormat="1" r="43" s="4" spans="1:59">
       <c r="A43" s="5" t="s">
         <v>222</v>
       </c>
@@ -36192,7 +36199,7 @@
         <v>24</v>
       </c>
       <c r="BD43" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE43" s="53" t="s">
@@ -36205,7 +36212,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="44" spans="1:59" s="4" customFormat="1">
+    <row customFormat="1" r="44" s="4" spans="1:59">
       <c r="A44" s="5" t="s">
         <v>222</v>
       </c>
@@ -36285,7 +36292,7 @@
         <v>72</v>
       </c>
       <c r="BD44" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>72</v>
       </c>
       <c r="BE44" s="53" t="s">
@@ -36298,7 +36305,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="45" spans="1:59" s="4" customFormat="1">
+    <row customFormat="1" r="45" s="4" spans="1:59">
       <c r="A45" s="5" t="s">
         <v>222</v>
       </c>
@@ -36384,7 +36391,7 @@
         <v>72</v>
       </c>
       <c r="BD45" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>72</v>
       </c>
       <c r="BE45" s="53" t="s">
@@ -36397,7 +36404,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="46" spans="1:59" s="4" customFormat="1" ht="45">
+    <row customFormat="1" ht="45" r="46" s="4" spans="1:59">
       <c r="A46" s="22" t="s">
         <v>58</v>
       </c>
@@ -36477,7 +36484,7 @@
         <v>48</v>
       </c>
       <c r="BD46" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE46" s="53" t="s">
@@ -36490,7 +36497,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="47" spans="1:59" s="4" customFormat="1" ht="45">
+    <row customFormat="1" ht="45" r="47" s="4" spans="1:59">
       <c r="A47" s="22" t="s">
         <v>58</v>
       </c>
@@ -36552,7 +36559,7 @@
         <v>48</v>
       </c>
       <c r="BD47" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE47" s="53" t="s">
@@ -36565,7 +36572,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="48" spans="1:59" s="4" customFormat="1">
+    <row customFormat="1" r="48" s="4" spans="1:59">
       <c r="A48" s="22" t="s">
         <v>58</v>
       </c>
@@ -36627,7 +36634,7 @@
         <v>48</v>
       </c>
       <c r="BD48" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE48" s="55" t="s">
@@ -36640,7 +36647,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="49" spans="1:59" s="4" customFormat="1">
+    <row customFormat="1" r="49" s="4" spans="1:59">
       <c r="A49" s="22" t="s">
         <v>58</v>
       </c>
@@ -36702,7 +36709,7 @@
         <v>48</v>
       </c>
       <c r="BD49" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE49" s="55" t="s">
@@ -36715,7 +36722,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="50" spans="1:59" s="4" customFormat="1" ht="60">
+    <row customFormat="1" ht="60" r="50" s="4" spans="1:59">
       <c r="A50" s="22" t="s">
         <v>58</v>
       </c>
@@ -36765,7 +36772,7 @@
         <v>2</v>
       </c>
       <c r="BD50" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>2</v>
       </c>
       <c r="BE50" s="53" t="s">
@@ -36778,7 +36785,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="51" spans="1:59" s="4" customFormat="1" ht="60">
+    <row customFormat="1" ht="60" r="51" s="4" spans="1:59">
       <c r="A51" s="22" t="s">
         <v>58</v>
       </c>
@@ -36828,7 +36835,7 @@
         <v>2</v>
       </c>
       <c r="BD51" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>2</v>
       </c>
       <c r="BE51" s="53" t="s">
@@ -36841,7 +36848,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="52" spans="1:59" s="4" customFormat="1" ht="60">
+    <row customFormat="1" ht="60" r="52" s="4" spans="1:59">
       <c r="A52" s="22" t="s">
         <v>58</v>
       </c>
@@ -36891,7 +36898,7 @@
         <v>2</v>
       </c>
       <c r="BD52" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>2</v>
       </c>
       <c r="BE52" s="53" t="s">
@@ -36904,7 +36911,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="53" spans="1:59" s="4" customFormat="1" ht="60">
+    <row customFormat="1" ht="60" r="53" s="4" spans="1:59">
       <c r="A53" s="22" t="s">
         <v>58</v>
       </c>
@@ -36954,7 +36961,7 @@
         <v>2</v>
       </c>
       <c r="BD53" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>2</v>
       </c>
       <c r="BE53" s="53" t="s">
@@ -36967,7 +36974,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="54" spans="1:59" s="4" customFormat="1" ht="60">
+    <row customFormat="1" ht="60" r="54" s="4" spans="1:59">
       <c r="A54" s="22" t="s">
         <v>58</v>
       </c>
@@ -37017,7 +37024,7 @@
         <v>24</v>
       </c>
       <c r="BD54" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE54" s="53" t="s">
@@ -37030,7 +37037,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="55" spans="1:59" s="4" customFormat="1" ht="120">
+    <row customFormat="1" ht="120" r="55" s="4" spans="1:59">
       <c r="A55" s="22" t="s">
         <v>58</v>
       </c>
@@ -37080,7 +37087,7 @@
         <v>24</v>
       </c>
       <c r="BD55" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE55" s="53" t="s">
@@ -37093,7 +37100,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="56" spans="1:59" s="4" customFormat="1" ht="45">
+    <row customFormat="1" ht="45" r="56" s="4" spans="1:59">
       <c r="A56" s="23" t="s">
         <v>58</v>
       </c>
@@ -37155,7 +37162,7 @@
         <v>48</v>
       </c>
       <c r="BD56" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE56" s="53" t="s">
@@ -37168,7 +37175,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="57" spans="1:59" s="4" customFormat="1" ht="45">
+    <row customFormat="1" ht="45" r="57" s="4" spans="1:59">
       <c r="A57" s="23" t="s">
         <v>58</v>
       </c>
@@ -37230,7 +37237,7 @@
         <v>48</v>
       </c>
       <c r="BD57" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE57" s="53" t="s">
@@ -37243,7 +37250,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="58" spans="1:59" s="4" customFormat="1" ht="75">
+    <row customFormat="1" ht="75" r="58" s="4" spans="1:59">
       <c r="A58" s="23" t="s">
         <v>58</v>
       </c>
@@ -37305,7 +37312,7 @@
         <v>48</v>
       </c>
       <c r="BD58" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE58" s="53" t="s">
@@ -37318,7 +37325,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="59" spans="1:59" s="4" customFormat="1" ht="45">
+    <row customFormat="1" ht="45" r="59" s="4" spans="1:59">
       <c r="A59" s="23" t="s">
         <v>248</v>
       </c>
@@ -37392,7 +37399,7 @@
         <v>24</v>
       </c>
       <c r="BD59" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE59" s="53" t="s">
@@ -37405,7 +37412,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="60" spans="1:59" s="4" customFormat="1">
+    <row customFormat="1" r="60" s="4" spans="1:59">
       <c r="A60" s="22" t="s">
         <v>248</v>
       </c>
@@ -37473,7 +37480,7 @@
         <v>4</v>
       </c>
       <c r="BD60" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>4</v>
       </c>
       <c r="BE60" s="53" t="s">
@@ -37486,7 +37493,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="61" spans="1:59" s="4" customFormat="1" ht="75">
+    <row customFormat="1" ht="75" r="61" s="4" spans="1:59">
       <c r="A61" s="22" t="s">
         <v>248</v>
       </c>
@@ -37548,7 +37555,7 @@
         <v>24</v>
       </c>
       <c r="BD61" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE61" s="53" t="s">
@@ -37561,7 +37568,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="62" spans="1:59" s="4" customFormat="1" ht="60">
+    <row customFormat="1" ht="60" r="62" s="4" spans="1:59">
       <c r="A62" s="22" t="s">
         <v>248</v>
       </c>
@@ -37623,7 +37630,7 @@
         <v>24</v>
       </c>
       <c r="BD62" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE62" s="53" t="s">
@@ -37636,7 +37643,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="63" spans="1:59" s="4" customFormat="1" ht="60">
+    <row customFormat="1" ht="60" r="63" s="4" spans="1:59">
       <c r="A63" s="22" t="s">
         <v>248</v>
       </c>
@@ -37698,7 +37705,7 @@
         <v>24</v>
       </c>
       <c r="BD63" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE63" s="53" t="s">
@@ -37711,7 +37718,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="64" spans="1:59" s="4" customFormat="1" ht="75">
+    <row customFormat="1" ht="75" r="64" s="4" spans="1:59">
       <c r="A64" s="22" t="s">
         <v>248</v>
       </c>
@@ -37773,7 +37780,7 @@
         <v>24</v>
       </c>
       <c r="BD64" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE64" s="53" t="s">
@@ -37786,7 +37793,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="65" spans="1:59" s="4" customFormat="1" ht="60">
+    <row customFormat="1" ht="60" r="65" s="4" spans="1:59">
       <c r="A65" s="22" t="s">
         <v>248</v>
       </c>
@@ -37848,7 +37855,7 @@
         <v>24</v>
       </c>
       <c r="BD65" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE65" s="53" t="s">
@@ -37861,7 +37868,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="66" spans="1:59" s="4" customFormat="1" ht="75">
+    <row customFormat="1" ht="75" r="66" s="4" spans="1:59">
       <c r="A66" s="22" t="s">
         <v>248</v>
       </c>
@@ -37923,7 +37930,7 @@
         <v>24</v>
       </c>
       <c r="BD66" s="4">
-        <f t="shared" ref="BD66:BD86" si="2">SUM(AW66,AY66,BA66,BC66)</f>
+        <f ref="BD66:BD86" si="2" t="shared">SUM(AW66,AY66,BA66,BC66)</f>
         <v>24</v>
       </c>
       <c r="BE66" s="53" t="s">
@@ -37936,7 +37943,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="67" spans="1:59" s="4" customFormat="1" ht="90">
+    <row customFormat="1" ht="90" r="67" s="4" spans="1:59">
       <c r="A67" s="22" t="s">
         <v>248</v>
       </c>
@@ -38004,7 +38011,7 @@
         <v>24</v>
       </c>
       <c r="BD67" s="4">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE67" s="53" t="s">
@@ -38017,7 +38024,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="68" spans="1:59" s="4" customFormat="1" ht="45">
+    <row customFormat="1" ht="45" r="68" s="4" spans="1:59">
       <c r="A68" s="22" t="s">
         <v>248</v>
       </c>
@@ -38097,7 +38104,7 @@
         <v>8</v>
       </c>
       <c r="BD68" s="4">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>8</v>
       </c>
       <c r="BE68" s="53" t="s">
@@ -38110,7 +38117,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="69" spans="1:59" s="4" customFormat="1" ht="45">
+    <row customFormat="1" ht="45" r="69" s="4" spans="1:59">
       <c r="A69" s="22" t="s">
         <v>248</v>
       </c>
@@ -38184,7 +38191,7 @@
         <v>8</v>
       </c>
       <c r="BD69" s="4">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>8</v>
       </c>
       <c r="BE69" s="53" t="s">
@@ -38197,7 +38204,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="70" spans="1:59" s="4" customFormat="1" ht="45">
+    <row customFormat="1" ht="45" r="70" s="4" spans="1:59">
       <c r="A70" s="22" t="s">
         <v>248</v>
       </c>
@@ -38253,7 +38260,7 @@
         <v>4</v>
       </c>
       <c r="BD70" s="4">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>4</v>
       </c>
       <c r="BE70" s="53" t="s">
@@ -38266,7 +38273,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="71" spans="1:59" s="4" customFormat="1" ht="45">
+    <row customFormat="1" ht="45" r="71" s="4" spans="1:59">
       <c r="A71" s="22" t="s">
         <v>248</v>
       </c>
@@ -38346,7 +38353,7 @@
         <v>720</v>
       </c>
       <c r="BD71" s="4">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>720</v>
       </c>
       <c r="BE71" s="53" t="s">
@@ -38359,7 +38366,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="72" spans="1:59" s="4" customFormat="1" ht="60">
+    <row customFormat="1" ht="60" r="72" s="4" spans="1:59">
       <c r="A72" s="22" t="s">
         <v>248</v>
       </c>
@@ -38439,7 +38446,7 @@
         <v>720</v>
       </c>
       <c r="BD72" s="4">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>720</v>
       </c>
       <c r="BE72" s="53" t="s">
@@ -38452,7 +38459,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="73" spans="1:59" s="4" customFormat="1" ht="60">
+    <row customFormat="1" ht="60" r="73" s="4" spans="1:59">
       <c r="A73" s="22" t="s">
         <v>248</v>
       </c>
@@ -38532,7 +38539,7 @@
         <v>8</v>
       </c>
       <c r="BD73" s="4">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>8</v>
       </c>
       <c r="BE73" s="53" t="s">
@@ -38545,7 +38552,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="74" spans="1:59" s="4" customFormat="1" ht="105">
+    <row customFormat="1" ht="105" r="74" s="4" spans="1:59">
       <c r="A74" s="22" t="s">
         <v>248</v>
       </c>
@@ -38595,7 +38602,7 @@
         <v>24</v>
       </c>
       <c r="BD74" s="4">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE74" s="53" t="s">
@@ -38608,7 +38615,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="75" spans="1:59" s="4" customFormat="1" ht="90">
+    <row customFormat="1" ht="90" r="75" s="4" spans="1:59">
       <c r="A75" s="22" t="s">
         <v>248</v>
       </c>
@@ -38676,7 +38683,7 @@
         <v>24</v>
       </c>
       <c r="BD75" s="4">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE75" s="53" t="s">
@@ -38689,7 +38696,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="76" spans="1:59" s="4" customFormat="1" ht="105">
+    <row customFormat="1" ht="105" r="76" s="4" spans="1:59">
       <c r="A76" s="22" t="s">
         <v>248</v>
       </c>
@@ -38763,7 +38770,7 @@
         <v>24</v>
       </c>
       <c r="BD76" s="4">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE76" s="53" t="s">
@@ -38776,7 +38783,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="77" spans="1:59" s="4" customFormat="1" ht="75">
+    <row customFormat="1" ht="75" r="77" s="4" spans="1:59">
       <c r="A77" s="22" t="s">
         <v>248</v>
       </c>
@@ -38850,7 +38857,7 @@
         <v>48</v>
       </c>
       <c r="BD77" s="4">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>48</v>
       </c>
       <c r="BE77" s="53" t="s">
@@ -38863,7 +38870,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="78" spans="1:59" s="4" customFormat="1" ht="75">
+    <row customFormat="1" ht="75" r="78" s="4" spans="1:59">
       <c r="A78" s="22" t="s">
         <v>248</v>
       </c>
@@ -38913,7 +38920,7 @@
         <v>24</v>
       </c>
       <c r="BD78" s="4">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE78" s="53" t="s">
@@ -38926,7 +38933,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="79" spans="1:59" s="4" customFormat="1" ht="45">
+    <row customFormat="1" ht="45" r="79" s="4" spans="1:59">
       <c r="A79" s="22" t="s">
         <v>248</v>
       </c>
@@ -38976,7 +38983,7 @@
         <v>24</v>
       </c>
       <c r="BD79" s="4">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE79" s="53" t="s">
@@ -38989,7 +38996,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="80" spans="1:59" s="4" customFormat="1" ht="150">
+    <row customFormat="1" ht="150" r="80" s="4" spans="1:59">
       <c r="A80" s="22" t="s">
         <v>248</v>
       </c>
@@ -39039,7 +39046,7 @@
         <v>24</v>
       </c>
       <c r="BD80" s="4">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE80" s="53" t="s">
@@ -39052,7 +39059,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="81" spans="1:59" s="4" customFormat="1" ht="60">
+    <row customFormat="1" ht="60" r="81" s="4" spans="1:59">
       <c r="A81" s="22" t="s">
         <v>248</v>
       </c>
@@ -39126,7 +39133,7 @@
         <v>24</v>
       </c>
       <c r="BD81" s="4">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE81" s="53" t="s">
@@ -39139,7 +39146,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="82" spans="1:59" s="4" customFormat="1" ht="45">
+    <row customFormat="1" ht="45" r="82" s="4" spans="1:59">
       <c r="A82" s="22" t="s">
         <v>248</v>
       </c>
@@ -39213,7 +39220,7 @@
         <v>720</v>
       </c>
       <c r="BD82" s="4">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>720</v>
       </c>
       <c r="BE82" s="56" t="s">
@@ -39226,7 +39233,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="83" spans="1:59" s="4" customFormat="1" ht="75">
+    <row customFormat="1" ht="75" r="83" s="4" spans="1:59">
       <c r="A83" s="22" t="s">
         <v>248</v>
       </c>
@@ -39288,7 +39295,7 @@
         <v>2</v>
       </c>
       <c r="BD83" s="4">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>2</v>
       </c>
       <c r="BE83" s="53" t="s">
@@ -39299,7 +39306,7 @@
       </c>
       <c r="BG83" s="1"/>
     </row>
-    <row r="84" spans="1:59" s="4" customFormat="1" ht="75">
+    <row customFormat="1" ht="75" r="84" s="4" spans="1:59">
       <c r="A84" s="22" t="s">
         <v>248</v>
       </c>
@@ -39373,7 +39380,7 @@
         <v>4</v>
       </c>
       <c r="BD84" s="4">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>4</v>
       </c>
       <c r="BE84" s="53" t="s">
@@ -39384,7 +39391,7 @@
       </c>
       <c r="BG84" s="1"/>
     </row>
-    <row r="85" spans="1:59" s="4" customFormat="1" ht="105">
+    <row customFormat="1" ht="105" r="85" s="4" spans="1:59">
       <c r="A85" s="22" t="s">
         <v>248</v>
       </c>
@@ -39458,7 +39465,7 @@
         <v>3</v>
       </c>
       <c r="BD85" s="4">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>3</v>
       </c>
       <c r="BE85" s="53" t="s">
@@ -39471,7 +39478,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="86" spans="1:59" s="4" customFormat="1" ht="60">
+    <row customFormat="1" ht="60" r="86" s="4" spans="1:59">
       <c r="A86" s="22" t="s">
         <v>248</v>
       </c>
@@ -39533,7 +39540,7 @@
         <v>24</v>
       </c>
       <c r="BD86" s="4">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>24</v>
       </c>
       <c r="BE86" s="53" t="s">
@@ -39553,17 +39560,17 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="E67:E68">
-    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
+    <cfRule dxfId="7" priority="4" type="duplicateValues"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69:E73">
-    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
+    <cfRule dxfId="6" priority="3" type="duplicateValues"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74:E80">
-    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+    <cfRule dxfId="5" priority="2" type="duplicateValues"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81:E86">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule dxfId="4" priority="1" type="duplicateValues"/>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/resources/excels/KE.xlsx
+++ b/resources/excels/KE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13400947/Projects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD9C733-063A-0448-AFA3-1EA150B5AEEF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662D1516-AB2D-374A-9EED-FE1CB3539EF9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5400" yWindow="5060" windowWidth="34080" windowHeight="10080" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1760" yWindow="5060" windowWidth="34080" windowHeight="10080" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -4302,9 +4302,6 @@
     <t>Rest API</t>
   </si>
   <si>
-    <t>WKMh2WXamTTQtIrnkrC5/l9fCYOHhSa1hOgpKvmn5xZhNHkdTo8g7gpsGKiMXb/w3AjioDsIHk34HzJaReuqYUcHmN0KtpzrDoIHQ0cD0obcoZSykDm5lk55QPMbd20Vn3ZBFMDN4F9BYfxy98fwZXs+aUvM7wF6m2qunUhETMXh6NdTHBuJKtUMH7IE46UYg9h8k7UmWW8KkVjoyNuMii7OQUy6vMr+Y8CA4XGdqvFJ7ro9d9G87RjRl2YU0JG45DWmhKrb+fz7znkk7Q3o5ON5BZMEp+CXZ3cj8FJB4N6EO5ZAt4mEHUqrT/EbzZbjOVRnkrYtjRtudTn2/lJGxLSGoSUIVwxVkOCeJIHQusqWsb5R+Jf85rTmsKp+F//RZ8VzDxhL318YW4mF+fJGFeH29eGKFcqbwSBeAjizIpjxK3O1qcayBK+W7aVcsVU/UAFui5pdaE5loXhJ3rtuPQ==</t>
-  </si>
-  <si>
     <t>OpenAPIValidToken</t>
   </si>
   <si>
@@ -4312,6 +4309,9 @@
   </si>
   <si>
     <t>OpenApiInvalidToken</t>
+  </si>
+  <si>
+    <t>WKMh2WXamTTQtIrnkrC5/l9fCYOHhSa1hOgpKvmn5xZhNHkdTo8g7gpsGKiMXb/wzyMyeDEuPteVMZqzPKSHIi9Ot1N/UVLG/zeJgu7WzzHexEEk3sJ7BXIQmgGTwhUrUfMiw9MPRA1U8e3JziZqnEV8NSsg05t6kwiXutexJu78VkzV03wKMDf91XKsNlSiu9o6UfbJNqjNQHqd59ywcwmbaOcMrdJ4QP+0Xh0PvYh8AvIxi8vXUh8Y5togPGbafm/cdiUiXOZ1MA8Av4+Ag010jnp3hVLkx+htpMfX6JMTgHWcqcr+ByvnJbLAoBa6Ko8IeM7AgZ/B2OJ6Jz4Uo4U5+4gGqm9bBNXgwOs8riKoD66yO8ZXjph6GCR7cNIS3edyeNq5F+uBIs/XUiG87qfhXBaVAzq4lMY8etYVkFz8bpjfClPCedLRt9GFGhxq2ux2V1Uaq4m7wKNlUdXsLg==</t>
   </si>
 </sst>
 </file>
@@ -24686,7 +24686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C258B5D-D110-5042-A037-8028EF599905}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -24710,20 +24710,20 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="409.6">
+    <row r="3" spans="1:2" ht="153">
       <c r="A3" s="76" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B3" s="76" t="s">
         <v>1256</v>
       </c>
-      <c r="B3" s="76" t="s">
+    </row>
+    <row r="4" spans="1:2" ht="153">
+      <c r="A4" s="76" t="s">
         <v>1257</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="409.6">
-      <c r="A4" s="76" t="s">
+      <c r="B4" s="76" t="s">
         <v>1258</v>
-      </c>
-      <c r="B4" s="76" t="s">
-        <v>1259</v>
       </c>
     </row>
   </sheetData>

--- a/resources/excels/KE.xlsx
+++ b/resources/excels/KE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13400017/AirTel Project/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706A83AB-D2F1-334B-A5C1-169B78973F3F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8740B1E2-BFA7-A542-9BC9-B45FBDECCF01}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="17520" firstSheet="3" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="17520" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -505,7 +505,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8404" uniqueCount="1268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8426" uniqueCount="1279">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -4323,12 +4323,6 @@
     <t>Field Name</t>
   </si>
   <si>
-    <t>First Category Level</t>
-  </si>
-  <si>
-    <t>Last Category Level</t>
-  </si>
-  <si>
     <t>AgentId</t>
   </si>
   <si>
@@ -4339,13 +4333,52 @@
   </si>
   <si>
     <t>Ashwani Rao</t>
+  </si>
+  <si>
+    <t>msisdn</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>First level Category</t>
+  </si>
+  <si>
+    <t>Last Level Category</t>
+  </si>
+  <si>
+    <t>Search able</t>
+  </si>
+  <si>
+    <t>userMsisdn</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>accountId</t>
+  </si>
+  <si>
+    <t>invalidMsisdn</t>
+  </si>
+  <si>
+    <t>isActive</t>
+  </si>
+  <si>
+    <t>Mandatory</t>
+  </si>
+  <si>
+    <t>Deactivate</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4490,6 +4523,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -4660,7 +4699,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -4800,6 +4839,9 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -22091,23 +22133,23 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC5170B-467B-204A-ABC2-60A1FE96A243}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C1" t="s">
         <v>1264</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1265</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1266</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -22118,7 +22160,12 @@
         <v>13221514</v>
       </c>
       <c r="C2" t="s">
-        <v>1267</v>
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="77" t="s">
+        <v>1266</v>
       </c>
     </row>
   </sheetData>
@@ -34496,7 +34543,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -34524,15 +34571,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E67B1C79-7354-524F-9D7D-1D6001793FDA}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -34542,30 +34590,174 @@
     <col min="3" max="3" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>1262</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1263</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="78" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B1" s="78" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C1" s="78" t="s">
         <v>1261</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
+      <c r="D1" s="78" t="s">
+        <v>1270</v>
+      </c>
+      <c r="E1" s="78" t="s">
+        <v>1275</v>
+      </c>
+      <c r="F1" s="78" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G1" s="78" t="s">
+        <v>1267</v>
+      </c>
+      <c r="H1" s="78" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="78">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="78">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="78" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D2" s="79" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E2" s="79" t="s">
+        <v>1272</v>
+      </c>
+      <c r="F2" s="79" t="s">
+        <v>1272</v>
+      </c>
+      <c r="G2" s="78">
+        <v>731508274</v>
+      </c>
+      <c r="H2" s="79" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="78"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D3" s="79" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E3" s="79" t="s">
+        <v>1272</v>
+      </c>
+      <c r="F3" s="79" t="s">
+        <v>1272</v>
+      </c>
+      <c r="G3" s="78">
+        <v>123456789</v>
+      </c>
+      <c r="H3" s="79" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="78">
+        <v>1</v>
+      </c>
+      <c r="B4" s="78">
+        <v>5</v>
+      </c>
+      <c r="C4" s="78" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D4" s="79" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E4" s="79" t="s">
+        <v>1272</v>
+      </c>
+      <c r="F4" s="79" t="s">
+        <v>1272</v>
+      </c>
+      <c r="G4" s="78">
+        <v>731508274</v>
+      </c>
+      <c r="H4" s="79" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="78"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78">
+        <v>123</v>
+      </c>
+      <c r="H5" s="78"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="78">
+        <v>1</v>
+      </c>
+      <c r="B6" s="78">
+        <v>5</v>
+      </c>
+      <c r="C6" s="78" t="s">
         <v>58</v>
       </c>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="78"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="79"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="78"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="79"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="78"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="78"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="78"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 

--- a/resources/excels/KE.xlsx
+++ b/resources/excels/KE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13400017/AirTel Project/cs-portal-automation_selenium/resources/excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13401002/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8740B1E2-BFA7-A542-9BC9-B45FBDECCF01}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7CA292-E51E-A442-83D3-D7A79D3DFB0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="17520" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17520" firstSheet="13" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -32765,13 +32765,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="22" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="11" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="14" customWidth="1" collapsed="1"/>
   </cols>
@@ -32983,7 +32983,7 @@
       <c r="H11" s="72"/>
       <c r="I11" s="72"/>
       <c r="J11" s="72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" s="4"/>
     </row>
@@ -34579,7 +34579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E67B1C79-7354-524F-9D7D-1D6001793FDA}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:H6"/>
     </sheetView>
   </sheetViews>

--- a/resources/excels/KE.xlsx
+++ b/resources/excels/KE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13401002/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13401405/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7CA292-E51E-A442-83D3-D7A79D3DFB0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F43ABD6-14E3-FA4E-A7EF-6E1EE07BD2D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17520" firstSheet="13" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17520" firstSheet="14" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -505,7 +505,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8426" uniqueCount="1279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8429" uniqueCount="1282">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -4373,12 +4373,21 @@
   <si>
     <t>No</t>
   </si>
+  <si>
+    <t>Last Data Bundle Recharge Amount in 2 months</t>
+  </si>
+  <si>
+    <t>LAST_DATA_BUNDLE_RECHARGE_AMOUNT</t>
+  </si>
+  <si>
+    <t>Last Data Bundle Recharge Amount in 2 months (Mandatory)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4528,6 +4537,12 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -4699,7 +4714,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -4842,6 +4857,12 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -32663,8 +32684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -32754,6 +32775,9 @@
       <c r="I2" s="29" t="s">
         <v>900</v>
       </c>
+      <c r="J2" s="29" t="s">
+        <v>1281</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32765,7 +32789,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
@@ -33029,10 +33053,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -33201,6 +33225,15 @@
       <c r="C15" s="39" t="s">
         <v>1203</v>
       </c>
+    </row>
+    <row r="16" spans="1:3" ht="34">
+      <c r="A16" s="80" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B16" s="80" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C16" s="81"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/excels/KE.xlsx
+++ b/resources/excels/KE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13401405/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13221514/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E23FB8E-4608-C94D-B3AB-E0735FE8DD77}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91963D9A-D1D1-B54E-8ED1-AEF888D0BE83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17520" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -44,10 +44,20 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'NFTRTickets-Reg'!$A$1:$BF$45</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'NFTRTickets-Reg1'!$A$1:$BG$86</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -4302,9 +4312,6 @@
     <t>OpenApiInvalidToken</t>
   </si>
   <si>
-    <t>WKMh2WXamTTQtIrnkrC5/l9fCYOHhSa1hOgpKvmn5xZhNHkdTo8g7gpsGKiMXb/wzyMyeDEuPteVMZqzPKSHIi9Ot1N/UVLG/zeJgu7WzzHexEEk3sJ7BXIQmgGTwhUrUfMiw9MPRA1U8e3JziZqnEV8NSsg05t6kwiXutexJu78VkzV03wKMDf91XKsNlSiu9o6UfbJNqjNQHqd59ywcwmbaOcMrdJ4QP+0Xh0PvYh8AvIxi8vXUh8Y5togPGbafm/cdiUiXOZ1MA8Av4+Ag010jnp3hVLkx+htpMfX6JMTgHWcqcr+ByvnJbLAoBa6Ko8IeM7AgZ/B2OJ6Jz4Uo4U5+4gGqm9bBNXgwOs8riKoD66yO8ZXjph6GCR7cNIS3edyeNq5F+uBIs/XUiG87qfhXBaVAzq4lMY8etYVkFz8bpjfClPCedLRt9GFGhxq2ux2V1Uaq4m7wKNlUdXsLg==</t>
-  </si>
-  <si>
     <t>customerMsisdn</t>
   </si>
   <si>
@@ -4381,6 +4388,9 @@
   </si>
   <si>
     <t>Loan Paid</t>
+  </si>
+  <si>
+    <t>WKMh2WXamTTQtIrnkrC5/l9fCYOHhSa1hOgpKvmn5xZhNHkdTo8g7gpsGKiMXb/w3AjioDsIHk34HzJaReuqYUcHmN0KtpzrDoIHQ0cD0obcoZSykDm5lk55QPMbd20Vn3ZBFMDN4F9BYfxy98fwZXs+aUvM7wF6m2qunUhETMXh6NdTHBuJKtUMH7IE46UYg9h8k7UmWW8KkVjoyNuMii7OQUy6vMr+Y8CA4XGdqvFJ7ro9d9G87RjRl2YU0JG45DWmhKrb+fz7znkk7Q3o5ON5BZMEp+CXZ3cj8FJB4N6EO5ZAt4mEHUqrT/EbzZbjOVRnkrYtjRtudTn2/lJGxLSGoSUIVwxVkOCeJIHQusqWsb5R+Jf85rTmsKp+F//RZ8VzDxhL318YW4mF+fJGFeH29eGKFcqbwSBeAjizIpjxK3O1qcayBK+W7aVcsVU/UAFui5pdaE5loXhJ3rtuPQ==</t>
   </si>
 </sst>
 </file>
@@ -15540,7 +15550,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:BF130" xr:uid="{00000000-0009-0000-0000-000007000000}">
-    <sortState ref="A2:BG130">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BG130">
       <sortCondition ref="E1:E130"/>
     </sortState>
   </autoFilter>
@@ -22155,7 +22165,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:BG86" xr:uid="{00000000-0009-0000-0000-000008000000}">
-    <sortState ref="A2:BG130">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BG130">
       <sortCondition ref="E1:E130"/>
     </sortState>
   </autoFilter>
@@ -22187,13 +22197,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B1" t="s">
         <v>1258</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1259</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1260</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -22204,12 +22214,12 @@
         <v>13221514</v>
       </c>
       <c r="C2" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="77" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
   </sheetData>
@@ -32799,7 +32809,7 @@
         <v>900</v>
       </c>
       <c r="J2" s="29" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
   </sheetData>
@@ -33251,10 +33261,10 @@
     </row>
     <row r="16" spans="1:3" ht="34">
       <c r="A16" s="80" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B16" s="80" t="s">
         <v>1275</v>
-      </c>
-      <c r="B16" s="80" t="s">
-        <v>1276</v>
       </c>
       <c r="C16" s="81"/>
     </row>
@@ -33821,7 +33831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11:G11"/>
     </sheetView>
   </sheetViews>
@@ -34132,19 +34142,19 @@
         <v>954</v>
       </c>
       <c r="B11" s="82" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C11" s="83" t="s">
         <v>1278</v>
       </c>
-      <c r="C11" s="83" t="s">
+      <c r="D11" s="84" t="s">
         <v>1279</v>
-      </c>
-      <c r="D11" s="84" t="s">
-        <v>1280</v>
       </c>
       <c r="E11" s="82" t="s">
         <v>955</v>
       </c>
       <c r="F11" s="83" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="G11" s="83" t="s">
         <v>969</v>
@@ -34550,8 +34560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C258B5D-D110-5042-A037-8028EF599905}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -34576,7 +34586,7 @@
     </row>
     <row r="3" spans="1:2" ht="153">
       <c r="A3" s="76" t="s">
-        <v>1255</v>
+        <v>1281</v>
       </c>
       <c r="B3" s="76" t="s">
         <v>1252</v>
@@ -34615,7 +34625,7 @@
         <v>987</v>
       </c>
       <c r="B1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="4" customFormat="1"/>
@@ -34624,7 +34634,7 @@
         <v>767240995</v>
       </c>
       <c r="B3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
   </sheetData>
@@ -34650,28 +34660,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="78" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B1" s="78" t="s">
         <v>1264</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="C1" s="78" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D1" s="78" t="s">
         <v>1265</v>
       </c>
-      <c r="C1" s="78" t="s">
-        <v>1257</v>
-      </c>
-      <c r="D1" s="78" t="s">
-        <v>1266</v>
-      </c>
       <c r="E1" s="78" t="s">
+        <v>1270</v>
+      </c>
+      <c r="F1" s="78" t="s">
         <v>1271</v>
       </c>
-      <c r="F1" s="78" t="s">
+      <c r="G1" s="78" t="s">
+        <v>1262</v>
+      </c>
+      <c r="H1" s="78" t="s">
         <v>1272</v>
-      </c>
-      <c r="G1" s="78" t="s">
-        <v>1263</v>
-      </c>
-      <c r="H1" s="78" t="s">
-        <v>1273</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -34682,38 +34692,38 @@
         <v>5</v>
       </c>
       <c r="C2" s="78" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D2" s="79" t="s">
         <v>1267</v>
       </c>
-      <c r="D2" s="79" t="s">
-        <v>1268</v>
-      </c>
       <c r="E2" s="79" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="F2" s="79" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="G2" s="78">
         <v>731508274</v>
       </c>
       <c r="H2" s="79" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="78"/>
       <c r="B3" s="78"/>
       <c r="C3" s="78" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="D3" s="79" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="E3" s="79" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="F3" s="79" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="G3" s="78">
         <v>123456789</v>
@@ -34730,29 +34740,29 @@
         <v>5</v>
       </c>
       <c r="C4" s="78" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="D4" s="79" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="E4" s="79" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="F4" s="79" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="G4" s="78">
         <v>731508274</v>
       </c>
       <c r="H4" s="79" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="78"/>
       <c r="B5" s="78"/>
       <c r="C5" s="78" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="D5" s="78"/>
       <c r="E5" s="78"/>

--- a/resources/excels/KE.xlsx
+++ b/resources/excels/KE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13221514/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91963D9A-D1D1-B54E-8ED1-AEF888D0BE83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B723115-C68D-A545-B666-89399EC1AF1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17520" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17520" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -515,7 +515,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8430" uniqueCount="1282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8424" uniqueCount="1286">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -4392,12 +4392,24 @@
   <si>
     <t>WKMh2WXamTTQtIrnkrC5/l9fCYOHhSa1hOgpKvmn5xZhNHkdTo8g7gpsGKiMXb/w3AjioDsIHk34HzJaReuqYUcHmN0KtpzrDoIHQ0cD0obcoZSykDm5lk55QPMbd20Vn3ZBFMDN4F9BYfxy98fwZXs+aUvM7wF6m2qunUhETMXh6NdTHBuJKtUMH7IE46UYg9h8k7UmWW8KkVjoyNuMii7OQUy6vMr+Y8CA4XGdqvFJ7ro9d9G87RjRl2YU0JG45DWmhKrb+fz7znkk7Q3o5ON5BZMEp+CXZ3cj8FJB4N6EO5ZAt4mEHUqrT/EbzZbjOVRnkrYtjRtudTn2/lJGxLSGoSUIVwxVkOCeJIHQusqWsb5R+Jf85rTmsKp+F//RZ8VzDxhL318YW4mF+fJGFeH29eGKFcqbwSBeAjizIpjxK3O1qcayBK+W7aVcsVU/UAFui5pdaE5loXhJ3rtuPQ==</t>
   </si>
+  <si>
+    <t>Account No</t>
+  </si>
+  <si>
+    <t>Amount(KES)</t>
+  </si>
+  <si>
+    <t>Select Reason</t>
+  </si>
+  <si>
+    <t>select</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4561,6 +4573,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0451A5"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -4744,7 +4762,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -4896,6 +4914,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -34560,7 +34579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C258B5D-D110-5042-A037-8028EF599905}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -34833,8 +34852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BC2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AZ7" sqref="AZ7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -35050,7 +35069,7 @@
         <v>60</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>1282</v>
       </c>
       <c r="G2" t="s">
         <v>53</v>
@@ -35058,8 +35077,8 @@
       <c r="H2" t="s">
         <v>54</v>
       </c>
-      <c r="I2" t="s">
-        <v>70</v>
+      <c r="I2" s="85" t="s">
+        <v>1283</v>
       </c>
       <c r="J2" t="s">
         <v>56</v>
@@ -35068,30 +35087,12 @@
         <v>55</v>
       </c>
       <c r="L2" t="s">
-        <v>71</v>
+        <v>1284</v>
       </c>
       <c r="M2" t="s">
-        <v>53</v>
+        <v>1285</v>
       </c>
       <c r="N2" t="s">
-        <v>54</v>
-      </c>
-      <c r="O2" t="s">
-        <v>72</v>
-      </c>
-      <c r="P2" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>54</v>
-      </c>
-      <c r="R2" t="s">
-        <v>73</v>
-      </c>
-      <c r="S2" t="s">
-        <v>53</v>
-      </c>
-      <c r="T2" t="s">
         <v>54</v>
       </c>
       <c r="AI2" s="4"/>

--- a/resources/excels/KE.xlsx
+++ b/resources/excels/KE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13401405/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9EB6E3D-061B-3B4C-9184-3A7391A3F242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3103625C-8229-0841-8558-0994DBDE730E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20400" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20400" firstSheet="15" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -4788,7 +4788,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -4951,6 +4951,8 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -33830,10 +33832,10 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -33844,13 +33846,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="92" t="s">
         <v>875</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="92" t="s">
         <v>876</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="92" t="s">
         <v>1116</v>
       </c>
     </row>
@@ -33875,6 +33877,11 @@
       <c r="C3" s="1" t="b">
         <v>1</v>
       </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="93"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34888,7 +34895,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BC2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="AQ1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="BC2" sqref="BC2"/>
     </sheetView>
   </sheetViews>

--- a/resources/excels/KE.xlsx
+++ b/resources/excels/KE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13401405/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3103625C-8229-0841-8558-0994DBDE730E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85DFCEE4-0DC5-1F44-8E31-311A3DB2D1D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20400" firstSheet="15" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20380" firstSheet="15" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -33835,14 +33835,15 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C3" sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="23.1640625" style="3" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="24.1640625" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9" style="3" collapsed="1"/>
+    <col min="3" max="3" width="14.5" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">

--- a/resources/excels/KE.xlsx
+++ b/resources/excels/KE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13401405/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85DFCEE4-0DC5-1F44-8E31-311A3DB2D1D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D610D64-B3E7-694A-9126-4025D17F7766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20380" firstSheet="15" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20380" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -4415,7 +4415,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4592,6 +4592,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Tondo-regular"/>
     </font>
   </fonts>
   <fills count="10">
@@ -4940,9 +4945,6 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -4953,6 +4955,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -24868,7 +24871,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="89" t="s">
         <v>119</v>
       </c>
       <c r="B4" t="s">
@@ -33834,7 +33837,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
@@ -33847,13 +33850,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="91" t="s">
         <v>875</v>
       </c>
-      <c r="B1" s="92" t="s">
+      <c r="B1" s="91" t="s">
         <v>876</v>
       </c>
-      <c r="C1" s="92" t="s">
+      <c r="C1" s="91" t="s">
         <v>1116</v>
       </c>
     </row>
@@ -33880,9 +33883,9 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="93"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
+      <c r="A4" s="92"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34896,7 +34899,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BC2"/>
   <sheetViews>
-    <sheetView topLeftCell="AQ1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AN1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="BC2" sqref="BC2"/>
     </sheetView>
   </sheetViews>
@@ -35162,8 +35165,8 @@
       <c r="BB2" t="s">
         <v>106</v>
       </c>
-      <c r="BC2" s="85">
-        <v>190422006887</v>
+      <c r="BC2" s="93">
+        <v>220422006896</v>
       </c>
     </row>
   </sheetData>
@@ -37463,7 +37466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H131"/>
   <sheetViews>
-    <sheetView topLeftCell="A110" workbookViewId="0">
+    <sheetView topLeftCell="A94" workbookViewId="0">
       <selection activeCell="D131" sqref="D131"/>
     </sheetView>
   </sheetViews>
@@ -40061,13 +40064,13 @@
       </c>
     </row>
     <row r="130" spans="1:8">
-      <c r="A130" s="86" t="s">
+      <c r="A130" s="85" t="s">
         <v>571</v>
       </c>
-      <c r="D130" s="87" t="s">
+      <c r="D130" s="86" t="s">
         <v>1002</v>
       </c>
-      <c r="E130" s="87" t="s">
+      <c r="E130" s="86" t="s">
         <v>1103</v>
       </c>
       <c r="F130" s="3" t="s">
@@ -40084,18 +40087,18 @@
       <c r="A131" s="21" t="s">
         <v>1284</v>
       </c>
-      <c r="B131" s="91"/>
-      <c r="C131" s="91"/>
-      <c r="D131" s="88" t="s">
+      <c r="B131" s="90"/>
+      <c r="C131" s="90"/>
+      <c r="D131" s="87" t="s">
         <v>1285</v>
       </c>
-      <c r="E131" s="89" t="s">
+      <c r="E131" s="88" t="s">
         <v>1285</v>
       </c>
-      <c r="F131" s="90" t="s">
+      <c r="F131" s="89" t="s">
         <v>89</v>
       </c>
-      <c r="G131" s="90" t="s">
+      <c r="G131" s="89" t="s">
         <v>114</v>
       </c>
       <c r="H131" s="1">

--- a/resources/excels/KE.xlsx
+++ b/resources/excels/KE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13401405/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D610D64-B3E7-694A-9126-4025D17F7766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D9493B-7550-3D47-B688-9A1688CF0519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20380" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20380" firstSheet="16" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -4793,7 +4793,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -4954,7 +4954,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="8">
@@ -33835,10 +33834,10 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="A1:C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -33881,11 +33880,6 @@
       <c r="C3" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="92"/>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34899,7 +34893,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BC2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="AN1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="BC2" sqref="BC2"/>
     </sheetView>
   </sheetViews>
@@ -35165,7 +35159,7 @@
       <c r="BB2" t="s">
         <v>106</v>
       </c>
-      <c r="BC2" s="93">
+      <c r="BC2" s="92">
         <v>220422006896</v>
       </c>
     </row>

--- a/resources/excels/KE.xlsx
+++ b/resources/excels/KE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13401405/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13221514/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FAA474E-D115-374D-BFD4-BE48319EA35D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689E9B7C-27CA-FF45-B5FE-2988B8612261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20380" firstSheet="11" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20380" firstSheet="15" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -84,12 +84,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-This column represent the customer VIP or not. For which customer ticket is created that customer VIP status will store.</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This column represent the customer VIP or not. For which customer ticket is created that customer VIP status will store.</t>
         </r>
       </text>
     </comment>
@@ -515,7 +524,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8427" uniqueCount="1287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8420" uniqueCount="1287">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -4387,18 +4396,6 @@
     <t>WKMh2WXamTTQtIrnkrC5/l9fCYOHhSa1hOgpKvmn5xZhNHkdTo8g7gpsGKiMXb/w3AjioDsIHk34HzJaReuqYUcHmN0KtpzrDoIHQ0cD0obcoZSykDm5lk55QPMbd20Vn3ZBFMDN4F9BYfxy98fwZXs+aUvM7wF6m2qunUhETMXh6NdTHBuJKtUMH7IE46UYg9h8k7UmWW8KkVjoyNuMii7OQUy6vMr+Y8CA4XGdqvFJ7ro9d9G87RjRl2YU0JG45DWmhKrb+fz7znkk7Q3o5ON5BZMEp+CXZ3cj8FJB4N6EO5ZAt4mEHUqrT/EbzZbjOVRnkrYtjRtudTn2/lJGxLSGoSUIVwxVkOCeJIHQusqWsb5R+Jf85rTmsKp+F//RZ8VzDxhL318YW4mF+fJGFeH29eGKFcqbwSBeAjizIpjxK3O1qcayBK+W7aVcsVU/UAFui5pdaE5loXhJ3rtuPQ==</t>
   </si>
   <si>
-    <t>Account No</t>
-  </si>
-  <si>
-    <t>Amount(KES)</t>
-  </si>
-  <si>
-    <t>Select Reason</t>
-  </si>
-  <si>
-    <t>select</t>
-  </si>
-  <si>
     <t>Auto01</t>
   </si>
   <si>
@@ -4406,6 +4403,18 @@
   </si>
   <si>
     <t>Transferred to Airtel Money</t>
+  </si>
+  <si>
+    <t>Service request</t>
+  </si>
+  <si>
+    <t>CS Automation NFTR</t>
+  </si>
+  <si>
+    <t>Ignore this category code</t>
+  </si>
+  <si>
+    <t>Do not close this ticket</t>
   </si>
 </sst>
 </file>
@@ -4415,7 +4424,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="32">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4598,6 +4607,25 @@
       <color theme="1"/>
       <name val="Tondo-regular"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF172B4D"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -4655,7 +4683,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -4776,6 +4804,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4793,7 +4832,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -4956,6 +4995,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5998,7 +6045,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:BF130"/>
   <sheetViews>
-    <sheetView topLeftCell="AV1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="L11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
@@ -15635,7 +15682,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:BG86"/>
   <sheetViews>
-    <sheetView topLeftCell="A146" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="BJ5" sqref="BJ5"/>
     </sheetView>
   </sheetViews>
@@ -24915,7 +24962,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="25" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>114</v>
@@ -25117,7 +25164,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
@@ -32882,7 +32929,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -33839,7 +33886,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
@@ -34896,8 +34943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BC2"/>
   <sheetViews>
-    <sheetView topLeftCell="AJ1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BC2" sqref="BC2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -35099,47 +35146,21 @@
     </row>
     <row r="2" spans="1:55" ht="19" customHeight="1">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>1283</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>1284</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>1285</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" t="s">
+        <v>1286</v>
+      </c>
+      <c r="E2" s="94" t="s">
         <v>1280</v>
       </c>
-      <c r="G2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I2" s="84" t="s">
-        <v>1281</v>
-      </c>
-      <c r="J2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K2" t="s">
-        <v>55</v>
-      </c>
-      <c r="L2" t="s">
-        <v>1282</v>
-      </c>
-      <c r="M2" t="s">
-        <v>1283</v>
-      </c>
-      <c r="N2" t="s">
-        <v>54</v>
-      </c>
+      <c r="I2" s="84"/>
       <c r="AI2" s="3"/>
       <c r="AV2" s="3" t="s">
         <v>1231</v>
@@ -35175,10 +35196,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:R130"/>
+  <dimension ref="A1:R131"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView topLeftCell="A104" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A131" sqref="A131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -37440,6 +37461,23 @@
         <v>1</v>
       </c>
     </row>
+    <row r="131" spans="1:18">
+      <c r="A131" s="95" t="s">
+        <v>1280</v>
+      </c>
+      <c r="I131" s="96" t="s">
+        <v>1281</v>
+      </c>
+      <c r="J131" s="97">
+        <v>0.6</v>
+      </c>
+      <c r="Q131" s="97">
+        <v>0.6</v>
+      </c>
+      <c r="R131" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A111:A112">
     <cfRule type="duplicateValues" dxfId="19" priority="4"/>
@@ -37450,7 +37488,7 @@
   <conditionalFormatting sqref="A118:A124">
     <cfRule type="duplicateValues" dxfId="17" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A125:A130">
+  <conditionalFormatting sqref="A125:A131">
     <cfRule type="duplicateValues" dxfId="16" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -37463,8 +37501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H131"/>
   <sheetViews>
-    <sheetView topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="A131" sqref="A131:H131"/>
+    <sheetView topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="A131" sqref="A131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -40080,20 +40118,20 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" ht="18">
       <c r="A131" s="21" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="B131" s="90"/>
       <c r="C131" s="90"/>
       <c r="D131" s="87" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="E131" s="88" t="s">
-        <v>1285</v>
-      </c>
-      <c r="F131" s="89" t="s">
-        <v>89</v>
+        <v>1281</v>
+      </c>
+      <c r="F131" s="94" t="s">
+        <v>179</v>
       </c>
       <c r="G131" s="89" t="s">
         <v>114</v>

--- a/resources/excels/KE.xlsx
+++ b/resources/excels/KE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13221514/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13401405/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689E9B7C-27CA-FF45-B5FE-2988B8612261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81537E23-2846-8B4E-AC6C-EC3264F3FEA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20380" firstSheet="15" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" firstSheet="15" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -524,7 +524,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8420" uniqueCount="1287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8417" uniqueCount="1284">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -4372,15 +4372,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>Last Data Bundle Recharge Amount in 2 months</t>
-  </si>
-  <si>
-    <t>LAST_DATA_BUNDLE_RECHARGE_AMOUNT</t>
-  </si>
-  <si>
-    <t>Last Data Bundle Recharge Amount in 2 months (Mandatory)</t>
-  </si>
-  <si>
     <t>Loan ID</t>
   </si>
   <si>
@@ -4424,7 +4415,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="31">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4574,12 +4565,6 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Helvetica"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
     <font>
@@ -4832,7 +4817,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -4974,28 +4959,22 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -24918,7 +24897,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="87" t="s">
         <v>119</v>
       </c>
       <c r="B4" t="s">
@@ -24962,7 +24941,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="25" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>114</v>
@@ -32825,7 +32804,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -32915,9 +32894,6 @@
       <c r="I2" s="28" t="s">
         <v>899</v>
       </c>
-      <c r="J2" s="28" t="s">
-        <v>1274</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32930,7 +32906,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -33006,7 +32982,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="93">
+      <c r="H3" s="91">
         <v>2501500730768</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -33149,7 +33125,7 @@
       <c r="H11" s="71"/>
       <c r="I11" s="71"/>
       <c r="J11" s="71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="3"/>
     </row>
@@ -33195,10 +33171,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -33367,15 +33343,6 @@
       <c r="C15" s="38" t="s">
         <v>1198</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="34">
-      <c r="A16" s="79" t="s">
-        <v>1272</v>
-      </c>
-      <c r="B16" s="79" t="s">
-        <v>1273</v>
-      </c>
-      <c r="C16" s="80"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -33899,13 +33866,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="89" t="s">
         <v>875</v>
       </c>
-      <c r="B1" s="91" t="s">
+      <c r="B1" s="89" t="s">
         <v>876</v>
       </c>
-      <c r="C1" s="91" t="s">
+      <c r="C1" s="89" t="s">
         <v>1116</v>
       </c>
     </row>
@@ -34251,22 +34218,22 @@
       <c r="A11" s="37" t="s">
         <v>953</v>
       </c>
-      <c r="B11" s="81" t="s">
+      <c r="B11" s="79" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C11" s="80" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D11" s="81" t="s">
+        <v>1274</v>
+      </c>
+      <c r="E11" s="79" t="s">
+        <v>954</v>
+      </c>
+      <c r="F11" s="80" t="s">
         <v>1275</v>
       </c>
-      <c r="C11" s="82" t="s">
-        <v>1276</v>
-      </c>
-      <c r="D11" s="83" t="s">
-        <v>1277</v>
-      </c>
-      <c r="E11" s="81" t="s">
-        <v>954</v>
-      </c>
-      <c r="F11" s="82" t="s">
-        <v>1278</v>
-      </c>
-      <c r="G11" s="82" t="s">
+      <c r="G11" s="80" t="s">
         <v>968</v>
       </c>
       <c r="H11" s="1"/>
@@ -34696,7 +34663,7 @@
     </row>
     <row r="3" spans="1:2" ht="153">
       <c r="A3" s="75" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="B3" s="75" t="s">
         <v>1250</v>
@@ -35146,21 +35113,21 @@
     </row>
     <row r="2" spans="1:55" ht="19" customHeight="1">
       <c r="A2" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D2" t="s">
         <v>1283</v>
       </c>
-      <c r="B2" t="s">
-        <v>1284</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1285</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1286</v>
-      </c>
-      <c r="E2" s="94" t="s">
-        <v>1280</v>
-      </c>
-      <c r="I2" s="84"/>
+      <c r="E2" s="92" t="s">
+        <v>1277</v>
+      </c>
+      <c r="I2" s="82"/>
       <c r="AI2" s="3"/>
       <c r="AV2" s="3" t="s">
         <v>1231</v>
@@ -35183,7 +35150,7 @@
       <c r="BB2" t="s">
         <v>106</v>
       </c>
-      <c r="BC2" s="92">
+      <c r="BC2" s="90">
         <v>220422006896</v>
       </c>
     </row>
@@ -37462,16 +37429,16 @@
       </c>
     </row>
     <row r="131" spans="1:18">
-      <c r="A131" s="95" t="s">
-        <v>1280</v>
-      </c>
-      <c r="I131" s="96" t="s">
-        <v>1281</v>
-      </c>
-      <c r="J131" s="97">
+      <c r="A131" s="93" t="s">
+        <v>1277</v>
+      </c>
+      <c r="I131" s="94" t="s">
+        <v>1278</v>
+      </c>
+      <c r="J131" s="95">
         <v>0.6</v>
       </c>
-      <c r="Q131" s="97">
+      <c r="Q131" s="95">
         <v>0.6</v>
       </c>
       <c r="R131" s="3" t="b">
@@ -40099,13 +40066,13 @@
       </c>
     </row>
     <row r="130" spans="1:8">
-      <c r="A130" s="85" t="s">
+      <c r="A130" s="83" t="s">
         <v>571</v>
       </c>
-      <c r="D130" s="86" t="s">
+      <c r="D130" s="84" t="s">
         <v>1002</v>
       </c>
-      <c r="E130" s="86" t="s">
+      <c r="E130" s="84" t="s">
         <v>1103</v>
       </c>
       <c r="F130" s="3" t="s">
@@ -40120,20 +40087,20 @@
     </row>
     <row r="131" spans="1:8" ht="18">
       <c r="A131" s="21" t="s">
-        <v>1280</v>
-      </c>
-      <c r="B131" s="90"/>
-      <c r="C131" s="90"/>
-      <c r="D131" s="87" t="s">
-        <v>1281</v>
-      </c>
-      <c r="E131" s="88" t="s">
-        <v>1281</v>
-      </c>
-      <c r="F131" s="94" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B131" s="88"/>
+      <c r="C131" s="88"/>
+      <c r="D131" s="85" t="s">
+        <v>1278</v>
+      </c>
+      <c r="E131" s="86" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F131" s="92" t="s">
         <v>179</v>
       </c>
-      <c r="G131" s="89" t="s">
+      <c r="G131" s="87" t="s">
         <v>114</v>
       </c>
       <c r="H131" s="1">
